--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">epo:Lot / epo:ContractTerm / epo:Period / xsd:datetime</t>
   </si>
   <si>
-    <t xml:space="preserve">?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / epo:hasBeginning ?value .</t>
+    <t xml:space="preserve">?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / time:hasBeginning ?value .</t>
   </si>
   <si>
     <t xml:space="preserve">II.2.7.3</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/DATE_END</t>
   </si>
   <si>
-    <t xml:space="preserve">?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / epo:hasEnd ?value .</t>
+    <t xml:space="preserve">?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / time:hasEnd ?value .</t>
   </si>
   <si>
     <t xml:space="preserve">II.2.13</t>
@@ -4727,7 +4727,7 @@
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4827,12 +4827,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5042,7 +5036,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5323,10 +5317,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5391,7 +5381,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5403,7 +5393,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5415,7 +5405,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5427,7 +5417,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5467,7 +5457,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5479,7 +5469,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5605,7 +5595,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.38"/>
@@ -8700,14 +8690,14 @@
   <dimension ref="A1:Z236"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="L81" activeCellId="0" sqref="L81"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.26"/>
@@ -10600,7 +10590,7 @@
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="53" t="s">
         <v>318</v>
       </c>
@@ -10634,7 +10624,7 @@
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="53" t="s">
         <v>325</v>
       </c>
@@ -11333,7 +11323,7 @@
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="70" t="s">
+      <c r="K82" s="19" t="s">
         <v>426</v>
       </c>
       <c r="L82" s="19"/>
@@ -11402,7 +11392,7 @@
       <c r="A85" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="B85" s="71"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="40"/>
       <c r="D85" s="3"/>
       <c r="E85" s="40" t="s">
@@ -11467,12 +11457,12 @@
       <c r="B87" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="73" t="s">
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="F87" s="72"/>
+      <c r="F87" s="71"/>
       <c r="G87" s="10" t="s">
         <v>442</v>
       </c>
@@ -11603,7 +11593,7 @@
       <c r="B93" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="73" t="s">
         <v>470</v>
       </c>
       <c r="D93" s="40"/>
@@ -11658,7 +11648,7 @@
       <c r="G95" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H95" s="75" t="s">
+      <c r="H95" s="74" t="s">
         <v>478</v>
       </c>
       <c r="I95" s="3"/>
@@ -11684,7 +11674,7 @@
       <c r="G96" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H96" s="76" t="s">
+      <c r="H96" s="75" t="s">
         <v>481</v>
       </c>
       <c r="I96" s="3"/>
@@ -11894,7 +11884,7 @@
       <c r="G104" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="H104" s="76" t="s">
+      <c r="H104" s="75" t="s">
         <v>506</v>
       </c>
       <c r="I104" s="3"/>
@@ -11946,7 +11936,7 @@
       <c r="G106" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H106" s="77" t="s">
+      <c r="H106" s="76" t="s">
         <v>516</v>
       </c>
       <c r="I106" s="3"/>
@@ -12099,7 +12089,7 @@
       <c r="B113" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="78" t="s">
+      <c r="C113" s="77" t="s">
         <v>548</v>
       </c>
       <c r="D113" s="48"/>
@@ -12143,7 +12133,7 @@
       <c r="J114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="79" t="s">
+      <c r="A115" s="78" t="s">
         <v>558</v>
       </c>
       <c r="B115" s="24" t="s">
@@ -12171,14 +12161,14 @@
       <c r="D116" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E116" s="80" t="s">
+      <c r="E116" s="79" t="s">
         <v>561</v>
       </c>
-      <c r="F116" s="80"/>
-      <c r="G116" s="81" t="s">
+      <c r="F116" s="79"/>
+      <c r="G116" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="H116" s="82" t="s">
+      <c r="H116" s="81" t="s">
         <v>562</v>
       </c>
       <c r="I116" s="3"/>
@@ -12195,8 +12185,8 @@
         <v>405</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="82"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -12209,7 +12199,7 @@
       <c r="B118" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="C118" s="84" t="s">
+      <c r="C118" s="83" t="s">
         <v>405</v>
       </c>
       <c r="D118" s="3"/>
@@ -12467,10 +12457,10 @@
       <c r="B128" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="C128" s="84" t="s">
+      <c r="C128" s="83" t="s">
         <v>405</v>
       </c>
-      <c r="D128" s="85"/>
+      <c r="D128" s="84"/>
       <c r="E128" s="3" t="s">
         <v>567</v>
       </c>
@@ -12478,7 +12468,7 @@
       <c r="G128" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="H128" s="86" t="s">
+      <c r="H128" s="85" t="s">
         <v>569</v>
       </c>
       <c r="I128" s="3"/>
@@ -12735,10 +12725,10 @@
         <v>615</v>
       </c>
       <c r="F138" s="10"/>
-      <c r="G138" s="81" t="s">
+      <c r="G138" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="H138" s="82" t="s">
+      <c r="H138" s="81" t="s">
         <v>617</v>
       </c>
       <c r="I138" s="3"/>
@@ -13013,14 +13003,14 @@
       <c r="D149" s="40" t="s">
         <v>642</v>
       </c>
-      <c r="E149" s="87" t="s">
+      <c r="E149" s="86" t="s">
         <v>643</v>
       </c>
-      <c r="F149" s="87"/>
-      <c r="G149" s="88" t="s">
+      <c r="F149" s="86"/>
+      <c r="G149" s="87" t="s">
         <v>644</v>
       </c>
-      <c r="H149" s="88" t="s">
+      <c r="H149" s="87" t="s">
         <v>645</v>
       </c>
       <c r="I149" s="3"/>
@@ -13062,7 +13052,7 @@
       <c r="G151" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="H151" s="89" t="s">
+      <c r="H151" s="88" t="s">
         <v>653</v>
       </c>
       <c r="I151" s="3"/>
@@ -13124,7 +13114,7 @@
       <c r="G154" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="H154" s="89" t="s">
+      <c r="H154" s="88" t="s">
         <v>663</v>
       </c>
       <c r="I154" s="3"/>
@@ -13146,7 +13136,7 @@
       <c r="G155" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="H155" s="90" t="s">
+      <c r="H155" s="89" t="s">
         <v>667</v>
       </c>
       <c r="I155" s="3"/>
@@ -13166,12 +13156,12 @@
       <c r="G156" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="H156" s="90" t="s">
+      <c r="H156" s="89" t="s">
         <v>670</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="91" t="s">
+      <c r="K156" s="90" t="s">
         <v>671</v>
       </c>
     </row>
@@ -13200,7 +13190,7 @@
       <c r="B158" s="47" t="s">
         <v>675</v>
       </c>
-      <c r="C158" s="92" t="s">
+      <c r="C158" s="91" t="s">
         <v>423</v>
       </c>
       <c r="D158" s="48"/>
@@ -13211,7 +13201,7 @@
       <c r="G158" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="H158" s="89" t="s">
+      <c r="H158" s="88" t="s">
         <v>677</v>
       </c>
       <c r="I158" s="3"/>
@@ -13248,7 +13238,7 @@
       <c r="D160" s="48" t="s">
         <v>683</v>
       </c>
-      <c r="E160" s="93" t="s">
+      <c r="E160" s="92" t="s">
         <v>684</v>
       </c>
       <c r="F160" s="48"/>
@@ -13262,382 +13252,382 @@
       <c r="J160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="94"/>
+      <c r="A161" s="93"/>
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="94"/>
+      <c r="A162" s="93"/>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="94"/>
+      <c r="A163" s="93"/>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="94"/>
+      <c r="A164" s="93"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="94"/>
+      <c r="A165" s="93"/>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="94"/>
+      <c r="A166" s="93"/>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="94"/>
+      <c r="A167" s="93"/>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="94"/>
+      <c r="A168" s="93"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="94"/>
+      <c r="A169" s="93"/>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="94"/>
+      <c r="A170" s="93"/>
       <c r="G170" s="19"/>
       <c r="H170" s="19"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="94"/>
+      <c r="A171" s="93"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="94"/>
+      <c r="A172" s="93"/>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="94"/>
+      <c r="A173" s="93"/>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="94"/>
+      <c r="A174" s="93"/>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="94"/>
+      <c r="A175" s="93"/>
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="94"/>
+      <c r="A176" s="93"/>
       <c r="G176" s="19"/>
       <c r="H176" s="19"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="94"/>
+      <c r="A177" s="93"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="94"/>
+      <c r="A178" s="93"/>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="94"/>
+      <c r="A179" s="93"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="94"/>
+      <c r="A180" s="93"/>
       <c r="G180" s="19"/>
       <c r="H180" s="19"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="94"/>
+      <c r="A181" s="93"/>
       <c r="G181" s="19"/>
       <c r="H181" s="19"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="94"/>
+      <c r="A182" s="93"/>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="94"/>
+      <c r="A183" s="93"/>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="94"/>
+      <c r="A184" s="93"/>
       <c r="G184" s="19"/>
       <c r="H184" s="19"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="94"/>
+      <c r="A185" s="93"/>
       <c r="G185" s="19"/>
       <c r="H185" s="19"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="94"/>
+      <c r="A186" s="93"/>
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="94"/>
+      <c r="A187" s="93"/>
       <c r="G187" s="19"/>
       <c r="H187" s="19"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="94"/>
+      <c r="A188" s="93"/>
       <c r="G188" s="19"/>
       <c r="H188" s="19"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="94"/>
+      <c r="A189" s="93"/>
       <c r="G189" s="19"/>
       <c r="H189" s="19"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="94"/>
+      <c r="A190" s="93"/>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="94"/>
+      <c r="A191" s="93"/>
       <c r="G191" s="19"/>
       <c r="H191" s="19"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="94"/>
+      <c r="A192" s="93"/>
       <c r="G192" s="19"/>
       <c r="H192" s="19"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="94"/>
+      <c r="A193" s="93"/>
       <c r="G193" s="19"/>
       <c r="H193" s="19"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="94"/>
+      <c r="A194" s="93"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="94"/>
+      <c r="A195" s="93"/>
       <c r="G195" s="19"/>
       <c r="H195" s="19"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="94"/>
+      <c r="A196" s="93"/>
       <c r="G196" s="19"/>
       <c r="H196" s="19"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="94"/>
+      <c r="A197" s="93"/>
       <c r="G197" s="19"/>
       <c r="H197" s="19"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="94"/>
+      <c r="A198" s="93"/>
       <c r="G198" s="19"/>
       <c r="H198" s="19"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="94"/>
+      <c r="A199" s="93"/>
       <c r="G199" s="19"/>
       <c r="H199" s="19"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="94"/>
+      <c r="A200" s="93"/>
       <c r="G200" s="19"/>
       <c r="H200" s="19"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="94"/>
+      <c r="A201" s="93"/>
       <c r="G201" s="19"/>
       <c r="H201" s="19"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="94"/>
+      <c r="A202" s="93"/>
       <c r="G202" s="19"/>
       <c r="H202" s="19"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="94"/>
+      <c r="A203" s="93"/>
       <c r="G203" s="19"/>
       <c r="H203" s="19"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="94"/>
+      <c r="A204" s="93"/>
       <c r="G204" s="19"/>
       <c r="H204" s="19"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="94"/>
+      <c r="A205" s="93"/>
       <c r="G205" s="19"/>
       <c r="H205" s="19"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="94"/>
+      <c r="A206" s="93"/>
       <c r="G206" s="19"/>
       <c r="H206" s="19"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="94"/>
+      <c r="A207" s="93"/>
       <c r="G207" s="19"/>
       <c r="H207" s="19"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="94"/>
+      <c r="A208" s="93"/>
       <c r="G208" s="19"/>
       <c r="H208" s="19"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="94"/>
+      <c r="A209" s="93"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="94"/>
+      <c r="A210" s="93"/>
       <c r="G210" s="19"/>
       <c r="H210" s="19"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="94"/>
+      <c r="A211" s="93"/>
       <c r="G211" s="19"/>
       <c r="H211" s="19"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="94"/>
+      <c r="A212" s="93"/>
       <c r="G212" s="19"/>
       <c r="H212" s="19"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="94"/>
+      <c r="A213" s="93"/>
       <c r="G213" s="19"/>
       <c r="H213" s="19"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="94"/>
+      <c r="A214" s="93"/>
       <c r="G214" s="19"/>
       <c r="H214" s="19"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="94"/>
+      <c r="A215" s="93"/>
       <c r="G215" s="19"/>
       <c r="H215" s="19"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="94"/>
+      <c r="A216" s="93"/>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="94"/>
+      <c r="A217" s="93"/>
       <c r="G217" s="19"/>
       <c r="H217" s="19"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="94"/>
+      <c r="A218" s="93"/>
       <c r="G218" s="19"/>
       <c r="H218" s="19"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="94"/>
+      <c r="A219" s="93"/>
       <c r="G219" s="19"/>
       <c r="H219" s="19"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="94"/>
+      <c r="A220" s="93"/>
       <c r="G220" s="19"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="94"/>
+      <c r="A221" s="93"/>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="94"/>
+      <c r="A222" s="93"/>
       <c r="G222" s="19"/>
       <c r="H222" s="19"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="94"/>
+      <c r="A223" s="93"/>
       <c r="G223" s="19"/>
       <c r="H223" s="19"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="94"/>
+      <c r="A224" s="93"/>
       <c r="G224" s="19"/>
       <c r="H224" s="19"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="94"/>
+      <c r="A225" s="93"/>
       <c r="G225" s="19"/>
       <c r="H225" s="19"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="94"/>
+      <c r="A226" s="93"/>
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="94"/>
+      <c r="A227" s="93"/>
       <c r="G227" s="19"/>
       <c r="H227" s="19"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="94"/>
+      <c r="A228" s="93"/>
       <c r="G228" s="19"/>
       <c r="H228" s="19"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="94"/>
+      <c r="A229" s="93"/>
       <c r="G229" s="19"/>
       <c r="H229" s="19"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="94"/>
+      <c r="A230" s="93"/>
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="94"/>
+      <c r="A231" s="93"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="94"/>
+      <c r="A232" s="93"/>
       <c r="G232" s="19"/>
       <c r="H232" s="19"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="94"/>
+      <c r="A233" s="93"/>
       <c r="G233" s="19"/>
       <c r="H233" s="19"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="94"/>
+      <c r="A234" s="93"/>
       <c r="G234" s="19"/>
       <c r="H234" s="19"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="94"/>
+      <c r="A235" s="93"/>
       <c r="G235" s="19"/>
       <c r="H235" s="19"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="94"/>
+      <c r="A236" s="93"/>
       <c r="G236" s="19"/>
       <c r="H236" s="19"/>
     </row>
@@ -13718,7 +13708,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="3" style="0" width="12.63"/>
@@ -13727,7 +13717,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -13821,26 +13811,26 @@
       <c r="F5" s="19" t="s">
         <v>699</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -13849,7 +13839,7 @@
       <c r="B6" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="96" t="s">
         <v>470</v>
       </c>
       <c r="D6" s="3"/>
@@ -13859,26 +13849,26 @@
       <c r="F6" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
@@ -17903,14 +17893,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.75"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>704</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -17918,7 +17908,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="98" t="s">
         <v>706</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -17926,7 +17916,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>708</v>
       </c>
     </row>
@@ -17968,23 +17958,23 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="28" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="101" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="102" t="s">
         <v>719</v>
       </c>
     </row>
@@ -17996,7 +17986,7 @@
       <c r="A18" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="103" t="s">
         <v>721</v>
       </c>
     </row>
@@ -18004,13 +17994,13 @@
       <c r="A19" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B19" s="71"/>
+      <c r="B19" s="70"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="104" t="s">
         <v>724</v>
       </c>
     </row>
@@ -18038,7 +18028,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.38"/>
   </cols>
@@ -18127,7 +18117,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>
@@ -18212,7 +18202,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19"/>
@@ -18239,7 +18229,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.13"/>
@@ -18248,14 +18238,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105" t="s">
         <v>748</v>
       </c>
-      <c r="D1" s="106"/>
+      <c r="D1" s="105"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -18281,7 +18271,7 @@
       <c r="C3" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D3" s="107" t="str">
+      <c r="D3" s="106" t="str">
         <f aca="false">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
@@ -18333,7 +18323,7 @@
       <c r="C7" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="107" t="s">
         <v>763</v>
       </c>
     </row>
@@ -18347,7 +18337,7 @@
       <c r="C8" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>766</v>
       </c>
     </row>
@@ -18391,7 +18381,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -18400,10 +18390,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="105"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -18442,7 +18432,7 @@
       <c r="B5" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="108" t="s">
         <v>773</v>
       </c>
       <c r="D5" s="3" t="s">

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.1.1</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <r>
@@ -3625,7 +3625,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasAmountValue ?</t>
+      <t xml:space="preserve"> epo:hasRestatedEstimatedValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -3676,7 +3676,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasCurrency ?</t>
+      <t xml:space="preserve"> epo:hasRestatedEstimatedValue / epo:hasCurrency ?</t>
     </r>
     <r>
       <rPr>
@@ -3927,10 +3927,7 @@
     <t>Review body</t>
   </si>
   <si>
-    <t>COMPLEMENTARY_INFO</t>
-  </si>
-  <si>
-    <t>epo:ResultNotice / epo:Reviewer</t>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY</t>
   </si>
   <si>
     <t>?this epo:announcesRole ?value</t>
@@ -4203,6 +4200,9 @@
     <t>Body responsible for mediation procedures</t>
   </si>
   <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_MEDIATION_BODY</t>
+  </si>
+  <si>
     <t>epo:ResultNotice / epo:Mediator</t>
   </si>
   <si>
@@ -4506,7 +4506,7 @@
     <t>Service from which information about the review procedure may be obtained</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:ReviewProcedureInformationProvider</t>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_INFO</t>
   </si>
   <si>
     <t>VI.4.4.1</t>
@@ -5675,7 +5675,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5917,10 +5917,7 @@
     <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6055,7 +6052,6 @@
     <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6134,6 +6130,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11641,10 +11640,10 @@
         <v>357</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="83" t="s">
+      <c r="G65" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H65" s="84" t="s">
+      <c r="H65" s="83" t="s">
         <v>358</v>
       </c>
       <c r="I65" s="6"/>
@@ -11659,7 +11658,7 @@
       <c r="R65" s="27"/>
     </row>
     <row r="66">
-      <c r="A66" s="85" t="s">
+      <c r="A66" s="84" t="s">
         <v>359</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -11685,7 +11684,7 @@
       <c r="R66" s="27"/>
     </row>
     <row r="67">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="85" t="s">
         <v>362</v>
       </c>
       <c r="B67" s="37" t="s">
@@ -11719,8 +11718,8 @@
       <c r="D68" s="55"/>
       <c r="E68" s="74"/>
       <c r="F68" s="74"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -11798,8 +11797,8 @@
         <v>366</v>
       </c>
       <c r="C71" s="35"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="89" t="s">
+      <c r="D71" s="87"/>
+      <c r="E71" s="88" t="s">
         <v>367</v>
       </c>
       <c r="F71" s="48" t="s">
@@ -11830,13 +11829,13 @@
         <v>372</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="91" t="s">
+      <c r="D72" s="89"/>
+      <c r="E72" s="90" t="s">
         <v>373</v>
       </c>
-      <c r="F72" s="92"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -11868,7 +11867,7 @@
       <c r="G73" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="H73" s="94" t="s">
+      <c r="H73" s="93" t="s">
         <v>380</v>
       </c>
       <c r="I73" s="6"/>
@@ -11883,10 +11882,10 @@
       <c r="R73" s="27"/>
     </row>
     <row r="74">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="95" t="s">
         <v>375</v>
       </c>
       <c r="C74" s="80" t="s">
@@ -11917,7 +11916,7 @@
       <c r="R74" s="27"/>
     </row>
     <row r="75">
-      <c r="A75" s="86" t="s">
+      <c r="A75" s="85" t="s">
         <v>383</v>
       </c>
       <c r="B75" s="37" t="s">
@@ -11960,7 +11959,7 @@
       <c r="G76" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="H76" s="94" t="s">
+      <c r="H76" s="93" t="s">
         <v>391</v>
       </c>
       <c r="I76" s="6"/>
@@ -11975,7 +11974,7 @@
       <c r="R76" s="27"/>
     </row>
     <row r="77">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="84" t="s">
         <v>392</v>
       </c>
       <c r="B77" s="61" t="s">
@@ -12075,10 +12074,10 @@
       <c r="R79" s="27"/>
     </row>
     <row r="80">
-      <c r="A80" s="95" t="s">
+      <c r="A80" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="B80" s="96" t="s">
+      <c r="B80" s="95" t="s">
         <v>405</v>
       </c>
       <c r="C80" s="81" t="s">
@@ -12094,7 +12093,7 @@
       <c r="G80" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H80" s="97" t="s">
+      <c r="H80" s="96" t="s">
         <v>413</v>
       </c>
       <c r="I80" s="6"/>
@@ -12109,13 +12108,13 @@
       <c r="R80" s="27"/>
     </row>
     <row r="81">
-      <c r="A81" s="86" t="s">
+      <c r="A81" s="85" t="s">
         <v>414</v>
       </c>
       <c r="B81" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="C81" s="98" t="s">
+      <c r="C81" s="97" t="s">
         <v>416</v>
       </c>
       <c r="D81" s="48"/>
@@ -12141,7 +12140,7 @@
       <c r="B82" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="C82" s="99" t="s">
+      <c r="C82" s="98" t="s">
         <v>416</v>
       </c>
       <c r="D82" s="55"/>
@@ -12180,7 +12179,7 @@
       <c r="G83" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="H83" s="100" t="s">
+      <c r="H83" s="99" t="s">
         <v>425</v>
       </c>
       <c r="I83" s="6"/>
@@ -12214,7 +12213,7 @@
       <c r="G84" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H84" s="97" t="s">
+      <c r="H84" s="96" t="s">
         <v>429</v>
       </c>
       <c r="I84" s="6"/>
@@ -12235,7 +12234,7 @@
       <c r="B85" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="C85" s="101" t="s">
+      <c r="C85" s="100" t="s">
         <v>432</v>
       </c>
       <c r="D85" s="48"/>
@@ -12261,13 +12260,13 @@
       <c r="R85" s="27"/>
     </row>
     <row r="86">
-      <c r="A86" s="86" t="s">
+      <c r="A86" s="85" t="s">
         <v>436</v>
       </c>
       <c r="B86" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="C86" s="99" t="s">
+      <c r="C86" s="98" t="s">
         <v>416</v>
       </c>
       <c r="D86" s="55"/>
@@ -12311,7 +12310,7 @@
       <c r="A88" s="65" t="s">
         <v>438</v>
       </c>
-      <c r="B88" s="102"/>
+      <c r="B88" s="101"/>
       <c r="C88" s="48"/>
       <c r="D88" s="4"/>
       <c r="E88" s="48" t="s">
@@ -12362,12 +12361,12 @@
       <c r="B90" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="C90" s="103"/>
-      <c r="D90" s="103"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="102"/>
       <c r="E90" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="F90" s="103"/>
+      <c r="F90" s="102"/>
       <c r="G90" s="35" t="s">
         <v>451</v>
       </c>
@@ -12490,7 +12489,7 @@
       <c r="G95" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="H95" s="104" t="s">
+      <c r="H95" s="103" t="s">
         <v>476</v>
       </c>
       <c r="I95" s="6"/>
@@ -12504,7 +12503,7 @@
       <c r="B96" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="C96" s="105" t="s">
+      <c r="C96" s="104" t="s">
         <v>479</v>
       </c>
       <c r="D96" s="48"/>
@@ -12515,7 +12514,7 @@
       <c r="G96" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="H96" s="100" t="s">
+      <c r="H96" s="99" t="s">
         <v>482</v>
       </c>
       <c r="I96" s="6"/>
@@ -12529,7 +12528,7 @@
       <c r="B97" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="C97" s="98" t="s">
+      <c r="C97" s="97" t="s">
         <v>416</v>
       </c>
       <c r="D97" s="48"/>
@@ -12671,7 +12670,7 @@
       <c r="G102" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H102" s="100" t="s">
+      <c r="H102" s="99" t="s">
         <v>500</v>
       </c>
       <c r="I102" s="6"/>
@@ -12698,7 +12697,7 @@
       <c r="G103" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H103" s="97" t="s">
+      <c r="H103" s="96" t="s">
         <v>504</v>
       </c>
       <c r="I103" s="6"/>
@@ -12725,7 +12724,7 @@
       <c r="G104" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H104" s="106" t="s">
+      <c r="H104" s="105" t="s">
         <v>507</v>
       </c>
       <c r="I104" s="6"/>
@@ -12752,7 +12751,7 @@
       <c r="G105" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="H105" s="100" t="s">
+      <c r="H105" s="99" t="s">
         <v>511</v>
       </c>
       <c r="I105" s="6"/>
@@ -12779,7 +12778,7 @@
       <c r="G106" s="76" t="s">
         <v>514</v>
       </c>
-      <c r="H106" s="107" t="s">
+      <c r="H106" s="106" t="s">
         <v>515</v>
       </c>
       <c r="I106" s="6"/>
@@ -12860,7 +12859,7 @@
       <c r="G109" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H109" s="108" t="s">
+      <c r="H109" s="107" t="s">
         <v>529</v>
       </c>
       <c r="I109" s="6"/>
@@ -12893,7 +12892,7 @@
       <c r="B111" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="C111" s="99" t="s">
+      <c r="C111" s="98" t="s">
         <v>416</v>
       </c>
       <c r="D111" s="55"/>
@@ -12939,7 +12938,7 @@
       <c r="B113" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="109" t="s">
+      <c r="C113" s="108" t="s">
         <v>541</v>
       </c>
       <c r="D113" s="48"/>
@@ -12991,7 +12990,7 @@
       <c r="B115" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C115" s="109" t="s">
+      <c r="C115" s="108" t="s">
         <v>541</v>
       </c>
       <c r="D115" s="48"/>
@@ -13022,14 +13021,14 @@
       <c r="D116" s="74" t="s">
         <v>559</v>
       </c>
-      <c r="E116" s="110" t="s">
+      <c r="E116" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="F116" s="110"/>
+      <c r="F116" s="109"/>
       <c r="G116" s="56" t="s">
         <v>561</v>
       </c>
-      <c r="H116" s="87" t="s">
+      <c r="H116" s="86" t="s">
         <v>562</v>
       </c>
       <c r="I116" s="6"/>
@@ -13043,11 +13042,11 @@
       <c r="B117" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C117" s="111" t="s">
+      <c r="C117" s="110" t="s">
         <v>541</v>
       </c>
       <c r="D117" s="55"/>
-      <c r="E117" s="110" t="s">
+      <c r="E117" s="109" t="s">
         <v>564</v>
       </c>
       <c r="F117" s="75"/>
@@ -13074,14 +13073,14 @@
       <c r="D118" s="74" t="s">
         <v>570</v>
       </c>
-      <c r="E118" s="87" t="s">
+      <c r="E118" s="86" t="s">
         <v>571</v>
       </c>
-      <c r="F118" s="87"/>
-      <c r="G118" s="87" t="s">
+      <c r="F118" s="86"/>
+      <c r="G118" s="86" t="s">
         <v>561</v>
       </c>
-      <c r="H118" s="87" t="s">
+      <c r="H118" s="86" t="s">
         <v>572</v>
       </c>
       <c r="I118" s="6"/>
@@ -13095,7 +13094,7 @@
       <c r="B119" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C119" s="111" t="s">
+      <c r="C119" s="110" t="s">
         <v>541</v>
       </c>
       <c r="D119" s="55"/>
@@ -13141,7 +13140,7 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="84" t="s">
         <v>582</v>
       </c>
       <c r="B121" s="33" t="s">
@@ -13158,7 +13157,7 @@
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="86" t="s">
+      <c r="A122" s="85" t="s">
         <v>584</v>
       </c>
       <c r="B122" s="37" t="s">
@@ -13170,14 +13169,14 @@
       <c r="D122" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E122" s="112" t="s">
+      <c r="E122" s="111" t="s">
         <v>585</v>
       </c>
-      <c r="F122" s="112"/>
-      <c r="G122" s="113" t="s">
+      <c r="F122" s="111"/>
+      <c r="G122" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="H122" s="114" t="s">
+      <c r="H122" s="113" t="s">
         <v>586</v>
       </c>
       <c r="I122" s="6"/>
@@ -13185,18 +13184,18 @@
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="85" t="s">
         <v>587</v>
       </c>
       <c r="B123" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="C123" s="115" t="s">
+      <c r="C123" s="114" t="s">
         <v>416</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="116"/>
-      <c r="F123" s="116"/>
+      <c r="E123" s="115"/>
+      <c r="F123" s="115"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="6"/>
@@ -13210,7 +13209,7 @@
       <c r="B124" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="C124" s="117" t="s">
+      <c r="C124" s="116" t="s">
         <v>416</v>
       </c>
       <c r="D124" s="6"/>
@@ -13219,10 +13218,10 @@
       </c>
       <c r="F124" s="48"/>
       <c r="G124" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H124" s="35" t="s">
         <v>592</v>
-      </c>
-      <c r="H124" s="35" t="s">
-        <v>593</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
@@ -13230,7 +13229,7 @@
     </row>
     <row r="125">
       <c r="A125" s="65" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B125" s="54" t="s">
         <v>55</v>
@@ -13242,14 +13241,14 @@
         <v>57</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F125" s="48"/>
       <c r="G125" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H125" s="97" t="s">
-        <v>596</v>
+      <c r="H125" s="96" t="s">
+        <v>595</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -13257,7 +13256,7 @@
     </row>
     <row r="126">
       <c r="A126" s="65" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B126" s="54" t="s">
         <v>69</v>
@@ -13269,14 +13268,14 @@
         <v>71</v>
       </c>
       <c r="E126" s="76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F126" s="76"/>
       <c r="G126" s="77" t="s">
         <v>73</v>
       </c>
       <c r="H126" s="77" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
@@ -13284,7 +13283,7 @@
     </row>
     <row r="127">
       <c r="A127" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B127" s="54" t="s">
         <v>76</v>
@@ -13296,14 +13295,14 @@
         <v>78</v>
       </c>
       <c r="E127" s="76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F127" s="76"/>
       <c r="G127" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H127" s="38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
@@ -13311,7 +13310,7 @@
     </row>
     <row r="128">
       <c r="A128" s="65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B128" s="54" t="s">
         <v>90</v>
@@ -13323,14 +13322,14 @@
         <v>502</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F128" s="48"/>
       <c r="G128" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="H128" s="96" t="s">
         <v>605</v>
-      </c>
-      <c r="H128" s="97" t="s">
-        <v>606</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -13338,7 +13337,7 @@
     </row>
     <row r="129">
       <c r="A129" s="65" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B129" s="54" t="s">
         <v>97</v>
@@ -13350,14 +13349,14 @@
         <v>99</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F129" s="48"/>
       <c r="G129" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="H129" s="100" t="s">
-        <v>609</v>
+      <c r="H129" s="99" t="s">
+        <v>608</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -13365,7 +13364,7 @@
     </row>
     <row r="130">
       <c r="A130" s="65" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B130" s="54" t="s">
         <v>117</v>
@@ -13377,13 +13376,13 @@
         <v>119</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F130" s="48"/>
       <c r="G130" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="H130" s="100" t="s">
+      <c r="H130" s="99" t="s">
         <v>511</v>
       </c>
       <c r="I130" s="6"/>
@@ -13392,7 +13391,7 @@
     </row>
     <row r="131">
       <c r="A131" s="65" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B131" s="54" t="s">
         <v>111</v>
@@ -13404,7 +13403,7 @@
         <v>113</v>
       </c>
       <c r="E131" s="76" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F131" s="76"/>
       <c r="G131" s="76" t="s">
@@ -13419,7 +13418,7 @@
     </row>
     <row r="132">
       <c r="A132" s="65" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B132" s="54" t="s">
         <v>517</v>
@@ -13431,14 +13430,14 @@
         <v>134</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F132" s="48"/>
       <c r="G132" s="44" t="s">
         <v>510</v>
       </c>
       <c r="H132" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -13446,7 +13445,7 @@
     </row>
     <row r="133">
       <c r="A133" s="65" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B133" s="54" t="s">
         <v>124</v>
@@ -13458,7 +13457,7 @@
         <v>126</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F133" s="48"/>
       <c r="G133" s="48" t="s">
@@ -13473,24 +13472,24 @@
     </row>
     <row r="134">
       <c r="A134" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="B134" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="B134" s="46" t="s">
+      <c r="C134" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="D134" s="117"/>
+      <c r="E134" s="38" t="s">
         <v>620</v>
-      </c>
-      <c r="C134" s="117" t="s">
-        <v>416</v>
-      </c>
-      <c r="D134" s="118"/>
-      <c r="E134" s="38" t="s">
-        <v>591</v>
       </c>
       <c r="F134" s="48"/>
       <c r="G134" s="35" t="s">
         <v>621</v>
       </c>
       <c r="H134" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -13756,10 +13755,10 @@
         <v>650</v>
       </c>
       <c r="F144" s="48"/>
-      <c r="G144" s="113" t="s">
+      <c r="G144" s="112" t="s">
         <v>651</v>
       </c>
-      <c r="H144" s="114" t="s">
+      <c r="H144" s="113" t="s">
         <v>652</v>
       </c>
       <c r="I144" s="6"/>
@@ -13776,14 +13775,14 @@
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="38" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="F145" s="48"/>
       <c r="G145" s="35" t="s">
-        <v>655</v>
+        <v>52</v>
       </c>
       <c r="H145" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -13944,7 +13943,7 @@
       <c r="G151" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="H151" s="100" t="s">
+      <c r="H151" s="99" t="s">
         <v>511</v>
       </c>
       <c r="I151" s="6"/>
@@ -14025,7 +14024,7 @@
       <c r="G154" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="H154" s="100" t="s">
+      <c r="H154" s="99" t="s">
         <v>522</v>
       </c>
       <c r="I154" s="6"/>
@@ -14033,26 +14032,26 @@
       <c r="K154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="86" t="s">
+      <c r="A155" s="85" t="s">
         <v>680</v>
       </c>
       <c r="B155" s="37" t="s">
         <v>681</v>
       </c>
-      <c r="C155" s="119" t="s">
+      <c r="C155" s="118" t="s">
         <v>682</v>
       </c>
-      <c r="D155" s="119" t="s">
+      <c r="D155" s="118" t="s">
         <v>683</v>
       </c>
-      <c r="E155" s="120" t="s">
+      <c r="E155" s="119" t="s">
         <v>684</v>
       </c>
-      <c r="F155" s="120"/>
-      <c r="G155" s="121" t="s">
+      <c r="F155" s="119"/>
+      <c r="G155" s="120" t="s">
         <v>685</v>
       </c>
-      <c r="H155" s="122" t="s">
+      <c r="H155" s="121" t="s">
         <v>686</v>
       </c>
       <c r="I155" s="6"/>
@@ -14066,7 +14065,7 @@
       <c r="B156" s="55" t="s">
         <v>688</v>
       </c>
-      <c r="C156" s="123" t="s">
+      <c r="C156" s="122" t="s">
         <v>416</v>
       </c>
       <c r="D156" s="74"/>
@@ -14184,7 +14183,7 @@
       <c r="G161" s="74" t="s">
         <v>693</v>
       </c>
-      <c r="H161" s="124" t="s">
+      <c r="H161" s="123" t="s">
         <v>708</v>
       </c>
       <c r="I161" s="6"/>
@@ -14207,7 +14206,7 @@
       <c r="G162" s="74" t="s">
         <v>693</v>
       </c>
-      <c r="H162" s="124" t="s">
+      <c r="H162" s="123" t="s">
         <v>712</v>
       </c>
       <c r="I162" s="6"/>
@@ -14221,7 +14220,7 @@
       <c r="B163" s="74" t="s">
         <v>714</v>
       </c>
-      <c r="C163" s="123" t="s">
+      <c r="C163" s="122" t="s">
         <v>416</v>
       </c>
       <c r="D163" s="74"/>
@@ -14240,7 +14239,7 @@
       <c r="B164" s="74" t="s">
         <v>716</v>
       </c>
-      <c r="C164" s="125" t="s">
+      <c r="C164" s="124" t="s">
         <v>432</v>
       </c>
       <c r="D164" s="74"/>
@@ -14251,7 +14250,7 @@
       <c r="G164" s="74" t="s">
         <v>693</v>
       </c>
-      <c r="H164" s="126" t="s">
+      <c r="H164" s="125" t="s">
         <v>718</v>
       </c>
       <c r="I164" s="6"/>
@@ -14265,7 +14264,7 @@
       <c r="B165" s="74" t="s">
         <v>720</v>
       </c>
-      <c r="C165" s="123" t="s">
+      <c r="C165" s="122" t="s">
         <v>416</v>
       </c>
       <c r="D165" s="74"/>
@@ -14284,20 +14283,20 @@
       <c r="B166" s="74" t="s">
         <v>722</v>
       </c>
-      <c r="C166" s="123" t="s">
+      <c r="C166" s="122" t="s">
         <v>723</v>
       </c>
       <c r="D166" s="74" t="s">
         <v>724</v>
       </c>
-      <c r="E166" s="127" t="s">
+      <c r="E166" s="126" t="s">
         <v>725</v>
       </c>
       <c r="F166" s="74"/>
       <c r="G166" s="74" t="s">
         <v>726</v>
       </c>
-      <c r="H166" s="128" t="s">
+      <c r="H166" s="127" t="s">
         <v>727</v>
       </c>
       <c r="I166" s="6"/>
@@ -14329,848 +14328,6 @@
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="18"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="18"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="18"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="18"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="18"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="18"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="18"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="18"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="18"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="18"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="18"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="18"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="18"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="18"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="18"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="18"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="18"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="18"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="18"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="18"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="18"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="18"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="18"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="18"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="6"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="18"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="18"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="18"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="18"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="18"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
-      <c r="K197" s="6"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="18"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="18"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
-      <c r="K199" s="6"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="18"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
-      <c r="K200" s="6"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="18"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
-      <c r="J201" s="6"/>
-      <c r="K201" s="6"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="18"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
-      <c r="K202" s="6"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="18"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
-      <c r="J203" s="6"/>
-      <c r="K203" s="6"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="18"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="6"/>
-      <c r="J204" s="6"/>
-      <c r="K204" s="6"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="18"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
-      <c r="I205" s="6"/>
-      <c r="J205" s="6"/>
-      <c r="K205" s="6"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="18"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-      <c r="I206" s="6"/>
-      <c r="J206" s="6"/>
-      <c r="K206" s="6"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="18"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
-      <c r="I207" s="6"/>
-      <c r="J207" s="6"/>
-      <c r="K207" s="6"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="18"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-      <c r="I208" s="6"/>
-      <c r="J208" s="6"/>
-      <c r="K208" s="6"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="18"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="6"/>
-      <c r="J209" s="6"/>
-      <c r="K209" s="6"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="18"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-      <c r="I210" s="6"/>
-      <c r="J210" s="6"/>
-      <c r="K210" s="6"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="18"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
-      <c r="I211" s="6"/>
-      <c r="J211" s="6"/>
-      <c r="K211" s="6"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="18"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
-      <c r="I212" s="6"/>
-      <c r="J212" s="6"/>
-      <c r="K212" s="6"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="18"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="6"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
-      <c r="I213" s="6"/>
-      <c r="J213" s="6"/>
-      <c r="K213" s="6"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="18"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
-      <c r="I214" s="6"/>
-      <c r="J214" s="6"/>
-      <c r="K214" s="6"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="18"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
-      <c r="I215" s="6"/>
-      <c r="J215" s="6"/>
-      <c r="K215" s="6"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="129"/>
-      <c r="B216" s="27"/>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27"/>
-      <c r="F216" s="27"/>
-      <c r="G216" s="27"/>
-      <c r="H216" s="27"/>
-      <c r="I216" s="27"/>
-      <c r="J216" s="27"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="129"/>
-      <c r="B217" s="27"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
-      <c r="F217" s="27"/>
-      <c r="G217" s="27"/>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27"/>
-      <c r="J217" s="27"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="129"/>
-      <c r="B218" s="27"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
-      <c r="F218" s="27"/>
-      <c r="G218" s="27"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27"/>
-      <c r="J218" s="27"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="129"/>
-      <c r="B219" s="27"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="27"/>
-      <c r="G219" s="27"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="27"/>
-      <c r="J219" s="27"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="129"/>
-      <c r="B220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="129"/>
-      <c r="B221" s="27"/>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="27"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27"/>
-      <c r="J221" s="27"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="129"/>
-      <c r="B222" s="27"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="27"/>
-      <c r="F222" s="27"/>
-      <c r="G222" s="27"/>
-      <c r="H222" s="27"/>
-      <c r="I222" s="27"/>
-      <c r="J222" s="27"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="129"/>
-      <c r="B223" s="27"/>
-      <c r="D223" s="27"/>
-      <c r="E223" s="27"/>
-      <c r="F223" s="27"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="27"/>
-      <c r="I223" s="27"/>
-      <c r="J223" s="27"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="129"/>
-      <c r="B224" s="27"/>
-      <c r="D224" s="27"/>
-      <c r="E224" s="27"/>
-      <c r="F224" s="27"/>
-      <c r="G224" s="27"/>
-      <c r="H224" s="27"/>
-      <c r="I224" s="27"/>
-      <c r="J224" s="27"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="129"/>
-      <c r="B225" s="27"/>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-      <c r="F225" s="27"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="129"/>
-      <c r="B226" s="27"/>
-      <c r="D226" s="27"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27"/>
-      <c r="I226" s="27"/>
-      <c r="J226" s="27"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="129"/>
-      <c r="B227" s="27"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="129"/>
-      <c r="B228" s="27"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
-      <c r="J228" s="27"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="129"/>
-      <c r="B229" s="27"/>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
-      <c r="H229" s="27"/>
-      <c r="I229" s="27"/>
-      <c r="J229" s="27"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="129"/>
-      <c r="B230" s="27"/>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
-      <c r="I230" s="27"/>
-      <c r="J230" s="27"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="129"/>
-      <c r="B231" s="27"/>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
-      <c r="F231" s="27"/>
-      <c r="G231" s="27"/>
-      <c r="H231" s="27"/>
-      <c r="I231" s="27"/>
-      <c r="J231" s="27"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="129"/>
-      <c r="B232" s="27"/>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27"/>
-      <c r="I232" s="27"/>
-      <c r="J232" s="27"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="129"/>
-      <c r="B233" s="27"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
-      <c r="I233" s="27"/>
-      <c r="J233" s="27"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="129"/>
-      <c r="B234" s="27"/>
-      <c r="D234" s="27"/>
-      <c r="E234" s="27"/>
-      <c r="F234" s="27"/>
-      <c r="G234" s="27"/>
-      <c r="H234" s="27"/>
-      <c r="I234" s="27"/>
-      <c r="J234" s="27"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="129"/>
-      <c r="B235" s="27"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="27"/>
-      <c r="G235" s="27"/>
-      <c r="H235" s="27"/>
-      <c r="I235" s="27"/>
-      <c r="J235" s="27"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="129"/>
-      <c r="B236" s="27"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
-      <c r="F236" s="27"/>
-      <c r="G236" s="27"/>
-      <c r="H236" s="27"/>
-      <c r="I236" s="27"/>
-      <c r="J236" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15249,22 +14406,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="129" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15325,7 +14482,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="130" t="s">
         <v>404</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -15343,26 +14500,26 @@
       <c r="F5" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
@@ -15371,7 +14528,7 @@
       <c r="B6" s="77" t="s">
         <v>478</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="132" t="s">
         <v>479</v>
       </c>
       <c r="D6" s="6"/>
@@ -15381,26 +14538,26 @@
       <c r="F6" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
@@ -19423,93 +18580,93 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="133" t="s">
         <v>745</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="134" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="135" t="s">
         <v>747</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="134" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="136" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="137" t="s">
         <v>750</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="134" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="134" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="136"/>
+      <c r="B8" s="134"/>
     </row>
     <row r="9">
-      <c r="B9" s="136"/>
+      <c r="B9" s="134"/>
     </row>
     <row r="10">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="137" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="137" t="s">
         <v>754</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="138" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="139" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="142"/>
-      <c r="B13" s="143" t="s">
+      <c r="A13" s="140"/>
+      <c r="B13" s="141" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="142" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="143" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="144" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="139"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="137" t="s">
         <v>761</v>
       </c>
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="145" t="s">
         <v>762</v>
       </c>
     </row>
@@ -19517,13 +18674,13 @@
       <c r="A19" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B19" s="148"/>
+      <c r="B19" s="146"/>
     </row>
     <row r="21">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="137" t="s">
         <v>764</v>
       </c>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="147" t="s">
         <v>765</v>
       </c>
     </row>
@@ -19633,12 +18790,12 @@
       <c r="A1" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="148" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="149" t="s">
         <v>779</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -19646,43 +18803,43 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="149" t="s">
         <v>781</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="149" t="s">
         <v>782</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="149" t="s">
         <v>783</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="149" t="s">
         <v>784</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="149" t="s">
         <v>785</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="149" t="s">
         <v>786</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="149" t="s">
         <v>787</v>
       </c>
       <c r="B9" s="6"/>
@@ -19703,7 +18860,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140"/>
+      <c r="A1" s="138"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19727,126 +18884,126 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>788</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="150" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="137" t="s">
         <v>790</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="137" t="s">
         <v>791</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="137" t="s">
         <v>792</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="137" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="151" t="s">
         <v>794</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="151" t="s">
         <v>795</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="134" t="s">
         <v>796</v>
       </c>
-      <c r="D3" s="154" t="str">
+      <c r="D3" s="152" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="151" t="s">
         <v>797</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="151" t="s">
         <v>795</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="134" t="s">
         <v>796</v>
       </c>
-      <c r="D4" s="136" t="str">
+      <c r="D4" s="134" t="str">
         <f t="shared" si="1"/>
         <v>ADDRESS_CONTRACTING_BODY_ADDITIONAL</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="138" t="s">
         <v>798</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="138" t="s">
         <v>799</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="134" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="138" t="s">
         <v>800</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="138" t="s">
         <v>801</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="134" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="134" t="s">
         <v>802</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="134" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="134" t="s">
         <v>796</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="153" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="134" t="s">
         <v>805</v>
       </c>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="134" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="134" t="s">
         <v>796</v>
       </c>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="154" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="134" t="s">
         <v>808</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="134" t="s">
         <v>809</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="134" t="s">
         <v>796</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="134" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="155" t="s">
         <v>811</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>812</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -19882,51 +19039,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="137" t="s">
         <v>790</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="137" t="s">
         <v>791</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="137" t="s">
         <v>792</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="137" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="134" t="s">
         <v>814</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="134" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="134" t="s">
         <v>816</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="134" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="134" t="s">
         <v>818</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="134" t="s">
         <v>819</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="154" t="s">
         <v>817</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="134" t="s">
         <v>820</v>
       </c>
     </row>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="844">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.8.1</t>
+    <t>4.1.0</t>
   </si>
   <si>
     <r>
@@ -422,7 +422,7 @@
     <t>EPO version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0-dev</t>
   </si>
   <si>
     <r>
@@ -2684,6 +2684,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -2691,6 +2692,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isCoveredByGPA </t>
     </r>
@@ -2698,6 +2700,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>true</t>
     </r>
@@ -2705,6 +2708,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -2759,12 +2763,6 @@
     <t>Previous publication concerning this procedure</t>
   </si>
   <si>
-    <t>BT-125</t>
-  </si>
-  <si>
-    <t>Previous Planning Identifier</t>
-  </si>
-  <si>
     <t>PROCEDURE/NOTICE_NUMBER_OJ</t>
   </si>
   <si>
@@ -2885,28 +2883,24 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .
 </t>
@@ -2973,7 +2967,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>http://publications.europa.eu/resource/authority/non-award-justification/all-rej</t>
+      <t>http://publications.europa.eu/resource/authority/non-award-justification/none-rej</t>
     </r>
     <r>
       <rPr>
@@ -3045,7 +3039,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FFFF00FF"/>
+        <color theme="1"/>
       </rPr>
       <t>concession</t>
     </r>
@@ -3168,6 +3162,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3175,12 +3170,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasReceivedSMETenders ?</t>
     </r>
@@ -3188,6 +3185,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3205,7 +3203,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3213,14 +3210,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasEUReceivedTenders  ?</t>
     </r>
@@ -3228,7 +3223,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3246,7 +3240,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3254,14 +3247,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">this </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>epo:hasReceivedNonEUTenders ?</t>
     </r>
@@ -3269,7 +3260,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3320,6 +3310,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3327,12 +3318,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -3340,12 +3333,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3360,6 +3355,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3367,12 +3363,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasID / epo:hasIdentifierValue ?</t>
     </r>
@@ -3380,12 +3378,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3526,7 +3526,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3534,14 +3533,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
@@ -3549,14 +3546,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3571,7 +3566,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3579,14 +3573,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -3594,14 +3586,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3643,7 +3633,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -3651,14 +3640,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4081,6 +4068,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4088,12 +4076,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -4101,12 +4091,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4161,7 +4153,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4169,14 +4160,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
@@ -4184,14 +4173,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4209,7 +4196,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4217,14 +4203,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
@@ -4232,14 +4216,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4707,6 +4689,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4714,12 +4697,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
@@ -4727,12 +4712,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4792,7 +4779,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4800,14 +4786,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
@@ -4815,14 +4799,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4837,6 +4819,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4844,12 +4827,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -4857,12 +4842,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4889,7 +4876,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -4897,14 +4883,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5442,13 +5426,46 @@
     <t>ADDRESS_REVIEW_INFO</t>
   </si>
   <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_FURTHER_INFO_IDEM</t>
+  </si>
+  <si>
+    <t>epo:ProcurementProcedureInformationProvider</t>
+  </si>
+  <si>
+    <t>ADDRESS_FURTHER_INFO_IDEM</t>
+  </si>
+  <si>
     <t>AgentInRole == CONTRACTING_BODY/ADDRESS_FURTHER_INFO</t>
   </si>
   <si>
-    <t>epo:ProcurementProcedureInformationProvider</t>
-  </si>
-  <si>
     <t>ADDRESS_FURTHER_INFO</t>
+  </si>
+  <si>
+    <t>AgentInRole == RESULTS/AWARDED_PRIZE</t>
+  </si>
+  <si>
+    <t>AWARDED_PRIZE</t>
+  </si>
+  <si>
+    <t>AgentInRole == RESULTS/AWARDED_PRIZE/WINNERS/WINNER</t>
+  </si>
+  <si>
+    <t>WINNER</t>
+  </si>
+  <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM</t>
+  </si>
+  <si>
+    <t>epo:TenderReceiver</t>
+  </si>
+  <si>
+    <t>ADDRESS_PARTICIPATION_IDEM</t>
+  </si>
+  <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>ADDRESS_PARTICIPATION</t>
   </si>
   <si>
     <t>is_natural_person == True</t>
@@ -5479,7 +5496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5552,22 +5569,6 @@
     <font>
       <b/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -5648,6 +5649,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -5721,12 +5726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
@@ -5743,14 +5742,15 @@
         <bgColor rgb="FFEEECE1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border/>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -5814,9 +5814,9 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -5841,7 +5841,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="164">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5872,13 +5872,13 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5909,27 +5909,27 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5959,19 +5959,19 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5989,13 +5989,13 @@
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6016,32 +6016,29 @@
     <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="8" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6055,9 +6052,6 @@
     </xf>
     <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6074,13 +6068,13 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6113,18 +6107,6 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -6134,20 +6116,14 @@
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6155,10 +6131,16 @@
     <xf quotePrefix="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6167,38 +6149,50 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -6221,19 +6215,13 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6242,47 +6230,44 @@
     <xf quotePrefix="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6303,37 +6288,40 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -10048,10 +10036,10 @@
       <c r="B10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="49" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -10389,8 +10377,8 @@
       <c r="E20" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57" t="s">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56" t="s">
         <v>149</v>
       </c>
       <c r="H20" s="59" t="s">
@@ -10414,16 +10402,16 @@
         <v>152</v>
       </c>
       <c r="B21" s="47"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="40" t="s">
         <v>155</v>
       </c>
       <c r="I21" s="4"/>
@@ -10453,11 +10441,11 @@
       <c r="E22" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="62" t="s">
+      <c r="F22" s="56"/>
+      <c r="G22" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="61" t="s">
         <v>162</v>
       </c>
       <c r="I22" s="4"/>
@@ -10478,36 +10466,36 @@
         <v>163</v>
       </c>
       <c r="B23" s="47"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="40" t="s">
         <v>165</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
     </row>
     <row r="24">
       <c r="A24" s="37" t="s">
@@ -10525,47 +10513,47 @@
       <c r="E24" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="66" t="s">
+      <c r="F24" s="56"/>
+      <c r="G24" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="64" t="s">
         <v>169</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61" t="s">
+      <c r="F25" s="66"/>
+      <c r="G25" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="40" t="s">
         <v>172</v>
       </c>
       <c r="I25" s="4"/>
@@ -10583,7 +10571,7 @@
       <c r="A26" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="67" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="4"/>
@@ -10690,22 +10678,22 @@
       </c>
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
@@ -10816,7 +10804,7 @@
       <c r="B33" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="49" t="s">
         <v>212</v>
       </c>
       <c r="D33" s="49" t="s">
@@ -10852,8 +10840,8 @@
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="56"/>
       <c r="H34" s="56"/>
       <c r="I34" s="4"/>
@@ -10868,7 +10856,7 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="69" t="s">
         <v>217</v>
       </c>
       <c r="B35" s="55" t="s">
@@ -10880,37 +10868,37 @@
       <c r="D35" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="71" t="s">
+      <c r="F35" s="56"/>
+      <c r="G35" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="70" t="s">
         <v>223</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
     </row>
     <row r="36">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="69" t="s">
         <v>224</v>
       </c>
       <c r="B36" s="55" t="s">
@@ -10918,10 +10906,10 @@
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="56" t="s">
         <v>227</v>
       </c>
@@ -10940,22 +10928,22 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="74" t="s">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -11028,10 +11016,10 @@
       <c r="B40" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="49" t="s">
         <v>220</v>
       </c>
       <c r="E40" s="36" t="s">
@@ -11047,21 +11035,21 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
     </row>
     <row r="41">
       <c r="A41" s="54" t="s">
@@ -11070,10 +11058,10 @@
       <c r="B41" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="49" t="s">
         <v>248</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -11104,10 +11092,10 @@
       <c r="B42" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="49" t="s">
         <v>254</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -11147,7 +11135,7 @@
       <c r="G43" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="73" t="s">
         <v>260</v>
       </c>
       <c r="I43" s="6"/>
@@ -11192,10 +11180,10 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="75" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="4"/>
@@ -11225,23 +11213,23 @@
       <c r="A46" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="79" t="s">
+      <c r="D46" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="79" t="s">
+      <c r="E46" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="F46" s="79"/>
+      <c r="F46" s="77"/>
       <c r="G46" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="H46" s="79" t="s">
+      <c r="H46" s="77" t="s">
         <v>269</v>
       </c>
       <c r="I46" s="6"/>
@@ -11339,21 +11327,21 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="65"/>
-      <c r="W49" s="65"/>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="65"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
     </row>
     <row r="50">
       <c r="A50" s="54" t="s">
@@ -11435,7 +11423,7 @@
       <c r="G52" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="H52" s="75" t="s">
+      <c r="H52" s="73" t="s">
         <v>294</v>
       </c>
       <c r="I52" s="6"/>
@@ -11456,10 +11444,10 @@
       <c r="B53" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="77" t="s">
         <v>298</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -11490,10 +11478,10 @@
       <c r="B54" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="77" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -11542,20 +11530,20 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -11568,26 +11556,26 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="56" t="s">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H57" s="56" t="s">
+      <c r="H57" s="4" t="s">
         <v>316</v>
       </c>
       <c r="I57" s="6"/>
@@ -11614,9 +11602,9 @@
       <c r="F58" s="56"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
@@ -11626,7 +11614,7 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="69" t="s">
         <v>319</v>
       </c>
       <c r="B59" s="55" t="s">
@@ -11648,9 +11636,9 @@
       <c r="H59" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
@@ -11660,12 +11648,12 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="80" t="s">
+      <c r="A60" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="56" t="s">
         <v>327</v>
       </c>
@@ -11678,9 +11666,9 @@
       <c r="H60" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
@@ -11690,16 +11678,16 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="F61" s="71" t="s">
+      <c r="F61" s="70" t="s">
         <v>332</v>
       </c>
       <c r="G61" s="56" t="s">
@@ -11708,9 +11696,9 @@
       <c r="H61" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
@@ -11720,31 +11708,31 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="69" t="s">
         <v>334</v>
       </c>
       <c r="B62" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="70" t="s">
         <v>337</v>
       </c>
       <c r="E62" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="F62" s="71"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="56" t="s">
         <v>339</v>
       </c>
       <c r="H62" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
@@ -11754,7 +11742,7 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="69" t="s">
         <v>341</v>
       </c>
       <c r="B63" s="55" t="s">
@@ -11812,7 +11800,7 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="69" t="s">
         <v>349</v>
       </c>
       <c r="B65" s="55" t="s">
@@ -11824,14 +11812,14 @@
       <c r="D65" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="E65" s="79" t="s">
+      <c r="E65" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="F65" s="83"/>
-      <c r="G65" s="79" t="s">
+      <c r="F65" s="81"/>
+      <c r="G65" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="H65" s="84" t="s">
+      <c r="H65" s="82" t="s">
         <v>355</v>
       </c>
       <c r="I65" s="6"/>
@@ -11846,16 +11834,16 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="85" t="s">
+      <c r="A66" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="85" t="s">
         <v>351</v>
       </c>
-      <c r="D66" s="88" t="s">
+      <c r="D66" s="86" t="s">
         <v>352</v>
       </c>
       <c r="E66" s="49" t="s">
@@ -11880,7 +11868,7 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="69" t="s">
         <v>358</v>
       </c>
       <c r="B67" s="55" t="s">
@@ -11899,7 +11887,7 @@
       <c r="G67" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="H67" s="89" t="s">
+      <c r="H67" s="87" t="s">
         <v>364</v>
       </c>
       <c r="I67" s="6"/>
@@ -11926,14 +11914,14 @@
       <c r="D68" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="81" t="s">
         <v>369</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
+      <c r="F68" s="81"/>
+      <c r="G68" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="H68" s="90" t="s">
+      <c r="H68" s="88" t="s">
         <v>370</v>
       </c>
       <c r="I68" s="6"/>
@@ -11948,10 +11936,10 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="67" t="s">
         <v>372</v>
       </c>
       <c r="C69" s="4"/>
@@ -11974,7 +11962,7 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="90" t="s">
         <v>374</v>
       </c>
       <c r="B70" s="38" t="s">
@@ -12008,8 +11996,8 @@
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="56"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -12022,24 +12010,24 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="69" t="s">
         <v>377</v>
       </c>
       <c r="B72" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="F72" s="71" t="s">
+      <c r="F72" s="70" t="s">
         <v>380</v>
       </c>
-      <c r="G72" s="57" t="s">
+      <c r="G72" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="H72" s="57" t="s">
+      <c r="H72" s="56" t="s">
         <v>382</v>
       </c>
       <c r="I72" s="6"/>
@@ -12054,7 +12042,7 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="69" t="s">
         <v>383</v>
       </c>
       <c r="B73" s="55" t="s">
@@ -12062,12 +12050,12 @@
       </c>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
-      <c r="E73" s="62" t="s">
+      <c r="E73" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="F73" s="71"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -12080,25 +12068,27 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>378</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="94" t="s">
-        <v>379</v>
-      </c>
-      <c r="F74" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="G74" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="H74" s="49" t="s">
-        <v>382</v>
+      <c r="A74" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="H74" s="73" t="s">
+        <v>392</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -12112,20 +12102,28 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="B75" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="94" t="s">
-        <v>385</v>
-      </c>
-      <c r="F75" s="95"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="95"/>
+      <c r="A75" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" s="92" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="D75" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="H75" s="73" t="s">
+        <v>394</v>
+      </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -12138,28 +12136,18 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="D76" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>390</v>
-      </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="H76" s="96" t="s">
-        <v>392</v>
-      </c>
+      <c r="A76" s="90" t="s">
+        <v>395</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -12172,27 +12160,23 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="97" t="s">
-        <v>386</v>
-      </c>
-      <c r="B77" s="98" t="s">
-        <v>387</v>
-      </c>
-      <c r="C77" s="87" t="s">
-        <v>388</v>
-      </c>
-      <c r="D77" s="88" t="s">
-        <v>389</v>
-      </c>
+      <c r="A77" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="49" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F77" s="13"/>
-      <c r="G77" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="H77" s="75" t="s">
-        <v>394</v>
+      <c r="G77" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="H77" s="73" t="s">
+        <v>401</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -12206,18 +12190,24 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="92" t="s">
-        <v>395</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>396</v>
+      <c r="A78" s="89" t="s">
+        <v>402</v>
+      </c>
+      <c r="B78" s="67" t="s">
+        <v>403</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="93" t="s">
+        <v>404</v>
+      </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -12231,26 +12221,28 @@
     </row>
     <row r="79">
       <c r="A79" s="48" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>399</v>
+        <v>6</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>408</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E79" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="H79" s="75" t="s">
-        <v>403</v>
+        <v>410</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H79" s="94" t="s">
+        <v>413</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -12264,23 +12256,27 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="91" t="s">
-        <v>404</v>
-      </c>
-      <c r="B80" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="99" t="s">
-        <v>406</v>
+      <c r="A80" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="E80" s="58" t="s">
+        <v>418</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H80" s="100" t="s">
-        <v>408</v>
+        <v>419</v>
+      </c>
+      <c r="H80" s="95" t="s">
+        <v>420</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -12294,29 +12290,27 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="B81" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="D81" s="49" t="s">
-        <v>411</v>
-      </c>
-      <c r="E81" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="F81" s="79" t="s">
-        <v>413</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="A81" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="H81" s="101" t="s">
+      <c r="B81" s="92" t="s">
         <v>415</v>
+      </c>
+      <c r="C81" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" s="86" t="s">
+        <v>417</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="F81" s="96"/>
+      <c r="G81" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -12330,27 +12324,27 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="B82" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="C82" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="D82" s="86" t="s">
         <v>417</v>
       </c>
-      <c r="C82" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>419</v>
-      </c>
       <c r="E82" s="58" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -12364,28 +12358,20 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="97" t="s">
-        <v>416</v>
-      </c>
-      <c r="B83" s="98" t="s">
-        <v>417</v>
-      </c>
-      <c r="C83" s="88" t="s">
-        <v>418</v>
-      </c>
-      <c r="D83" s="88" t="s">
-        <v>419</v>
-      </c>
-      <c r="E83" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="F83" s="102"/>
-      <c r="G83" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="H83" s="103" t="s">
-        <v>424</v>
-      </c>
+      <c r="A83" s="90" t="s">
+        <v>426</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="D83" s="49"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -12398,28 +12384,20 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="97" t="s">
-        <v>416</v>
-      </c>
-      <c r="B84" s="98" t="s">
-        <v>417</v>
-      </c>
-      <c r="C84" s="88" t="s">
-        <v>418</v>
-      </c>
-      <c r="D84" s="88" t="s">
-        <v>419</v>
-      </c>
-      <c r="E84" s="58" t="s">
-        <v>425</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H84" s="104" t="s">
-        <v>427</v>
-      </c>
+      <c r="A84" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="D84" s="57"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -12432,20 +12410,28 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="92" t="s">
-        <v>428</v>
-      </c>
-      <c r="B85" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C85" s="105" t="s">
-        <v>430</v>
-      </c>
-      <c r="D85" s="49"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="A85" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" s="55" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D85" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="E85" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="F85" s="49"/>
+      <c r="G85" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="H85" s="99" t="s">
+        <v>437</v>
+      </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -12458,20 +12444,28 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="46" t="s">
-        <v>431</v>
-      </c>
-      <c r="B86" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="C86" s="106" t="s">
-        <v>430</v>
-      </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
+      <c r="A86" s="69" t="s">
+        <v>438</v>
+      </c>
+      <c r="B86" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="C86" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="F86" s="49"/>
+      <c r="G86" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H86" s="95" t="s">
+        <v>441</v>
+      </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -12484,968 +12478,960 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="70" t="s">
-        <v>433</v>
+      <c r="A87" s="69" t="s">
+        <v>442</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="C87" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="E87" s="79" t="s">
-        <v>437</v>
-      </c>
-      <c r="F87" s="79"/>
-      <c r="G87" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="H87" s="107" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="C87" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="D87" s="49"/>
+      <c r="E87" s="101" t="s">
+        <v>445</v>
+      </c>
+      <c r="F87" s="101"/>
+      <c r="G87" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="H87" s="102" t="s">
+        <v>447</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="70" t="s">
-        <v>440</v>
-      </c>
-      <c r="B88" s="55" t="s">
-        <v>441</v>
-      </c>
-      <c r="C88" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H88" s="104" t="s">
-        <v>443</v>
-      </c>
+      <c r="A88" s="90" t="s">
+        <v>448</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C88" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="B89" s="55" t="s">
-        <v>445</v>
-      </c>
-      <c r="C89" s="108" t="s">
-        <v>446</v>
-      </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49" t="s">
-        <v>447</v>
+      <c r="A89" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" s="55"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="58" t="s">
+        <v>418</v>
       </c>
       <c r="F89" s="49"/>
       <c r="G89" s="36" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H89" s="49" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="92" t="s">
+      <c r="A90" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="B90" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="C90" s="109" t="s">
-        <v>430</v>
-      </c>
+      <c r="B90" s="104"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="E90" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="F90" s="49"/>
+      <c r="G90" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="H90" s="49" t="s">
+        <v>454</v>
+      </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="E91" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="F91" s="79"/>
-      <c r="G91" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="H91" s="49" t="s">
-        <v>454</v>
+        <v>459</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H91" s="39" t="s">
+        <v>460</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="B92" s="110"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="111" t="s">
-        <v>420</v>
-      </c>
-      <c r="F92" s="79"/>
+      <c r="A92" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" s="105"/>
       <c r="G92" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="H92" s="79" t="s">
-        <v>456</v>
+        <v>463</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>464</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E93" s="111" t="s">
-        <v>461</v>
-      </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H93" s="83" t="s">
-        <v>462</v>
+      <c r="A93" s="69" t="s">
+        <v>465</v>
+      </c>
+      <c r="B93" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="C93" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="77" t="s">
+        <v>468</v>
+      </c>
+      <c r="E93" s="77" t="s">
+        <v>469</v>
+      </c>
+      <c r="F93" s="77"/>
+      <c r="G93" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>471</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="B94" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="F94" s="112"/>
-      <c r="G94" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="H94" s="36" t="s">
-        <v>466</v>
+      <c r="A94" s="69" t="s">
+        <v>472</v>
+      </c>
+      <c r="B94" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H94" s="39" t="s">
+        <v>476</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="70" t="s">
-        <v>467</v>
+      <c r="A95" s="69" t="s">
+        <v>477</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="D95" s="49" t="s">
-        <v>470</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="49" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F95" s="49"/>
-      <c r="G95" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="H95" s="113" t="s">
-        <v>473</v>
+      <c r="G95" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H95" s="95" t="s">
+        <v>480</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="70" t="s">
-        <v>474</v>
+      <c r="A96" s="69" t="s">
+        <v>481</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="49" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H96" s="104" t="s">
-        <v>478</v>
+        <v>475</v>
+      </c>
+      <c r="H96" s="95" t="s">
+        <v>484</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="70" t="s">
-        <v>479</v>
+      <c r="A97" s="69" t="s">
+        <v>485</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
       <c r="E97" s="49" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H97" s="39" t="s">
-        <v>482</v>
+        <v>475</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="70" t="s">
-        <v>483</v>
+      <c r="A98" s="69" t="s">
+        <v>489</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>484</v>
-      </c>
-      <c r="C98" s="49"/>
+        <v>490</v>
+      </c>
+      <c r="C98" s="107" t="s">
+        <v>491</v>
+      </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49" t="s">
-        <v>485</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H98" s="39" t="s">
-        <v>486</v>
+        <v>492</v>
+      </c>
+      <c r="F98" s="39"/>
+      <c r="G98" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="H98" s="49" t="s">
+        <v>494</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="70" t="s">
-        <v>487</v>
-      </c>
-      <c r="B99" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="C99" s="49"/>
+      <c r="A99" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="C99" s="97" t="s">
+        <v>428</v>
+      </c>
       <c r="D99" s="49"/>
-      <c r="E99" s="49" t="s">
-        <v>489</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>490</v>
-      </c>
+      <c r="E99" s="39"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="70" t="s">
-        <v>491</v>
+      <c r="A100" s="69" t="s">
+        <v>497</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>492</v>
-      </c>
-      <c r="C100" s="114" t="s">
-        <v>493</v>
-      </c>
-      <c r="D100" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>57</v>
+      </c>
       <c r="E100" s="49" t="s">
-        <v>494</v>
-      </c>
-      <c r="F100" s="39"/>
-      <c r="G100" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="H100" s="49" t="s">
-        <v>496</v>
+        <v>498</v>
+      </c>
+      <c r="F100" s="49"/>
+      <c r="G100" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>499</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="B101" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="C101" s="105" t="s">
-        <v>430</v>
-      </c>
-      <c r="D101" s="49"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="69" t="s">
+        <v>500</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>501</v>
+      </c>
       <c r="F101" s="49"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
+      <c r="G101" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H101" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="70" t="s">
-        <v>499</v>
+      <c r="A102" s="69" t="s">
+        <v>503</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F102" s="49"/>
-      <c r="G102" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H102" s="115" t="s">
-        <v>501</v>
+      <c r="G102" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" s="95" t="s">
+        <v>505</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="70" t="s">
-        <v>502</v>
+      <c r="A103" s="69" t="s">
+        <v>506</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F103" s="49"/>
-      <c r="G103" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H103" s="116" t="s">
-        <v>504</v>
+      <c r="G103" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" s="95" t="s">
+        <v>508</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="70" t="s">
-        <v>505</v>
+      <c r="A104" s="69" t="s">
+        <v>509</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E104" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="F104" s="49"/>
-      <c r="G104" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H104" s="104" t="s">
-        <v>507</v>
+        <v>84</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="G104" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H104" s="99" t="s">
+        <v>512</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="70" t="s">
-        <v>508</v>
+      <c r="A105" s="69" t="s">
+        <v>513</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H105" s="104" t="s">
-        <v>510</v>
+        <v>94</v>
+      </c>
+      <c r="H105" s="95" t="s">
+        <v>516</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="70" t="s">
-        <v>511</v>
+      <c r="A106" s="69" t="s">
+        <v>517</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="E106" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="F106" s="83" t="s">
-        <v>513</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H106" s="107" t="s">
-        <v>514</v>
+        <v>98</v>
+      </c>
+      <c r="D106" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="77" t="s">
+        <v>518</v>
+      </c>
+      <c r="F106" s="77"/>
+      <c r="G106" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="H106" s="109" t="s">
+        <v>519</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="70" t="s">
-        <v>515</v>
+      <c r="A107" s="69" t="s">
+        <v>520</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D107" s="49" t="s">
-        <v>516</v>
+        <v>119</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F107" s="49"/>
-      <c r="G107" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H107" s="39" t="s">
-        <v>518</v>
+      <c r="G107" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="H107" s="49" t="s">
+        <v>523</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="70" t="s">
-        <v>519</v>
+      <c r="A108" s="69" t="s">
+        <v>524</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F108" s="49"/>
-      <c r="G108" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H108" s="43" t="s">
-        <v>521</v>
+      <c r="G108" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="H108" s="49" t="s">
+        <v>527</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="70" t="s">
+      <c r="A109" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="B109" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="F109" s="77"/>
+      <c r="G109" s="110" t="s">
         <v>522</v>
       </c>
-      <c r="B109" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D109" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E109" s="79" t="s">
-        <v>523</v>
-      </c>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79" t="s">
-        <v>524</v>
-      </c>
-      <c r="H109" s="107" t="s">
-        <v>525</v>
+      <c r="H109" s="111" t="s">
+        <v>531</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="70" t="s">
-        <v>526</v>
+      <c r="A110" s="69" t="s">
+        <v>532</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H110" s="49" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="70" t="s">
-        <v>530</v>
+      <c r="A111" s="69" t="s">
+        <v>535</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C111" s="49" t="s">
-        <v>133</v>
+        <v>536</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>537</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E111" s="117" t="s">
-        <v>532</v>
-      </c>
-      <c r="F111" s="117"/>
-      <c r="G111" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="H111" s="45" t="s">
-        <v>533</v>
+        <v>538</v>
+      </c>
+      <c r="E111" s="112" t="s">
+        <v>539</v>
+      </c>
+      <c r="F111" s="113"/>
+      <c r="G111" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H111" s="114" t="s">
+        <v>541</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="B112" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D112" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="E112" s="79" t="s">
-        <v>535</v>
-      </c>
-      <c r="F112" s="79"/>
-      <c r="G112" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="H112" s="79" t="s">
-        <v>536</v>
+      <c r="A112" s="18"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="106" t="s">
+        <v>539</v>
+      </c>
+      <c r="F112" s="81"/>
+      <c r="G112" s="108" t="s">
+        <v>542</v>
+      </c>
+      <c r="H112" s="108" t="s">
+        <v>543</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="70" t="s">
-        <v>537</v>
-      </c>
-      <c r="B113" s="55" t="s">
-        <v>538</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="D113" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="E113" s="58" t="s">
-        <v>541</v>
-      </c>
-      <c r="F113" s="39"/>
-      <c r="G113" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="H113" s="118" t="s">
-        <v>543</v>
-      </c>
+      <c r="A113" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C113" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="18"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="58" t="s">
-        <v>541</v>
-      </c>
-      <c r="F114" s="39"/>
-      <c r="G114" s="43" t="s">
-        <v>544</v>
-      </c>
-      <c r="H114" s="43" t="s">
-        <v>545</v>
+      <c r="A114" s="69" t="s">
+        <v>546</v>
+      </c>
+      <c r="B114" s="55" t="s">
+        <v>547</v>
+      </c>
+      <c r="C114" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="D114" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E114" s="49" t="s">
+        <v>549</v>
+      </c>
+      <c r="F114" s="49"/>
+      <c r="G114" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="H114" s="49" t="s">
+        <v>551</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="48" t="s">
-        <v>546</v>
-      </c>
-      <c r="B115" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="C115" s="109" t="s">
-        <v>430</v>
-      </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="A115" s="78" t="s">
+        <v>552</v>
+      </c>
+      <c r="B115" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="115" t="s">
+        <v>553</v>
+      </c>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="F115" s="49"/>
+      <c r="G115" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="H115" s="49" t="s">
+        <v>556</v>
+      </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="70" t="s">
-        <v>548</v>
+      <c r="A116" s="69" t="s">
+        <v>557</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>549</v>
-      </c>
-      <c r="C116" s="79" t="s">
-        <v>550</v>
-      </c>
-      <c r="D116" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="E116" s="117" t="s">
-        <v>551</v>
-      </c>
-      <c r="F116" s="117"/>
-      <c r="G116" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="H116" s="79" t="s">
-        <v>553</v>
+        <v>558</v>
+      </c>
+      <c r="C116" s="77" t="s">
+        <v>559</v>
+      </c>
+      <c r="D116" s="77" t="s">
+        <v>560</v>
+      </c>
+      <c r="E116" s="116" t="s">
+        <v>561</v>
+      </c>
+      <c r="F116" s="116"/>
+      <c r="G116" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H116" s="81" t="s">
+        <v>563</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="80" t="s">
-        <v>554</v>
-      </c>
-      <c r="B117" s="81" t="s">
+      <c r="A117" s="78" t="s">
+        <v>564</v>
+      </c>
+      <c r="B117" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C117" s="119" t="s">
-        <v>555</v>
+      <c r="C117" s="115" t="s">
+        <v>553</v>
       </c>
       <c r="D117" s="49"/>
-      <c r="E117" s="117" t="s">
-        <v>556</v>
-      </c>
-      <c r="F117" s="117"/>
-      <c r="G117" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="H117" s="49" t="s">
-        <v>558</v>
+      <c r="E117" s="116" t="s">
+        <v>565</v>
+      </c>
+      <c r="F117" s="116"/>
+      <c r="G117" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H117" s="39" t="s">
+        <v>567</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="70" t="s">
-        <v>559</v>
+      <c r="A118" s="69" t="s">
+        <v>568</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>560</v>
-      </c>
-      <c r="C118" s="49" t="s">
-        <v>561</v>
-      </c>
-      <c r="D118" s="79" t="s">
-        <v>562</v>
-      </c>
-      <c r="E118" s="79" t="s">
-        <v>563</v>
-      </c>
-      <c r="F118" s="79"/>
-      <c r="G118" s="120" t="s">
-        <v>564</v>
-      </c>
-      <c r="H118" s="120" t="s">
-        <v>565</v>
+        <v>569</v>
+      </c>
+      <c r="C118" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="D118" s="70" t="s">
+        <v>571</v>
+      </c>
+      <c r="E118" s="117" t="s">
+        <v>572</v>
+      </c>
+      <c r="F118" s="117"/>
+      <c r="G118" s="70" t="s">
+        <v>573</v>
+      </c>
+      <c r="H118" s="70" t="s">
+        <v>574</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="80" t="s">
-        <v>566</v>
-      </c>
-      <c r="B119" s="81" t="s">
+      <c r="A119" s="78" t="s">
+        <v>575</v>
+      </c>
+      <c r="B119" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C119" s="119" t="s">
-        <v>555</v>
-      </c>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49" t="s">
-        <v>567</v>
-      </c>
-      <c r="F119" s="49"/>
-      <c r="G119" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="H119" s="40" t="s">
-        <v>569</v>
+      <c r="C119" s="118" t="s">
+        <v>553</v>
+      </c>
+      <c r="D119" s="56"/>
+      <c r="E119" s="117" t="s">
+        <v>576</v>
+      </c>
+      <c r="F119" s="56"/>
+      <c r="G119" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="H119" s="57" t="s">
+        <v>578</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="70" t="s">
-        <v>570</v>
+      <c r="A120" s="69" t="s">
+        <v>579</v>
       </c>
       <c r="B120" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="C120" s="71" t="s">
-        <v>572</v>
-      </c>
-      <c r="D120" s="71" t="s">
+        <v>580</v>
+      </c>
+      <c r="C120" s="70" t="s">
+        <v>581</v>
+      </c>
+      <c r="D120" s="70" t="s">
+        <v>582</v>
+      </c>
+      <c r="E120" s="119" t="s">
+        <v>583</v>
+      </c>
+      <c r="F120" s="119"/>
+      <c r="G120" s="56" t="s">
         <v>573</v>
       </c>
-      <c r="E120" s="121" t="s">
-        <v>574</v>
-      </c>
-      <c r="F120" s="121"/>
-      <c r="G120" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="H120" s="57" t="s">
-        <v>576</v>
+      <c r="H120" s="56" t="s">
+        <v>584</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="80" t="s">
-        <v>577</v>
-      </c>
-      <c r="B121" s="81" t="s">
+      <c r="A121" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="B121" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C121" s="122" t="s">
-        <v>555</v>
-      </c>
-      <c r="D121" s="71"/>
-      <c r="E121" s="121" t="s">
-        <v>578</v>
+      <c r="C121" s="120" t="s">
+        <v>553</v>
+      </c>
+      <c r="D121" s="70"/>
+      <c r="E121" s="119" t="s">
+        <v>586</v>
       </c>
       <c r="F121" s="56"/>
       <c r="G121" s="57" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H121" s="57" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="70" t="s">
-        <v>581</v>
+      <c r="A122" s="69" t="s">
+        <v>588</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>582</v>
-      </c>
-      <c r="C122" s="71" t="s">
-        <v>583</v>
-      </c>
-      <c r="D122" s="71" t="s">
-        <v>584</v>
-      </c>
-      <c r="E122" s="121" t="s">
-        <v>585</v>
-      </c>
-      <c r="F122" s="121"/>
-      <c r="G122" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="H122" s="57" t="s">
-        <v>586</v>
+        <v>589</v>
+      </c>
+      <c r="C122" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122" s="70" t="s">
+        <v>590</v>
+      </c>
+      <c r="E122" s="119" t="s">
+        <v>591</v>
+      </c>
+      <c r="F122" s="119"/>
+      <c r="G122" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="H122" s="56" t="s">
+        <v>593</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="80" t="s">
-        <v>587</v>
-      </c>
-      <c r="B123" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="C123" s="122" t="s">
-        <v>555</v>
-      </c>
-      <c r="D123" s="71"/>
-      <c r="E123" s="82" t="s">
-        <v>588</v>
-      </c>
-      <c r="F123" s="82"/>
-      <c r="G123" s="57" t="s">
-        <v>579</v>
-      </c>
-      <c r="H123" s="57" t="s">
-        <v>589</v>
-      </c>
+      <c r="A123" s="89" t="s">
+        <v>594</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="70" t="s">
-        <v>590</v>
-      </c>
-      <c r="B124" s="55" t="s">
-        <v>591</v>
-      </c>
-      <c r="C124" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="D124" s="71" t="s">
-        <v>592</v>
-      </c>
-      <c r="E124" s="56" t="s">
-        <v>593</v>
-      </c>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="H124" s="56" t="s">
-        <v>595</v>
+      <c r="A124" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="B124" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E124" s="116" t="s">
+        <v>597</v>
+      </c>
+      <c r="F124" s="116"/>
+      <c r="G124" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="H124" s="122" t="s">
+        <v>598</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="91" t="s">
-        <v>596</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="C125" s="6"/>
+      <c r="A125" s="90" t="s">
+        <v>599</v>
+      </c>
+      <c r="B125" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="C125" s="123" t="s">
+        <v>428</v>
+      </c>
       <c r="D125" s="6"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="124"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="6"/>
@@ -13453,921 +13439,917 @@
       <c r="K125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="92" t="s">
-        <v>598</v>
-      </c>
-      <c r="B126" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="C126" s="79" t="s">
-        <v>367</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E126" s="117" t="s">
-        <v>599</v>
-      </c>
-      <c r="F126" s="117"/>
-      <c r="G126" s="123" t="s">
-        <v>180</v>
-      </c>
-      <c r="H126" s="124" t="s">
-        <v>600</v>
+      <c r="A126" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="B126" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="C126" s="125" t="s">
+        <v>428</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="113" t="s">
+        <v>603</v>
+      </c>
+      <c r="F126" s="116"/>
+      <c r="G126" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>604</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="92" t="s">
-        <v>601</v>
-      </c>
-      <c r="B127" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="C127" s="125" t="s">
-        <v>430</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
+      <c r="A127" s="69" t="s">
+        <v>605</v>
+      </c>
+      <c r="B127" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" s="116" t="s">
+        <v>606</v>
+      </c>
+      <c r="F127" s="116"/>
+      <c r="G127" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127" s="39" t="s">
+        <v>607</v>
+      </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="48" t="s">
-        <v>603</v>
-      </c>
-      <c r="B128" s="47" t="s">
-        <v>604</v>
-      </c>
-      <c r="C128" s="127" t="s">
-        <v>430</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="39" t="s">
-        <v>605</v>
+      <c r="A128" s="69" t="s">
+        <v>608</v>
+      </c>
+      <c r="B128" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E128" s="49" t="s">
+        <v>609</v>
       </c>
       <c r="F128" s="49"/>
-      <c r="G128" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H128" s="113" t="s">
-        <v>606</v>
+      <c r="G128" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" s="95" t="s">
+        <v>610</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="70" t="s">
-        <v>607</v>
+      <c r="A129" s="69" t="s">
+        <v>611</v>
       </c>
       <c r="B129" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D129" s="79" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+      <c r="C129" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" s="77" t="s">
+        <v>78</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H129" s="104" t="s">
-        <v>609</v>
+        <v>73</v>
+      </c>
+      <c r="H129" s="95" t="s">
+        <v>613</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="70" t="s">
-        <v>610</v>
+      <c r="A130" s="69" t="s">
+        <v>614</v>
       </c>
       <c r="B130" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C130" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D130" s="79" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="C130" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="77" t="s">
+        <v>514</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H130" s="104" t="s">
-        <v>612</v>
+        <v>616</v>
+      </c>
+      <c r="H130" s="95" t="s">
+        <v>617</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="70" t="s">
-        <v>613</v>
+      <c r="A131" s="69" t="s">
+        <v>618</v>
       </c>
       <c r="B131" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D131" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="E131" s="79" t="s">
-        <v>614</v>
-      </c>
-      <c r="F131" s="79"/>
-      <c r="G131" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="H131" s="83" t="s">
-        <v>615</v>
+        <v>97</v>
+      </c>
+      <c r="C131" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="77" t="s">
+        <v>619</v>
+      </c>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="H131" s="77" t="s">
+        <v>620</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="70" t="s">
-        <v>616</v>
+      <c r="A132" s="69" t="s">
+        <v>621</v>
       </c>
       <c r="B132" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C132" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="79" t="s">
-        <v>516</v>
+        <v>117</v>
+      </c>
+      <c r="C132" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D132" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="F132" s="49"/>
-      <c r="G132" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="H132" s="39" t="s">
-        <v>619</v>
+      <c r="G132" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="H132" s="49" t="s">
+        <v>523</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="70" t="s">
-        <v>620</v>
+      <c r="A133" s="69" t="s">
+        <v>623</v>
       </c>
       <c r="B133" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D133" s="79" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="C133" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
-        <v>101</v>
+        <v>526</v>
       </c>
       <c r="H133" s="49" t="s">
-        <v>622</v>
+        <v>527</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="70" t="s">
-        <v>623</v>
+      <c r="A134" s="69" t="s">
+        <v>625</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="D134" s="79" t="s">
-        <v>119</v>
+        <v>529</v>
+      </c>
+      <c r="C134" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F134" s="49"/>
-      <c r="G134" s="49" t="s">
-        <v>524</v>
-      </c>
-      <c r="H134" s="49" t="s">
-        <v>525</v>
+      <c r="G134" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H134" s="45" t="s">
+        <v>627</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="70" t="s">
-        <v>625</v>
+      <c r="A135" s="69" t="s">
+        <v>628</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C135" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="D135" s="79" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+      <c r="C135" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H135" s="49" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="70" t="s">
-        <v>627</v>
-      </c>
-      <c r="B136" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C136" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="D136" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="E136" s="49" t="s">
-        <v>628</v>
-      </c>
-      <c r="F136" s="49"/>
-      <c r="G136" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="H136" s="45" t="s">
-        <v>629</v>
+      <c r="A136" s="48" t="s">
+        <v>630</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="C136" s="125" t="s">
+        <v>428</v>
+      </c>
+      <c r="D136" s="126"/>
+      <c r="E136" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="H136" s="36" t="s">
+        <v>604</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="70" t="s">
-        <v>630</v>
+      <c r="A137" s="69" t="s">
+        <v>634</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C137" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D137" s="79" t="s">
-        <v>126</v>
+        <v>55</v>
+      </c>
+      <c r="C137" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" s="77" t="s">
+        <v>57</v>
       </c>
       <c r="E137" s="49" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F137" s="49"/>
-      <c r="G137" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="H137" s="49" t="s">
-        <v>536</v>
+      <c r="G137" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H137" s="39" t="s">
+        <v>636</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="48" t="s">
-        <v>632</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="C138" s="127" t="s">
-        <v>430</v>
-      </c>
-      <c r="D138" s="128"/>
-      <c r="E138" s="39" t="s">
-        <v>634</v>
+      <c r="A138" s="69" t="s">
+        <v>637</v>
+      </c>
+      <c r="B138" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E138" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="F138" s="49"/>
-      <c r="G138" s="36" t="s">
-        <v>635</v>
-      </c>
-      <c r="H138" s="36" t="s">
-        <v>606</v>
+      <c r="G138" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" s="39" t="s">
+        <v>639</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="70" t="s">
-        <v>636</v>
+      <c r="A139" s="69" t="s">
+        <v>640</v>
       </c>
       <c r="B139" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C139" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D139" s="79" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+      <c r="C139" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139" s="77" t="s">
+        <v>78</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F139" s="49"/>
       <c r="G139" s="39" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="70" t="s">
-        <v>639</v>
+      <c r="A140" s="69" t="s">
+        <v>643</v>
       </c>
       <c r="B140" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C140" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D140" s="79" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="C140" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D140" s="77" t="s">
+        <v>514</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F140" s="49"/>
       <c r="G140" s="39" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="70" t="s">
-        <v>642</v>
+      <c r="A141" s="69" t="s">
+        <v>646</v>
       </c>
       <c r="B141" s="55" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C141" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D141" s="79" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="D141" s="77" t="s">
+        <v>99</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F141" s="49"/>
       <c r="G141" s="39" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="70" t="s">
-        <v>645</v>
+      <c r="A142" s="69" t="s">
+        <v>649</v>
       </c>
       <c r="B142" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C142" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D142" s="79" t="s">
-        <v>516</v>
+        <v>117</v>
+      </c>
+      <c r="C142" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="F142" s="79"/>
-      <c r="G142" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H142" s="39" t="s">
-        <v>647</v>
+        <v>650</v>
+      </c>
+      <c r="F142" s="77"/>
+      <c r="G142" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="H142" s="49" t="s">
+        <v>523</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="70" t="s">
-        <v>648</v>
+      <c r="A143" s="69" t="s">
+        <v>651</v>
       </c>
       <c r="B143" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C143" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D143" s="79" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="C143" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F143" s="49"/>
-      <c r="G143" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="H143" s="39" t="s">
-        <v>650</v>
+      <c r="G143" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="H143" s="49" t="s">
+        <v>527</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="70" t="s">
-        <v>651</v>
+      <c r="A144" s="69" t="s">
+        <v>653</v>
       </c>
       <c r="B144" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C144" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="D144" s="79" t="s">
-        <v>119</v>
+        <v>529</v>
+      </c>
+      <c r="C144" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="E144" s="49" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F144" s="49"/>
-      <c r="G144" s="49" t="s">
-        <v>524</v>
-      </c>
-      <c r="H144" s="49" t="s">
-        <v>525</v>
+      <c r="G144" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H144" s="45" t="s">
+        <v>655</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="70" t="s">
-        <v>653</v>
+      <c r="A145" s="69" t="s">
+        <v>656</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C145" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="D145" s="79" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+      <c r="C145" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D145" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="E145" s="49" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H145" s="49" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="70" t="s">
-        <v>655</v>
-      </c>
-      <c r="B146" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C146" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="D146" s="79" t="s">
-        <v>134</v>
+      <c r="A146" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="C146" s="77" t="s">
+        <v>660</v>
+      </c>
+      <c r="D146" s="77" t="s">
+        <v>661</v>
       </c>
       <c r="E146" s="49" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F146" s="49"/>
-      <c r="G146" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="H146" s="45" t="s">
-        <v>657</v>
+      <c r="G146" s="121" t="s">
+        <v>663</v>
+      </c>
+      <c r="H146" s="122" t="s">
+        <v>664</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="70" t="s">
-        <v>658</v>
-      </c>
-      <c r="B147" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C147" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D147" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="E147" s="49" t="s">
-        <v>659</v>
-      </c>
-      <c r="F147" s="49"/>
-      <c r="G147" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="H147" s="49" t="s">
-        <v>536</v>
+      <c r="A147" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="B147" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="39" t="s">
+        <v>667</v>
+      </c>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H147" s="36" t="s">
+        <v>604</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="48" t="s">
-        <v>660</v>
-      </c>
-      <c r="B148" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="C148" s="79" t="s">
-        <v>662</v>
-      </c>
-      <c r="D148" s="79" t="s">
-        <v>663</v>
+      <c r="A148" s="69" t="s">
+        <v>668</v>
+      </c>
+      <c r="B148" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D148" s="77" t="s">
+        <v>57</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="F148" s="49"/>
-      <c r="G148" s="129" t="s">
-        <v>665</v>
-      </c>
-      <c r="H148" s="130" t="s">
-        <v>666</v>
+      <c r="G148" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H148" s="39" t="s">
+        <v>670</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="48" t="s">
-        <v>667</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="39" t="s">
-        <v>669</v>
+      <c r="A149" s="69" t="s">
+        <v>671</v>
+      </c>
+      <c r="B149" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="49" t="s">
+        <v>672</v>
       </c>
       <c r="F149" s="49"/>
-      <c r="G149" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H149" s="36" t="s">
-        <v>606</v>
+      <c r="G149" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" s="39" t="s">
+        <v>673</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="70" t="s">
-        <v>670</v>
+      <c r="A150" s="69" t="s">
+        <v>674</v>
       </c>
       <c r="B150" s="55" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C150" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D150" s="79" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="D150" s="77" t="s">
+        <v>78</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="39" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H150" s="39" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="70" t="s">
-        <v>673</v>
+      <c r="A151" s="69" t="s">
+        <v>677</v>
       </c>
       <c r="B151" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C151" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D151" s="79" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="C151" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" s="77" t="s">
+        <v>514</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H151" s="104" t="s">
-        <v>675</v>
+        <v>94</v>
+      </c>
+      <c r="H151" s="95" t="s">
+        <v>679</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="70" t="s">
-        <v>676</v>
+      <c r="A152" s="69" t="s">
+        <v>680</v>
       </c>
       <c r="B152" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C152" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D152" s="79" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="C152" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152" s="77" t="s">
+        <v>99</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F152" s="49"/>
-      <c r="G152" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H152" s="39" t="s">
-        <v>678</v>
+      <c r="G152" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H152" s="49" t="s">
+        <v>682</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="70" t="s">
-        <v>679</v>
+      <c r="A153" s="69" t="s">
+        <v>683</v>
       </c>
       <c r="B153" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C153" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D153" s="79" t="s">
-        <v>516</v>
+        <v>117</v>
+      </c>
+      <c r="C153" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D153" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F153" s="49"/>
-      <c r="G153" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H153" s="39" t="s">
-        <v>681</v>
+      <c r="G153" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="H153" s="49" t="s">
+        <v>523</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="70" t="s">
-        <v>682</v>
+      <c r="A154" s="69" t="s">
+        <v>685</v>
       </c>
       <c r="B154" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C154" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D154" s="79" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="C154" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="H154" s="131" t="s">
-        <v>684</v>
+        <v>526</v>
+      </c>
+      <c r="H154" s="99" t="s">
+        <v>527</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="70" t="s">
-        <v>685</v>
+      <c r="A155" s="69" t="s">
+        <v>687</v>
       </c>
       <c r="B155" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C155" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="D155" s="79" t="s">
-        <v>119</v>
+        <v>529</v>
+      </c>
+      <c r="C155" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F155" s="49"/>
-      <c r="G155" s="49" t="s">
-        <v>524</v>
-      </c>
-      <c r="H155" s="131" t="s">
-        <v>525</v>
+      <c r="G155" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H155" s="127" t="s">
+        <v>689</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="70" t="s">
-        <v>687</v>
+      <c r="A156" s="69" t="s">
+        <v>690</v>
       </c>
       <c r="B156" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C156" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="D156" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="E156" s="79" t="s">
-        <v>688</v>
-      </c>
-      <c r="F156" s="79"/>
+        <v>124</v>
+      </c>
+      <c r="C156" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D156" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="E156" s="77" t="s">
+        <v>691</v>
+      </c>
+      <c r="F156" s="77"/>
       <c r="G156" s="49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H156" s="49" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="70" t="s">
-        <v>689</v>
-      </c>
-      <c r="B157" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C157" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="D157" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="E157" s="49" t="s">
-        <v>690</v>
-      </c>
-      <c r="F157" s="49"/>
-      <c r="G157" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="H157" s="45" t="s">
-        <v>691</v>
+      <c r="A157" s="90" t="s">
+        <v>692</v>
+      </c>
+      <c r="B157" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="C157" s="128" t="s">
+        <v>694</v>
+      </c>
+      <c r="D157" s="128" t="s">
+        <v>695</v>
+      </c>
+      <c r="E157" s="129" t="s">
+        <v>696</v>
+      </c>
+      <c r="F157" s="129"/>
+      <c r="G157" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="H157" s="130" t="s">
+        <v>698</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="70" t="s">
-        <v>692</v>
-      </c>
-      <c r="B158" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C158" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D158" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="E158" s="49" t="s">
-        <v>693</v>
-      </c>
-      <c r="F158" s="49"/>
-      <c r="G158" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="H158" s="49" t="s">
-        <v>536</v>
-      </c>
+      <c r="A158" s="119" t="s">
+        <v>699</v>
+      </c>
+      <c r="B158" s="56" t="s">
+        <v>700</v>
+      </c>
+      <c r="C158" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="D158" s="70"/>
+      <c r="E158" s="56" t="s">
+        <v>701</v>
+      </c>
+      <c r="F158" s="56"/>
+      <c r="G158" s="56"/>
+      <c r="H158" s="56"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="92" t="s">
-        <v>694</v>
-      </c>
-      <c r="B159" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="C159" s="132" t="s">
-        <v>696</v>
-      </c>
-      <c r="D159" s="132" t="s">
-        <v>697</v>
-      </c>
-      <c r="E159" s="133" t="s">
-        <v>698</v>
-      </c>
-      <c r="F159" s="133"/>
-      <c r="G159" s="134" t="s">
-        <v>699</v>
-      </c>
-      <c r="H159" s="134" t="s">
-        <v>700</v>
+      <c r="A159" s="119" t="s">
+        <v>702</v>
+      </c>
+      <c r="B159" s="56" t="s">
+        <v>703</v>
+      </c>
+      <c r="C159" s="70"/>
+      <c r="D159" s="70"/>
+      <c r="E159" s="56" t="s">
+        <v>704</v>
+      </c>
+      <c r="F159" s="56"/>
+      <c r="G159" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="H159" s="56" t="s">
+        <v>706</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="82" t="s">
-        <v>701</v>
+      <c r="A160" s="119" t="s">
+        <v>707</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>702</v>
-      </c>
-      <c r="C160" s="135" t="s">
-        <v>430</v>
-      </c>
-      <c r="D160" s="71"/>
-      <c r="E160" s="56" t="s">
-        <v>703</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="C160" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="D160" s="70"/>
+      <c r="E160" s="56"/>
       <c r="F160" s="56"/>
       <c r="G160" s="56"/>
       <c r="H160" s="56"/>
@@ -14376,254 +14358,186 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="82" t="s">
-        <v>704</v>
-      </c>
-      <c r="B161" s="71" t="s">
+      <c r="A161" s="119" t="s">
+        <v>709</v>
+      </c>
+      <c r="B161" s="70" t="s">
+        <v>710</v>
+      </c>
+      <c r="C161" s="70"/>
+      <c r="D161" s="70"/>
+      <c r="E161" s="70" t="s">
+        <v>711</v>
+      </c>
+      <c r="F161" s="70"/>
+      <c r="G161" s="70" t="s">
         <v>705</v>
       </c>
-      <c r="C161" s="71"/>
-      <c r="D161" s="71"/>
-      <c r="E161" s="71" t="s">
-        <v>706</v>
-      </c>
-      <c r="F161" s="71"/>
-      <c r="G161" s="71" t="s">
-        <v>707</v>
-      </c>
-      <c r="H161" s="136" t="s">
-        <v>708</v>
+      <c r="H161" s="132" t="s">
+        <v>712</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="82" t="s">
-        <v>709</v>
-      </c>
-      <c r="B162" s="71" t="s">
-        <v>710</v>
-      </c>
-      <c r="C162" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="D162" s="71"/>
-      <c r="E162" s="71"/>
-      <c r="F162" s="71"/>
-      <c r="G162" s="71"/>
-      <c r="H162" s="71"/>
+      <c r="A162" s="119" t="s">
+        <v>713</v>
+      </c>
+      <c r="B162" s="70" t="s">
+        <v>714</v>
+      </c>
+      <c r="C162" s="70"/>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70" t="s">
+        <v>715</v>
+      </c>
+      <c r="F162" s="70"/>
+      <c r="G162" s="70" t="s">
+        <v>705</v>
+      </c>
+      <c r="H162" s="70" t="s">
+        <v>716</v>
+      </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="82" t="s">
-        <v>711</v>
-      </c>
-      <c r="B163" s="71" t="s">
-        <v>712</v>
-      </c>
-      <c r="C163" s="71"/>
-      <c r="D163" s="71"/>
-      <c r="E163" s="71" t="s">
-        <v>713</v>
-      </c>
-      <c r="F163" s="71"/>
-      <c r="G163" s="71" t="s">
-        <v>707</v>
-      </c>
-      <c r="H163" s="71" t="s">
-        <v>714</v>
+      <c r="A163" s="119" t="s">
+        <v>717</v>
+      </c>
+      <c r="B163" s="70" t="s">
+        <v>718</v>
+      </c>
+      <c r="C163" s="70"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70" t="s">
+        <v>719</v>
+      </c>
+      <c r="F163" s="70"/>
+      <c r="G163" s="70" t="s">
+        <v>705</v>
+      </c>
+      <c r="H163" s="133" t="s">
+        <v>720</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="82" t="s">
-        <v>715</v>
-      </c>
-      <c r="B164" s="71" t="s">
-        <v>716</v>
-      </c>
-      <c r="C164" s="71"/>
-      <c r="D164" s="71"/>
-      <c r="E164" s="71" t="s">
-        <v>717</v>
-      </c>
-      <c r="F164" s="71"/>
-      <c r="G164" s="71" t="s">
-        <v>707</v>
-      </c>
-      <c r="H164" s="136" t="s">
-        <v>718</v>
+      <c r="A164" s="119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B164" s="70" t="s">
+        <v>722</v>
+      </c>
+      <c r="C164" s="70"/>
+      <c r="D164" s="70"/>
+      <c r="E164" s="70" t="s">
+        <v>723</v>
+      </c>
+      <c r="F164" s="70"/>
+      <c r="G164" s="70" t="s">
+        <v>705</v>
+      </c>
+      <c r="H164" s="133" t="s">
+        <v>724</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="82" t="s">
-        <v>719</v>
-      </c>
-      <c r="B165" s="71" t="s">
-        <v>720</v>
-      </c>
-      <c r="C165" s="71"/>
-      <c r="D165" s="71"/>
-      <c r="E165" s="71" t="s">
-        <v>721</v>
-      </c>
-      <c r="F165" s="71"/>
-      <c r="G165" s="71" t="s">
-        <v>707</v>
-      </c>
-      <c r="H165" s="137" t="s">
-        <v>722</v>
-      </c>
+      <c r="A165" s="119" t="s">
+        <v>725</v>
+      </c>
+      <c r="B165" s="70" t="s">
+        <v>726</v>
+      </c>
+      <c r="C165" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="D165" s="70"/>
+      <c r="E165" s="70"/>
+      <c r="F165" s="70"/>
+      <c r="G165" s="70"/>
+      <c r="H165" s="70"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="82" t="s">
-        <v>723</v>
-      </c>
-      <c r="B166" s="71" t="s">
-        <v>724</v>
-      </c>
-      <c r="C166" s="71"/>
-      <c r="D166" s="71"/>
-      <c r="E166" s="71" t="s">
-        <v>725</v>
-      </c>
-      <c r="F166" s="71"/>
-      <c r="G166" s="71" t="s">
-        <v>707</v>
-      </c>
-      <c r="H166" s="137" t="s">
-        <v>726</v>
+      <c r="A166" s="119" t="s">
+        <v>727</v>
+      </c>
+      <c r="B166" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="C166" s="134" t="s">
+        <v>444</v>
+      </c>
+      <c r="D166" s="70"/>
+      <c r="E166" s="70" t="s">
+        <v>729</v>
+      </c>
+      <c r="F166" s="70"/>
+      <c r="G166" s="70" t="s">
+        <v>705</v>
+      </c>
+      <c r="H166" s="135" t="s">
+        <v>730</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="82" t="s">
-        <v>727</v>
-      </c>
-      <c r="B167" s="71" t="s">
-        <v>728</v>
-      </c>
-      <c r="C167" s="135" t="s">
-        <v>430</v>
-      </c>
-      <c r="D167" s="71"/>
-      <c r="E167" s="71"/>
-      <c r="F167" s="71"/>
-      <c r="G167" s="71"/>
-      <c r="H167" s="71"/>
+      <c r="A167" s="119" t="s">
+        <v>731</v>
+      </c>
+      <c r="B167" s="70" t="s">
+        <v>732</v>
+      </c>
+      <c r="C167" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="H167" s="70"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="82" t="s">
-        <v>729</v>
-      </c>
-      <c r="B168" s="71" t="s">
-        <v>730</v>
-      </c>
-      <c r="C168" s="138" t="s">
-        <v>446</v>
-      </c>
-      <c r="D168" s="71"/>
-      <c r="E168" s="71" t="s">
-        <v>731</v>
-      </c>
-      <c r="F168" s="71"/>
-      <c r="G168" s="71" t="s">
-        <v>707</v>
-      </c>
-      <c r="H168" s="139" t="s">
-        <v>732</v>
+      <c r="A168" s="119" t="s">
+        <v>733</v>
+      </c>
+      <c r="B168" s="70" t="s">
+        <v>734</v>
+      </c>
+      <c r="C168" s="131" t="s">
+        <v>735</v>
+      </c>
+      <c r="D168" s="70" t="s">
+        <v>736</v>
+      </c>
+      <c r="E168" s="136" t="s">
+        <v>737</v>
+      </c>
+      <c r="F168" s="70"/>
+      <c r="G168" s="70" t="s">
+        <v>738</v>
+      </c>
+      <c r="H168" s="133" t="s">
+        <v>739</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="82" t="s">
-        <v>733</v>
-      </c>
-      <c r="B169" s="71" t="s">
-        <v>734</v>
-      </c>
-      <c r="C169" s="135" t="s">
-        <v>430</v>
-      </c>
-      <c r="D169" s="71"/>
-      <c r="E169" s="71"/>
-      <c r="F169" s="71"/>
-      <c r="G169" s="71"/>
-      <c r="H169" s="71"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="82" t="s">
-        <v>735</v>
-      </c>
-      <c r="B170" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="C170" s="135" t="s">
-        <v>737</v>
-      </c>
-      <c r="D170" s="71" t="s">
-        <v>738</v>
-      </c>
-      <c r="E170" s="140" t="s">
-        <v>739</v>
-      </c>
-      <c r="F170" s="71"/>
-      <c r="G170" s="71" t="s">
-        <v>740</v>
-      </c>
-      <c r="H170" s="141" t="s">
-        <v>741</v>
-      </c>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="18"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="18"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14656,35 +14570,33 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="H76"/>
-    <hyperlink r:id="rId3" ref="H80"/>
-    <hyperlink r:id="rId4" ref="H83"/>
-    <hyperlink r:id="rId5" ref="H84"/>
-    <hyperlink r:id="rId6" ref="H87"/>
-    <hyperlink r:id="rId7" ref="H88"/>
-    <hyperlink r:id="rId8" ref="H95"/>
-    <hyperlink r:id="rId9" ref="H96"/>
-    <hyperlink r:id="rId10" ref="H102"/>
-    <hyperlink r:id="rId11" ref="H103"/>
-    <hyperlink r:id="rId12" ref="H104"/>
-    <hyperlink r:id="rId13" ref="H105"/>
-    <hyperlink r:id="rId14" ref="H106"/>
-    <hyperlink r:id="rId15" ref="H109"/>
-    <hyperlink r:id="rId16" ref="H113"/>
-    <hyperlink r:id="rId17" ref="H128"/>
-    <hyperlink r:id="rId18" ref="H129"/>
-    <hyperlink r:id="rId19" ref="H130"/>
-    <hyperlink r:id="rId20" ref="H151"/>
-    <hyperlink r:id="rId21" ref="H154"/>
-    <hyperlink r:id="rId22" ref="H155"/>
-    <hyperlink r:id="rId23" ref="H161"/>
-    <hyperlink r:id="rId24" ref="H164"/>
-    <hyperlink r:id="rId25" ref="H165"/>
-    <hyperlink r:id="rId26" ref="H166"/>
-    <hyperlink r:id="rId27" ref="H168"/>
+    <hyperlink r:id="rId2" ref="H80"/>
+    <hyperlink r:id="rId3" ref="H85"/>
+    <hyperlink r:id="rId4" ref="H86"/>
+    <hyperlink r:id="rId5" ref="H87"/>
+    <hyperlink r:id="rId6" ref="H95"/>
+    <hyperlink r:id="rId7" ref="H96"/>
+    <hyperlink r:id="rId8" ref="H102"/>
+    <hyperlink r:id="rId9" ref="H103"/>
+    <hyperlink r:id="rId10" ref="H104"/>
+    <hyperlink r:id="rId11" ref="H105"/>
+    <hyperlink r:id="rId12" ref="H106"/>
+    <hyperlink r:id="rId13" ref="H109"/>
+    <hyperlink r:id="rId14" ref="H111"/>
+    <hyperlink r:id="rId15" ref="H128"/>
+    <hyperlink r:id="rId16" ref="H129"/>
+    <hyperlink r:id="rId17" ref="H130"/>
+    <hyperlink r:id="rId18" ref="H151"/>
+    <hyperlink r:id="rId19" ref="H154"/>
+    <hyperlink r:id="rId20" ref="H155"/>
+    <hyperlink r:id="rId21" ref="H161"/>
+    <hyperlink r:id="rId22" ref="H163"/>
+    <hyperlink r:id="rId23" ref="H164"/>
+    <hyperlink r:id="rId24" ref="H166"/>
+    <hyperlink r:id="rId25" ref="H168"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <drawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -14705,177 +14617,177 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="138" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" s="77" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="39" t="s">
         <v>743</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="F2" s="39" t="s">
         <v>744</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>741</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>742</v>
       </c>
-      <c r="B3" s="83" t="s">
-        <v>743</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>744</v>
-      </c>
-      <c r="D3" s="79"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="39" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4" s="77" t="s">
         <v>749</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="E4" s="39" t="s">
         <v>750</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="F4" s="39" t="s">
         <v>751</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>752</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>754</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
+        <v>753</v>
+      </c>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="140" t="s">
         <v>491</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>492</v>
-      </c>
-      <c r="C6" s="145" t="s">
-        <v>493</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>757</v>
-      </c>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
+        <v>755</v>
+      </c>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="D7" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>758</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>759</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="8">
@@ -18879,108 +18791,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="141" t="s">
+        <v>759</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="143" t="s">
         <v>761</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B3" s="142" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="148" t="s">
+    <row r="4">
+      <c r="A4" s="144" t="s">
         <v>763</v>
       </c>
-      <c r="B3" s="147" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="145" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="149" t="s">
+      <c r="B6" s="142" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="150" t="s">
+    <row r="7">
+      <c r="B7" s="142" t="s">
         <v>766</v>
       </c>
-      <c r="B6" s="147" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" s="142"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="142"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="145" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="147" t="s">
+    <row r="11">
+      <c r="A11" s="145" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="147"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="147"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="150" t="s">
+      <c r="B11" s="146" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="150" t="s">
+    <row r="12">
+      <c r="B12" s="147" t="s">
         <v>770</v>
       </c>
-      <c r="B11" s="151" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="148"/>
+      <c r="B13" s="149" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="152" t="s">
+    <row r="14">
+      <c r="B14" s="150" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="153"/>
-      <c r="B13" s="154" t="s">
+    <row r="15">
+      <c r="B15" s="151" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="155" t="s">
+    <row r="16">
+      <c r="B16" s="152" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="156" t="s">
+    <row r="17">
+      <c r="A17" s="145"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="145" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="157" t="s">
+      <c r="B18" s="153" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="150"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="150" t="s">
-        <v>777</v>
-      </c>
-      <c r="B18" s="158" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B19" s="154"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="145" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" s="155" t="s">
         <v>779</v>
-      </c>
-      <c r="B19" s="159"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="150" t="s">
-        <v>780</v>
-      </c>
-      <c r="B21" s="160" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -19006,62 +18918,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -19087,59 +18999,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B1" s="161" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="157" t="s">
+        <v>793</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="162" t="s">
+    <row r="3">
+      <c r="A3" s="157" t="s">
         <v>795</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="157" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="162" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="157" t="s">
         <v>797</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="162" t="s">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="157" t="s">
         <v>798</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="162" t="s">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="157" t="s">
         <v>799</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="162" t="s">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="157" t="s">
         <v>800</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="162" t="s">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="157" t="s">
         <v>801</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="162" t="s">
-        <v>802</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="162" t="s">
-        <v>803</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -19159,7 +19071,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151"/>
+      <c r="A1" s="146"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19183,123 +19095,458 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="158" t="s">
+        <v>802</v>
+      </c>
+      <c r="C1" s="158" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="145" t="s">
         <v>804</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="B2" s="145" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="150" t="s">
+      <c r="C2" s="145" t="s">
         <v>806</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="D2" s="145" t="s">
         <v>807</v>
       </c>
-      <c r="C2" s="150" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
         <v>808</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="B3" s="39" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="164" t="s">
+      <c r="C3" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B3" s="164" t="s">
-        <v>811</v>
-      </c>
-      <c r="C3" s="147" t="s">
-        <v>812</v>
-      </c>
-      <c r="D3" s="165" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="164" t="s">
-        <v>813</v>
-      </c>
-      <c r="B4" s="164" t="s">
+      <c r="A4" s="39" t="s">
         <v>811</v>
       </c>
-      <c r="C4" s="147" t="s">
-        <v>812</v>
-      </c>
-      <c r="D4" s="147" t="str">
+      <c r="B4" s="39" t="s">
+        <v>809</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>ADDRESS_CONTRACTING_BODY_ADDITIONAL</v>
       </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B6" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="C5" s="147" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="147" t="s">
+      <c r="C6" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" s="166" t="s">
+      <c r="B7" s="4" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="147" t="s">
+      <c r="C7" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>819</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="160" t="s">
         <v>820</v>
       </c>
-      <c r="C7" s="147" t="s">
-        <v>812</v>
-      </c>
-      <c r="D7" s="167" t="s">
+      <c r="B8" s="160" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="147" t="s">
+      <c r="C8" s="160" t="s">
+        <v>810</v>
+      </c>
+      <c r="D8" s="160" t="s">
         <v>822</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="162" t="s">
         <v>823</v>
       </c>
-      <c r="C8" s="147" t="s">
-        <v>812</v>
-      </c>
-      <c r="D8" s="147" t="s">
+      <c r="B9" s="161" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="120" t="s">
+      <c r="C9" s="161" t="s">
+        <v>810</v>
+      </c>
+      <c r="D9" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="162" t="s">
         <v>826</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B10" s="161" t="s">
+        <v>824</v>
+      </c>
+      <c r="C10" s="161" t="s">
+        <v>810</v>
+      </c>
+      <c r="D10" s="161" t="s">
         <v>827</v>
       </c>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="161"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="162" t="s">
+        <v>828</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>813</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>810</v>
+      </c>
+      <c r="D11" s="161" t="s">
+        <v>829</v>
+      </c>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="161"/>
+      <c r="Z11" s="161"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="162" t="s">
+        <v>830</v>
+      </c>
+      <c r="B12" s="162" t="s">
+        <v>813</v>
+      </c>
+      <c r="C12" s="161" t="s">
+        <v>810</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>831</v>
+      </c>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="161"/>
+      <c r="V12" s="161"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="161"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="162" t="s">
+        <v>832</v>
+      </c>
+      <c r="B13" s="161" t="s">
+        <v>833</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>810</v>
+      </c>
+      <c r="D13" s="161" t="s">
+        <v>834</v>
+      </c>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="161"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="161"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="162" t="s">
+        <v>835</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>833</v>
+      </c>
+      <c r="C14" s="161" t="s">
+        <v>810</v>
+      </c>
+      <c r="D14" s="161" t="s">
+        <v>836</v>
+      </c>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="161"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19327,52 +19574,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="158" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="145" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="150" t="s">
+      <c r="B2" s="145" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="145" t="s">
         <v>806</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="D2" s="145" t="s">
         <v>807</v>
       </c>
-      <c r="C2" s="150" t="s">
-        <v>808</v>
-      </c>
-      <c r="D2" s="150" t="s">
-        <v>809</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="147" t="s">
-        <v>828</v>
-      </c>
-      <c r="B3" s="147" t="s">
-        <v>829</v>
+      <c r="A3" s="142" t="s">
+        <v>837</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="147" t="s">
-        <v>830</v>
-      </c>
-      <c r="B4" s="147" t="s">
-        <v>831</v>
+      <c r="A4" s="142" t="s">
+        <v>839</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="147" t="s">
-        <v>832</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>833</v>
-      </c>
-      <c r="C5" s="167" t="s">
-        <v>831</v>
-      </c>
-      <c r="D5" s="147" t="s">
-        <v>834</v>
+      <c r="A5" s="142" t="s">
+        <v>841</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>842</v>
+      </c>
+      <c r="C5" s="163" t="s">
+        <v>840</v>
+      </c>
+      <c r="D5" s="142" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.1.0</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <r>
@@ -5441,6 +5441,21 @@
     <t>ADDRESS_FURTHER_INFO</t>
   </si>
   <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM</t>
+  </si>
+  <si>
+    <t>epo:TenderReceiver</t>
+  </si>
+  <si>
+    <t>ADDRESS_PARTICIPATION_IDEM</t>
+  </si>
+  <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>ADDRESS_PARTICIPATION</t>
+  </si>
+  <si>
     <t>AgentInRole == RESULTS/AWARDED_PRIZE</t>
   </si>
   <si>
@@ -5451,21 +5466,6 @@
   </si>
   <si>
     <t>WINNER</t>
-  </si>
-  <si>
-    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM</t>
-  </si>
-  <si>
-    <t>epo:TenderReceiver</t>
-  </si>
-  <si>
-    <t>ADDRESS_PARTICIPATION_IDEM</t>
-  </si>
-  <si>
-    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION</t>
-  </si>
-  <si>
-    <t>ADDRESS_PARTICIPATION</t>
   </si>
   <si>
     <t>is_natural_person == True</t>
@@ -5841,7 +5841,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6313,13 +6313,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -19297,43 +19294,43 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="161"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="160" t="s">
         <v>823</v>
       </c>
       <c r="B9" s="161" t="s">
@@ -19369,7 +19366,7 @@
       <c r="Z9" s="161"/>
     </row>
     <row r="10">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="160" t="s">
         <v>826</v>
       </c>
       <c r="B10" s="161" t="s">
@@ -19405,17 +19402,17 @@
       <c r="Z10" s="161"/>
     </row>
     <row r="11">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="160" t="s">
         <v>828</v>
       </c>
-      <c r="B11" s="162" t="s">
-        <v>813</v>
+      <c r="B11" s="161" t="s">
+        <v>829</v>
       </c>
       <c r="C11" s="161" t="s">
         <v>810</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E11" s="161"/>
       <c r="F11" s="161"/>
@@ -19441,17 +19438,17 @@
       <c r="Z11" s="161"/>
     </row>
     <row r="12">
-      <c r="A12" s="162" t="s">
-        <v>830</v>
-      </c>
-      <c r="B12" s="162" t="s">
-        <v>813</v>
+      <c r="A12" s="160" t="s">
+        <v>831</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>829</v>
       </c>
       <c r="C12" s="161" t="s">
         <v>810</v>
       </c>
       <c r="D12" s="161" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E12" s="161"/>
       <c r="F12" s="161"/>
@@ -19477,11 +19474,11 @@
       <c r="Z12" s="161"/>
     </row>
     <row r="13">
-      <c r="A13" s="162" t="s">
-        <v>832</v>
-      </c>
-      <c r="B13" s="161" t="s">
+      <c r="A13" s="160" t="s">
         <v>833</v>
+      </c>
+      <c r="B13" s="160" t="s">
+        <v>813</v>
       </c>
       <c r="C13" s="161" t="s">
         <v>810</v>
@@ -19513,11 +19510,11 @@
       <c r="Z13" s="161"/>
     </row>
     <row r="14">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="160" t="s">
         <v>835</v>
       </c>
-      <c r="B14" s="161" t="s">
-        <v>833</v>
+      <c r="B14" s="160" t="s">
+        <v>813</v>
       </c>
       <c r="C14" s="161" t="s">
         <v>810</v>
@@ -19615,7 +19612,7 @@
       <c r="B5" s="142" t="s">
         <v>842</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="162" t="s">
         <v>840</v>
       </c>
       <c r="D5" s="142" t="s">

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.2.1</t>
+    <t>5.1.0</t>
   </si>
   <si>
     <r>
@@ -564,7 +564,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:AgentInRole (from CL1)</t>
+    <t>epo:Notice / epo:AgentInRole (from CL1)</t>
   </si>
   <si>
     <t>?this epo:refersToRole ?value</t>
@@ -1928,7 +1928,7 @@
     <t>OBJECT_CONTRACT</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation</t>
+    <t>epo:Notice / epo:NoticeAwardInformation</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation ?value .</t>
@@ -1943,7 +1943,7 @@
     <t>OBJECT_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
@@ -2027,7 +2027,7 @@
     <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -2067,7 +2067,7 @@
     <t>II.2</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Lot</t>
+    <t>epo:Notice / epo:Lot</t>
   </si>
   <si>
     <t>?this epo:refersToLot ?value .</t>
@@ -2766,7 +2766,7 @@
     <t>PROCEDURE/NOTICE_NUMBER_OJ</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Notice /  epo:Identifier / xsd:string</t>
+    <t>epo:Notice / epo:Notice /  epo:Identifier / xsd:string</t>
   </si>
   <si>
     <r>
@@ -4329,7 +4329,7 @@
     <t>COMPLEMENTARY_INFO/ADDRESS_MEDIATION_BODY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Mediator</t>
+    <t>epo:Notice / epo:Mediator</t>
   </si>
   <si>
     <t>VI.4.2.1</t>
@@ -4915,7 +4915,7 @@
     <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
   </si>
   <si>
-    <t>epo:ResultNotice</t>
+    <t>epo:Notice</t>
   </si>
   <si>
     <r>
@@ -5360,7 +5360,7 @@
     <t>annex_d4.rml.ttl</t>
   </si>
   <si>
-    <t>result_notice.rml.ttl</t>
+    <t>notice.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>
@@ -5841,7 +5841,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6306,6 +6306,9 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -19047,7 +19050,7 @@
       <c r="B8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="158" t="s">
         <v>801</v>
       </c>
       <c r="B9" s="6"/>
@@ -19092,10 +19095,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="159" t="s">
         <v>802</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="159" t="s">
         <v>803</v>
       </c>
     </row>
@@ -19267,7 +19270,7 @@
       <c r="C7" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="160" t="s">
         <v>819</v>
       </c>
       <c r="E7" s="6"/>
@@ -19330,220 +19333,220 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="161" t="s">
         <v>823</v>
       </c>
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="162" t="s">
         <v>824</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="162" t="s">
         <v>810</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="162" t="s">
         <v>825</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
     </row>
     <row r="10">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="162" t="s">
         <v>824</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="162" t="s">
         <v>810</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="162" t="s">
         <v>827</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
     </row>
     <row r="11">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="161" t="s">
         <v>828</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="162" t="s">
         <v>829</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="162" t="s">
         <v>810</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="162" t="s">
         <v>830</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
     </row>
     <row r="12">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="161" t="s">
         <v>831</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="162" t="s">
         <v>829</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="162" t="s">
         <v>810</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="162" t="s">
         <v>832</v>
       </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
     </row>
     <row r="13">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="161" t="s">
         <v>813</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="162" t="s">
         <v>810</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="162" t="s">
         <v>834</v>
       </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="162"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
     </row>
     <row r="14">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="161" t="s">
         <v>835</v>
       </c>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="161" t="s">
         <v>813</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="162" t="s">
         <v>810</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="162" t="s">
         <v>836</v>
       </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="162"/>
+      <c r="U14" s="162"/>
+      <c r="V14" s="162"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="162"/>
+      <c r="Z14" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19571,7 +19574,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="159" t="s">
         <v>802</v>
       </c>
     </row>
@@ -19612,7 +19615,7 @@
       <c r="B5" s="142" t="s">
         <v>842</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="163" t="s">
         <v>840</v>
       </c>
       <c r="D5" s="142" t="s">

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="846">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.1.0</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <r>
@@ -422,7 +422,7 @@
     <t>EPO version</t>
   </si>
   <si>
-    <t>3.1.0-dev</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <r>
@@ -2660,6 +2660,41 @@
   </si>
   <si>
     <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION</t>
+  </si>
+  <si>
+    <t>epo:Procedure / at-voc:procurement-procedure-type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-wo-call</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>IV.1.8</t>
@@ -5496,7 +5531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5569,6 +5604,12 @@
     <font>
       <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -5841,7 +5882,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6107,6 +6148,9 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -6119,7 +6163,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6128,10 +6172,10 @@
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6140,7 +6184,7 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6161,13 +6205,13 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6176,7 +6220,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6215,13 +6259,13 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6230,19 +6274,19 @@
     <xf quotePrefix="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -6251,23 +6295,23 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6297,7 +6341,7 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6309,10 +6353,10 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -6321,7 +6365,7 @@
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -11992,12 +12036,12 @@
       <c r="B71" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -12016,18 +12060,18 @@
       <c r="B72" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="57" t="s">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="F72" s="70" t="s">
+      <c r="F72" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="G72" s="56" t="s">
+      <c r="G72" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H72" s="56" t="s">
+      <c r="H72" s="4" t="s">
         <v>382</v>
       </c>
       <c r="I72" s="6"/>
@@ -12048,14 +12092,18 @@
       <c r="B73" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="57" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="F73" s="70"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="H73" s="91" t="s">
+        <v>387</v>
+      </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -12069,26 +12117,26 @@
     </row>
     <row r="74">
       <c r="A74" s="48" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="36" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H74" s="73" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -12102,27 +12150,27 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="91" t="s">
-        <v>386</v>
-      </c>
-      <c r="B75" s="92" t="s">
-        <v>387</v>
+      <c r="A75" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="B75" s="93" t="s">
+        <v>389</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D75" s="86" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="36" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H75" s="73" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -12137,10 +12185,10 @@
     </row>
     <row r="76">
       <c r="A76" s="90" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -12161,22 +12209,22 @@
     </row>
     <row r="77">
       <c r="A77" s="48" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
       <c r="E77" s="49" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="49" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H77" s="73" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -12191,22 +12239,22 @@
     </row>
     <row r="78">
       <c r="A78" s="89" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B78" s="67" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="93" t="s">
-        <v>404</v>
+      <c r="E78" s="94" t="s">
+        <v>406</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -12221,28 +12269,28 @@
     </row>
     <row r="79">
       <c r="A79" s="48" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B79" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E79" s="49" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F79" s="49" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H79" s="94" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="H79" s="95" t="s">
+        <v>415</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -12257,26 +12305,26 @@
     </row>
     <row r="80">
       <c r="A80" s="48" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="H80" s="95" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="H80" s="96" t="s">
+        <v>422</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -12290,27 +12338,27 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="91" t="s">
-        <v>414</v>
-      </c>
-      <c r="B81" s="92" t="s">
-        <v>415</v>
+      <c r="A81" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="B81" s="93" t="s">
+        <v>417</v>
       </c>
       <c r="C81" s="86" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D81" s="86" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E81" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="F81" s="96"/>
+        <v>420</v>
+      </c>
+      <c r="F81" s="97"/>
       <c r="G81" s="40" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -12324,27 +12372,27 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="91" t="s">
-        <v>414</v>
-      </c>
-      <c r="B82" s="92" t="s">
-        <v>415</v>
+      <c r="A82" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" s="93" t="s">
+        <v>417</v>
       </c>
       <c r="C82" s="86" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D82" s="86" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E82" s="58" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -12359,13 +12407,13 @@
     </row>
     <row r="83">
       <c r="A83" s="90" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C83" s="97" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="C83" s="98" t="s">
+        <v>430</v>
       </c>
       <c r="D83" s="49"/>
       <c r="E83" s="4"/>
@@ -12385,19 +12433,19 @@
     </row>
     <row r="84">
       <c r="A84" s="46" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B84" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C84" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="98" t="s">
-        <v>428</v>
-      </c>
-      <c r="D84" s="57"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -12411,26 +12459,26 @@
     </row>
     <row r="85">
       <c r="A85" s="69" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C85" s="49" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E85" s="49" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F85" s="49"/>
       <c r="G85" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="H85" s="99" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="H85" s="100" t="s">
+        <v>439</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -12445,26 +12493,26 @@
     </row>
     <row r="86">
       <c r="A86" s="69" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E86" s="49" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F86" s="49"/>
       <c r="G86" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H86" s="95" t="s">
-        <v>441</v>
+        <v>438</v>
+      </c>
+      <c r="H86" s="96" t="s">
+        <v>443</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -12479,24 +12527,24 @@
     </row>
     <row r="87">
       <c r="A87" s="69" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>443</v>
-      </c>
-      <c r="C87" s="100" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="C87" s="101" t="s">
+        <v>446</v>
       </c>
       <c r="D87" s="49"/>
-      <c r="E87" s="101" t="s">
-        <v>445</v>
-      </c>
-      <c r="F87" s="101"/>
-      <c r="G87" s="101" t="s">
-        <v>446</v>
-      </c>
-      <c r="H87" s="102" t="s">
+      <c r="E87" s="102" t="s">
         <v>447</v>
+      </c>
+      <c r="F87" s="102"/>
+      <c r="G87" s="102" t="s">
+        <v>448</v>
+      </c>
+      <c r="H87" s="103" t="s">
+        <v>449</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -12504,13 +12552,13 @@
     </row>
     <row r="88">
       <c r="A88" s="90" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="C88" s="103" t="s">
-        <v>428</v>
+        <v>451</v>
+      </c>
+      <c r="C88" s="104" t="s">
+        <v>430</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -12523,20 +12571,20 @@
     </row>
     <row r="89">
       <c r="A89" s="69" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B89" s="55"/>
       <c r="C89" s="49"/>
       <c r="D89" s="4"/>
       <c r="E89" s="58" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F89" s="49"/>
       <c r="G89" s="36" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H89" s="49" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -12544,20 +12592,20 @@
     </row>
     <row r="90">
       <c r="A90" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="B90" s="104"/>
+        <v>452</v>
+      </c>
+      <c r="B90" s="105"/>
       <c r="C90" s="49"/>
       <c r="D90" s="4"/>
       <c r="E90" s="58" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="36" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H90" s="49" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -12565,26 +12613,26 @@
     </row>
     <row r="91">
       <c r="A91" s="48" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -12592,22 +12640,22 @@
     </row>
     <row r="92">
       <c r="A92" s="48" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="106" t="s">
-        <v>418</v>
-      </c>
-      <c r="F92" s="105"/>
+        <v>464</v>
+      </c>
+      <c r="C92" s="106"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="107" t="s">
+        <v>420</v>
+      </c>
+      <c r="F92" s="106"/>
       <c r="G92" s="13" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -12615,26 +12663,26 @@
     </row>
     <row r="93">
       <c r="A93" s="69" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C93" s="77" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D93" s="77" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E93" s="77" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F93" s="77"/>
       <c r="G93" s="13" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -12642,22 +12690,22 @@
     </row>
     <row r="94">
       <c r="A94" s="69" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
       <c r="E94" s="49" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H94" s="39" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -12665,22 +12713,22 @@
     </row>
     <row r="95">
       <c r="A95" s="69" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
       <c r="E95" s="49" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="H95" s="95" t="s">
-        <v>480</v>
+        <v>477</v>
+      </c>
+      <c r="H95" s="96" t="s">
+        <v>482</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
@@ -12688,22 +12736,22 @@
     </row>
     <row r="96">
       <c r="A96" s="69" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="49" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="H96" s="95" t="s">
-        <v>484</v>
+        <v>477</v>
+      </c>
+      <c r="H96" s="96" t="s">
+        <v>486</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -12711,22 +12759,22 @@
     </row>
     <row r="97">
       <c r="A97" s="69" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
       <c r="E97" s="49" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -12734,24 +12782,24 @@
     </row>
     <row r="98">
       <c r="A98" s="69" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>490</v>
-      </c>
-      <c r="C98" s="107" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="C98" s="108" t="s">
+        <v>493</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="36" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H98" s="49" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -12759,13 +12807,13 @@
     </row>
     <row r="99">
       <c r="A99" s="48" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="C99" s="97" t="s">
-        <v>428</v>
+        <v>498</v>
+      </c>
+      <c r="C99" s="98" t="s">
+        <v>430</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="39"/>
@@ -12778,7 +12826,7 @@
     </row>
     <row r="100">
       <c r="A100" s="69" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B100" s="55" t="s">
         <v>55</v>
@@ -12790,14 +12838,14 @@
         <v>57</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F100" s="49"/>
       <c r="G100" s="43" t="s">
         <v>59</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -12805,7 +12853,7 @@
     </row>
     <row r="101">
       <c r="A101" s="69" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B101" s="55" t="s">
         <v>62</v>
@@ -12817,14 +12865,14 @@
         <v>64</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="45" t="s">
         <v>66</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -12832,7 +12880,7 @@
     </row>
     <row r="102">
       <c r="A102" s="69" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B102" s="55" t="s">
         <v>69</v>
@@ -12844,14 +12892,14 @@
         <v>71</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H102" s="95" t="s">
-        <v>505</v>
+      <c r="H102" s="96" t="s">
+        <v>507</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -12859,7 +12907,7 @@
     </row>
     <row r="103">
       <c r="A103" s="69" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B103" s="55" t="s">
         <v>76</v>
@@ -12871,14 +12919,14 @@
         <v>78</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H103" s="95" t="s">
-        <v>508</v>
+      <c r="H103" s="96" t="s">
+        <v>510</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -12886,7 +12934,7 @@
     </row>
     <row r="104">
       <c r="A104" s="69" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B104" s="55" t="s">
         <v>82</v>
@@ -12898,16 +12946,16 @@
         <v>84</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G104" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H104" s="99" t="s">
-        <v>512</v>
+      <c r="H104" s="100" t="s">
+        <v>514</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -12915,7 +12963,7 @@
     </row>
     <row r="105">
       <c r="A105" s="69" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B105" s="55" t="s">
         <v>90</v>
@@ -12924,17 +12972,17 @@
         <v>91</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H105" s="95" t="s">
-        <v>516</v>
+      <c r="H105" s="96" t="s">
+        <v>518</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -12942,7 +12990,7 @@
     </row>
     <row r="106">
       <c r="A106" s="69" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>97</v>
@@ -12954,14 +13002,14 @@
         <v>99</v>
       </c>
       <c r="E106" s="77" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F106" s="77"/>
-      <c r="G106" s="108" t="s">
+      <c r="G106" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="H106" s="109" t="s">
-        <v>519</v>
+      <c r="H106" s="110" t="s">
+        <v>521</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -12969,7 +13017,7 @@
     </row>
     <row r="107">
       <c r="A107" s="69" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B107" s="55" t="s">
         <v>117</v>
@@ -12981,14 +13029,14 @@
         <v>119</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F107" s="49"/>
       <c r="G107" s="49" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
@@ -12996,7 +13044,7 @@
     </row>
     <row r="108">
       <c r="A108" s="69" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B108" s="55" t="s">
         <v>111</v>
@@ -13008,14 +13056,14 @@
         <v>113</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F108" s="49"/>
       <c r="G108" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H108" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -13023,10 +13071,10 @@
     </row>
     <row r="109">
       <c r="A109" s="69" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C109" s="49" t="s">
         <v>133</v>
@@ -13035,14 +13083,14 @@
         <v>134</v>
       </c>
       <c r="E109" s="77" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F109" s="77"/>
-      <c r="G109" s="110" t="s">
-        <v>522</v>
-      </c>
-      <c r="H109" s="111" t="s">
-        <v>531</v>
+      <c r="G109" s="111" t="s">
+        <v>524</v>
+      </c>
+      <c r="H109" s="112" t="s">
+        <v>533</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -13050,7 +13098,7 @@
     </row>
     <row r="110">
       <c r="A110" s="69" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B110" s="55" t="s">
         <v>124</v>
@@ -13062,14 +13110,14 @@
         <v>126</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H110" s="49" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -13077,26 +13125,26 @@
     </row>
     <row r="111">
       <c r="A111" s="69" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>538</v>
-      </c>
-      <c r="E111" s="112" t="s">
-        <v>539</v>
-      </c>
-      <c r="F111" s="113"/>
+        <v>540</v>
+      </c>
+      <c r="E111" s="113" t="s">
+        <v>541</v>
+      </c>
+      <c r="F111" s="114"/>
       <c r="G111" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H111" s="114" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="H111" s="115" t="s">
+        <v>543</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
@@ -13107,15 +13155,15 @@
       <c r="B112" s="4"/>
       <c r="C112" s="77"/>
       <c r="D112" s="77"/>
-      <c r="E112" s="106" t="s">
-        <v>539</v>
+      <c r="E112" s="107" t="s">
+        <v>541</v>
       </c>
       <c r="F112" s="81"/>
-      <c r="G112" s="108" t="s">
-        <v>542</v>
-      </c>
-      <c r="H112" s="108" t="s">
-        <v>543</v>
+      <c r="G112" s="109" t="s">
+        <v>544</v>
+      </c>
+      <c r="H112" s="109" t="s">
+        <v>545</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -13123,13 +13171,13 @@
     </row>
     <row r="113">
       <c r="A113" s="48" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="C113" s="103" t="s">
-        <v>428</v>
+        <v>547</v>
+      </c>
+      <c r="C113" s="104" t="s">
+        <v>430</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -13142,26 +13190,26 @@
     </row>
     <row r="114">
       <c r="A114" s="69" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>220</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="36" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H114" s="49" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
@@ -13169,24 +13217,24 @@
     </row>
     <row r="115">
       <c r="A115" s="78" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B115" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="115" t="s">
-        <v>553</v>
+      <c r="C115" s="116" t="s">
+        <v>555</v>
       </c>
       <c r="D115" s="49"/>
       <c r="E115" s="49" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="36" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
@@ -13194,26 +13242,26 @@
     </row>
     <row r="116">
       <c r="A116" s="69" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C116" s="77" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D116" s="77" t="s">
-        <v>560</v>
-      </c>
-      <c r="E116" s="116" t="s">
-        <v>561</v>
-      </c>
-      <c r="F116" s="116"/>
+        <v>562</v>
+      </c>
+      <c r="E116" s="117" t="s">
+        <v>563</v>
+      </c>
+      <c r="F116" s="117"/>
       <c r="G116" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H116" s="81" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
@@ -13221,24 +13269,24 @@
     </row>
     <row r="117">
       <c r="A117" s="78" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B117" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C117" s="115" t="s">
-        <v>553</v>
+      <c r="C117" s="116" t="s">
+        <v>555</v>
       </c>
       <c r="D117" s="49"/>
-      <c r="E117" s="116" t="s">
-        <v>565</v>
-      </c>
-      <c r="F117" s="116"/>
+      <c r="E117" s="117" t="s">
+        <v>567</v>
+      </c>
+      <c r="F117" s="117"/>
       <c r="G117" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H117" s="39" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
@@ -13246,26 +13294,26 @@
     </row>
     <row r="118">
       <c r="A118" s="69" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C118" s="56" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D118" s="70" t="s">
-        <v>571</v>
-      </c>
-      <c r="E118" s="117" t="s">
-        <v>572</v>
-      </c>
-      <c r="F118" s="117"/>
+        <v>573</v>
+      </c>
+      <c r="E118" s="118" t="s">
+        <v>574</v>
+      </c>
+      <c r="F118" s="118"/>
       <c r="G118" s="70" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H118" s="70" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
@@ -13273,24 +13321,24 @@
     </row>
     <row r="119">
       <c r="A119" s="78" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B119" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C119" s="118" t="s">
-        <v>553</v>
+      <c r="C119" s="119" t="s">
+        <v>555</v>
       </c>
       <c r="D119" s="56"/>
-      <c r="E119" s="117" t="s">
-        <v>576</v>
+      <c r="E119" s="118" t="s">
+        <v>578</v>
       </c>
       <c r="F119" s="56"/>
       <c r="G119" s="57" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H119" s="57" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -13298,26 +13346,26 @@
     </row>
     <row r="120">
       <c r="A120" s="69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B120" s="55" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D120" s="70" t="s">
-        <v>582</v>
-      </c>
-      <c r="E120" s="119" t="s">
-        <v>583</v>
-      </c>
-      <c r="F120" s="119"/>
+        <v>584</v>
+      </c>
+      <c r="E120" s="120" t="s">
+        <v>585</v>
+      </c>
+      <c r="F120" s="120"/>
       <c r="G120" s="56" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H120" s="56" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
@@ -13325,24 +13373,24 @@
     </row>
     <row r="121">
       <c r="A121" s="78" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B121" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C121" s="120" t="s">
-        <v>553</v>
+      <c r="C121" s="121" t="s">
+        <v>555</v>
       </c>
       <c r="D121" s="70"/>
-      <c r="E121" s="119" t="s">
-        <v>586</v>
+      <c r="E121" s="120" t="s">
+        <v>588</v>
       </c>
       <c r="F121" s="56"/>
       <c r="G121" s="57" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H121" s="57" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
@@ -13350,26 +13398,26 @@
     </row>
     <row r="122">
       <c r="A122" s="69" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C122" s="70" t="s">
         <v>231</v>
       </c>
       <c r="D122" s="70" t="s">
-        <v>590</v>
-      </c>
-      <c r="E122" s="119" t="s">
-        <v>591</v>
-      </c>
-      <c r="F122" s="119"/>
+        <v>592</v>
+      </c>
+      <c r="E122" s="120" t="s">
+        <v>593</v>
+      </c>
+      <c r="F122" s="120"/>
       <c r="G122" s="56" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H122" s="56" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
@@ -13377,13 +13425,13 @@
     </row>
     <row r="123">
       <c r="A123" s="89" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+      <c r="D123" s="81"/>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="G123" s="4"/>
@@ -13394,7 +13442,7 @@
     </row>
     <row r="124">
       <c r="A124" s="90" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B124" s="38" t="s">
         <v>366</v>
@@ -13405,15 +13453,15 @@
       <c r="D124" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E124" s="116" t="s">
-        <v>597</v>
-      </c>
-      <c r="F124" s="116"/>
-      <c r="G124" s="121" t="s">
+      <c r="E124" s="117" t="s">
+        <v>599</v>
+      </c>
+      <c r="F124" s="117"/>
+      <c r="G124" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="H124" s="122" t="s">
-        <v>598</v>
+      <c r="H124" s="123" t="s">
+        <v>600</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
@@ -13421,17 +13469,17 @@
     </row>
     <row r="125">
       <c r="A125" s="90" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="C125" s="123" t="s">
-        <v>428</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="124"/>
+        <v>602</v>
+      </c>
+      <c r="C125" s="124" t="s">
+        <v>430</v>
+      </c>
+      <c r="D125" s="81"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="125"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="6"/>
@@ -13440,24 +13488,24 @@
     </row>
     <row r="126">
       <c r="A126" s="48" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="C126" s="125" t="s">
-        <v>428</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="113" t="s">
-        <v>603</v>
-      </c>
-      <c r="F126" s="116"/>
+        <v>604</v>
+      </c>
+      <c r="C126" s="126" t="s">
+        <v>430</v>
+      </c>
+      <c r="D126" s="81"/>
+      <c r="E126" s="114" t="s">
+        <v>605</v>
+      </c>
+      <c r="F126" s="117"/>
       <c r="G126" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
@@ -13465,7 +13513,7 @@
     </row>
     <row r="127">
       <c r="A127" s="69" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B127" s="55" t="s">
         <v>55</v>
@@ -13476,15 +13524,15 @@
       <c r="D127" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E127" s="116" t="s">
-        <v>606</v>
-      </c>
-      <c r="F127" s="116"/>
+      <c r="E127" s="117" t="s">
+        <v>608</v>
+      </c>
+      <c r="F127" s="117"/>
       <c r="G127" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H127" s="39" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
@@ -13492,7 +13540,7 @@
     </row>
     <row r="128">
       <c r="A128" s="69" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B128" s="55" t="s">
         <v>69</v>
@@ -13504,14 +13552,14 @@
         <v>71</v>
       </c>
       <c r="E128" s="49" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H128" s="95" t="s">
-        <v>610</v>
+      <c r="H128" s="96" t="s">
+        <v>612</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -13519,7 +13567,7 @@
     </row>
     <row r="129">
       <c r="A129" s="69" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B129" s="55" t="s">
         <v>76</v>
@@ -13531,14 +13579,14 @@
         <v>78</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H129" s="95" t="s">
-        <v>613</v>
+      <c r="H129" s="96" t="s">
+        <v>615</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -13546,7 +13594,7 @@
     </row>
     <row r="130">
       <c r="A130" s="69" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B130" s="55" t="s">
         <v>90</v>
@@ -13555,17 +13603,17 @@
         <v>91</v>
       </c>
       <c r="D130" s="77" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="H130" s="95" t="s">
-        <v>617</v>
+        <v>618</v>
+      </c>
+      <c r="H130" s="96" t="s">
+        <v>619</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -13573,7 +13621,7 @@
     </row>
     <row r="131">
       <c r="A131" s="69" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B131" s="55" t="s">
         <v>97</v>
@@ -13585,14 +13633,14 @@
         <v>99</v>
       </c>
       <c r="E131" s="77" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F131" s="77"/>
       <c r="G131" s="77" t="s">
         <v>101</v>
       </c>
       <c r="H131" s="77" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -13600,7 +13648,7 @@
     </row>
     <row r="132">
       <c r="A132" s="69" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B132" s="55" t="s">
         <v>117</v>
@@ -13612,14 +13660,14 @@
         <v>119</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="49" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H132" s="49" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -13627,7 +13675,7 @@
     </row>
     <row r="133">
       <c r="A133" s="69" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>111</v>
@@ -13639,14 +13687,14 @@
         <v>113</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H133" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
@@ -13654,10 +13702,10 @@
     </row>
     <row r="134">
       <c r="A134" s="69" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C134" s="77" t="s">
         <v>133</v>
@@ -13666,14 +13714,14 @@
         <v>134</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="45" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H134" s="45" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -13681,7 +13729,7 @@
     </row>
     <row r="135">
       <c r="A135" s="69" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B135" s="55" t="s">
         <v>124</v>
@@ -13693,14 +13741,14 @@
         <v>126</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H135" s="49" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -13708,24 +13756,24 @@
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="C136" s="125" t="s">
-        <v>428</v>
-      </c>
-      <c r="D136" s="126"/>
+        <v>633</v>
+      </c>
+      <c r="C136" s="126" t="s">
+        <v>430</v>
+      </c>
+      <c r="D136" s="127"/>
       <c r="E136" s="39" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F136" s="36"/>
       <c r="G136" s="36" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -13733,7 +13781,7 @@
     </row>
     <row r="137">
       <c r="A137" s="69" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B137" s="55" t="s">
         <v>55</v>
@@ -13745,14 +13793,14 @@
         <v>57</v>
       </c>
       <c r="E137" s="49" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H137" s="39" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -13760,7 +13808,7 @@
     </row>
     <row r="138">
       <c r="A138" s="69" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B138" s="55" t="s">
         <v>69</v>
@@ -13772,14 +13820,14 @@
         <v>71</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F138" s="49"/>
       <c r="G138" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
@@ -13787,7 +13835,7 @@
     </row>
     <row r="139">
       <c r="A139" s="69" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B139" s="55" t="s">
         <v>76</v>
@@ -13799,14 +13847,14 @@
         <v>78</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F139" s="49"/>
       <c r="G139" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -13814,7 +13862,7 @@
     </row>
     <row r="140">
       <c r="A140" s="69" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B140" s="55" t="s">
         <v>90</v>
@@ -13823,17 +13871,17 @@
         <v>91</v>
       </c>
       <c r="D140" s="77" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F140" s="49"/>
       <c r="G140" s="39" t="s">
         <v>94</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -13841,7 +13889,7 @@
     </row>
     <row r="141">
       <c r="A141" s="69" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B141" s="55" t="s">
         <v>97</v>
@@ -13853,14 +13901,14 @@
         <v>99</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F141" s="49"/>
       <c r="G141" s="39" t="s">
         <v>101</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -13868,7 +13916,7 @@
     </row>
     <row r="142">
       <c r="A142" s="69" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>117</v>
@@ -13880,14 +13928,14 @@
         <v>119</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F142" s="77"/>
       <c r="G142" s="49" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H142" s="49" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -13895,7 +13943,7 @@
     </row>
     <row r="143">
       <c r="A143" s="69" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B143" s="55" t="s">
         <v>111</v>
@@ -13907,14 +13955,14 @@
         <v>113</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F143" s="49"/>
       <c r="G143" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H143" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -13922,10 +13970,10 @@
     </row>
     <row r="144">
       <c r="A144" s="69" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B144" s="55" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C144" s="77" t="s">
         <v>133</v>
@@ -13934,14 +13982,14 @@
         <v>134</v>
       </c>
       <c r="E144" s="49" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F144" s="49"/>
       <c r="G144" s="45" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H144" s="45" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -13949,7 +13997,7 @@
     </row>
     <row r="145">
       <c r="A145" s="69" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B145" s="55" t="s">
         <v>124</v>
@@ -13961,14 +14009,14 @@
         <v>126</v>
       </c>
       <c r="E145" s="49" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H145" s="49" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -13976,26 +14024,26 @@
     </row>
     <row r="146">
       <c r="A146" s="48" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C146" s="77" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D146" s="77" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E146" s="49" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F146" s="49"/>
-      <c r="G146" s="121" t="s">
-        <v>663</v>
-      </c>
-      <c r="H146" s="122" t="s">
-        <v>664</v>
+      <c r="G146" s="122" t="s">
+        <v>665</v>
+      </c>
+      <c r="H146" s="123" t="s">
+        <v>666</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -14003,22 +14051,22 @@
     </row>
     <row r="147">
       <c r="A147" s="48" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
+      <c r="D147" s="81"/>
       <c r="E147" s="39" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F147" s="36"/>
       <c r="G147" s="36" t="s">
         <v>52</v>
       </c>
       <c r="H147" s="36" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
@@ -14026,7 +14074,7 @@
     </row>
     <row r="148">
       <c r="A148" s="69" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B148" s="55" t="s">
         <v>55</v>
@@ -14038,14 +14086,14 @@
         <v>57</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F148" s="49"/>
       <c r="G148" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H148" s="39" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -14053,7 +14101,7 @@
     </row>
     <row r="149">
       <c r="A149" s="69" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B149" s="55" t="s">
         <v>69</v>
@@ -14065,14 +14113,14 @@
         <v>71</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F149" s="49"/>
       <c r="G149" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H149" s="39" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
@@ -14080,7 +14128,7 @@
     </row>
     <row r="150">
       <c r="A150" s="69" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B150" s="55" t="s">
         <v>76</v>
@@ -14092,14 +14140,14 @@
         <v>78</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H150" s="39" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -14107,7 +14155,7 @@
     </row>
     <row r="151">
       <c r="A151" s="69" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B151" s="55" t="s">
         <v>90</v>
@@ -14116,17 +14164,17 @@
         <v>91</v>
       </c>
       <c r="D151" s="77" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H151" s="95" t="s">
-        <v>679</v>
+      <c r="H151" s="96" t="s">
+        <v>681</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -14134,7 +14182,7 @@
     </row>
     <row r="152">
       <c r="A152" s="69" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B152" s="55" t="s">
         <v>97</v>
@@ -14146,14 +14194,14 @@
         <v>99</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="49" t="s">
         <v>101</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -14161,7 +14209,7 @@
     </row>
     <row r="153">
       <c r="A153" s="69" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>117</v>
@@ -14173,14 +14221,14 @@
         <v>119</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F153" s="49"/>
       <c r="G153" s="49" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H153" s="49" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -14188,7 +14236,7 @@
     </row>
     <row r="154">
       <c r="A154" s="69" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B154" s="55" t="s">
         <v>111</v>
@@ -14200,14 +14248,14 @@
         <v>113</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="49" t="s">
-        <v>526</v>
-      </c>
-      <c r="H154" s="99" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="H154" s="100" t="s">
+        <v>529</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
@@ -14215,10 +14263,10 @@
     </row>
     <row r="155">
       <c r="A155" s="69" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B155" s="55" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C155" s="77" t="s">
         <v>133</v>
@@ -14227,14 +14275,14 @@
         <v>134</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F155" s="49"/>
       <c r="G155" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="H155" s="127" t="s">
-        <v>689</v>
+        <v>524</v>
+      </c>
+      <c r="H155" s="128" t="s">
+        <v>691</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -14242,7 +14290,7 @@
     </row>
     <row r="156">
       <c r="A156" s="69" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B156" s="55" t="s">
         <v>124</v>
@@ -14254,14 +14302,14 @@
         <v>126</v>
       </c>
       <c r="E156" s="77" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F156" s="77"/>
       <c r="G156" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H156" s="49" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
@@ -14269,44 +14317,44 @@
     </row>
     <row r="157">
       <c r="A157" s="90" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="C157" s="128" t="s">
-        <v>694</v>
-      </c>
-      <c r="D157" s="128" t="s">
         <v>695</v>
       </c>
-      <c r="E157" s="129" t="s">
+      <c r="C157" s="129" t="s">
         <v>696</v>
       </c>
-      <c r="F157" s="129"/>
+      <c r="D157" s="129" t="s">
+        <v>697</v>
+      </c>
+      <c r="E157" s="130" t="s">
+        <v>698</v>
+      </c>
+      <c r="F157" s="130"/>
       <c r="G157" s="39" t="s">
-        <v>697</v>
-      </c>
-      <c r="H157" s="130" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="H157" s="131" t="s">
+        <v>700</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="119" t="s">
-        <v>699</v>
+      <c r="A158" s="120" t="s">
+        <v>701</v>
       </c>
       <c r="B158" s="56" t="s">
-        <v>700</v>
-      </c>
-      <c r="C158" s="131" t="s">
-        <v>428</v>
+        <v>702</v>
+      </c>
+      <c r="C158" s="132" t="s">
+        <v>430</v>
       </c>
       <c r="D158" s="70"/>
       <c r="E158" s="56" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F158" s="56"/>
       <c r="G158" s="56"/>
@@ -14316,37 +14364,37 @@
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="119" t="s">
-        <v>702</v>
+      <c r="A159" s="120" t="s">
+        <v>704</v>
       </c>
       <c r="B159" s="56" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C159" s="70"/>
       <c r="D159" s="70"/>
       <c r="E159" s="56" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F159" s="56"/>
       <c r="G159" s="56" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H159" s="56" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="119" t="s">
-        <v>707</v>
+      <c r="A160" s="120" t="s">
+        <v>709</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C160" s="70" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D160" s="70"/>
       <c r="E160" s="56"/>
@@ -14358,106 +14406,106 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="119" t="s">
-        <v>709</v>
+      <c r="A161" s="120" t="s">
+        <v>711</v>
       </c>
       <c r="B161" s="70" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C161" s="70"/>
       <c r="D161" s="70"/>
       <c r="E161" s="70" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F161" s="70"/>
       <c r="G161" s="70" t="s">
-        <v>705</v>
-      </c>
-      <c r="H161" s="132" t="s">
-        <v>712</v>
+        <v>707</v>
+      </c>
+      <c r="H161" s="133" t="s">
+        <v>714</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="119" t="s">
-        <v>713</v>
+      <c r="A162" s="120" t="s">
+        <v>715</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C162" s="70"/>
       <c r="D162" s="70"/>
       <c r="E162" s="70" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F162" s="70"/>
       <c r="G162" s="70" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H162" s="70" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="119" t="s">
-        <v>717</v>
+      <c r="A163" s="120" t="s">
+        <v>719</v>
       </c>
       <c r="B163" s="70" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C163" s="70"/>
       <c r="D163" s="70"/>
       <c r="E163" s="70" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F163" s="70"/>
       <c r="G163" s="70" t="s">
-        <v>705</v>
-      </c>
-      <c r="H163" s="133" t="s">
-        <v>720</v>
+        <v>707</v>
+      </c>
+      <c r="H163" s="134" t="s">
+        <v>722</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="119" t="s">
-        <v>721</v>
+      <c r="A164" s="120" t="s">
+        <v>723</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C164" s="70"/>
       <c r="D164" s="70"/>
       <c r="E164" s="70" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F164" s="70"/>
       <c r="G164" s="70" t="s">
-        <v>705</v>
-      </c>
-      <c r="H164" s="133" t="s">
-        <v>724</v>
+        <v>707</v>
+      </c>
+      <c r="H164" s="134" t="s">
+        <v>726</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="119" t="s">
-        <v>725</v>
+      <c r="A165" s="120" t="s">
+        <v>727</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>726</v>
-      </c>
-      <c r="C165" s="131" t="s">
-        <v>428</v>
+        <v>728</v>
+      </c>
+      <c r="C165" s="132" t="s">
+        <v>430</v>
       </c>
       <c r="D165" s="70"/>
       <c r="E165" s="70"/>
@@ -14469,39 +14517,39 @@
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="119" t="s">
-        <v>727</v>
+      <c r="A166" s="120" t="s">
+        <v>729</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>728</v>
-      </c>
-      <c r="C166" s="134" t="s">
-        <v>444</v>
+        <v>730</v>
+      </c>
+      <c r="C166" s="135" t="s">
+        <v>446</v>
       </c>
       <c r="D166" s="70"/>
       <c r="E166" s="70" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F166" s="70"/>
       <c r="G166" s="70" t="s">
-        <v>705</v>
-      </c>
-      <c r="H166" s="135" t="s">
-        <v>730</v>
+        <v>707</v>
+      </c>
+      <c r="H166" s="136" t="s">
+        <v>732</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="119" t="s">
-        <v>731</v>
+      <c r="A167" s="120" t="s">
+        <v>733</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>732</v>
-      </c>
-      <c r="C167" s="131" t="s">
-        <v>428</v>
+        <v>734</v>
+      </c>
+      <c r="C167" s="132" t="s">
+        <v>430</v>
       </c>
       <c r="D167" s="70"/>
       <c r="E167" s="70"/>
@@ -14513,27 +14561,27 @@
       <c r="K167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="119" t="s">
-        <v>733</v>
+      <c r="A168" s="120" t="s">
+        <v>735</v>
       </c>
       <c r="B168" s="70" t="s">
-        <v>734</v>
-      </c>
-      <c r="C168" s="131" t="s">
-        <v>735</v>
+        <v>736</v>
+      </c>
+      <c r="C168" s="132" t="s">
+        <v>737</v>
       </c>
       <c r="D168" s="70" t="s">
-        <v>736</v>
-      </c>
-      <c r="E168" s="136" t="s">
-        <v>737</v>
+        <v>738</v>
+      </c>
+      <c r="E168" s="137" t="s">
+        <v>739</v>
       </c>
       <c r="F168" s="70"/>
       <c r="G168" s="70" t="s">
-        <v>738</v>
-      </c>
-      <c r="H168" s="133" t="s">
-        <v>739</v>
+        <v>740</v>
+      </c>
+      <c r="H168" s="134" t="s">
+        <v>741</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
@@ -14570,33 +14618,34 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="H80"/>
-    <hyperlink r:id="rId3" ref="H85"/>
-    <hyperlink r:id="rId4" ref="H86"/>
-    <hyperlink r:id="rId5" ref="H87"/>
-    <hyperlink r:id="rId6" ref="H95"/>
-    <hyperlink r:id="rId7" ref="H96"/>
-    <hyperlink r:id="rId8" ref="H102"/>
-    <hyperlink r:id="rId9" ref="H103"/>
-    <hyperlink r:id="rId10" ref="H104"/>
-    <hyperlink r:id="rId11" ref="H105"/>
-    <hyperlink r:id="rId12" ref="H106"/>
-    <hyperlink r:id="rId13" ref="H109"/>
-    <hyperlink r:id="rId14" ref="H111"/>
-    <hyperlink r:id="rId15" ref="H128"/>
-    <hyperlink r:id="rId16" ref="H129"/>
-    <hyperlink r:id="rId17" ref="H130"/>
-    <hyperlink r:id="rId18" ref="H151"/>
-    <hyperlink r:id="rId19" ref="H154"/>
-    <hyperlink r:id="rId20" ref="H155"/>
-    <hyperlink r:id="rId21" ref="H161"/>
-    <hyperlink r:id="rId22" ref="H163"/>
-    <hyperlink r:id="rId23" ref="H164"/>
-    <hyperlink r:id="rId24" ref="H166"/>
-    <hyperlink r:id="rId25" ref="H168"/>
+    <hyperlink r:id="rId2" ref="H73"/>
+    <hyperlink r:id="rId3" ref="H80"/>
+    <hyperlink r:id="rId4" ref="H85"/>
+    <hyperlink r:id="rId5" ref="H86"/>
+    <hyperlink r:id="rId6" ref="H87"/>
+    <hyperlink r:id="rId7" ref="H95"/>
+    <hyperlink r:id="rId8" ref="H96"/>
+    <hyperlink r:id="rId9" ref="H102"/>
+    <hyperlink r:id="rId10" ref="H103"/>
+    <hyperlink r:id="rId11" ref="H104"/>
+    <hyperlink r:id="rId12" ref="H105"/>
+    <hyperlink r:id="rId13" ref="H106"/>
+    <hyperlink r:id="rId14" ref="H109"/>
+    <hyperlink r:id="rId15" ref="H111"/>
+    <hyperlink r:id="rId16" ref="H128"/>
+    <hyperlink r:id="rId17" ref="H129"/>
+    <hyperlink r:id="rId18" ref="H130"/>
+    <hyperlink r:id="rId19" ref="H151"/>
+    <hyperlink r:id="rId20" ref="H154"/>
+    <hyperlink r:id="rId21" ref="H155"/>
+    <hyperlink r:id="rId22" ref="H161"/>
+    <hyperlink r:id="rId23" ref="H163"/>
+    <hyperlink r:id="rId24" ref="H164"/>
+    <hyperlink r:id="rId25" ref="H166"/>
+    <hyperlink r:id="rId26" ref="H168"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <drawing r:id="rId27"/>
+  <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -14617,177 +14666,177 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="139" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D2" s="77"/>
       <c r="E2" s="39" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D3" s="77"/>
       <c r="E3" s="39" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
+        <v>755</v>
+      </c>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="C6" s="141" t="s">
+        <v>493</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="139"/>
+        <v>757</v>
+      </c>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8">
@@ -18791,108 +18840,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="141" t="s">
-        <v>759</v>
-      </c>
-      <c r="B2" s="142" t="s">
-        <v>760</v>
+      <c r="A2" s="142" t="s">
+        <v>761</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="143" t="s">
-        <v>761</v>
-      </c>
-      <c r="B3" s="142" t="s">
-        <v>762</v>
+      <c r="A3" s="144" t="s">
+        <v>763</v>
+      </c>
+      <c r="B3" s="143" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="144" t="s">
-        <v>763</v>
+      <c r="A4" s="145" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="145" t="s">
-        <v>764</v>
-      </c>
-      <c r="B6" s="142" t="s">
-        <v>765</v>
+      <c r="A6" s="146" t="s">
+        <v>766</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="142" t="s">
-        <v>766</v>
+      <c r="B7" s="143" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="142"/>
+      <c r="B8" s="143"/>
     </row>
     <row r="9">
-      <c r="B9" s="142"/>
+      <c r="B9" s="143"/>
     </row>
     <row r="10">
-      <c r="A10" s="145" t="s">
-        <v>767</v>
+      <c r="A10" s="146" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="145" t="s">
-        <v>768</v>
-      </c>
-      <c r="B11" s="146" t="s">
-        <v>769</v>
+      <c r="A11" s="146" t="s">
+        <v>770</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="147" t="s">
-        <v>770</v>
+      <c r="B12" s="148" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149" t="s">
-        <v>771</v>
+      <c r="A13" s="149"/>
+      <c r="B13" s="150" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="150" t="s">
-        <v>772</v>
+      <c r="B14" s="151" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="151" t="s">
-        <v>773</v>
+      <c r="B15" s="152" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="152" t="s">
-        <v>774</v>
+      <c r="B16" s="153" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="145"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="145" t="s">
-        <v>775</v>
-      </c>
-      <c r="B18" s="153" t="s">
-        <v>776</v>
+      <c r="A18" s="146" t="s">
+        <v>777</v>
+      </c>
+      <c r="B18" s="154" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="B19" s="154"/>
+        <v>779</v>
+      </c>
+      <c r="B19" s="155"/>
     </row>
     <row r="21">
-      <c r="A21" s="145" t="s">
-        <v>778</v>
-      </c>
-      <c r="B21" s="155" t="s">
-        <v>779</v>
+      <c r="A21" s="146" t="s">
+        <v>780</v>
+      </c>
+      <c r="B21" s="156" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -18918,62 +18967,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -18999,59 +19048,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B1" s="156" t="s">
-        <v>792</v>
+        <v>782</v>
+      </c>
+      <c r="B1" s="157" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="157" t="s">
-        <v>793</v>
+      <c r="A2" s="158" t="s">
+        <v>795</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="157" t="s">
-        <v>795</v>
+      <c r="A3" s="158" t="s">
+        <v>797</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="157" t="s">
-        <v>796</v>
+      <c r="A4" s="158" t="s">
+        <v>798</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="157" t="s">
-        <v>797</v>
+      <c r="A5" s="158" t="s">
+        <v>799</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="157" t="s">
-        <v>798</v>
+      <c r="A6" s="158" t="s">
+        <v>800</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="157" t="s">
-        <v>799</v>
+      <c r="A7" s="158" t="s">
+        <v>801</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="157" t="s">
-        <v>800</v>
+      <c r="A8" s="158" t="s">
+        <v>802</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="158" t="s">
-        <v>801</v>
+      <c r="A9" s="159" t="s">
+        <v>803</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -19071,7 +19120,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="146"/>
+      <c r="A1" s="147"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19095,36 +19144,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="159" t="s">
-        <v>802</v>
-      </c>
-      <c r="C1" s="159" t="s">
-        <v>803</v>
+      <c r="A1" s="160" t="s">
+        <v>804</v>
+      </c>
+      <c r="C1" s="160" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="145" t="s">
-        <v>804</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>805</v>
-      </c>
-      <c r="C2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>806</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>807</v>
+      </c>
+      <c r="C2" s="146" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="146" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19155,13 +19204,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>811</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>809</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19192,13 +19241,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>815</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>813</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -19226,16 +19275,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -19262,16 +19311,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="D7" s="160" t="s">
-        <v>819</v>
+        <v>812</v>
+      </c>
+      <c r="D7" s="161" t="s">
+        <v>821</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -19298,16 +19347,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -19333,220 +19382,220 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="161" t="s">
-        <v>823</v>
-      </c>
-      <c r="B9" s="162" t="s">
-        <v>824</v>
-      </c>
-      <c r="C9" s="162" t="s">
-        <v>810</v>
-      </c>
-      <c r="D9" s="162" t="s">
+      <c r="A9" s="162" t="s">
         <v>825</v>
       </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
+      <c r="B9" s="163" t="s">
+        <v>826</v>
+      </c>
+      <c r="C9" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="D9" s="163" t="s">
+        <v>827</v>
+      </c>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="163"/>
+      <c r="W9" s="163"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="163"/>
     </row>
     <row r="10">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="162" t="s">
+        <v>828</v>
+      </c>
+      <c r="B10" s="163" t="s">
         <v>826</v>
       </c>
-      <c r="B10" s="162" t="s">
-        <v>824</v>
-      </c>
-      <c r="C10" s="162" t="s">
-        <v>810</v>
-      </c>
-      <c r="D10" s="162" t="s">
-        <v>827</v>
-      </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
+      <c r="C10" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="D10" s="163" t="s">
+        <v>829</v>
+      </c>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="163"/>
     </row>
     <row r="11">
-      <c r="A11" s="161" t="s">
-        <v>828</v>
-      </c>
-      <c r="B11" s="162" t="s">
-        <v>829</v>
-      </c>
-      <c r="C11" s="162" t="s">
-        <v>810</v>
-      </c>
-      <c r="D11" s="162" t="s">
+      <c r="A11" s="162" t="s">
         <v>830</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
+      <c r="B11" s="163" t="s">
+        <v>831</v>
+      </c>
+      <c r="C11" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11" s="163" t="s">
+        <v>832</v>
+      </c>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
     </row>
     <row r="12">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="162" t="s">
+        <v>833</v>
+      </c>
+      <c r="B12" s="163" t="s">
         <v>831</v>
       </c>
-      <c r="B12" s="162" t="s">
-        <v>829</v>
-      </c>
-      <c r="C12" s="162" t="s">
-        <v>810</v>
-      </c>
-      <c r="D12" s="162" t="s">
-        <v>832</v>
-      </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
+      <c r="C12" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="D12" s="163" t="s">
+        <v>834</v>
+      </c>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
     </row>
     <row r="13">
-      <c r="A13" s="161" t="s">
-        <v>833</v>
-      </c>
-      <c r="B13" s="161" t="s">
-        <v>813</v>
-      </c>
-      <c r="C13" s="162" t="s">
-        <v>810</v>
-      </c>
-      <c r="D13" s="162" t="s">
-        <v>834</v>
-      </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
+      <c r="A13" s="162" t="s">
+        <v>835</v>
+      </c>
+      <c r="B13" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="C13" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="D13" s="163" t="s">
+        <v>836</v>
+      </c>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="163"/>
+      <c r="T13" s="163"/>
+      <c r="U13" s="163"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="163"/>
+      <c r="X13" s="163"/>
+      <c r="Y13" s="163"/>
+      <c r="Z13" s="163"/>
     </row>
     <row r="14">
-      <c r="A14" s="161" t="s">
-        <v>835</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>813</v>
-      </c>
-      <c r="C14" s="162" t="s">
-        <v>810</v>
-      </c>
-      <c r="D14" s="162" t="s">
-        <v>836</v>
-      </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
+      <c r="A14" s="162" t="s">
+        <v>837</v>
+      </c>
+      <c r="B14" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="C14" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="D14" s="163" t="s">
+        <v>838</v>
+      </c>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="163"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19574,52 +19623,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="159" t="s">
-        <v>802</v>
+      <c r="A1" s="160" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="145" t="s">
-        <v>804</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>805</v>
-      </c>
-      <c r="C2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>806</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>807</v>
       </c>
+      <c r="C2" s="146" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="146" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="142" t="s">
-        <v>837</v>
-      </c>
-      <c r="B3" s="142" t="s">
-        <v>838</v>
+      <c r="A3" s="143" t="s">
+        <v>839</v>
+      </c>
+      <c r="B3" s="143" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="142" t="s">
-        <v>839</v>
-      </c>
-      <c r="B4" s="142" t="s">
-        <v>840</v>
+      <c r="A4" s="143" t="s">
+        <v>841</v>
+      </c>
+      <c r="B4" s="143" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="142" t="s">
-        <v>841</v>
-      </c>
-      <c r="B5" s="142" t="s">
+      <c r="A5" s="143" t="s">
+        <v>843</v>
+      </c>
+      <c r="B5" s="143" t="s">
+        <v>844</v>
+      </c>
+      <c r="C5" s="164" t="s">
         <v>842</v>
       </c>
-      <c r="C5" s="163" t="s">
-        <v>840</v>
-      </c>
-      <c r="D5" s="142" t="s">
-        <v>843</v>
+      <c r="D5" s="143" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="848">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.1.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <r>
@@ -3092,7 +3092,10 @@
     <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Winner</t>
   </si>
   <si>
-    <t>?this epo:comprisesTenderAwardOutcome / epo:awardsLotToWinner ?value</t>
+    <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
+  </si>
+  <si>
+    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -3108,6 +3111,9 @@
   </si>
   <si>
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/DATE_CONCLUSION_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / xsd:date</t>
   </si>
   <si>
     <r>
@@ -4950,7 +4956,7 @@
     <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
   </si>
   <si>
-    <t>epo:Notice</t>
+    <t>epo:Notice / xsd:date</t>
   </si>
   <si>
     <r>
@@ -6094,6 +6100,9 @@
     <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6166,14 +6175,14 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6186,9 +6195,6 @@
     </xf>
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -6235,11 +6241,11 @@
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -10080,10 +10086,10 @@
       <c r="B10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="36" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -10421,8 +10427,8 @@
       <c r="E20" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56" t="s">
+      <c r="F20" s="57"/>
+      <c r="G20" s="57" t="s">
         <v>149</v>
       </c>
       <c r="H20" s="59" t="s">
@@ -10485,7 +10491,7 @@
       <c r="E22" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="60" t="s">
         <v>161</v>
       </c>
@@ -10557,7 +10563,7 @@
       <c r="E24" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="64" t="s">
         <v>161</v>
       </c>
@@ -10848,7 +10854,7 @@
       <c r="B33" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="36" t="s">
         <v>212</v>
       </c>
       <c r="D33" s="49" t="s">
@@ -10884,8 +10890,8 @@
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="56"/>
       <c r="H34" s="56"/>
       <c r="I34" s="4"/>
@@ -10912,10 +10918,10 @@
       <c r="D35" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="70" t="s">
         <v>222</v>
       </c>
@@ -10950,10 +10956,10 @@
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="56" t="s">
         <v>227</v>
       </c>
@@ -10982,10 +10988,10 @@
         <v>231</v>
       </c>
       <c r="D37" s="70"/>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="F37" s="70"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
       <c r="I37" s="6"/>
@@ -11060,10 +11066,10 @@
       <c r="B40" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="36" t="s">
         <v>220</v>
       </c>
       <c r="E40" s="36" t="s">
@@ -11102,10 +11108,10 @@
       <c r="B41" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="36" t="s">
         <v>248</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -11136,10 +11142,10 @@
       <c r="B42" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="36" t="s">
         <v>254</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -11179,7 +11185,7 @@
       <c r="G43" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="H43" s="73" t="s">
+      <c r="H43" s="74" t="s">
         <v>260</v>
       </c>
       <c r="I43" s="6"/>
@@ -11224,10 +11230,10 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="4"/>
@@ -11257,23 +11263,23 @@
       <c r="A46" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="F46" s="77"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="78" t="s">
         <v>269</v>
       </c>
       <c r="I46" s="6"/>
@@ -11467,7 +11473,7 @@
       <c r="G52" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H52" s="74" t="s">
         <v>294</v>
       </c>
       <c r="I52" s="6"/>
@@ -11488,10 +11494,10 @@
       <c r="B53" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D53" s="13" t="s">
         <v>298</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -11522,10 +11528,10 @@
       <c r="B54" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="C54" s="77" t="s">
+      <c r="C54" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -11574,10 +11580,10 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="80" t="s">
         <v>309</v>
       </c>
       <c r="C56" s="4"/>
@@ -11648,7 +11654,7 @@
       <c r="H58" s="56"/>
       <c r="I58" s="70"/>
       <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
+      <c r="K58" s="73"/>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
@@ -11682,7 +11688,7 @@
       </c>
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
+      <c r="K59" s="73"/>
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
@@ -11692,10 +11698,10 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="79" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="80"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
       <c r="E60" s="56" t="s">
@@ -11712,7 +11718,7 @@
       </c>
       <c r="I60" s="70"/>
       <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
+      <c r="K60" s="73"/>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
@@ -11722,10 +11728,10 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="80"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="70"/>
       <c r="D61" s="70"/>
       <c r="E61" s="58" t="s">
@@ -11742,7 +11748,7 @@
       </c>
       <c r="I61" s="70"/>
       <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
+      <c r="K61" s="73"/>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
@@ -11776,7 +11782,7 @@
       </c>
       <c r="I62" s="70"/>
       <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
+      <c r="K62" s="73"/>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
@@ -11856,14 +11862,14 @@
       <c r="D65" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="E65" s="77" t="s">
+      <c r="E65" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="F65" s="81"/>
-      <c r="G65" s="77" t="s">
+      <c r="F65" s="82"/>
+      <c r="G65" s="78" t="s">
         <v>354</v>
       </c>
-      <c r="H65" s="82" t="s">
+      <c r="H65" s="83" t="s">
         <v>355</v>
       </c>
       <c r="I65" s="6"/>
@@ -11878,16 +11884,16 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="B66" s="84" t="s">
+      <c r="B66" s="85" t="s">
         <v>350</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="86" t="s">
         <v>351</v>
       </c>
-      <c r="D66" s="86" t="s">
+      <c r="D66" s="87" t="s">
         <v>352</v>
       </c>
       <c r="E66" s="49" t="s">
@@ -11931,7 +11937,7 @@
       <c r="G67" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="H67" s="87" t="s">
+      <c r="H67" s="88" t="s">
         <v>364</v>
       </c>
       <c r="I67" s="6"/>
@@ -11958,14 +11964,14 @@
       <c r="D68" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E68" s="81" t="s">
+      <c r="E68" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81" t="s">
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="H68" s="88" t="s">
+      <c r="H68" s="89" t="s">
         <v>370</v>
       </c>
       <c r="I68" s="6"/>
@@ -11980,7 +11986,7 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="90" t="s">
         <v>371</v>
       </c>
       <c r="B69" s="67" t="s">
@@ -12006,7 +12012,7 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="91" t="s">
         <v>374</v>
       </c>
       <c r="B70" s="38" t="s">
@@ -12101,7 +12107,7 @@
       <c r="G73" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="H73" s="91" t="s">
+      <c r="H73" s="92" t="s">
         <v>387</v>
       </c>
       <c r="I73" s="6"/>
@@ -12125,7 +12131,7 @@
       <c r="C74" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="36" t="s">
         <v>391</v>
       </c>
       <c r="E74" s="49" t="s">
@@ -12135,7 +12141,7 @@
       <c r="G74" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="H74" s="73" t="s">
+      <c r="H74" s="74" t="s">
         <v>394</v>
       </c>
       <c r="I74" s="6"/>
@@ -12150,16 +12156,16 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="92" t="s">
+      <c r="A75" s="93" t="s">
         <v>388</v>
       </c>
-      <c r="B75" s="93" t="s">
+      <c r="B75" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="86" t="s">
         <v>390</v>
       </c>
-      <c r="D75" s="86" t="s">
+      <c r="D75" s="87" t="s">
         <v>391</v>
       </c>
       <c r="E75" s="49" t="s">
@@ -12169,7 +12175,7 @@
       <c r="G75" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="H75" s="73" t="s">
+      <c r="H75" s="74" t="s">
         <v>396</v>
       </c>
       <c r="I75" s="6"/>
@@ -12184,7 +12190,7 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="91" t="s">
         <v>397</v>
       </c>
       <c r="B76" s="38" t="s">
@@ -12223,7 +12229,7 @@
       <c r="G77" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="H77" s="73" t="s">
+      <c r="H77" s="74" t="s">
         <v>403</v>
       </c>
       <c r="I77" s="6"/>
@@ -12238,7 +12244,7 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="90" t="s">
         <v>404</v>
       </c>
       <c r="B78" s="67" t="s">
@@ -12246,7 +12252,7 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="95" t="s">
         <v>406</v>
       </c>
       <c r="F78" s="4"/>
@@ -12289,7 +12295,7 @@
       <c r="G79" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="H79" s="95" t="s">
+      <c r="H79" s="96" t="s">
         <v>415</v>
       </c>
       <c r="I79" s="6"/>
@@ -12323,7 +12329,7 @@
       <c r="G80" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="H80" s="96" t="s">
+      <c r="H80" s="97" t="s">
         <v>422</v>
       </c>
       <c r="I80" s="6"/>
@@ -12338,26 +12344,26 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="93" t="s">
         <v>416</v>
       </c>
-      <c r="B81" s="93" t="s">
+      <c r="B81" s="94" t="s">
         <v>417</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="87" t="s">
         <v>418</v>
       </c>
-      <c r="D81" s="86" t="s">
+      <c r="D81" s="98" t="s">
         <v>419</v>
       </c>
       <c r="E81" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="F81" s="97"/>
-      <c r="G81" s="40" t="s">
+      <c r="F81" s="6"/>
+      <c r="G81" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="H81" s="40" t="s">
+      <c r="H81" s="39" t="s">
         <v>424</v>
       </c>
       <c r="I81" s="6"/>
@@ -12372,16 +12378,16 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="93" t="s">
         <v>416</v>
       </c>
-      <c r="B82" s="93" t="s">
+      <c r="B82" s="94" t="s">
         <v>417</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="87" t="s">
         <v>418</v>
       </c>
-      <c r="D82" s="86" t="s">
+      <c r="D82" s="87" t="s">
         <v>419</v>
       </c>
       <c r="E82" s="58" t="s">
@@ -12406,13 +12412,13 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="91" t="s">
         <v>428</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="C83" s="98" t="s">
+      <c r="C83" s="99" t="s">
         <v>430</v>
       </c>
       <c r="D83" s="49"/>
@@ -12438,10 +12444,10 @@
       <c r="B84" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="C84" s="99" t="s">
+      <c r="C84" s="100" t="s">
         <v>430</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -12477,7 +12483,7 @@
       <c r="G85" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="H85" s="100" t="s">
+      <c r="H85" s="101" t="s">
         <v>439</v>
       </c>
       <c r="I85" s="6"/>
@@ -12511,7 +12517,7 @@
       <c r="G86" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="H86" s="96" t="s">
+      <c r="H86" s="97" t="s">
         <v>443</v>
       </c>
       <c r="I86" s="6"/>
@@ -12532,18 +12538,18 @@
       <c r="B87" s="55" t="s">
         <v>445</v>
       </c>
-      <c r="C87" s="101" t="s">
+      <c r="C87" s="102" t="s">
         <v>446</v>
       </c>
       <c r="D87" s="49"/>
-      <c r="E87" s="102" t="s">
+      <c r="E87" s="103" t="s">
         <v>447</v>
       </c>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102" t="s">
+      <c r="F87" s="103"/>
+      <c r="G87" s="103" t="s">
         <v>448</v>
       </c>
-      <c r="H87" s="103" t="s">
+      <c r="H87" s="104" t="s">
         <v>449</v>
       </c>
       <c r="I87" s="6"/>
@@ -12551,13 +12557,13 @@
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="91" t="s">
         <v>450</v>
       </c>
       <c r="B88" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="100" t="s">
         <v>430</v>
       </c>
       <c r="D88" s="4"/>
@@ -12609,30 +12615,32 @@
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="K90" s="6" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="48" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F91" s="6"/>
-      <c r="G91" s="4" t="s">
-        <v>448</v>
+      <c r="G91" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -12640,10 +12648,10 @@
     </row>
     <row r="92">
       <c r="A92" s="48" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C92" s="106"/>
       <c r="D92" s="106"/>
@@ -12652,10 +12660,10 @@
       </c>
       <c r="F92" s="106"/>
       <c r="G92" s="13" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -12663,26 +12671,26 @@
     </row>
     <row r="93">
       <c r="A93" s="69" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="C93" s="77" t="s">
-        <v>469</v>
-      </c>
-      <c r="D93" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="E93" s="77" t="s">
+      <c r="C93" s="78" t="s">
         <v>471</v>
       </c>
-      <c r="F93" s="77"/>
+      <c r="D93" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="E93" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="F93" s="78"/>
       <c r="G93" s="13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -12690,22 +12698,22 @@
     </row>
     <row r="94">
       <c r="A94" s="69" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
       <c r="E94" s="49" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H94" s="39" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -12713,22 +12721,22 @@
     </row>
     <row r="95">
       <c r="A95" s="69" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
       <c r="E95" s="49" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H95" s="96" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="H95" s="97" t="s">
+        <v>484</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
@@ -12736,22 +12744,22 @@
     </row>
     <row r="96">
       <c r="A96" s="69" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="49" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H96" s="96" t="s">
-        <v>486</v>
+        <v>479</v>
+      </c>
+      <c r="H96" s="97" t="s">
+        <v>488</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -12759,22 +12767,22 @@
     </row>
     <row r="97">
       <c r="A97" s="69" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
       <c r="E97" s="49" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -12782,24 +12790,24 @@
     </row>
     <row r="98">
       <c r="A98" s="69" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C98" s="108" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="36" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H98" s="49" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -12807,17 +12815,17 @@
     </row>
     <row r="99">
       <c r="A99" s="48" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="C99" s="98" t="s">
+        <v>500</v>
+      </c>
+      <c r="C99" s="99" t="s">
         <v>430</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="39"/>
-      <c r="F99" s="36"/>
+      <c r="F99" s="49"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
       <c r="I99" s="6"/>
@@ -12826,7 +12834,7 @@
     </row>
     <row r="100">
       <c r="A100" s="69" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B100" s="55" t="s">
         <v>55</v>
@@ -12838,14 +12846,14 @@
         <v>57</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F100" s="49"/>
       <c r="G100" s="43" t="s">
         <v>59</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -12853,7 +12861,7 @@
     </row>
     <row r="101">
       <c r="A101" s="69" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B101" s="55" t="s">
         <v>62</v>
@@ -12865,14 +12873,14 @@
         <v>64</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="45" t="s">
         <v>66</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -12880,7 +12888,7 @@
     </row>
     <row r="102">
       <c r="A102" s="69" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B102" s="55" t="s">
         <v>69</v>
@@ -12892,14 +12900,14 @@
         <v>71</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H102" s="96" t="s">
-        <v>507</v>
+      <c r="H102" s="97" t="s">
+        <v>509</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -12907,7 +12915,7 @@
     </row>
     <row r="103">
       <c r="A103" s="69" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B103" s="55" t="s">
         <v>76</v>
@@ -12919,14 +12927,14 @@
         <v>78</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H103" s="96" t="s">
-        <v>510</v>
+      <c r="H103" s="97" t="s">
+        <v>512</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -12934,7 +12942,7 @@
     </row>
     <row r="104">
       <c r="A104" s="69" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B104" s="55" t="s">
         <v>82</v>
@@ -12946,16 +12954,16 @@
         <v>84</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G104" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H104" s="100" t="s">
-        <v>514</v>
+      <c r="H104" s="101" t="s">
+        <v>516</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -12963,7 +12971,7 @@
     </row>
     <row r="105">
       <c r="A105" s="69" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B105" s="55" t="s">
         <v>90</v>
@@ -12972,17 +12980,17 @@
         <v>91</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H105" s="96" t="s">
-        <v>518</v>
+      <c r="H105" s="97" t="s">
+        <v>520</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -12990,7 +12998,7 @@
     </row>
     <row r="106">
       <c r="A106" s="69" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>97</v>
@@ -12998,18 +13006,18 @@
       <c r="C106" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D106" s="77" t="s">
+      <c r="D106" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="E106" s="77" t="s">
-        <v>520</v>
-      </c>
-      <c r="F106" s="77"/>
+      <c r="E106" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="F106" s="78"/>
       <c r="G106" s="109" t="s">
         <v>101</v>
       </c>
       <c r="H106" s="110" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -13017,7 +13025,7 @@
     </row>
     <row r="107">
       <c r="A107" s="69" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B107" s="55" t="s">
         <v>117</v>
@@ -13029,14 +13037,14 @@
         <v>119</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F107" s="49"/>
       <c r="G107" s="49" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
@@ -13044,7 +13052,7 @@
     </row>
     <row r="108">
       <c r="A108" s="69" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B108" s="55" t="s">
         <v>111</v>
@@ -13056,14 +13064,14 @@
         <v>113</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F108" s="49"/>
       <c r="G108" s="49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H108" s="49" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -13071,26 +13079,26 @@
     </row>
     <row r="109">
       <c r="A109" s="69" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C109" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D109" s="77" t="s">
+      <c r="D109" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="77" t="s">
-        <v>532</v>
-      </c>
-      <c r="F109" s="77"/>
+      <c r="E109" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="F109" s="78"/>
       <c r="G109" s="111" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H109" s="112" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -13098,7 +13106,7 @@
     </row>
     <row r="110">
       <c r="A110" s="69" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B110" s="55" t="s">
         <v>124</v>
@@ -13110,14 +13118,14 @@
         <v>126</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H110" s="49" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -13125,26 +13133,26 @@
     </row>
     <row r="111">
       <c r="A111" s="69" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E111" s="113" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F111" s="114"/>
       <c r="G111" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H111" s="115" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
@@ -13153,17 +13161,17 @@
     <row r="112">
       <c r="A112" s="18"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
       <c r="E112" s="107" t="s">
-        <v>541</v>
-      </c>
-      <c r="F112" s="81"/>
+        <v>543</v>
+      </c>
+      <c r="F112" s="82"/>
       <c r="G112" s="109" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H112" s="109" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -13171,12 +13179,12 @@
     </row>
     <row r="113">
       <c r="A113" s="48" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="C113" s="104" t="s">
+        <v>549</v>
+      </c>
+      <c r="C113" s="100" t="s">
         <v>430</v>
       </c>
       <c r="D113" s="4"/>
@@ -13190,51 +13198,51 @@
     </row>
     <row r="114">
       <c r="A114" s="69" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>220</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="36" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H114" s="49" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="78" t="s">
-        <v>554</v>
-      </c>
-      <c r="B115" s="79" t="s">
+      <c r="A115" s="79" t="s">
+        <v>556</v>
+      </c>
+      <c r="B115" s="80" t="s">
         <v>225</v>
       </c>
       <c r="C115" s="116" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D115" s="49"/>
       <c r="E115" s="49" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="36" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
@@ -13242,51 +13250,51 @@
     </row>
     <row r="116">
       <c r="A116" s="69" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>560</v>
-      </c>
-      <c r="C116" s="77" t="s">
-        <v>561</v>
-      </c>
-      <c r="D116" s="77" t="s">
         <v>562</v>
       </c>
+      <c r="C116" s="78" t="s">
+        <v>563</v>
+      </c>
+      <c r="D116" s="78" t="s">
+        <v>564</v>
+      </c>
       <c r="E116" s="117" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F116" s="117"/>
       <c r="G116" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="H116" s="81" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="H116" s="82" t="s">
+        <v>567</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="78" t="s">
-        <v>566</v>
-      </c>
-      <c r="B117" s="79" t="s">
+      <c r="A117" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="B117" s="80" t="s">
         <v>225</v>
       </c>
       <c r="C117" s="116" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D117" s="49"/>
       <c r="E117" s="117" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F117" s="117"/>
       <c r="G117" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H117" s="39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
@@ -13294,51 +13302,51 @@
     </row>
     <row r="118">
       <c r="A118" s="69" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C118" s="56" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D118" s="70" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E118" s="118" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F118" s="118"/>
-      <c r="G118" s="70" t="s">
-        <v>575</v>
-      </c>
-      <c r="H118" s="70" t="s">
-        <v>576</v>
+      <c r="G118" s="73" t="s">
+        <v>577</v>
+      </c>
+      <c r="H118" s="73" t="s">
+        <v>578</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="78" t="s">
-        <v>577</v>
-      </c>
-      <c r="B119" s="79" t="s">
+      <c r="A119" s="79" t="s">
+        <v>579</v>
+      </c>
+      <c r="B119" s="80" t="s">
         <v>225</v>
       </c>
       <c r="C119" s="119" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D119" s="56"/>
       <c r="E119" s="118" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F119" s="56"/>
       <c r="G119" s="57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H119" s="57" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -13346,51 +13354,51 @@
     </row>
     <row r="120">
       <c r="A120" s="69" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B120" s="55" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D120" s="70" t="s">
-        <v>584</v>
-      </c>
-      <c r="E120" s="120" t="s">
-        <v>585</v>
-      </c>
-      <c r="F120" s="120"/>
-      <c r="G120" s="56" t="s">
-        <v>575</v>
-      </c>
-      <c r="H120" s="56" t="s">
         <v>586</v>
+      </c>
+      <c r="E120" s="118" t="s">
+        <v>587</v>
+      </c>
+      <c r="F120" s="118"/>
+      <c r="G120" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="H120" s="57" t="s">
+        <v>588</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="78" t="s">
-        <v>587</v>
-      </c>
-      <c r="B121" s="79" t="s">
+      <c r="A121" s="79" t="s">
+        <v>589</v>
+      </c>
+      <c r="B121" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="C121" s="121" t="s">
-        <v>555</v>
+      <c r="C121" s="120" t="s">
+        <v>557</v>
       </c>
       <c r="D121" s="70"/>
-      <c r="E121" s="120" t="s">
-        <v>588</v>
+      <c r="E121" s="121" t="s">
+        <v>590</v>
       </c>
       <c r="F121" s="56"/>
       <c r="G121" s="57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H121" s="57" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
@@ -13398,40 +13406,40 @@
     </row>
     <row r="122">
       <c r="A122" s="69" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C122" s="70" t="s">
         <v>231</v>
       </c>
       <c r="D122" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="E122" s="120" t="s">
-        <v>593</v>
-      </c>
-      <c r="F122" s="120"/>
+        <v>594</v>
+      </c>
+      <c r="E122" s="121" t="s">
+        <v>595</v>
+      </c>
+      <c r="F122" s="121"/>
       <c r="G122" s="56" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H122" s="56" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="89" t="s">
-        <v>596</v>
+      <c r="A123" s="90" t="s">
+        <v>598</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C123" s="6"/>
-      <c r="D123" s="81"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="G123" s="4"/>
@@ -13441,43 +13449,43 @@
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="90" t="s">
-        <v>598</v>
+      <c r="A124" s="91" t="s">
+        <v>600</v>
       </c>
       <c r="B124" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="77" t="s">
+      <c r="C124" s="78" t="s">
         <v>367</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E124" s="117" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F124" s="117"/>
       <c r="G124" s="122" t="s">
         <v>180</v>
       </c>
       <c r="H124" s="123" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="90" t="s">
-        <v>601</v>
+      <c r="A125" s="91" t="s">
+        <v>603</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C125" s="124" t="s">
         <v>430</v>
       </c>
-      <c r="D125" s="81"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="125"/>
       <c r="F125" s="125"/>
       <c r="G125" s="4"/>
@@ -13488,24 +13496,24 @@
     </row>
     <row r="126">
       <c r="A126" s="48" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C126" s="126" t="s">
         <v>430</v>
       </c>
-      <c r="D126" s="81"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="114" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F126" s="117"/>
       <c r="G126" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
@@ -13513,26 +13521,26 @@
     </row>
     <row r="127">
       <c r="A127" s="69" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B127" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C127" s="77" t="s">
+      <c r="C127" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D127" s="77" t="s">
+      <c r="D127" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E127" s="117" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F127" s="117"/>
       <c r="G127" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H127" s="39" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
@@ -13540,26 +13548,26 @@
     </row>
     <row r="128">
       <c r="A128" s="69" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B128" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C128" s="77" t="s">
+      <c r="C128" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D128" s="77" t="s">
+      <c r="D128" s="78" t="s">
         <v>71</v>
       </c>
       <c r="E128" s="49" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H128" s="96" t="s">
-        <v>612</v>
+      <c r="H128" s="97" t="s">
+        <v>614</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -13567,26 +13575,26 @@
     </row>
     <row r="129">
       <c r="A129" s="69" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B129" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C129" s="77" t="s">
+      <c r="C129" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D129" s="77" t="s">
+      <c r="D129" s="78" t="s">
         <v>78</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H129" s="96" t="s">
-        <v>615</v>
+      <c r="H129" s="97" t="s">
+        <v>617</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -13594,26 +13602,26 @@
     </row>
     <row r="130">
       <c r="A130" s="69" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B130" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C130" s="77" t="s">
+      <c r="C130" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D130" s="77" t="s">
-        <v>516</v>
+      <c r="D130" s="78" t="s">
+        <v>518</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="H130" s="96" t="s">
-        <v>619</v>
+        <v>620</v>
+      </c>
+      <c r="H130" s="97" t="s">
+        <v>621</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -13621,26 +13629,26 @@
     </row>
     <row r="131">
       <c r="A131" s="69" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B131" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C131" s="77" t="s">
+      <c r="C131" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="D131" s="77" t="s">
+      <c r="D131" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="E131" s="77" t="s">
-        <v>621</v>
-      </c>
-      <c r="F131" s="77"/>
-      <c r="G131" s="77" t="s">
+      <c r="E131" s="78" t="s">
+        <v>623</v>
+      </c>
+      <c r="F131" s="78"/>
+      <c r="G131" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="77" t="s">
-        <v>622</v>
+      <c r="H131" s="78" t="s">
+        <v>624</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -13648,26 +13656,26 @@
     </row>
     <row r="132">
       <c r="A132" s="69" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B132" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="77" t="s">
+      <c r="C132" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D132" s="77" t="s">
+      <c r="D132" s="78" t="s">
         <v>119</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="49" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H132" s="49" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -13675,26 +13683,26 @@
     </row>
     <row r="133">
       <c r="A133" s="69" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C133" s="77" t="s">
+      <c r="C133" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="77" t="s">
+      <c r="D133" s="78" t="s">
         <v>113</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H133" s="49" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
@@ -13702,26 +13710,26 @@
     </row>
     <row r="134">
       <c r="A134" s="69" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C134" s="77" t="s">
+        <v>533</v>
+      </c>
+      <c r="C134" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="77" t="s">
+      <c r="D134" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="45" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H134" s="45" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -13729,26 +13737,26 @@
     </row>
     <row r="135">
       <c r="A135" s="69" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B135" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C135" s="77" t="s">
+      <c r="C135" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D135" s="77" t="s">
+      <c r="D135" s="78" t="s">
         <v>126</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H135" s="49" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -13756,24 +13764,24 @@
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C136" s="126" t="s">
         <v>430</v>
       </c>
       <c r="D136" s="127"/>
       <c r="E136" s="39" t="s">
-        <v>634</v>
-      </c>
-      <c r="F136" s="36"/>
+        <v>636</v>
+      </c>
+      <c r="F136" s="49"/>
       <c r="G136" s="36" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -13781,26 +13789,26 @@
     </row>
     <row r="137">
       <c r="A137" s="69" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B137" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C137" s="77" t="s">
+      <c r="C137" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D137" s="77" t="s">
+      <c r="D137" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E137" s="49" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H137" s="39" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -13808,26 +13816,26 @@
     </row>
     <row r="138">
       <c r="A138" s="69" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B138" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C138" s="77" t="s">
+      <c r="C138" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="77" t="s">
+      <c r="D138" s="78" t="s">
         <v>71</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F138" s="49"/>
       <c r="G138" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
@@ -13835,26 +13843,26 @@
     </row>
     <row r="139">
       <c r="A139" s="69" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B139" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C139" s="77" t="s">
+      <c r="C139" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D139" s="77" t="s">
+      <c r="D139" s="78" t="s">
         <v>78</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F139" s="49"/>
       <c r="G139" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -13862,26 +13870,26 @@
     </row>
     <row r="140">
       <c r="A140" s="69" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B140" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C140" s="77" t="s">
+      <c r="C140" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D140" s="77" t="s">
-        <v>516</v>
+      <c r="D140" s="78" t="s">
+        <v>518</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F140" s="49"/>
       <c r="G140" s="39" t="s">
         <v>94</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -13889,7 +13897,7 @@
     </row>
     <row r="141">
       <c r="A141" s="69" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B141" s="55" t="s">
         <v>97</v>
@@ -13897,18 +13905,18 @@
       <c r="C141" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D141" s="77" t="s">
+      <c r="D141" s="78" t="s">
         <v>99</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F141" s="49"/>
       <c r="G141" s="39" t="s">
         <v>101</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -13916,26 +13924,26 @@
     </row>
     <row r="142">
       <c r="A142" s="69" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C142" s="77" t="s">
+      <c r="C142" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D142" s="77" t="s">
+      <c r="D142" s="78" t="s">
         <v>119</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="F142" s="77"/>
+        <v>654</v>
+      </c>
+      <c r="F142" s="78"/>
       <c r="G142" s="49" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H142" s="49" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -13943,26 +13951,26 @@
     </row>
     <row r="143">
       <c r="A143" s="69" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B143" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C143" s="77" t="s">
+      <c r="C143" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="D143" s="77" t="s">
+      <c r="D143" s="78" t="s">
         <v>113</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F143" s="49"/>
       <c r="G143" s="49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H143" s="49" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -13970,26 +13978,26 @@
     </row>
     <row r="144">
       <c r="A144" s="69" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B144" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C144" s="77" t="s">
+        <v>533</v>
+      </c>
+      <c r="C144" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="D144" s="77" t="s">
+      <c r="D144" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E144" s="49" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F144" s="49"/>
       <c r="G144" s="45" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H144" s="45" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -13997,26 +14005,26 @@
     </row>
     <row r="145">
       <c r="A145" s="69" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B145" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C145" s="77" t="s">
+      <c r="C145" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D145" s="77" t="s">
+      <c r="D145" s="78" t="s">
         <v>126</v>
       </c>
       <c r="E145" s="49" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H145" s="49" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -14024,26 +14032,26 @@
     </row>
     <row r="146">
       <c r="A146" s="48" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="C146" s="77" t="s">
-        <v>662</v>
-      </c>
-      <c r="D146" s="77" t="s">
         <v>663</v>
       </c>
+      <c r="C146" s="78" t="s">
+        <v>664</v>
+      </c>
+      <c r="D146" s="78" t="s">
+        <v>665</v>
+      </c>
       <c r="E146" s="49" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F146" s="49"/>
       <c r="G146" s="122" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H146" s="123" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -14051,22 +14059,22 @@
     </row>
     <row r="147">
       <c r="A147" s="48" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="81"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="F147" s="36"/>
+        <v>671</v>
+      </c>
+      <c r="F147" s="49"/>
       <c r="G147" s="36" t="s">
         <v>52</v>
       </c>
       <c r="H147" s="36" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
@@ -14074,26 +14082,26 @@
     </row>
     <row r="148">
       <c r="A148" s="69" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B148" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C148" s="77" t="s">
+      <c r="C148" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D148" s="77" t="s">
+      <c r="D148" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F148" s="49"/>
       <c r="G148" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H148" s="39" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -14101,26 +14109,26 @@
     </row>
     <row r="149">
       <c r="A149" s="69" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B149" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C149" s="77" t="s">
+      <c r="C149" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D149" s="77" t="s">
+      <c r="D149" s="78" t="s">
         <v>71</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F149" s="49"/>
       <c r="G149" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H149" s="39" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
@@ -14128,7 +14136,7 @@
     </row>
     <row r="150">
       <c r="A150" s="69" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B150" s="55" t="s">
         <v>76</v>
@@ -14136,18 +14144,18 @@
       <c r="C150" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D150" s="77" t="s">
+      <c r="D150" s="78" t="s">
         <v>78</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H150" s="39" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -14155,26 +14163,26 @@
     </row>
     <row r="151">
       <c r="A151" s="69" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B151" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C151" s="77" t="s">
+      <c r="C151" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D151" s="77" t="s">
-        <v>516</v>
+      <c r="D151" s="78" t="s">
+        <v>518</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H151" s="96" t="s">
-        <v>681</v>
+      <c r="H151" s="97" t="s">
+        <v>683</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -14182,26 +14190,26 @@
     </row>
     <row r="152">
       <c r="A152" s="69" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B152" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C152" s="77" t="s">
+      <c r="C152" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="D152" s="77" t="s">
+      <c r="D152" s="78" t="s">
         <v>99</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="49" t="s">
         <v>101</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -14209,26 +14217,26 @@
     </row>
     <row r="153">
       <c r="A153" s="69" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C153" s="77" t="s">
+      <c r="C153" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D153" s="77" t="s">
+      <c r="D153" s="78" t="s">
         <v>119</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F153" s="49"/>
       <c r="G153" s="49" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H153" s="49" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -14236,26 +14244,26 @@
     </row>
     <row r="154">
       <c r="A154" s="69" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B154" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C154" s="77" t="s">
+      <c r="C154" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="D154" s="77" t="s">
+      <c r="D154" s="78" t="s">
         <v>113</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="H154" s="100" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="H154" s="101" t="s">
+        <v>531</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
@@ -14263,26 +14271,26 @@
     </row>
     <row r="155">
       <c r="A155" s="69" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B155" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C155" s="77" t="s">
+        <v>533</v>
+      </c>
+      <c r="C155" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="D155" s="77" t="s">
+      <c r="D155" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F155" s="49"/>
       <c r="G155" s="45" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H155" s="128" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -14290,71 +14298,71 @@
     </row>
     <row r="156">
       <c r="A156" s="69" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B156" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="77" t="s">
+      <c r="C156" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D156" s="77" t="s">
+      <c r="D156" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="E156" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="F156" s="77"/>
+      <c r="E156" s="78" t="s">
+        <v>695</v>
+      </c>
+      <c r="F156" s="78"/>
       <c r="G156" s="49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H156" s="49" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="90" t="s">
-        <v>694</v>
+      <c r="A157" s="91" t="s">
+        <v>696</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C157" s="129" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D157" s="129" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E157" s="130" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F157" s="130"/>
       <c r="G157" s="39" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H157" s="131" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="120" t="s">
-        <v>701</v>
+      <c r="A158" s="121" t="s">
+        <v>703</v>
       </c>
       <c r="B158" s="56" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C158" s="132" t="s">
         <v>430</v>
       </c>
       <c r="D158" s="70"/>
       <c r="E158" s="56" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F158" s="56"/>
       <c r="G158" s="56"/>
@@ -14364,34 +14372,34 @@
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="120" t="s">
-        <v>704</v>
+      <c r="A159" s="121" t="s">
+        <v>706</v>
       </c>
       <c r="B159" s="56" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C159" s="70"/>
       <c r="D159" s="70"/>
       <c r="E159" s="56" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F159" s="56"/>
       <c r="G159" s="56" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H159" s="56" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="120" t="s">
-        <v>709</v>
+      <c r="A160" s="121" t="s">
+        <v>711</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C160" s="70" t="s">
         <v>430</v>
@@ -14406,103 +14414,103 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="120" t="s">
-        <v>711</v>
+      <c r="A161" s="121" t="s">
+        <v>713</v>
       </c>
       <c r="B161" s="70" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C161" s="70"/>
       <c r="D161" s="70"/>
       <c r="E161" s="70" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F161" s="70"/>
       <c r="G161" s="70" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H161" s="133" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="120" t="s">
-        <v>715</v>
+      <c r="A162" s="121" t="s">
+        <v>717</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C162" s="70"/>
       <c r="D162" s="70"/>
       <c r="E162" s="70" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F162" s="70"/>
       <c r="G162" s="70" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H162" s="70" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="120" t="s">
-        <v>719</v>
+      <c r="A163" s="121" t="s">
+        <v>721</v>
       </c>
       <c r="B163" s="70" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C163" s="70"/>
       <c r="D163" s="70"/>
       <c r="E163" s="70" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F163" s="70"/>
       <c r="G163" s="70" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H163" s="134" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="120" t="s">
-        <v>723</v>
+      <c r="A164" s="121" t="s">
+        <v>725</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C164" s="70"/>
       <c r="D164" s="70"/>
       <c r="E164" s="70" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F164" s="70"/>
       <c r="G164" s="70" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H164" s="134" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="120" t="s">
-        <v>727</v>
+      <c r="A165" s="121" t="s">
+        <v>729</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C165" s="132" t="s">
         <v>430</v>
@@ -14517,36 +14525,36 @@
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="120" t="s">
-        <v>729</v>
+      <c r="A166" s="121" t="s">
+        <v>731</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C166" s="135" t="s">
         <v>446</v>
       </c>
       <c r="D166" s="70"/>
       <c r="E166" s="70" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F166" s="70"/>
       <c r="G166" s="70" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H166" s="136" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="120" t="s">
-        <v>733</v>
+      <c r="A167" s="121" t="s">
+        <v>735</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C167" s="132" t="s">
         <v>430</v>
@@ -14561,27 +14569,27 @@
       <c r="K167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="120" t="s">
-        <v>735</v>
+      <c r="A168" s="121" t="s">
+        <v>737</v>
       </c>
       <c r="B168" s="70" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C168" s="132" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D168" s="70" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E168" s="137" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F168" s="70"/>
       <c r="G168" s="70" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H168" s="134" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
@@ -14687,66 +14695,66 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>744</v>
-      </c>
-      <c r="D2" s="77"/>
+        <v>745</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2" s="78"/>
       <c r="E2" s="39" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>743</v>
-      </c>
-      <c r="C3" s="77" t="s">
         <v>744</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>745</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="39" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>749</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>750</v>
-      </c>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="82" t="s">
         <v>751</v>
       </c>
+      <c r="C4" s="78" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>753</v>
+      </c>
       <c r="E4" s="39" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>754</v>
+      <c r="B5" s="82" t="s">
+        <v>756</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>418</v>
@@ -14758,7 +14766,7 @@
         <v>425</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="140"/>
@@ -14783,20 +14791,20 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>494</v>
       </c>
       <c r="C6" s="141" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="140"/>
@@ -14821,22 +14829,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8">
@@ -18841,36 +18849,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="142" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B2" s="143" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="144" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="145" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="146" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="143" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8">
@@ -18881,41 +18889,41 @@
     </row>
     <row r="10">
       <c r="A10" s="146" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="146" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B11" s="147" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="148" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="149"/>
       <c r="B13" s="150" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="151" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="152" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="153" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17">
@@ -18924,24 +18932,24 @@
     </row>
     <row r="18">
       <c r="A18" s="146" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B18" s="154" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B19" s="155"/>
     </row>
     <row r="21">
       <c r="A21" s="146" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B21" s="156" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -18967,62 +18975,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -19048,59 +19056,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B1" s="157" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="158" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="158" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="158" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="158" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="158" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="158" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="158" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="159" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -19145,35 +19153,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="160" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C1" s="160" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="146" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C2" s="146" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D2" s="146" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19204,13 +19212,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
+        <v>815</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>813</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>811</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19241,13 +19249,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>815</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -19275,16 +19283,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -19311,16 +19319,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D7" s="161" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -19347,16 +19355,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -19383,16 +19391,16 @@
     </row>
     <row r="9">
       <c r="A9" s="162" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B9" s="163" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D9" s="163" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E9" s="163"/>
       <c r="F9" s="163"/>
@@ -19419,16 +19427,16 @@
     </row>
     <row r="10">
       <c r="A10" s="162" t="s">
+        <v>830</v>
+      </c>
+      <c r="B10" s="163" t="s">
         <v>828</v>
       </c>
-      <c r="B10" s="163" t="s">
-        <v>826</v>
-      </c>
       <c r="C10" s="163" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D10" s="163" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E10" s="163"/>
       <c r="F10" s="163"/>
@@ -19455,16 +19463,16 @@
     </row>
     <row r="11">
       <c r="A11" s="162" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B11" s="163" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C11" s="163" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D11" s="163" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E11" s="163"/>
       <c r="F11" s="163"/>
@@ -19491,16 +19499,16 @@
     </row>
     <row r="12">
       <c r="A12" s="162" t="s">
+        <v>835</v>
+      </c>
+      <c r="B12" s="163" t="s">
         <v>833</v>
       </c>
-      <c r="B12" s="163" t="s">
-        <v>831</v>
-      </c>
       <c r="C12" s="163" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D12" s="163" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E12" s="163"/>
       <c r="F12" s="163"/>
@@ -19527,16 +19535,16 @@
     </row>
     <row r="13">
       <c r="A13" s="162" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B13" s="162" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C13" s="163" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D13" s="163" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E13" s="163"/>
       <c r="F13" s="163"/>
@@ -19563,16 +19571,16 @@
     </row>
     <row r="14">
       <c r="A14" s="162" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B14" s="162" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C14" s="163" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D14" s="163" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
@@ -19624,51 +19632,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="160" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="146" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C2" s="146" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D2" s="146" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="143" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="143" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B4" s="143" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="143" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B5" s="143" t="s">
+        <v>846</v>
+      </c>
+      <c r="C5" s="164" t="s">
         <v>844</v>
       </c>
-      <c r="C5" s="164" t="s">
-        <v>842</v>
-      </c>
       <c r="D5" s="143" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.6.0</t>
   </si>
   <si>
     <r>
@@ -3161,10 +3161,10 @@
     <t>Information about tenders</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+    <t>epo:SubmissionStatisticalInformation / epo:LotAwardOutcome</t>
+  </si>
+  <si>
+    <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
     <t>V.2.2.1</t>
@@ -14047,7 +14047,7 @@
         <v>666</v>
       </c>
       <c r="F146" s="49"/>
-      <c r="G146" s="122" t="s">
+      <c r="G146" s="39" t="s">
         <v>667</v>
       </c>
       <c r="H146" s="123" t="s">

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="851">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.6.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <r>
@@ -549,6 +549,9 @@
     <t>?this epo:hasLegalBasis ?value</t>
   </si>
   <si>
+    <t>gen_dangling_individuals.ask.rq, gen_empty_individuals.ask.rq</t>
+  </si>
+  <si>
     <t>Section I</t>
   </si>
   <si>
@@ -627,6 +630,9 @@
     </r>
   </si>
   <si>
+    <t>gen_language_tags_exist.ask.rq</t>
+  </si>
+  <si>
     <t>I.1.2</t>
   </si>
   <si>
@@ -682,6 +688,9 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>gen_unique_ids.ask.rq</t>
   </si>
   <si>
     <t>I.1.3</t>
@@ -1638,9 +1647,6 @@
     <t>?this epo:hasTitle ?value .</t>
   </si>
   <si>
-    <t>epo:Procedure epo:hasTitle Text</t>
-  </si>
-  <si>
     <t>II.1.1.1</t>
   </si>
   <si>
@@ -2468,24 +2474,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">epo:isUsingEUFunds </t>
+      <t xml:space="preserve">?this </t>
     </r>
     <r>
       <rPr>
@@ -2493,19 +2485,7 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>true .</t>
-    </r>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
+      <t xml:space="preserve">epo:isUsingEUFunds </t>
     </r>
     <r>
       <rPr>
@@ -2513,50 +2493,28 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>epo:isUsingEUFunds</t>
-    </r>
+      <t>true .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> false .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.13.2</t>
-  </si>
-  <si>
-    <t>Identification of the project</t>
-  </si>
-  <si>
-    <t>BT-5011</t>
-  </si>
-  <si>
-    <t>Contract EU Funds Identifier</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED/P</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Fund / rdf:langString</t>
-  </si>
-  <si>
+      <t xml:space="preserve">?this </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>?this epo:isFundedBy /</t>
+      <t>epo:isUsingEUFunds</t>
     </r>
     <r>
       <rPr>
@@ -2564,7 +2522,40 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasDescription ?</t>
+      <t xml:space="preserve"> false .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.13.2</t>
+  </si>
+  <si>
+    <t>Identification of the project</t>
+  </si>
+  <si>
+    <t>BT-5011</t>
+  </si>
+  <si>
+    <t>Contract EU Funds Identifier</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Fund / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isFundedBy / epo:hasDescription ?</t>
     </r>
     <r>
       <rPr>
@@ -3095,7 +3086,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -3167,6 +3158,9 @@
     <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
+    <t>iss_gh_map237_submissionStatInfo_relations.ask.rq</t>
+  </si>
+  <si>
     <t>V.2.2.1</t>
   </si>
   <si>
@@ -3327,7 +3321,8 @@
     <t>BT-768</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP
+AWARD_CONTRACT/AWARDED_CONTRACT/AWARDED_TO_GROUP</t>
   </si>
   <si>
     <t>epo:OrganisationGroup / org:Organization</t>
@@ -3345,7 +3340,8 @@
     <t>V.2.3.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
   </si>
   <si>
     <r>
@@ -3390,7 +3386,8 @@
     <t>V.2.3.2</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
   </si>
   <si>
     <r>
@@ -3435,7 +3432,8 @@
     <t>V.2.3.3</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
   </si>
   <si>
     <r>
@@ -3475,7 +3473,8 @@
     <t>V.2.3.4</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
   </si>
   <si>
     <r>
@@ -3515,10 +3514,12 @@
     <t>V.2.3.5</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
   </si>
   <si>
     <r>
@@ -3561,7 +3562,8 @@
     <t>Organisation Post Code</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
   </si>
   <si>
     <r>
@@ -3601,7 +3603,8 @@
     <t>V.2.3.7</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
   </si>
   <si>
     <r>
@@ -3641,7 +3644,8 @@
     <t>V.2.3.8</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
@@ -3653,7 +3657,8 @@
     <t>V.2.3.9</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
@@ -3668,7 +3673,8 @@
     <t>Internet Addresses (URL)</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
   </si>
   <si>
     <r>
@@ -3695,7 +3701,8 @@
     <t>V.2.3.11</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
@@ -3713,7 +3720,8 @@
     <t>Winner Size</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/SME</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2)  / at-voc:economic-operator-size</t>
@@ -3766,7 +3774,9 @@
     <t>BT-27</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_ESTIMATED_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_ESTIMATED_TOTAL</t>
   </si>
   <si>
     <t>epo:Lot / epo:MonetaryValue / xsd:decimal</t>
@@ -3817,7 +3827,9 @@
     <t>no direct match</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_ESTIMATED_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:Lot / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -3874,7 +3886,9 @@
     <t>Tender Value</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / xsd:decimal</t>
@@ -3915,7 +3929,9 @@
     <t>V.2.4.2.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -5212,6 +5228,9 @@
       </rPr>
       <t>value</t>
     </r>
+  </si>
+  <si>
+    <t>iss_gh_map275_language_tag_exists.ask.rq</t>
   </si>
   <si>
     <t>II.1.6.1</t>
@@ -5537,7 +5556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5604,12 +5623,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF999999"/>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -5687,6 +5706,10 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
@@ -5888,7 +5911,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6085,9 +6108,6 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -6130,25 +6150,25 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6160,10 +6180,10 @@
     <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6175,7 +6195,7 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6286,6 +6306,9 @@
     <xf borderId="0" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6350,6 +6373,9 @@
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6359,10 +6385,10 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -6371,7 +6397,7 @@
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -9878,7 +9904,9 @@
       <c r="H3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
       <c r="L3" s="28"/>
@@ -9891,10 +9919,10 @@
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9915,22 +9943,22 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -9945,28 +9973,30 @@
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="6"/>
       <c r="L6" s="28"/>
@@ -9979,28 +10009,30 @@
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="6"/>
       <c r="L7" s="28"/>
@@ -10013,26 +10045,26 @@
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -10047,26 +10079,26 @@
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -10081,28 +10113,28 @@
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -10117,26 +10149,26 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -10151,26 +10183,26 @@
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -10185,28 +10217,30 @@
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="6"/>
       <c r="L13" s="28"/>
@@ -10219,26 +10253,26 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -10253,26 +10287,26 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -10287,26 +10321,26 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -10321,10 +10355,10 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -10345,26 +10379,26 @@
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -10379,26 +10413,26 @@
     </row>
     <row r="19">
       <c r="A19" s="54" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -10413,31 +10447,31 @@
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -10449,20 +10483,20 @@
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -10477,31 +10511,31 @@
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -10513,20 +10547,20 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -10549,26 +10583,26 @@
     </row>
     <row r="24">
       <c r="A24" s="37" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="64" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -10591,20 +10625,20 @@
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B25" s="65"/>
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
       <c r="E25" s="40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -10619,10 +10653,10 @@
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -10643,10 +10677,10 @@
     </row>
     <row r="27">
       <c r="A27" s="37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -10667,33 +10701,31 @@
     </row>
     <row r="28">
       <c r="A28" s="46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="6"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -10705,30 +10737,32 @@
     </row>
     <row r="29">
       <c r="A29" s="51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="I29" s="53"/>
+        <v>191</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="J29" s="53"/>
-      <c r="K29" s="68"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
       <c r="N29" s="62"/>
@@ -10747,26 +10781,26 @@
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -10781,26 +10815,26 @@
     </row>
     <row r="31">
       <c r="A31" s="54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -10815,26 +10849,26 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -10849,28 +10883,30 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D33" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="6"/>
       <c r="L33" s="28"/>
@@ -10883,10 +10919,10 @@
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
@@ -10906,27 +10942,27 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="69" t="s">
-        <v>217</v>
+      <c r="A35" s="68" t="s">
+        <v>219</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F35" s="57"/>
-      <c r="G35" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>223</v>
+      <c r="G35" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>225</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -10948,23 +10984,23 @@
       <c r="Z35" s="63"/>
     </row>
     <row r="36">
-      <c r="A36" s="69" t="s">
-        <v>224</v>
+      <c r="A36" s="68" t="s">
+        <v>226</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
       <c r="E36" s="57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F36" s="57"/>
       <c r="G36" s="56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H36" s="57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -10978,22 +11014,22 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="72" t="s">
+      <c r="A37" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="73" t="s">
+      <c r="B37" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
+      <c r="C37" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="69"/>
+      <c r="E37" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="72"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -11007,10 +11043,10 @@
     </row>
     <row r="38">
       <c r="A38" s="46" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -11031,22 +11067,22 @@
     </row>
     <row r="39">
       <c r="A39" s="46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -11061,26 +11097,26 @@
     </row>
     <row r="40">
       <c r="A40" s="54" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -11103,26 +11139,26 @@
     </row>
     <row r="41">
       <c r="A41" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -11137,26 +11173,26 @@
     </row>
     <row r="42">
       <c r="A42" s="54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -11171,22 +11207,22 @@
     </row>
     <row r="43">
       <c r="A43" s="54" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="74" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="H43" s="73" t="s">
+        <v>262</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -11201,7 +11237,7 @@
     </row>
     <row r="44">
       <c r="A44" s="37" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>8</v>
@@ -11209,14 +11245,14 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -11230,23 +11266,23 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="B45" s="76" t="s">
+      <c r="A45" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="75" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -11261,28 +11297,30 @@
     </row>
     <row r="46">
       <c r="A46" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="B46" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="78" t="s">
+      <c r="C46" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="78" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46" s="78"/>
+      <c r="E46" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="77"/>
       <c r="G46" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="H46" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="28"/>
@@ -11295,28 +11333,30 @@
     </row>
     <row r="47">
       <c r="A47" s="54" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="6"/>
       <c r="L47" s="28"/>
@@ -11329,10 +11369,10 @@
     </row>
     <row r="48">
       <c r="A48" s="46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -11353,26 +11393,26 @@
     </row>
     <row r="49">
       <c r="A49" s="54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -11395,26 +11435,26 @@
     </row>
     <row r="50">
       <c r="A50" s="54" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -11429,10 +11469,10 @@
     </row>
     <row r="51">
       <c r="A51" s="46" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -11453,28 +11493,28 @@
     </row>
     <row r="52">
       <c r="A52" s="54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="H52" s="74" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="H52" s="73" t="s">
+        <v>296</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -11489,28 +11529,30 @@
     </row>
     <row r="53">
       <c r="A53" s="54" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="I53" s="6"/>
+        <v>303</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="28"/>
@@ -11523,28 +11565,30 @@
     </row>
     <row r="54">
       <c r="A54" s="46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="I54" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="28"/>
@@ -11557,10 +11601,10 @@
     </row>
     <row r="55">
       <c r="A55" s="46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="13"/>
@@ -11580,16 +11624,16 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="79" t="s">
-        <v>308</v>
-      </c>
-      <c r="B56" s="80" t="s">
-        <v>309</v>
+      <c r="A56" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" s="79" t="s">
+        <v>311</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -11607,28 +11651,30 @@
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I57" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="28"/>
@@ -11641,10 +11687,10 @@
     </row>
     <row r="58">
       <c r="A58" s="48" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
@@ -11652,9 +11698,9 @@
       <c r="F58" s="56"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="73"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="72"/>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
@@ -11664,31 +11710,31 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="69" t="s">
-        <v>319</v>
+      <c r="A59" s="68" t="s">
+        <v>321</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F59" s="56"/>
       <c r="G59" s="56" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H59" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="73"/>
+        <v>327</v>
+      </c>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="72"/>
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
@@ -11698,27 +11744,27 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
+      <c r="A60" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="80"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
       <c r="E60" s="56" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F60" s="56" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G60" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="73"/>
+        <v>332</v>
+      </c>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="72"/>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
@@ -11728,27 +11774,27 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="B61" s="80"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="F61" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="G61" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="F61" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="G61" s="56" t="s">
-        <v>329</v>
-      </c>
       <c r="H61" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="73"/>
+        <v>335</v>
+      </c>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="72"/>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
@@ -11758,31 +11804,31 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="69" t="s">
-        <v>334</v>
+      <c r="A62" s="68" t="s">
+        <v>336</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="D62" s="70" t="s">
         <v>337</v>
       </c>
+      <c r="C62" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="D62" s="69" t="s">
+        <v>339</v>
+      </c>
       <c r="E62" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="F62" s="70"/>
+        <v>340</v>
+      </c>
+      <c r="F62" s="69"/>
       <c r="G62" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="73"/>
+        <v>342</v>
+      </c>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="72"/>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
@@ -11792,27 +11838,27 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="69" t="s">
-        <v>341</v>
+      <c r="A63" s="68" t="s">
+        <v>343</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F63" s="56"/>
       <c r="G63" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H63" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -11827,10 +11873,10 @@
     </row>
     <row r="64">
       <c r="A64" s="48" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -11850,27 +11896,27 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="69" t="s">
-        <v>349</v>
+      <c r="A65" s="68" t="s">
+        <v>351</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="E65" s="78" t="s">
-        <v>353</v>
-      </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="78" t="s">
         <v>354</v>
       </c>
-      <c r="H65" s="83" t="s">
+      <c r="E65" s="77" t="s">
         <v>355</v>
+      </c>
+      <c r="F65" s="81"/>
+      <c r="G65" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="H65" s="82" t="s">
+        <v>357</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -11884,27 +11930,27 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="B66" s="85" t="s">
-        <v>350</v>
-      </c>
-      <c r="C66" s="86" t="s">
+      <c r="A66" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="D66" s="87" t="s">
+      <c r="B66" s="84" t="s">
         <v>352</v>
       </c>
+      <c r="C66" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="86" t="s">
+        <v>354</v>
+      </c>
       <c r="E66" s="49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="H66" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="H66" s="87" t="s">
+        <v>359</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -11918,29 +11964,31 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="69" t="s">
-        <v>358</v>
+      <c r="A67" s="68" t="s">
+        <v>360</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="E67" s="49" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="E67" s="58" t="s">
+        <v>355</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="49" t="s">
-        <v>363</v>
-      </c>
-      <c r="H67" s="88" t="s">
         <v>364</v>
       </c>
-      <c r="I67" s="6"/>
+      <c r="H67" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="28"/>
@@ -11953,28 +12001,30 @@
     </row>
     <row r="68">
       <c r="A68" s="48" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H68" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="I68" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="H68" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="28"/>
@@ -11986,16 +12036,16 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="90" t="s">
-        <v>371</v>
+      <c r="A69" s="89" t="s">
+        <v>372</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="39" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="40"/>
@@ -12012,8 +12062,8 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="91" t="s">
-        <v>374</v>
+      <c r="A70" s="90" t="s">
+        <v>375</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>8</v>
@@ -12037,10 +12087,10 @@
     </row>
     <row r="71">
       <c r="A71" s="48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -12060,25 +12110,25 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="69" t="s">
-        <v>377</v>
+      <c r="A72" s="68" t="s">
+        <v>378</v>
       </c>
       <c r="B72" s="55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -12092,23 +12142,23 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="69" t="s">
-        <v>383</v>
+      <c r="A73" s="68" t="s">
+        <v>384</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="H73" s="92" t="s">
         <v>387</v>
+      </c>
+      <c r="H73" s="91" t="s">
+        <v>388</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -12123,26 +12173,26 @@
     </row>
     <row r="74">
       <c r="A74" s="48" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="H74" s="74" t="s">
         <v>394</v>
+      </c>
+      <c r="H74" s="73" t="s">
+        <v>395</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -12156,27 +12206,27 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="93" t="s">
-        <v>388</v>
-      </c>
-      <c r="B75" s="94" t="s">
+      <c r="A75" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="C75" s="86" t="s">
+      <c r="B75" s="93" t="s">
         <v>390</v>
       </c>
-      <c r="D75" s="87" t="s">
+      <c r="C75" s="85" t="s">
         <v>391</v>
       </c>
+      <c r="D75" s="86" t="s">
+        <v>392</v>
+      </c>
       <c r="E75" s="49" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="H75" s="74" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="H75" s="73" t="s">
+        <v>397</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -12190,11 +12240,11 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="91" t="s">
-        <v>397</v>
+      <c r="A76" s="90" t="s">
+        <v>398</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -12215,24 +12265,26 @@
     </row>
     <row r="77">
       <c r="A77" s="48" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
       <c r="E77" s="49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="H77" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="I77" s="6"/>
+      <c r="H77" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="28"/>
@@ -12244,23 +12296,23 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="90" t="s">
-        <v>404</v>
+      <c r="A78" s="89" t="s">
+        <v>405</v>
       </c>
       <c r="B78" s="67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="95" t="s">
-        <v>406</v>
+      <c r="E78" s="94" t="s">
+        <v>407</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -12275,30 +12327,32 @@
     </row>
     <row r="79">
       <c r="A79" s="48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B79" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E79" s="49" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F79" s="49" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H79" s="96" t="s">
         <v>415</v>
       </c>
-      <c r="I79" s="6"/>
+      <c r="H79" s="95" t="s">
+        <v>416</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="28"/>
@@ -12311,26 +12365,26 @@
     </row>
     <row r="80">
       <c r="A80" s="48" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H80" s="97" t="s">
         <v>422</v>
+      </c>
+      <c r="H80" s="96" t="s">
+        <v>423</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -12344,27 +12398,27 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="93" t="s">
-        <v>416</v>
-      </c>
-      <c r="B81" s="94" t="s">
+      <c r="A81" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="C81" s="87" t="s">
+      <c r="B81" s="93" t="s">
         <v>418</v>
       </c>
-      <c r="D81" s="98" t="s">
+      <c r="C81" s="86" t="s">
         <v>419</v>
       </c>
+      <c r="D81" s="97" t="s">
+        <v>420</v>
+      </c>
       <c r="E81" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -12378,27 +12432,27 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="93" t="s">
-        <v>416</v>
-      </c>
-      <c r="B82" s="94" t="s">
+      <c r="A82" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="C82" s="87" t="s">
+      <c r="B82" s="93" t="s">
         <v>418</v>
       </c>
-      <c r="D82" s="87" t="s">
+      <c r="C82" s="86" t="s">
         <v>419</v>
       </c>
+      <c r="D82" s="86" t="s">
+        <v>420</v>
+      </c>
       <c r="E82" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -12412,14 +12466,14 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="91" t="s">
-        <v>428</v>
+      <c r="A83" s="90" t="s">
+        <v>429</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C83" s="99" t="s">
         <v>430</v>
+      </c>
+      <c r="C83" s="98" t="s">
+        <v>431</v>
       </c>
       <c r="D83" s="49"/>
       <c r="E83" s="4"/>
@@ -12439,13 +12493,13 @@
     </row>
     <row r="84">
       <c r="A84" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="C84" s="99" t="s">
         <v>431</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="C84" s="100" t="s">
-        <v>430</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -12464,27 +12518,27 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="69" t="s">
-        <v>433</v>
+      <c r="A85" s="68" t="s">
+        <v>434</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C85" s="49" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E85" s="49" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F85" s="49"/>
       <c r="G85" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="H85" s="101" t="s">
         <v>439</v>
+      </c>
+      <c r="H85" s="100" t="s">
+        <v>440</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -12498,27 +12552,27 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="69" t="s">
-        <v>440</v>
+      <c r="A86" s="68" t="s">
+        <v>441</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E86" s="49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F86" s="49"/>
       <c r="G86" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H86" s="97" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="H86" s="96" t="s">
+        <v>444</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -12532,39 +12586,39 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="69" t="s">
-        <v>444</v>
+      <c r="A87" s="68" t="s">
+        <v>445</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>445</v>
-      </c>
-      <c r="C87" s="102" t="s">
         <v>446</v>
       </c>
+      <c r="C87" s="101" t="s">
+        <v>447</v>
+      </c>
       <c r="D87" s="49"/>
-      <c r="E87" s="103" t="s">
-        <v>447</v>
-      </c>
-      <c r="F87" s="103"/>
-      <c r="G87" s="103" t="s">
+      <c r="E87" s="102" t="s">
         <v>448</v>
       </c>
-      <c r="H87" s="104" t="s">
+      <c r="F87" s="102"/>
+      <c r="G87" s="102" t="s">
         <v>449</v>
+      </c>
+      <c r="H87" s="103" t="s">
+        <v>450</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="91" t="s">
-        <v>450</v>
+      <c r="A88" s="90" t="s">
+        <v>451</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="C88" s="100" t="s">
-        <v>430</v>
+        <v>452</v>
+      </c>
+      <c r="C88" s="99" t="s">
+        <v>431</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -12576,71 +12630,71 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="69" t="s">
-        <v>452</v>
+      <c r="A89" s="68" t="s">
+        <v>453</v>
       </c>
       <c r="B89" s="55"/>
       <c r="C89" s="49"/>
       <c r="D89" s="4"/>
       <c r="E89" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F89" s="49"/>
       <c r="G89" s="36" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H89" s="49" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="B90" s="105"/>
+      <c r="A90" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="B90" s="104"/>
       <c r="C90" s="49"/>
       <c r="D90" s="4"/>
       <c r="E90" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H90" s="49" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="48" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -12648,166 +12702,168 @@
     </row>
     <row r="92">
       <c r="A92" s="48" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="C92" s="106"/>
-      <c r="D92" s="106"/>
-      <c r="E92" s="107" t="s">
-        <v>420</v>
-      </c>
-      <c r="F92" s="106"/>
+        <v>467</v>
+      </c>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="F92" s="105"/>
       <c r="G92" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="I92" s="6"/>
+        <v>469</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="69" t="s">
-        <v>469</v>
+      <c r="A93" s="68" t="s">
+        <v>471</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>470</v>
-      </c>
-      <c r="C93" s="78" t="s">
-        <v>471</v>
-      </c>
-      <c r="D93" s="78" t="s">
         <v>472</v>
       </c>
-      <c r="E93" s="78" t="s">
+      <c r="C93" s="77" t="s">
         <v>473</v>
       </c>
-      <c r="F93" s="78"/>
+      <c r="D93" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="E93" s="77" t="s">
+        <v>475</v>
+      </c>
+      <c r="F93" s="77"/>
       <c r="G93" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="69" t="s">
-        <v>476</v>
+      <c r="A94" s="68" t="s">
+        <v>478</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
       <c r="E94" s="49" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H94" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="69" t="s">
-        <v>481</v>
+      <c r="A95" s="68" t="s">
+        <v>483</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
       <c r="E95" s="49" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H95" s="97" t="s">
-        <v>484</v>
+        <v>481</v>
+      </c>
+      <c r="H95" s="96" t="s">
+        <v>486</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="69" t="s">
-        <v>485</v>
+      <c r="A96" s="68" t="s">
+        <v>487</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="49" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H96" s="97" t="s">
-        <v>488</v>
+        <v>481</v>
+      </c>
+      <c r="H96" s="96" t="s">
+        <v>490</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="69" t="s">
-        <v>489</v>
+      <c r="A97" s="68" t="s">
+        <v>491</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
       <c r="E97" s="49" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="69" t="s">
-        <v>493</v>
+      <c r="A98" s="68" t="s">
+        <v>495</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>494</v>
-      </c>
-      <c r="C98" s="108" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="C98" s="107" t="s">
+        <v>497</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="36" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H98" s="49" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -12815,13 +12871,13 @@
     </row>
     <row r="99">
       <c r="A99" s="48" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>500</v>
-      </c>
-      <c r="C99" s="99" t="s">
-        <v>430</v>
+        <v>502</v>
+      </c>
+      <c r="C99" s="98" t="s">
+        <v>431</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="39"/>
@@ -12833,326 +12889,330 @@
       <c r="K99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="69" t="s">
-        <v>501</v>
+      <c r="A100" s="68" t="s">
+        <v>503</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F100" s="49"/>
       <c r="G100" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>503</v>
-      </c>
-      <c r="I100" s="6"/>
+        <v>505</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="69" t="s">
-        <v>504</v>
+      <c r="A101" s="68" t="s">
+        <v>506</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>506</v>
-      </c>
-      <c r="I101" s="6"/>
+        <v>508</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="69" t="s">
-        <v>507</v>
+      <c r="A102" s="68" t="s">
+        <v>509</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H102" s="97" t="s">
-        <v>509</v>
+        <v>76</v>
+      </c>
+      <c r="H102" s="96" t="s">
+        <v>511</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="69" t="s">
-        <v>510</v>
+      <c r="A103" s="68" t="s">
+        <v>512</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H103" s="97" t="s">
-        <v>512</v>
+        <v>76</v>
+      </c>
+      <c r="H103" s="96" t="s">
+        <v>514</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="69" t="s">
-        <v>513</v>
+      <c r="A104" s="68" t="s">
+        <v>515</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H104" s="101" t="s">
-        <v>516</v>
+        <v>90</v>
+      </c>
+      <c r="H104" s="100" t="s">
+        <v>518</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="69" t="s">
-        <v>517</v>
+      <c r="A105" s="68" t="s">
+        <v>519</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H105" s="97" t="s">
-        <v>520</v>
+        <v>97</v>
+      </c>
+      <c r="H105" s="96" t="s">
+        <v>522</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="69" t="s">
-        <v>521</v>
+      <c r="A106" s="68" t="s">
+        <v>523</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="78" t="s">
-        <v>522</v>
-      </c>
-      <c r="F106" s="78"/>
-      <c r="G106" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="H106" s="110" t="s">
-        <v>523</v>
+      <c r="D106" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="77" t="s">
+        <v>524</v>
+      </c>
+      <c r="F106" s="77"/>
+      <c r="G106" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="H106" s="109" t="s">
+        <v>525</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="69" t="s">
-        <v>524</v>
+      <c r="A107" s="68" t="s">
+        <v>526</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D107" s="49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F107" s="49"/>
       <c r="G107" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="69" t="s">
-        <v>528</v>
+      <c r="A108" s="68" t="s">
+        <v>530</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F108" s="49"/>
       <c r="G108" s="49" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H108" s="49" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="69" t="s">
-        <v>532</v>
+      <c r="A109" s="68" t="s">
+        <v>534</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D109" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="78" t="s">
-        <v>534</v>
-      </c>
-      <c r="F109" s="78"/>
-      <c r="G109" s="111" t="s">
-        <v>526</v>
-      </c>
-      <c r="H109" s="112" t="s">
-        <v>535</v>
+        <v>136</v>
+      </c>
+      <c r="D109" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="77" t="s">
+        <v>536</v>
+      </c>
+      <c r="F109" s="77"/>
+      <c r="G109" s="110" t="s">
+        <v>528</v>
+      </c>
+      <c r="H109" s="111" t="s">
+        <v>537</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="69" t="s">
-        <v>536</v>
+      <c r="A110" s="68" t="s">
+        <v>538</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="49" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H110" s="49" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="69" t="s">
-        <v>539</v>
+      <c r="A111" s="68" t="s">
+        <v>541</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="E111" s="113" t="s">
-        <v>543</v>
-      </c>
-      <c r="F111" s="114"/>
+        <v>544</v>
+      </c>
+      <c r="E111" s="112" t="s">
+        <v>545</v>
+      </c>
+      <c r="F111" s="113"/>
       <c r="G111" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="H111" s="115" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="H111" s="114" t="s">
+        <v>547</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
@@ -13161,17 +13221,17 @@
     <row r="112">
       <c r="A112" s="18"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="107" t="s">
-        <v>543</v>
-      </c>
-      <c r="F112" s="82"/>
-      <c r="G112" s="109" t="s">
-        <v>546</v>
-      </c>
-      <c r="H112" s="109" t="s">
-        <v>547</v>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="106" t="s">
+        <v>545</v>
+      </c>
+      <c r="F112" s="81"/>
+      <c r="G112" s="108" t="s">
+        <v>548</v>
+      </c>
+      <c r="H112" s="108" t="s">
+        <v>549</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -13179,13 +13239,13 @@
     </row>
     <row r="113">
       <c r="A113" s="48" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="C113" s="100" t="s">
-        <v>430</v>
+        <v>551</v>
+      </c>
+      <c r="C113" s="99" t="s">
+        <v>431</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -13197,246 +13257,246 @@
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="69" t="s">
-        <v>550</v>
+      <c r="A114" s="68" t="s">
+        <v>552</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D114" s="49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="36" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H114" s="49" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="79" t="s">
-        <v>556</v>
-      </c>
-      <c r="B115" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C115" s="116" t="s">
-        <v>557</v>
+      <c r="A115" s="78" t="s">
+        <v>558</v>
+      </c>
+      <c r="B115" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="115" t="s">
+        <v>559</v>
       </c>
       <c r="D115" s="49"/>
       <c r="E115" s="49" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="36" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="69" t="s">
-        <v>561</v>
+      <c r="A116" s="68" t="s">
+        <v>563</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>562</v>
-      </c>
-      <c r="C116" s="78" t="s">
-        <v>563</v>
-      </c>
-      <c r="D116" s="78" t="s">
         <v>564</v>
       </c>
-      <c r="E116" s="117" t="s">
+      <c r="C116" s="77" t="s">
         <v>565</v>
       </c>
-      <c r="F116" s="117"/>
+      <c r="D116" s="77" t="s">
+        <v>566</v>
+      </c>
+      <c r="E116" s="116" t="s">
+        <v>567</v>
+      </c>
+      <c r="F116" s="116"/>
       <c r="G116" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="H116" s="82" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="H116" s="81" t="s">
+        <v>569</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="79" t="s">
-        <v>568</v>
-      </c>
-      <c r="B117" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C117" s="116" t="s">
-        <v>557</v>
+      <c r="A117" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="B117" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="115" t="s">
+        <v>559</v>
       </c>
       <c r="D117" s="49"/>
-      <c r="E117" s="117" t="s">
-        <v>569</v>
-      </c>
-      <c r="F117" s="117"/>
+      <c r="E117" s="116" t="s">
+        <v>571</v>
+      </c>
+      <c r="F117" s="116"/>
       <c r="G117" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H117" s="39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="69" t="s">
-        <v>572</v>
+      <c r="A118" s="68" t="s">
+        <v>574</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C118" s="56" t="s">
-        <v>574</v>
-      </c>
-      <c r="D118" s="70" t="s">
-        <v>575</v>
-      </c>
-      <c r="E118" s="118" t="s">
         <v>576</v>
       </c>
-      <c r="F118" s="118"/>
-      <c r="G118" s="73" t="s">
+      <c r="D118" s="69" t="s">
         <v>577</v>
       </c>
-      <c r="H118" s="73" t="s">
+      <c r="E118" s="117" t="s">
         <v>578</v>
+      </c>
+      <c r="F118" s="117"/>
+      <c r="G118" s="72" t="s">
+        <v>579</v>
+      </c>
+      <c r="H118" s="72" t="s">
+        <v>580</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="79" t="s">
-        <v>579</v>
-      </c>
-      <c r="B119" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C119" s="119" t="s">
-        <v>557</v>
+      <c r="A119" s="78" t="s">
+        <v>581</v>
+      </c>
+      <c r="B119" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="118" t="s">
+        <v>559</v>
       </c>
       <c r="D119" s="56"/>
-      <c r="E119" s="118" t="s">
-        <v>580</v>
+      <c r="E119" s="117" t="s">
+        <v>582</v>
       </c>
       <c r="F119" s="56"/>
       <c r="G119" s="57" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H119" s="57" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="69" t="s">
-        <v>583</v>
+      <c r="A120" s="68" t="s">
+        <v>585</v>
       </c>
       <c r="B120" s="55" t="s">
-        <v>584</v>
-      </c>
-      <c r="C120" s="70" t="s">
-        <v>585</v>
-      </c>
-      <c r="D120" s="70" t="s">
         <v>586</v>
       </c>
-      <c r="E120" s="118" t="s">
+      <c r="C120" s="69" t="s">
         <v>587</v>
       </c>
-      <c r="F120" s="118"/>
+      <c r="D120" s="69" t="s">
+        <v>588</v>
+      </c>
+      <c r="E120" s="117" t="s">
+        <v>589</v>
+      </c>
+      <c r="F120" s="117"/>
       <c r="G120" s="57" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H120" s="57" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="79" t="s">
-        <v>589</v>
-      </c>
-      <c r="B121" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C121" s="120" t="s">
-        <v>557</v>
-      </c>
-      <c r="D121" s="70"/>
-      <c r="E121" s="121" t="s">
-        <v>590</v>
+      <c r="A121" s="78" t="s">
+        <v>591</v>
+      </c>
+      <c r="B121" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="119" t="s">
+        <v>559</v>
+      </c>
+      <c r="D121" s="69"/>
+      <c r="E121" s="120" t="s">
+        <v>592</v>
       </c>
       <c r="F121" s="56"/>
       <c r="G121" s="57" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H121" s="57" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="69" t="s">
-        <v>592</v>
+      <c r="A122" s="68" t="s">
+        <v>594</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>593</v>
-      </c>
-      <c r="C122" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="D122" s="70" t="s">
-        <v>594</v>
-      </c>
-      <c r="E122" s="121" t="s">
         <v>595</v>
       </c>
-      <c r="F122" s="121"/>
+      <c r="C122" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" s="69" t="s">
+        <v>596</v>
+      </c>
+      <c r="E122" s="120" t="s">
+        <v>597</v>
+      </c>
+      <c r="F122" s="120"/>
       <c r="G122" s="56" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H122" s="56" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="90" t="s">
-        <v>598</v>
+      <c r="A123" s="89" t="s">
+        <v>600</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -13449,45 +13509,47 @@
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="91" t="s">
-        <v>600</v>
+      <c r="A124" s="90" t="s">
+        <v>602</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="C124" s="78" t="s">
         <v>367</v>
       </c>
+      <c r="C124" s="77" t="s">
+        <v>368</v>
+      </c>
       <c r="D124" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E124" s="117" t="s">
-        <v>601</v>
-      </c>
-      <c r="F124" s="117"/>
-      <c r="G124" s="122" t="s">
-        <v>180</v>
-      </c>
-      <c r="H124" s="123" t="s">
-        <v>602</v>
-      </c>
-      <c r="I124" s="6"/>
+        <v>369</v>
+      </c>
+      <c r="E124" s="116" t="s">
+        <v>603</v>
+      </c>
+      <c r="F124" s="116"/>
+      <c r="G124" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="H124" s="122" t="s">
+        <v>604</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="91" t="s">
-        <v>603</v>
+      <c r="A125" s="90" t="s">
+        <v>605</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="C125" s="124" t="s">
-        <v>430</v>
+        <v>606</v>
+      </c>
+      <c r="C125" s="123" t="s">
+        <v>431</v>
       </c>
       <c r="D125" s="6"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="125"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="124"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="6"/>
@@ -13496,267 +13558,269 @@
     </row>
     <row r="126">
       <c r="A126" s="48" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="C126" s="126" t="s">
-        <v>430</v>
+        <v>608</v>
+      </c>
+      <c r="C126" s="125" t="s">
+        <v>431</v>
       </c>
       <c r="D126" s="6"/>
-      <c r="E126" s="114" t="s">
-        <v>607</v>
-      </c>
-      <c r="F126" s="117"/>
+      <c r="E126" s="113" t="s">
+        <v>609</v>
+      </c>
+      <c r="F126" s="116"/>
       <c r="G126" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="69" t="s">
-        <v>609</v>
+      <c r="A127" s="68" t="s">
+        <v>611</v>
       </c>
       <c r="B127" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C127" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D127" s="78" t="s">
+      <c r="C127" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E127" s="117" t="s">
-        <v>610</v>
-      </c>
-      <c r="F127" s="117"/>
+      <c r="D127" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" s="116" t="s">
+        <v>612</v>
+      </c>
+      <c r="F127" s="116"/>
       <c r="G127" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H127" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="I127" s="6"/>
+        <v>613</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="69" t="s">
-        <v>612</v>
+      <c r="A128" s="68" t="s">
+        <v>614</v>
       </c>
       <c r="B128" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C128" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="78" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C128" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D128" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="E128" s="49" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H128" s="97" t="s">
-        <v>614</v>
+        <v>76</v>
+      </c>
+      <c r="H128" s="96" t="s">
+        <v>616</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="69" t="s">
-        <v>615</v>
+      <c r="A129" s="68" t="s">
+        <v>617</v>
       </c>
       <c r="B129" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C129" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D129" s="78" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C129" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="77" t="s">
+        <v>81</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H129" s="97" t="s">
-        <v>617</v>
+        <v>76</v>
+      </c>
+      <c r="H129" s="96" t="s">
+        <v>619</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="69" t="s">
-        <v>618</v>
+      <c r="A130" s="68" t="s">
+        <v>620</v>
       </c>
       <c r="B130" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C130" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="78" t="s">
-        <v>518</v>
+        <v>93</v>
+      </c>
+      <c r="C130" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="77" t="s">
+        <v>520</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="39" t="s">
-        <v>620</v>
-      </c>
-      <c r="H130" s="97" t="s">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="H130" s="96" t="s">
+        <v>623</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="69" t="s">
-        <v>622</v>
+      <c r="A131" s="68" t="s">
+        <v>624</v>
       </c>
       <c r="B131" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D131" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" s="78" t="s">
-        <v>623</v>
-      </c>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C131" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="78" t="s">
-        <v>624</v>
+      <c r="D131" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E131" s="77" t="s">
+        <v>625</v>
+      </c>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H131" s="77" t="s">
+        <v>626</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="69" t="s">
-        <v>625</v>
+      <c r="A132" s="68" t="s">
+        <v>627</v>
       </c>
       <c r="B132" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D132" s="78" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C132" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132" s="77" t="s">
+        <v>122</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H132" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="69" t="s">
-        <v>627</v>
+      <c r="A133" s="68" t="s">
+        <v>629</v>
       </c>
       <c r="B133" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C133" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" s="78" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C133" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D133" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H133" s="49" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="69" t="s">
-        <v>629</v>
+      <c r="A134" s="68" t="s">
+        <v>631</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>533</v>
-      </c>
-      <c r="C134" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D134" s="78" t="s">
-        <v>134</v>
+        <v>535</v>
+      </c>
+      <c r="C134" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="45" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H134" s="45" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="69" t="s">
-        <v>632</v>
+      <c r="A135" s="68" t="s">
+        <v>634</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C135" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D135" s="78" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="C135" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D135" s="77" t="s">
+        <v>129</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="49" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H135" s="49" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -13764,267 +13828,269 @@
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="C136" s="126" t="s">
-        <v>430</v>
-      </c>
-      <c r="D136" s="127"/>
+        <v>637</v>
+      </c>
+      <c r="C136" s="125" t="s">
+        <v>431</v>
+      </c>
+      <c r="D136" s="126"/>
       <c r="E136" s="39" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F136" s="49"/>
       <c r="G136" s="36" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="69" t="s">
-        <v>638</v>
+      <c r="A137" s="68" t="s">
+        <v>640</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C137" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D137" s="78" t="s">
+      <c r="C137" s="77" t="s">
         <v>57</v>
       </c>
+      <c r="D137" s="77" t="s">
+        <v>58</v>
+      </c>
       <c r="E137" s="49" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H137" s="39" t="s">
-        <v>640</v>
-      </c>
-      <c r="I137" s="6"/>
+        <v>642</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="69" t="s">
-        <v>641</v>
+      <c r="A138" s="68" t="s">
+        <v>643</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D138" s="78" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C138" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D138" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F138" s="49"/>
       <c r="G138" s="39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="69" t="s">
-        <v>644</v>
+      <c r="A139" s="68" t="s">
+        <v>646</v>
       </c>
       <c r="B139" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C139" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D139" s="78" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C139" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D139" s="77" t="s">
+        <v>81</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F139" s="49"/>
       <c r="G139" s="39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="69" t="s">
-        <v>647</v>
+      <c r="A140" s="68" t="s">
+        <v>649</v>
       </c>
       <c r="B140" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C140" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D140" s="78" t="s">
-        <v>518</v>
+        <v>93</v>
+      </c>
+      <c r="C140" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140" s="77" t="s">
+        <v>520</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F140" s="49"/>
       <c r="G140" s="39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="69" t="s">
-        <v>650</v>
+      <c r="A141" s="68" t="s">
+        <v>652</v>
       </c>
       <c r="B141" s="55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C141" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D141" s="78" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D141" s="77" t="s">
+        <v>102</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F141" s="49"/>
       <c r="G141" s="39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="69" t="s">
-        <v>653</v>
+      <c r="A142" s="68" t="s">
+        <v>655</v>
       </c>
       <c r="B142" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C142" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D142" s="78" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C142" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D142" s="77" t="s">
+        <v>122</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>654</v>
-      </c>
-      <c r="F142" s="78"/>
+        <v>656</v>
+      </c>
+      <c r="F142" s="77"/>
       <c r="G142" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H142" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="69" t="s">
-        <v>655</v>
+      <c r="A143" s="68" t="s">
+        <v>657</v>
       </c>
       <c r="B143" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C143" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D143" s="78" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C143" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F143" s="49"/>
       <c r="G143" s="49" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H143" s="49" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="69" t="s">
-        <v>657</v>
+      <c r="A144" s="68" t="s">
+        <v>659</v>
       </c>
       <c r="B144" s="55" t="s">
-        <v>533</v>
-      </c>
-      <c r="C144" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D144" s="78" t="s">
-        <v>134</v>
+        <v>535</v>
+      </c>
+      <c r="C144" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="E144" s="49" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F144" s="49"/>
       <c r="G144" s="45" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H144" s="45" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="69" t="s">
-        <v>660</v>
+      <c r="A145" s="68" t="s">
+        <v>662</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C145" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D145" s="78" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="C145" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="77" t="s">
+        <v>129</v>
       </c>
       <c r="E145" s="49" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="49" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H145" s="49" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -14032,26 +14098,26 @@
     </row>
     <row r="146">
       <c r="A146" s="48" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>663</v>
-      </c>
-      <c r="C146" s="78" t="s">
-        <v>664</v>
-      </c>
-      <c r="D146" s="78" t="s">
         <v>665</v>
       </c>
+      <c r="C146" s="77" t="s">
+        <v>666</v>
+      </c>
+      <c r="D146" s="77" t="s">
+        <v>667</v>
+      </c>
       <c r="E146" s="49" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F146" s="49"/>
       <c r="G146" s="39" t="s">
-        <v>667</v>
-      </c>
-      <c r="H146" s="123" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="H146" s="122" t="s">
+        <v>670</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -14059,310 +14125,312 @@
     </row>
     <row r="147">
       <c r="A147" s="48" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="39" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H147" s="36" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="69" t="s">
-        <v>672</v>
+      <c r="A148" s="68" t="s">
+        <v>674</v>
       </c>
       <c r="B148" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C148" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D148" s="78" t="s">
+      <c r="C148" s="77" t="s">
         <v>57</v>
       </c>
+      <c r="D148" s="77" t="s">
+        <v>58</v>
+      </c>
       <c r="E148" s="49" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F148" s="49"/>
       <c r="G148" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H148" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="I148" s="6"/>
+        <v>676</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="69" t="s">
-        <v>675</v>
+      <c r="A149" s="68" t="s">
+        <v>677</v>
       </c>
       <c r="B149" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C149" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D149" s="78" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C149" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D149" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F149" s="49"/>
       <c r="G149" s="39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H149" s="39" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="69" t="s">
-        <v>678</v>
+      <c r="A150" s="68" t="s">
+        <v>680</v>
       </c>
       <c r="B150" s="55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C150" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D150" s="78" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D150" s="77" t="s">
+        <v>81</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H150" s="39" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="69" t="s">
-        <v>681</v>
+      <c r="A151" s="68" t="s">
+        <v>683</v>
       </c>
       <c r="B151" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C151" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" s="78" t="s">
-        <v>518</v>
+        <v>93</v>
+      </c>
+      <c r="C151" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D151" s="77" t="s">
+        <v>520</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H151" s="97" t="s">
-        <v>683</v>
+        <v>97</v>
+      </c>
+      <c r="H151" s="96" t="s">
+        <v>685</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="69" t="s">
-        <v>684</v>
+      <c r="A152" s="68" t="s">
+        <v>686</v>
       </c>
       <c r="B152" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D152" s="78" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C152" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D152" s="77" t="s">
+        <v>102</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="69" t="s">
-        <v>687</v>
+      <c r="A153" s="68" t="s">
+        <v>689</v>
       </c>
       <c r="B153" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C153" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D153" s="78" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C153" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D153" s="77" t="s">
+        <v>122</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F153" s="49"/>
       <c r="G153" s="49" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H153" s="49" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="69" t="s">
-        <v>689</v>
+      <c r="A154" s="68" t="s">
+        <v>691</v>
       </c>
       <c r="B154" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C154" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D154" s="78" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C154" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D154" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="49" t="s">
-        <v>530</v>
-      </c>
-      <c r="H154" s="101" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="H154" s="100" t="s">
+        <v>533</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="69" t="s">
-        <v>691</v>
+      <c r="A155" s="68" t="s">
+        <v>693</v>
       </c>
       <c r="B155" s="55" t="s">
-        <v>533</v>
-      </c>
-      <c r="C155" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D155" s="78" t="s">
-        <v>134</v>
+        <v>535</v>
+      </c>
+      <c r="C155" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D155" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F155" s="49"/>
       <c r="G155" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="H155" s="128" t="s">
-        <v>693</v>
+        <v>528</v>
+      </c>
+      <c r="H155" s="127" t="s">
+        <v>695</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="69" t="s">
-        <v>694</v>
+      <c r="A156" s="68" t="s">
+        <v>696</v>
       </c>
       <c r="B156" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C156" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D156" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E156" s="78" t="s">
-        <v>695</v>
-      </c>
-      <c r="F156" s="78"/>
+        <v>127</v>
+      </c>
+      <c r="C156" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D156" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" s="77" t="s">
+        <v>697</v>
+      </c>
+      <c r="F156" s="77"/>
       <c r="G156" s="49" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H156" s="49" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="91" t="s">
-        <v>696</v>
+      <c r="A157" s="90" t="s">
+        <v>698</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="C157" s="129" t="s">
-        <v>698</v>
-      </c>
-      <c r="D157" s="129" t="s">
         <v>699</v>
       </c>
-      <c r="E157" s="130" t="s">
+      <c r="C157" s="128" t="s">
         <v>700</v>
       </c>
-      <c r="F157" s="130"/>
+      <c r="D157" s="128" t="s">
+        <v>701</v>
+      </c>
+      <c r="E157" s="129" t="s">
+        <v>702</v>
+      </c>
+      <c r="F157" s="129"/>
       <c r="G157" s="39" t="s">
-        <v>701</v>
-      </c>
-      <c r="H157" s="131" t="s">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="H157" s="130" t="s">
+        <v>704</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="121" t="s">
-        <v>703</v>
-      </c>
-      <c r="B158" s="56" t="s">
-        <v>704</v>
-      </c>
-      <c r="C158" s="132" t="s">
-        <v>430</v>
-      </c>
-      <c r="D158" s="70"/>
+      <c r="A158" s="90" t="s">
+        <v>705</v>
+      </c>
+      <c r="B158" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="C158" s="131" t="s">
+        <v>431</v>
+      </c>
+      <c r="D158" s="69"/>
       <c r="E158" s="56" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F158" s="56"/>
       <c r="G158" s="56"/>
@@ -14372,39 +14440,39 @@
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="121" t="s">
-        <v>706</v>
-      </c>
-      <c r="B159" s="56" t="s">
-        <v>707</v>
-      </c>
-      <c r="C159" s="70"/>
-      <c r="D159" s="70"/>
+      <c r="A159" s="48" t="s">
+        <v>708</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>709</v>
+      </c>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
       <c r="E159" s="56" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F159" s="56"/>
       <c r="G159" s="56" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H159" s="56" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="121" t="s">
-        <v>711</v>
-      </c>
-      <c r="B160" s="56" t="s">
-        <v>712</v>
-      </c>
-      <c r="C160" s="70" t="s">
-        <v>430</v>
-      </c>
-      <c r="D160" s="70"/>
+      <c r="A160" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>714</v>
+      </c>
+      <c r="C160" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="D160" s="69"/>
       <c r="E160" s="56"/>
       <c r="F160" s="56"/>
       <c r="G160" s="56"/>
@@ -14414,186 +14482,214 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="121" t="s">
-        <v>713</v>
+      <c r="A161" s="68" t="s">
+        <v>715</v>
       </c>
       <c r="B161" s="70" t="s">
-        <v>714</v>
-      </c>
-      <c r="C161" s="70"/>
-      <c r="D161" s="70"/>
-      <c r="E161" s="70" t="s">
-        <v>715</v>
-      </c>
-      <c r="F161" s="70"/>
-      <c r="G161" s="70" t="s">
-        <v>709</v>
-      </c>
-      <c r="H161" s="133" t="s">
         <v>716</v>
+      </c>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="F161" s="69"/>
+      <c r="G161" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="H161" s="132" t="s">
+        <v>718</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="121" t="s">
-        <v>717</v>
+      <c r="A162" s="68" t="s">
+        <v>719</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>718</v>
-      </c>
-      <c r="C162" s="70"/>
-      <c r="D162" s="70"/>
-      <c r="E162" s="70" t="s">
-        <v>719</v>
-      </c>
-      <c r="F162" s="70"/>
-      <c r="G162" s="70" t="s">
-        <v>709</v>
-      </c>
-      <c r="H162" s="70" t="s">
         <v>720</v>
+      </c>
+      <c r="C162" s="69"/>
+      <c r="D162" s="69"/>
+      <c r="E162" s="69" t="s">
+        <v>721</v>
+      </c>
+      <c r="F162" s="69"/>
+      <c r="G162" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="H162" s="69" t="s">
+        <v>722</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="121" t="s">
-        <v>721</v>
+      <c r="A163" s="68" t="s">
+        <v>723</v>
       </c>
       <c r="B163" s="70" t="s">
-        <v>722</v>
-      </c>
-      <c r="C163" s="70"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70" t="s">
-        <v>723</v>
-      </c>
-      <c r="F163" s="70"/>
-      <c r="G163" s="70" t="s">
-        <v>709</v>
-      </c>
-      <c r="H163" s="134" t="s">
         <v>724</v>
+      </c>
+      <c r="C163" s="69"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="69" t="s">
+        <v>725</v>
+      </c>
+      <c r="F163" s="69"/>
+      <c r="G163" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="H163" s="133" t="s">
+        <v>726</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="121" t="s">
-        <v>725</v>
+      <c r="A164" s="68" t="s">
+        <v>727</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>726</v>
-      </c>
-      <c r="C164" s="70"/>
-      <c r="D164" s="70"/>
-      <c r="E164" s="70" t="s">
-        <v>727</v>
-      </c>
-      <c r="F164" s="70"/>
-      <c r="G164" s="70" t="s">
-        <v>709</v>
-      </c>
-      <c r="H164" s="134" t="s">
         <v>728</v>
+      </c>
+      <c r="C164" s="69"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="69" t="s">
+        <v>729</v>
+      </c>
+      <c r="F164" s="69"/>
+      <c r="G164" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="H164" s="133" t="s">
+        <v>730</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="121" t="s">
-        <v>729</v>
-      </c>
-      <c r="B165" s="70" t="s">
-        <v>730</v>
-      </c>
-      <c r="C165" s="132" t="s">
-        <v>430</v>
-      </c>
-      <c r="D165" s="70"/>
-      <c r="E165" s="70"/>
-      <c r="F165" s="70"/>
-      <c r="G165" s="70"/>
-      <c r="H165" s="70"/>
+      <c r="A165" s="90" t="s">
+        <v>731</v>
+      </c>
+      <c r="B165" s="134" t="s">
+        <v>732</v>
+      </c>
+      <c r="C165" s="131" t="s">
+        <v>431</v>
+      </c>
+      <c r="D165" s="69"/>
+      <c r="E165" s="69"/>
+      <c r="F165" s="69"/>
+      <c r="G165" s="69"/>
+      <c r="H165" s="69"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="121" t="s">
-        <v>731</v>
-      </c>
-      <c r="B166" s="70" t="s">
-        <v>732</v>
+      <c r="A166" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="B166" s="76" t="s">
+        <v>734</v>
       </c>
       <c r="C166" s="135" t="s">
-        <v>446</v>
-      </c>
-      <c r="D166" s="70"/>
-      <c r="E166" s="70" t="s">
-        <v>733</v>
-      </c>
-      <c r="F166" s="70"/>
-      <c r="G166" s="70" t="s">
-        <v>709</v>
+        <v>447</v>
+      </c>
+      <c r="D166" s="69"/>
+      <c r="E166" s="69" t="s">
+        <v>735</v>
+      </c>
+      <c r="F166" s="69"/>
+      <c r="G166" s="69" t="s">
+        <v>711</v>
       </c>
       <c r="H166" s="136" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="121" t="s">
-        <v>735</v>
-      </c>
-      <c r="B167" s="70" t="s">
-        <v>736</v>
-      </c>
-      <c r="C167" s="132" t="s">
-        <v>430</v>
-      </c>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
-      <c r="F167" s="70"/>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
+      <c r="A167" s="90" t="s">
+        <v>737</v>
+      </c>
+      <c r="B167" s="134" t="s">
+        <v>738</v>
+      </c>
+      <c r="C167" s="131" t="s">
+        <v>431</v>
+      </c>
+      <c r="D167" s="69"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="69"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="121" t="s">
-        <v>737</v>
-      </c>
-      <c r="B168" s="70" t="s">
-        <v>738</v>
-      </c>
-      <c r="C168" s="132" t="s">
+      <c r="A168" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="D168" s="70" t="s">
+      <c r="B168" s="76" t="s">
         <v>740</v>
       </c>
+      <c r="C168" s="131" t="s">
+        <v>741</v>
+      </c>
+      <c r="D168" s="69" t="s">
+        <v>742</v>
+      </c>
       <c r="E168" s="137" t="s">
-        <v>741</v>
-      </c>
-      <c r="F168" s="70"/>
-      <c r="G168" s="70" t="s">
-        <v>742</v>
-      </c>
-      <c r="H168" s="134" t="s">
         <v>743</v>
       </c>
-      <c r="I168" s="6"/>
+      <c r="F168" s="69"/>
+      <c r="G168" s="69" t="s">
+        <v>744</v>
+      </c>
+      <c r="H168" s="133" t="s">
+        <v>745</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>746</v>
+      </c>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="18"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="18"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14695,78 +14791,78 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="D2" s="78"/>
+        <v>748</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>749</v>
+      </c>
+      <c r="D2" s="77"/>
       <c r="E2" s="39" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>744</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>745</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="D3" s="78"/>
+        <v>747</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>748</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>749</v>
+      </c>
+      <c r="D3" s="77"/>
       <c r="E3" s="39" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>751</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>752</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>753</v>
+        <v>410</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>754</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>755</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>756</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>756</v>
+        <v>417</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>759</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="140"/>
@@ -14791,20 +14887,20 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>496</v>
       </c>
       <c r="C6" s="141" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="140"/>
@@ -14829,22 +14925,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
@@ -18849,36 +18945,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="142" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B2" s="143" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="144" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="145" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="146" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="143" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8">
@@ -18889,41 +18985,41 @@
     </row>
     <row r="10">
       <c r="A10" s="146" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="146" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B11" s="147" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="148" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="149"/>
       <c r="B13" s="150" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="151" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="152" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="153" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17">
@@ -18932,24 +19028,24 @@
     </row>
     <row r="18">
       <c r="A18" s="146" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B18" s="154" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B19" s="155"/>
     </row>
     <row r="21">
       <c r="A21" s="146" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B21" s="156" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -18975,62 +19071,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>792</v>
+      <c r="A9" s="157" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -19056,59 +19152,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B1" s="157" t="s">
-        <v>796</v>
+        <v>787</v>
+      </c>
+      <c r="B1" s="158" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="158" t="s">
-        <v>797</v>
+      <c r="A2" s="159" t="s">
+        <v>800</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="158" t="s">
-        <v>799</v>
+      <c r="A3" s="159" t="s">
+        <v>802</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="158" t="s">
-        <v>800</v>
+      <c r="A4" s="159" t="s">
+        <v>803</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="158" t="s">
-        <v>801</v>
+      <c r="A5" s="159" t="s">
+        <v>804</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="158" t="s">
-        <v>802</v>
+      <c r="A6" s="159" t="s">
+        <v>805</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="158" t="s">
-        <v>803</v>
+      <c r="A7" s="159" t="s">
+        <v>806</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="158" t="s">
-        <v>804</v>
+      <c r="A8" s="159" t="s">
+        <v>807</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="159" t="s">
-        <v>805</v>
+      <c r="A9" s="160" t="s">
+        <v>808</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -19152,36 +19248,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="160" t="s">
-        <v>806</v>
-      </c>
-      <c r="C1" s="160" t="s">
-        <v>807</v>
+      <c r="A1" s="161" t="s">
+        <v>809</v>
+      </c>
+      <c r="C1" s="161" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="146" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C2" s="146" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D2" s="146" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19212,13 +19308,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19249,13 +19345,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>820</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -19283,16 +19379,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -19319,16 +19415,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="D7" s="161" t="s">
-        <v>823</v>
+        <v>817</v>
+      </c>
+      <c r="D7" s="162" t="s">
+        <v>826</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -19355,16 +19451,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -19390,220 +19486,220 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="162" t="s">
-        <v>827</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>828</v>
-      </c>
-      <c r="C9" s="163" t="s">
-        <v>814</v>
-      </c>
-      <c r="D9" s="163" t="s">
-        <v>829</v>
-      </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="163"/>
+      <c r="A9" s="163" t="s">
+        <v>830</v>
+      </c>
+      <c r="B9" s="164" t="s">
+        <v>831</v>
+      </c>
+      <c r="C9" s="164" t="s">
+        <v>817</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>832</v>
+      </c>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
     </row>
     <row r="10">
-      <c r="A10" s="162" t="s">
-        <v>830</v>
-      </c>
-      <c r="B10" s="163" t="s">
-        <v>828</v>
-      </c>
-      <c r="C10" s="163" t="s">
-        <v>814</v>
-      </c>
-      <c r="D10" s="163" t="s">
+      <c r="A10" s="163" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="164" t="s">
         <v>831</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="163"/>
-      <c r="Z10" s="163"/>
+      <c r="C10" s="164" t="s">
+        <v>817</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>834</v>
+      </c>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
     </row>
     <row r="11">
-      <c r="A11" s="162" t="s">
-        <v>832</v>
-      </c>
-      <c r="B11" s="163" t="s">
-        <v>833</v>
-      </c>
-      <c r="C11" s="163" t="s">
-        <v>814</v>
-      </c>
-      <c r="D11" s="163" t="s">
-        <v>834</v>
-      </c>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="163"/>
+      <c r="A11" s="163" t="s">
+        <v>835</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>836</v>
+      </c>
+      <c r="C11" s="164" t="s">
+        <v>817</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>837</v>
+      </c>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
     </row>
     <row r="12">
-      <c r="A12" s="162" t="s">
-        <v>835</v>
-      </c>
-      <c r="B12" s="163" t="s">
-        <v>833</v>
-      </c>
-      <c r="C12" s="163" t="s">
-        <v>814</v>
-      </c>
-      <c r="D12" s="163" t="s">
+      <c r="A12" s="163" t="s">
+        <v>838</v>
+      </c>
+      <c r="B12" s="164" t="s">
         <v>836</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
+      <c r="C12" s="164" t="s">
+        <v>817</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>839</v>
+      </c>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
     </row>
     <row r="13">
-      <c r="A13" s="162" t="s">
-        <v>837</v>
-      </c>
-      <c r="B13" s="162" t="s">
+      <c r="A13" s="163" t="s">
+        <v>840</v>
+      </c>
+      <c r="B13" s="163" t="s">
+        <v>820</v>
+      </c>
+      <c r="C13" s="164" t="s">
         <v>817</v>
       </c>
-      <c r="C13" s="163" t="s">
-        <v>814</v>
-      </c>
-      <c r="D13" s="163" t="s">
-        <v>838</v>
-      </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="163"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="163"/>
-      <c r="Z13" s="163"/>
+      <c r="D13" s="164" t="s">
+        <v>841</v>
+      </c>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="164"/>
     </row>
     <row r="14">
-      <c r="A14" s="162" t="s">
-        <v>839</v>
-      </c>
-      <c r="B14" s="162" t="s">
+      <c r="A14" s="163" t="s">
+        <v>842</v>
+      </c>
+      <c r="B14" s="163" t="s">
+        <v>820</v>
+      </c>
+      <c r="C14" s="164" t="s">
         <v>817</v>
       </c>
-      <c r="C14" s="163" t="s">
-        <v>814</v>
-      </c>
-      <c r="D14" s="163" t="s">
-        <v>840</v>
-      </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="163"/>
-      <c r="Z14" s="163"/>
+      <c r="D14" s="164" t="s">
+        <v>843</v>
+      </c>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
+      <c r="U14" s="164"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19631,52 +19727,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="160" t="s">
-        <v>806</v>
+      <c r="A1" s="161" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="146" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C2" s="146" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D2" s="146" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="143" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="143" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B4" s="143" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="143" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>846</v>
-      </c>
-      <c r="C5" s="164" t="s">
-        <v>844</v>
+        <v>849</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>847</v>
       </c>
       <c r="D5" s="143" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <r>
@@ -2347,7 +2347,8 @@
     <t>Award Criterion complicated</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_CRITERION</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_CRITERION
+OBJECT_CONTRACT/OBJECT_DESCR/AC_CRITERION</t>
   </si>
   <si>
     <t xml:space="preserve">epo:AwardCriterion </t>
@@ -3086,7 +3087,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` (or in earlier versions of XML by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR`) XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -3173,7 +3174,8 @@
     <t>Received Submissions Count</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED</t>
   </si>
   <si>
     <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -3188,7 +3190,8 @@
     <t>Number of tenders received from SMEs</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_SME</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -3232,7 +3235,8 @@
     <t>Number of tenders received from tenderers from other EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_OTHER_EU</t>
   </si>
   <si>
     <r>
@@ -3269,7 +3273,8 @@
     <t>Number of tenders received from tenderers from non-EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_NON_EU</t>
   </si>
   <si>
     <r>
@@ -3306,7 +3311,8 @@
     <t>Number of tenders received by electronic means</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_EMEANS</t>
   </si>
   <si>
     <t>?this epo:hasElectronicTenders ?value .</t>
@@ -11662,7 +11668,7 @@
       <c r="D57" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="39" t="s">
         <v>316</v>
       </c>
       <c r="F57" s="4"/>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="849">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.2.0</t>
   </si>
   <si>
     <r>
@@ -1275,7 +1275,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -1298,7 +1298,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1463,7 +1463,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasMainActivityType ?</t>
+      <t xml:space="preserve"> epo:hasMainActivity ?</t>
     </r>
     <r>
       <rPr>
@@ -1556,7 +1556,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasMainActivityType ?</t>
+      <t xml:space="preserve"> epo:hasMainActivity ?</t>
     </r>
     <r>
       <rPr>
@@ -1722,7 +1722,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpv (from cpv.json)</t>
   </si>
   <si>
-    <t>?this epo:hasOverallPurpose / epo:hasMainClassification ?value .</t>
+    <t>?this epo:hasPurpose / epo:hasMainClassification ?value .</t>
   </si>
   <si>
     <t>II.1.2.1</t>
@@ -1761,6 +1761,21 @@
     <t>epo:Procedure / epo:Purpose / at-voc:contract-nature (from contract_nature.json)</t>
   </si>
   <si>
+    <t>?this epo:hasPurpose / epo:hasContractNatureType ?value .</t>
+  </si>
+  <si>
+    <t>II.1.4</t>
+  </si>
+  <si>
+    <t>Short description</t>
+  </si>
+  <si>
+    <t>BT-24</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/SHORT_DESCR</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1781,7 +1796,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasOverallPurpose / epo:hasContractNatureType ?</t>
+      <t xml:space="preserve"> epo:hasDescription</t>
     </r>
     <r>
       <rPr>
@@ -1789,57 +1804,6 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.1.4</t>
-  </si>
-  <si>
-    <t>Short description</t>
-  </si>
-  <si>
-    <t>BT-24</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/SHORT_DESCR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
       <t xml:space="preserve"> ?value .</t>
     </r>
   </si>
@@ -1880,7 +1844,7 @@
     <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:Procedure / MonetaryValue /at-voc:currency (from currency.json)</t>
+    <t>epo:Procedure / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -2424,7 +2388,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/DATE_START</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:datetime</t>
+    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:dateTime</t>
   </si>
   <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / epo:hasBeginning ?value .</t>
@@ -2907,31 +2871,7 @@
     <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> .
-</t>
-    </r>
+    <t>?this epo:resultsFromLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .</t>
   </si>
   <si>
     <t>epo:Contract</t>
@@ -4253,9 +4193,6 @@
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -5385,9 +5322,6 @@
   </si>
   <si>
     <t>buyer_legal_type.csv</t>
-  </si>
-  <si>
-    <t>award_criterion_type.json</t>
   </si>
   <si>
     <t>legal_basis.json</t>
@@ -5562,7 +5496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5712,10 +5646,6 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <i/>
@@ -5917,7 +5847,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="164">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6095,9 +6025,6 @@
     <xf borderId="8" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -6183,6 +6110,9 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6214,9 +6144,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6379,9 +6306,6 @@
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6391,10 +6315,10 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -6403,7 +6327,7 @@
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -10535,7 +10459,7 @@
       <c r="G22" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="60" t="s">
         <v>165</v>
       </c>
       <c r="I22" s="4"/>
@@ -10571,21 +10495,21 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
     </row>
     <row r="24">
       <c r="A24" s="37" t="s">
@@ -10604,42 +10528,42 @@
         <v>171</v>
       </c>
       <c r="F24" s="57"/>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="63" t="s">
         <v>172</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="40" t="s">
         <v>157</v>
       </c>
@@ -10661,7 +10585,7 @@
       <c r="A26" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="66" t="s">
         <v>177</v>
       </c>
       <c r="C26" s="4"/>
@@ -10769,21 +10693,21 @@
       </c>
       <c r="J29" s="53"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
@@ -10873,7 +10797,7 @@
       <c r="G32" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I32" s="4"/>
@@ -10948,7 +10872,7 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="67" t="s">
         <v>219</v>
       </c>
       <c r="B35" s="55" t="s">
@@ -10964,33 +10888,33 @@
         <v>223</v>
       </c>
       <c r="F35" s="57"/>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="68" t="s">
         <v>225</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
     </row>
     <row r="36">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
         <v>226</v>
       </c>
       <c r="B36" s="55" t="s">
@@ -11002,7 +10926,7 @@
         <v>228</v>
       </c>
       <c r="F36" s="57"/>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="57" t="s">
         <v>229</v>
       </c>
       <c r="H36" s="57" t="s">
@@ -11020,22 +10944,22 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="72" t="s">
+      <c r="D37" s="68"/>
+      <c r="E37" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -11127,21 +11051,21 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
     </row>
     <row r="41">
       <c r="A41" s="54" t="s">
@@ -11227,7 +11151,7 @@
       <c r="G43" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="H43" s="73" t="s">
+      <c r="H43" s="72" t="s">
         <v>262</v>
       </c>
       <c r="I43" s="6"/>
@@ -11272,10 +11196,10 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="4"/>
@@ -11305,23 +11229,23 @@
       <c r="A46" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="F46" s="77"/>
+      <c r="F46" s="76"/>
       <c r="G46" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="76" t="s">
         <v>271</v>
       </c>
       <c r="I46" s="6" t="s">
@@ -11423,21 +11347,21 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="63"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="Y49" s="63"/>
-      <c r="Z49" s="63"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
     </row>
     <row r="50">
       <c r="A50" s="54" t="s">
@@ -11519,7 +11443,7 @@
       <c r="G52" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H52" s="72" t="s">
         <v>296</v>
       </c>
       <c r="I52" s="6"/>
@@ -11630,10 +11554,10 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="78" t="s">
         <v>311</v>
       </c>
       <c r="C56" s="4"/>
@@ -11704,9 +11628,9 @@
       <c r="F58" s="56"/>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="72"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="71"/>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
@@ -11716,7 +11640,7 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="67" t="s">
         <v>321</v>
       </c>
       <c r="B59" s="55" t="s">
@@ -11738,9 +11662,9 @@
       <c r="H59" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="72"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="71"/>
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
@@ -11750,12 +11674,12 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="56" t="s">
         <v>329</v>
       </c>
@@ -11768,9 +11692,9 @@
       <c r="H60" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="72"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="71"/>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
@@ -11780,16 +11704,16 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="77" t="s">
         <v>333</v>
       </c>
-      <c r="B61" s="80"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="68" t="s">
         <v>334</v>
       </c>
       <c r="G61" s="56" t="s">
@@ -11798,9 +11722,9 @@
       <c r="H61" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="72"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="71"/>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
@@ -11810,31 +11734,31 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="67" t="s">
         <v>336</v>
       </c>
       <c r="B62" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C62" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="69" t="s">
+      <c r="D62" s="68" t="s">
         <v>339</v>
       </c>
       <c r="E62" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="F62" s="69"/>
-      <c r="G62" s="56" t="s">
+      <c r="F62" s="68"/>
+      <c r="G62" s="57" t="s">
         <v>341</v>
       </c>
       <c r="H62" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="72"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="71"/>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
@@ -11844,7 +11768,7 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="67" t="s">
         <v>343</v>
       </c>
       <c r="B63" s="55" t="s">
@@ -11860,7 +11784,7 @@
         <v>347</v>
       </c>
       <c r="F63" s="56"/>
-      <c r="G63" s="56" t="s">
+      <c r="G63" s="57" t="s">
         <v>341</v>
       </c>
       <c r="H63" s="56" t="s">
@@ -11902,7 +11826,7 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="68" t="s">
+      <c r="A65" s="67" t="s">
         <v>351</v>
       </c>
       <c r="B65" s="55" t="s">
@@ -11914,14 +11838,14 @@
       <c r="D65" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="E65" s="77" t="s">
+      <c r="E65" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="F65" s="81"/>
-      <c r="G65" s="77" t="s">
+      <c r="F65" s="80"/>
+      <c r="G65" s="76" t="s">
         <v>356</v>
       </c>
-      <c r="H65" s="82" t="s">
+      <c r="H65" s="81" t="s">
         <v>357</v>
       </c>
       <c r="I65" s="6"/>
@@ -11936,16 +11860,16 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="B66" s="84" t="s">
+      <c r="B66" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="D66" s="86" t="s">
+      <c r="D66" s="85" t="s">
         <v>354</v>
       </c>
       <c r="E66" s="49" t="s">
@@ -11955,7 +11879,7 @@
       <c r="G66" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="H66" s="87" t="s">
+      <c r="H66" s="86" t="s">
         <v>359</v>
       </c>
       <c r="I66" s="6"/>
@@ -11970,7 +11894,7 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="67" t="s">
         <v>360</v>
       </c>
       <c r="B67" s="55" t="s">
@@ -11989,7 +11913,7 @@
       <c r="G67" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="H67" s="87" t="s">
+      <c r="H67" s="86" t="s">
         <v>365</v>
       </c>
       <c r="I67" s="6" t="s">
@@ -12025,7 +11949,7 @@
       <c r="G68" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H68" s="88" t="s">
+      <c r="H68" s="87" t="s">
         <v>371</v>
       </c>
       <c r="I68" s="6" t="s">
@@ -12042,10 +11966,10 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="B69" s="67" t="s">
+      <c r="B69" s="66" t="s">
         <v>373</v>
       </c>
       <c r="C69" s="4"/>
@@ -12068,7 +11992,7 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="89" t="s">
         <v>375</v>
       </c>
       <c r="B70" s="38" t="s">
@@ -12116,7 +12040,7 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="68" t="s">
+      <c r="A72" s="67" t="s">
         <v>378</v>
       </c>
       <c r="B72" s="55" t="s">
@@ -12124,16 +12048,16 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="65" t="s">
         <v>383</v>
       </c>
       <c r="I72" s="6"/>
@@ -12148,7 +12072,7 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="68" t="s">
+      <c r="A73" s="67" t="s">
         <v>384</v>
       </c>
       <c r="B73" s="55" t="s">
@@ -12197,7 +12121,7 @@
       <c r="G74" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="H74" s="73" t="s">
+      <c r="H74" s="72" t="s">
         <v>395</v>
       </c>
       <c r="I74" s="6"/>
@@ -12218,10 +12142,10 @@
       <c r="B75" s="93" t="s">
         <v>390</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="84" t="s">
         <v>391</v>
       </c>
-      <c r="D75" s="86" t="s">
+      <c r="D75" s="85" t="s">
         <v>392</v>
       </c>
       <c r="E75" s="49" t="s">
@@ -12231,7 +12155,7 @@
       <c r="G75" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="H75" s="73" t="s">
+      <c r="H75" s="72" t="s">
         <v>397</v>
       </c>
       <c r="I75" s="6"/>
@@ -12246,7 +12170,7 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="89" t="s">
         <v>398</v>
       </c>
       <c r="B76" s="38" t="s">
@@ -12285,7 +12209,7 @@
       <c r="G77" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="H77" s="73" t="s">
+      <c r="H77" s="72" t="s">
         <v>404</v>
       </c>
       <c r="I77" s="6" t="s">
@@ -12302,10 +12226,10 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="66" t="s">
         <v>406</v>
       </c>
       <c r="C78" s="4"/>
@@ -12410,7 +12334,7 @@
       <c r="B81" s="93" t="s">
         <v>418</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="85" t="s">
         <v>419</v>
       </c>
       <c r="D81" s="97" t="s">
@@ -12444,10 +12368,10 @@
       <c r="B82" s="93" t="s">
         <v>418</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="D82" s="86" t="s">
+      <c r="D82" s="85" t="s">
         <v>420</v>
       </c>
       <c r="E82" s="58" t="s">
@@ -12472,7 +12396,7 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="89" t="s">
         <v>429</v>
       </c>
       <c r="B83" s="38" t="s">
@@ -12524,7 +12448,7 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="67" t="s">
         <v>434</v>
       </c>
       <c r="B85" s="55" t="s">
@@ -12558,7 +12482,7 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="68" t="s">
+      <c r="A86" s="67" t="s">
         <v>441</v>
       </c>
       <c r="B86" s="55" t="s">
@@ -12592,7 +12516,7 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="68" t="s">
+      <c r="A87" s="67" t="s">
         <v>445</v>
       </c>
       <c r="B87" s="55" t="s">
@@ -12602,14 +12526,14 @@
         <v>447</v>
       </c>
       <c r="D87" s="49"/>
-      <c r="E87" s="102" t="s">
+      <c r="E87" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102" t="s">
+      <c r="F87" s="90"/>
+      <c r="G87" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="H87" s="103" t="s">
+      <c r="H87" s="102" t="s">
         <v>450</v>
       </c>
       <c r="I87" s="6"/>
@@ -12617,7 +12541,7 @@
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="89" t="s">
         <v>451</v>
       </c>
       <c r="B88" s="38" t="s">
@@ -12636,7 +12560,7 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="68" t="s">
+      <c r="A89" s="67" t="s">
         <v>453</v>
       </c>
       <c r="B89" s="55"/>
@@ -12657,10 +12581,10 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="68" t="s">
+      <c r="A90" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="B90" s="104"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="49"/>
       <c r="D90" s="4"/>
       <c r="E90" s="58" t="s">
@@ -12713,12 +12637,12 @@
       <c r="B92" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="106" t="s">
+      <c r="C92" s="104"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="105" t="s">
         <v>421</v>
       </c>
-      <c r="F92" s="105"/>
+      <c r="F92" s="104"/>
       <c r="G92" s="13" t="s">
         <v>468</v>
       </c>
@@ -12732,22 +12656,22 @@
       <c r="K92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="67" t="s">
         <v>471</v>
       </c>
       <c r="B93" s="55" t="s">
         <v>472</v>
       </c>
-      <c r="C93" s="77" t="s">
+      <c r="C93" s="76" t="s">
         <v>473</v>
       </c>
-      <c r="D93" s="77" t="s">
+      <c r="D93" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="E93" s="77" t="s">
+      <c r="E93" s="76" t="s">
         <v>475</v>
       </c>
-      <c r="F93" s="77"/>
+      <c r="F93" s="76"/>
       <c r="G93" s="13" t="s">
         <v>476</v>
       </c>
@@ -12759,7 +12683,7 @@
       <c r="K93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="68" t="s">
+      <c r="A94" s="67" t="s">
         <v>478</v>
       </c>
       <c r="B94" s="55" t="s">
@@ -12782,7 +12706,7 @@
       <c r="K94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="68" t="s">
+      <c r="A95" s="67" t="s">
         <v>483</v>
       </c>
       <c r="B95" s="55" t="s">
@@ -12805,7 +12729,7 @@
       <c r="K95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="68" t="s">
+      <c r="A96" s="67" t="s">
         <v>487</v>
       </c>
       <c r="B96" s="55" t="s">
@@ -12828,7 +12752,7 @@
       <c r="K96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="68" t="s">
+      <c r="A97" s="67" t="s">
         <v>491</v>
       </c>
       <c r="B97" s="55" t="s">
@@ -12851,13 +12775,13 @@
       <c r="K97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="68" t="s">
+      <c r="A98" s="67" t="s">
         <v>495</v>
       </c>
       <c r="B98" s="55" t="s">
         <v>496</v>
       </c>
-      <c r="C98" s="107" t="s">
+      <c r="C98" s="106" t="s">
         <v>497</v>
       </c>
       <c r="D98" s="49"/>
@@ -12895,7 +12819,7 @@
       <c r="K99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="67" t="s">
         <v>503</v>
       </c>
       <c r="B100" s="55" t="s">
@@ -12924,7 +12848,7 @@
       <c r="K100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="67" t="s">
         <v>506</v>
       </c>
       <c r="B101" s="55" t="s">
@@ -12953,7 +12877,7 @@
       <c r="K101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="68" t="s">
+      <c r="A102" s="67" t="s">
         <v>509</v>
       </c>
       <c r="B102" s="55" t="s">
@@ -12980,7 +12904,7 @@
       <c r="K102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="68" t="s">
+      <c r="A103" s="67" t="s">
         <v>512</v>
       </c>
       <c r="B103" s="55" t="s">
@@ -13007,7 +12931,7 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="68" t="s">
+      <c r="A104" s="67" t="s">
         <v>515</v>
       </c>
       <c r="B104" s="55" t="s">
@@ -13036,7 +12960,7 @@
       <c r="K104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="68" t="s">
+      <c r="A105" s="67" t="s">
         <v>519</v>
       </c>
       <c r="B105" s="55" t="s">
@@ -13063,7 +12987,7 @@
       <c r="K105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="68" t="s">
+      <c r="A106" s="67" t="s">
         <v>523</v>
       </c>
       <c r="B106" s="55" t="s">
@@ -13072,17 +12996,17 @@
       <c r="C106" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="77" t="s">
+      <c r="D106" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="E106" s="77" t="s">
+      <c r="E106" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="F106" s="77"/>
-      <c r="G106" s="108" t="s">
+      <c r="F106" s="76"/>
+      <c r="G106" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="H106" s="109" t="s">
+      <c r="H106" s="108" t="s">
         <v>525</v>
       </c>
       <c r="I106" s="6"/>
@@ -13090,7 +13014,7 @@
       <c r="K106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="68" t="s">
+      <c r="A107" s="67" t="s">
         <v>526</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -13117,7 +13041,7 @@
       <c r="K107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="68" t="s">
+      <c r="A108" s="67" t="s">
         <v>530</v>
       </c>
       <c r="B108" s="55" t="s">
@@ -13144,7 +13068,7 @@
       <c r="K108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="68" t="s">
+      <c r="A109" s="67" t="s">
         <v>534</v>
       </c>
       <c r="B109" s="55" t="s">
@@ -13153,17 +13077,17 @@
       <c r="C109" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D109" s="77" t="s">
+      <c r="D109" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="E109" s="77" t="s">
+      <c r="E109" s="76" t="s">
         <v>536</v>
       </c>
-      <c r="F109" s="77"/>
-      <c r="G109" s="110" t="s">
+      <c r="F109" s="76"/>
+      <c r="G109" s="109" t="s">
         <v>528</v>
       </c>
-      <c r="H109" s="111" t="s">
+      <c r="H109" s="110" t="s">
         <v>537</v>
       </c>
       <c r="I109" s="6"/>
@@ -13171,7 +13095,7 @@
       <c r="K109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="68" t="s">
+      <c r="A110" s="67" t="s">
         <v>538</v>
       </c>
       <c r="B110" s="55" t="s">
@@ -13198,7 +13122,7 @@
       <c r="K110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="68" t="s">
+      <c r="A111" s="67" t="s">
         <v>541</v>
       </c>
       <c r="B111" s="55" t="s">
@@ -13210,14 +13134,14 @@
       <c r="D111" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="E111" s="112" t="s">
+      <c r="E111" s="111" t="s">
         <v>545</v>
       </c>
-      <c r="F111" s="113"/>
+      <c r="F111" s="112"/>
       <c r="G111" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="H111" s="114" t="s">
+      <c r="H111" s="113" t="s">
         <v>547</v>
       </c>
       <c r="I111" s="6"/>
@@ -13227,16 +13151,16 @@
     <row r="112">
       <c r="A112" s="18"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="106" t="s">
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="F112" s="81"/>
-      <c r="G112" s="108" t="s">
+      <c r="F112" s="80"/>
+      <c r="G112" s="107" t="s">
         <v>548</v>
       </c>
-      <c r="H112" s="108" t="s">
+      <c r="H112" s="107" t="s">
         <v>549</v>
       </c>
       <c r="I112" s="6"/>
@@ -13263,7 +13187,7 @@
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="68" t="s">
+      <c r="A114" s="67" t="s">
         <v>552</v>
       </c>
       <c r="B114" s="55" t="s">
@@ -13290,13 +13214,13 @@
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="78" t="s">
+      <c r="A115" s="77" t="s">
         <v>558</v>
       </c>
-      <c r="B115" s="79" t="s">
+      <c r="B115" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C115" s="115" t="s">
+      <c r="C115" s="114" t="s">
         <v>559</v>
       </c>
       <c r="D115" s="49"/>
@@ -13315,26 +13239,26 @@
       <c r="K115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="68" t="s">
+      <c r="A116" s="67" t="s">
         <v>563</v>
       </c>
       <c r="B116" s="55" t="s">
         <v>564</v>
       </c>
-      <c r="C116" s="77" t="s">
+      <c r="C116" s="76" t="s">
         <v>565</v>
       </c>
-      <c r="D116" s="77" t="s">
+      <c r="D116" s="76" t="s">
         <v>566</v>
       </c>
-      <c r="E116" s="116" t="s">
+      <c r="E116" s="115" t="s">
         <v>567</v>
       </c>
-      <c r="F116" s="116"/>
+      <c r="F116" s="115"/>
       <c r="G116" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="H116" s="81" t="s">
+      <c r="H116" s="80" t="s">
         <v>569</v>
       </c>
       <c r="I116" s="6"/>
@@ -13342,20 +13266,20 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="78" t="s">
+      <c r="A117" s="77" t="s">
         <v>570</v>
       </c>
-      <c r="B117" s="79" t="s">
+      <c r="B117" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="115" t="s">
+      <c r="C117" s="114" t="s">
         <v>559</v>
       </c>
       <c r="D117" s="49"/>
-      <c r="E117" s="116" t="s">
+      <c r="E117" s="115" t="s">
         <v>571</v>
       </c>
-      <c r="F117" s="116"/>
+      <c r="F117" s="115"/>
       <c r="G117" s="4" t="s">
         <v>572</v>
       </c>
@@ -13367,7 +13291,7 @@
       <c r="K117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="68" t="s">
+      <c r="A118" s="67" t="s">
         <v>574</v>
       </c>
       <c r="B118" s="55" t="s">
@@ -13376,17 +13300,17 @@
       <c r="C118" s="56" t="s">
         <v>576</v>
       </c>
-      <c r="D118" s="69" t="s">
+      <c r="D118" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="E118" s="117" t="s">
+      <c r="E118" s="116" t="s">
         <v>578</v>
       </c>
-      <c r="F118" s="117"/>
-      <c r="G118" s="72" t="s">
+      <c r="F118" s="116"/>
+      <c r="G118" s="71" t="s">
         <v>579</v>
       </c>
-      <c r="H118" s="72" t="s">
+      <c r="H118" s="71" t="s">
         <v>580</v>
       </c>
       <c r="I118" s="6"/>
@@ -13394,17 +13318,17 @@
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="78" t="s">
+      <c r="A119" s="77" t="s">
         <v>581</v>
       </c>
-      <c r="B119" s="79" t="s">
+      <c r="B119" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C119" s="118" t="s">
+      <c r="C119" s="117" t="s">
         <v>559</v>
       </c>
       <c r="D119" s="56"/>
-      <c r="E119" s="117" t="s">
+      <c r="E119" s="116" t="s">
         <v>582</v>
       </c>
       <c r="F119" s="56"/>
@@ -13419,22 +13343,22 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="68" t="s">
+      <c r="A120" s="67" t="s">
         <v>585</v>
       </c>
       <c r="B120" s="55" t="s">
         <v>586</v>
       </c>
-      <c r="C120" s="69" t="s">
+      <c r="C120" s="68" t="s">
         <v>587</v>
       </c>
-      <c r="D120" s="69" t="s">
+      <c r="D120" s="68" t="s">
         <v>588</v>
       </c>
-      <c r="E120" s="117" t="s">
+      <c r="E120" s="116" t="s">
         <v>589</v>
       </c>
-      <c r="F120" s="117"/>
+      <c r="F120" s="116"/>
       <c r="G120" s="57" t="s">
         <v>579</v>
       </c>
@@ -13446,17 +13370,17 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="78" t="s">
+      <c r="A121" s="77" t="s">
         <v>591</v>
       </c>
-      <c r="B121" s="79" t="s">
+      <c r="B121" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C121" s="119" t="s">
+      <c r="C121" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="D121" s="69"/>
-      <c r="E121" s="120" t="s">
+      <c r="D121" s="68"/>
+      <c r="E121" s="119" t="s">
         <v>592</v>
       </c>
       <c r="F121" s="56"/>
@@ -13471,22 +13395,22 @@
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="68" t="s">
+      <c r="A122" s="67" t="s">
         <v>594</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>595</v>
       </c>
-      <c r="C122" s="69" t="s">
+      <c r="C122" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="D122" s="69" t="s">
+      <c r="D122" s="68" t="s">
         <v>596</v>
       </c>
-      <c r="E122" s="120" t="s">
+      <c r="E122" s="119" t="s">
         <v>597</v>
       </c>
-      <c r="F122" s="120"/>
+      <c r="F122" s="119"/>
       <c r="G122" s="56" t="s">
         <v>598</v>
       </c>
@@ -13498,7 +13422,7 @@
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="89" t="s">
+      <c r="A123" s="88" t="s">
         <v>600</v>
       </c>
       <c r="B123" s="34" t="s">
@@ -13515,26 +13439,26 @@
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="90" t="s">
+      <c r="A124" s="89" t="s">
         <v>602</v>
       </c>
       <c r="B124" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="77" t="s">
+      <c r="C124" s="76" t="s">
         <v>368</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E124" s="116" t="s">
+      <c r="E124" s="115" t="s">
         <v>603</v>
       </c>
-      <c r="F124" s="116"/>
-      <c r="G124" s="121" t="s">
+      <c r="F124" s="115"/>
+      <c r="G124" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="H124" s="122" t="s">
+      <c r="H124" s="121" t="s">
         <v>604</v>
       </c>
       <c r="I124" s="6" t="s">
@@ -13544,18 +13468,18 @@
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="90" t="s">
+      <c r="A125" s="89" t="s">
         <v>605</v>
       </c>
       <c r="B125" s="38" t="s">
         <v>606</v>
       </c>
-      <c r="C125" s="123" t="s">
+      <c r="C125" s="122" t="s">
         <v>431</v>
       </c>
       <c r="D125" s="6"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="124"/>
+      <c r="E125" s="123"/>
+      <c r="F125" s="123"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="6"/>
@@ -13569,14 +13493,14 @@
       <c r="B126" s="47" t="s">
         <v>608</v>
       </c>
-      <c r="C126" s="125" t="s">
+      <c r="C126" s="124" t="s">
         <v>431</v>
       </c>
       <c r="D126" s="6"/>
-      <c r="E126" s="113" t="s">
+      <c r="E126" s="112" t="s">
         <v>609</v>
       </c>
-      <c r="F126" s="116"/>
+      <c r="F126" s="115"/>
       <c r="G126" s="13" t="s">
         <v>53</v>
       </c>
@@ -13588,22 +13512,22 @@
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="68" t="s">
+      <c r="A127" s="67" t="s">
         <v>611</v>
       </c>
       <c r="B127" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="77" t="s">
+      <c r="C127" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D127" s="77" t="s">
+      <c r="D127" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E127" s="116" t="s">
+      <c r="E127" s="115" t="s">
         <v>612</v>
       </c>
-      <c r="F127" s="116"/>
+      <c r="F127" s="115"/>
       <c r="G127" s="39" t="s">
         <v>60</v>
       </c>
@@ -13617,16 +13541,16 @@
       <c r="K127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="68" t="s">
+      <c r="A128" s="67" t="s">
         <v>614</v>
       </c>
       <c r="B128" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C128" s="77" t="s">
+      <c r="C128" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D128" s="77" t="s">
+      <c r="D128" s="76" t="s">
         <v>74</v>
       </c>
       <c r="E128" s="49" t="s">
@@ -13644,16 +13568,16 @@
       <c r="K128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="68" t="s">
+      <c r="A129" s="67" t="s">
         <v>617</v>
       </c>
       <c r="B129" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C129" s="77" t="s">
+      <c r="C129" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D129" s="77" t="s">
+      <c r="D129" s="76" t="s">
         <v>81</v>
       </c>
       <c r="E129" s="49" t="s">
@@ -13671,16 +13595,16 @@
       <c r="K129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="68" t="s">
+      <c r="A130" s="67" t="s">
         <v>620</v>
       </c>
       <c r="B130" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="77" t="s">
+      <c r="C130" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D130" s="77" t="s">
+      <c r="D130" s="76" t="s">
         <v>520</v>
       </c>
       <c r="E130" s="49" t="s">
@@ -13688,57 +13612,57 @@
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H130" s="96" t="s">
         <v>622</v>
-      </c>
-      <c r="H130" s="96" t="s">
-        <v>623</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="68" t="s">
-        <v>624</v>
+      <c r="A131" s="67" t="s">
+        <v>623</v>
       </c>
       <c r="B131" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C131" s="77" t="s">
+      <c r="C131" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D131" s="77" t="s">
+      <c r="D131" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="E131" s="77" t="s">
+      <c r="E131" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="H131" s="76" t="s">
         <v>625</v>
-      </c>
-      <c r="F131" s="77"/>
-      <c r="G131" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="H131" s="77" t="s">
-        <v>626</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="68" t="s">
-        <v>627</v>
+      <c r="A132" s="67" t="s">
+        <v>626</v>
       </c>
       <c r="B132" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C132" s="77" t="s">
+      <c r="C132" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="D132" s="77" t="s">
+      <c r="D132" s="76" t="s">
         <v>122</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="49" t="s">
@@ -13752,20 +13676,20 @@
       <c r="K132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="68" t="s">
-        <v>629</v>
+      <c r="A133" s="67" t="s">
+        <v>628</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C133" s="77" t="s">
+      <c r="C133" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="D133" s="77" t="s">
+      <c r="D133" s="76" t="s">
         <v>116</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
@@ -13779,47 +13703,47 @@
       <c r="K133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="68" t="s">
-        <v>631</v>
+      <c r="A134" s="67" t="s">
+        <v>630</v>
       </c>
       <c r="B134" s="55" t="s">
         <v>535</v>
       </c>
-      <c r="C134" s="77" t="s">
+      <c r="C134" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D134" s="77" t="s">
+      <c r="D134" s="76" t="s">
         <v>137</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="45" t="s">
         <v>528</v>
       </c>
       <c r="H134" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="68" t="s">
-        <v>634</v>
+      <c r="A135" s="67" t="s">
+        <v>633</v>
       </c>
       <c r="B135" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C135" s="77" t="s">
+      <c r="C135" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="D135" s="77" t="s">
+      <c r="D135" s="76" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="49" t="s">
@@ -13834,21 +13758,21 @@
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="B136" s="47" t="s">
         <v>636</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="C136" s="124" t="s">
+        <v>431</v>
+      </c>
+      <c r="D136" s="125"/>
+      <c r="E136" s="39" t="s">
         <v>637</v>
-      </c>
-      <c r="C136" s="125" t="s">
-        <v>431</v>
-      </c>
-      <c r="D136" s="126"/>
-      <c r="E136" s="39" t="s">
-        <v>638</v>
       </c>
       <c r="F136" s="49"/>
       <c r="G136" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H136" s="36" t="s">
         <v>610</v>
@@ -13858,27 +13782,27 @@
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="68" t="s">
-        <v>640</v>
+      <c r="A137" s="67" t="s">
+        <v>639</v>
       </c>
       <c r="B137" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C137" s="77" t="s">
+      <c r="C137" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D137" s="77" t="s">
+      <c r="D137" s="76" t="s">
         <v>58</v>
       </c>
       <c r="E137" s="49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H137" s="39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>62</v>
@@ -13887,89 +13811,89 @@
       <c r="K137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="68" t="s">
-        <v>643</v>
+      <c r="A138" s="67" t="s">
+        <v>642</v>
       </c>
       <c r="B138" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C138" s="77" t="s">
+      <c r="C138" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D138" s="77" t="s">
+      <c r="D138" s="76" t="s">
         <v>74</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F138" s="49"/>
       <c r="G138" s="39" t="s">
         <v>76</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="68" t="s">
-        <v>646</v>
+      <c r="A139" s="67" t="s">
+        <v>645</v>
       </c>
       <c r="B139" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C139" s="77" t="s">
+      <c r="C139" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D139" s="77" t="s">
+      <c r="D139" s="76" t="s">
         <v>81</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F139" s="49"/>
       <c r="G139" s="39" t="s">
         <v>76</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="68" t="s">
-        <v>649</v>
+      <c r="A140" s="67" t="s">
+        <v>648</v>
       </c>
       <c r="B140" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="77" t="s">
+      <c r="C140" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D140" s="77" t="s">
+      <c r="D140" s="76" t="s">
         <v>520</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F140" s="49"/>
       <c r="G140" s="39" t="s">
         <v>97</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="68" t="s">
-        <v>652</v>
+      <c r="A141" s="67" t="s">
+        <v>651</v>
       </c>
       <c r="B141" s="55" t="s">
         <v>100</v>
@@ -13977,40 +13901,40 @@
       <c r="C141" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D141" s="77" t="s">
+      <c r="D141" s="76" t="s">
         <v>102</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F141" s="49"/>
       <c r="G141" s="39" t="s">
         <v>104</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="68" t="s">
-        <v>655</v>
+      <c r="A142" s="67" t="s">
+        <v>654</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C142" s="77" t="s">
+      <c r="C142" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="D142" s="77" t="s">
+      <c r="D142" s="76" t="s">
         <v>122</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>656</v>
-      </c>
-      <c r="F142" s="77"/>
+        <v>655</v>
+      </c>
+      <c r="F142" s="76"/>
       <c r="G142" s="49" t="s">
         <v>528</v>
       </c>
@@ -14022,20 +13946,20 @@
       <c r="K142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="68" t="s">
-        <v>657</v>
+      <c r="A143" s="67" t="s">
+        <v>656</v>
       </c>
       <c r="B143" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C143" s="77" t="s">
+      <c r="C143" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="D143" s="77" t="s">
+      <c r="D143" s="76" t="s">
         <v>116</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F143" s="49"/>
       <c r="G143" s="49" t="s">
@@ -14049,47 +13973,47 @@
       <c r="K143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="68" t="s">
-        <v>659</v>
+      <c r="A144" s="67" t="s">
+        <v>658</v>
       </c>
       <c r="B144" s="55" t="s">
         <v>535</v>
       </c>
-      <c r="C144" s="77" t="s">
+      <c r="C144" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D144" s="77" t="s">
+      <c r="D144" s="76" t="s">
         <v>137</v>
       </c>
       <c r="E144" s="49" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F144" s="49"/>
       <c r="G144" s="45" t="s">
         <v>528</v>
       </c>
       <c r="H144" s="45" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="68" t="s">
-        <v>662</v>
+      <c r="A145" s="67" t="s">
+        <v>661</v>
       </c>
       <c r="B145" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="77" t="s">
+      <c r="C145" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="77" t="s">
+      <c r="D145" s="76" t="s">
         <v>129</v>
       </c>
       <c r="E145" s="49" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="49" t="s">
@@ -14104,26 +14028,26 @@
     </row>
     <row r="146">
       <c r="A146" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="B146" s="47" t="s">
         <v>664</v>
       </c>
-      <c r="B146" s="47" t="s">
+      <c r="C146" s="76" t="s">
         <v>665</v>
       </c>
-      <c r="C146" s="77" t="s">
+      <c r="D146" s="76" t="s">
         <v>666</v>
       </c>
-      <c r="D146" s="77" t="s">
+      <c r="E146" s="49" t="s">
         <v>667</v>
-      </c>
-      <c r="E146" s="49" t="s">
-        <v>668</v>
       </c>
       <c r="F146" s="49"/>
       <c r="G146" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="H146" s="121" t="s">
         <v>669</v>
-      </c>
-      <c r="H146" s="122" t="s">
-        <v>670</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -14131,15 +14055,15 @@
     </row>
     <row r="147">
       <c r="A147" s="48" t="s">
+        <v>670</v>
+      </c>
+      <c r="B147" s="47" t="s">
         <v>671</v>
-      </c>
-      <c r="B147" s="47" t="s">
-        <v>672</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="39" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="36" t="s">
@@ -14153,27 +14077,27 @@
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="68" t="s">
-        <v>674</v>
+      <c r="A148" s="67" t="s">
+        <v>673</v>
       </c>
       <c r="B148" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C148" s="77" t="s">
+      <c r="C148" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D148" s="77" t="s">
+      <c r="D148" s="76" t="s">
         <v>58</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F148" s="49"/>
       <c r="G148" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H148" s="39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>62</v>
@@ -14182,35 +14106,35 @@
       <c r="K148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="68" t="s">
-        <v>677</v>
+      <c r="A149" s="67" t="s">
+        <v>676</v>
       </c>
       <c r="B149" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C149" s="77" t="s">
+      <c r="C149" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D149" s="77" t="s">
+      <c r="D149" s="76" t="s">
         <v>74</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F149" s="49"/>
       <c r="G149" s="39" t="s">
         <v>76</v>
       </c>
       <c r="H149" s="39" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="68" t="s">
-        <v>680</v>
+      <c r="A150" s="67" t="s">
+        <v>679</v>
       </c>
       <c r="B150" s="55" t="s">
         <v>79</v>
@@ -14218,92 +14142,92 @@
       <c r="C150" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D150" s="77" t="s">
+      <c r="D150" s="76" t="s">
         <v>81</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="39" t="s">
         <v>76</v>
       </c>
       <c r="H150" s="39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="68" t="s">
-        <v>683</v>
+      <c r="A151" s="67" t="s">
+        <v>682</v>
       </c>
       <c r="B151" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C151" s="77" t="s">
+      <c r="C151" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="77" t="s">
+      <c r="D151" s="76" t="s">
         <v>520</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="39" t="s">
         <v>97</v>
       </c>
       <c r="H151" s="96" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="68" t="s">
-        <v>686</v>
+      <c r="A152" s="67" t="s">
+        <v>685</v>
       </c>
       <c r="B152" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C152" s="77" t="s">
+      <c r="C152" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D152" s="77" t="s">
+      <c r="D152" s="76" t="s">
         <v>102</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="49" t="s">
         <v>104</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="68" t="s">
-        <v>689</v>
+      <c r="A153" s="67" t="s">
+        <v>688</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C153" s="77" t="s">
+      <c r="C153" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="D153" s="77" t="s">
+      <c r="D153" s="76" t="s">
         <v>122</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F153" s="49"/>
       <c r="G153" s="49" t="s">
@@ -14317,20 +14241,20 @@
       <c r="K153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="68" t="s">
-        <v>691</v>
+      <c r="A154" s="67" t="s">
+        <v>690</v>
       </c>
       <c r="B154" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C154" s="77" t="s">
+      <c r="C154" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="D154" s="77" t="s">
+      <c r="D154" s="76" t="s">
         <v>116</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="49" t="s">
@@ -14344,49 +14268,49 @@
       <c r="K154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="68" t="s">
-        <v>693</v>
+      <c r="A155" s="67" t="s">
+        <v>692</v>
       </c>
       <c r="B155" s="55" t="s">
         <v>535</v>
       </c>
-      <c r="C155" s="77" t="s">
+      <c r="C155" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D155" s="77" t="s">
+      <c r="D155" s="76" t="s">
         <v>137</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F155" s="49"/>
       <c r="G155" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="H155" s="127" t="s">
-        <v>695</v>
+      <c r="H155" s="126" t="s">
+        <v>694</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="68" t="s">
-        <v>696</v>
+      <c r="A156" s="67" t="s">
+        <v>695</v>
       </c>
       <c r="B156" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C156" s="77" t="s">
+      <c r="C156" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="D156" s="77" t="s">
+      <c r="D156" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="E156" s="77" t="s">
-        <v>697</v>
-      </c>
-      <c r="F156" s="77"/>
+      <c r="E156" s="76" t="s">
+        <v>696</v>
+      </c>
+      <c r="F156" s="76"/>
       <c r="G156" s="49" t="s">
         <v>532</v>
       </c>
@@ -14398,45 +14322,45 @@
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="90" t="s">
+      <c r="A157" s="89" t="s">
+        <v>697</v>
+      </c>
+      <c r="B157" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="C157" s="127" t="s">
         <v>699</v>
       </c>
-      <c r="C157" s="128" t="s">
+      <c r="D157" s="127" t="s">
         <v>700</v>
       </c>
-      <c r="D157" s="128" t="s">
+      <c r="E157" s="128" t="s">
         <v>701</v>
       </c>
-      <c r="E157" s="129" t="s">
+      <c r="F157" s="128"/>
+      <c r="G157" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="F157" s="129"/>
-      <c r="G157" s="39" t="s">
+      <c r="H157" s="129" t="s">
         <v>703</v>
-      </c>
-      <c r="H157" s="130" t="s">
-        <v>704</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="90" t="s">
+      <c r="A158" s="89" t="s">
+        <v>704</v>
+      </c>
+      <c r="B158" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="C158" s="130" t="s">
+        <v>431</v>
+      </c>
+      <c r="D158" s="68"/>
+      <c r="E158" s="56" t="s">
         <v>706</v>
-      </c>
-      <c r="C158" s="131" t="s">
-        <v>431</v>
-      </c>
-      <c r="D158" s="69"/>
-      <c r="E158" s="56" t="s">
-        <v>707</v>
       </c>
       <c r="F158" s="56"/>
       <c r="G158" s="56"/>
@@ -14447,22 +14371,22 @@
     </row>
     <row r="159">
       <c r="A159" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="B159" s="47" t="s">
         <v>708</v>
       </c>
-      <c r="B159" s="47" t="s">
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="56" t="s">
         <v>709</v>
-      </c>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="56" t="s">
-        <v>710</v>
       </c>
       <c r="F159" s="56"/>
       <c r="G159" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="H159" s="56" t="s">
         <v>711</v>
-      </c>
-      <c r="H159" s="56" t="s">
-        <v>712</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
@@ -14470,15 +14394,15 @@
     </row>
     <row r="160">
       <c r="A160" s="48" t="s">
+        <v>712</v>
+      </c>
+      <c r="B160" s="47" t="s">
         <v>713</v>
       </c>
-      <c r="B160" s="47" t="s">
-        <v>714</v>
-      </c>
-      <c r="C160" s="69" t="s">
+      <c r="C160" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="69"/>
+      <c r="D160" s="68"/>
       <c r="E160" s="56"/>
       <c r="F160" s="56"/>
       <c r="G160" s="56"/>
@@ -14488,185 +14412,185 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="68" t="s">
+      <c r="A161" s="67" t="s">
+        <v>714</v>
+      </c>
+      <c r="B161" s="69" t="s">
         <v>715</v>
       </c>
-      <c r="B161" s="70" t="s">
+      <c r="C161" s="68"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="68" t="s">
         <v>716</v>
       </c>
-      <c r="C161" s="69"/>
-      <c r="D161" s="69"/>
-      <c r="E161" s="69" t="s">
+      <c r="F161" s="68"/>
+      <c r="G161" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="H161" s="131" t="s">
         <v>717</v>
-      </c>
-      <c r="F161" s="69"/>
-      <c r="G161" s="69" t="s">
-        <v>711</v>
-      </c>
-      <c r="H161" s="132" t="s">
-        <v>718</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="68" t="s">
+      <c r="A162" s="67" t="s">
+        <v>718</v>
+      </c>
+      <c r="B162" s="69" t="s">
         <v>719</v>
       </c>
-      <c r="B162" s="70" t="s">
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="68" t="s">
         <v>720</v>
       </c>
-      <c r="C162" s="69"/>
-      <c r="D162" s="69"/>
-      <c r="E162" s="69" t="s">
+      <c r="F162" s="68"/>
+      <c r="G162" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="H162" s="68" t="s">
         <v>721</v>
-      </c>
-      <c r="F162" s="69"/>
-      <c r="G162" s="69" t="s">
-        <v>711</v>
-      </c>
-      <c r="H162" s="69" t="s">
-        <v>722</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="68" t="s">
+      <c r="A163" s="67" t="s">
+        <v>722</v>
+      </c>
+      <c r="B163" s="69" t="s">
         <v>723</v>
       </c>
-      <c r="B163" s="70" t="s">
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68" t="s">
         <v>724</v>
       </c>
-      <c r="C163" s="69"/>
-      <c r="D163" s="69"/>
-      <c r="E163" s="69" t="s">
+      <c r="F163" s="68"/>
+      <c r="G163" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="H163" s="132" t="s">
         <v>725</v>
-      </c>
-      <c r="F163" s="69"/>
-      <c r="G163" s="69" t="s">
-        <v>711</v>
-      </c>
-      <c r="H163" s="133" t="s">
-        <v>726</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="68" t="s">
+      <c r="A164" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="B164" s="69" t="s">
         <v>727</v>
       </c>
-      <c r="B164" s="70" t="s">
+      <c r="C164" s="68"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="68" t="s">
         <v>728</v>
       </c>
-      <c r="C164" s="69"/>
-      <c r="D164" s="69"/>
-      <c r="E164" s="69" t="s">
+      <c r="F164" s="68"/>
+      <c r="G164" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="H164" s="132" t="s">
         <v>729</v>
-      </c>
-      <c r="F164" s="69"/>
-      <c r="G164" s="69" t="s">
-        <v>711</v>
-      </c>
-      <c r="H164" s="133" t="s">
-        <v>730</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="90" t="s">
+      <c r="A165" s="89" t="s">
+        <v>730</v>
+      </c>
+      <c r="B165" s="133" t="s">
         <v>731</v>
       </c>
-      <c r="B165" s="134" t="s">
-        <v>732</v>
-      </c>
-      <c r="C165" s="131" t="s">
+      <c r="C165" s="130" t="s">
         <v>431</v>
       </c>
-      <c r="D165" s="69"/>
-      <c r="E165" s="69"/>
-      <c r="F165" s="69"/>
-      <c r="G165" s="69"/>
-      <c r="H165" s="69"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="68"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
     <row r="166">
       <c r="A166" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="B166" s="75" t="s">
         <v>733</v>
       </c>
-      <c r="B166" s="76" t="s">
+      <c r="C166" s="134" t="s">
+        <v>447</v>
+      </c>
+      <c r="D166" s="68"/>
+      <c r="E166" s="68" t="s">
         <v>734</v>
       </c>
-      <c r="C166" s="135" t="s">
-        <v>447</v>
-      </c>
-      <c r="D166" s="69"/>
-      <c r="E166" s="69" t="s">
+      <c r="F166" s="68"/>
+      <c r="G166" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="H166" s="135" t="s">
         <v>735</v>
-      </c>
-      <c r="F166" s="69"/>
-      <c r="G166" s="69" t="s">
-        <v>711</v>
-      </c>
-      <c r="H166" s="136" t="s">
-        <v>736</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="90" t="s">
+      <c r="A167" s="89" t="s">
+        <v>736</v>
+      </c>
+      <c r="B167" s="133" t="s">
         <v>737</v>
       </c>
-      <c r="B167" s="134" t="s">
-        <v>738</v>
-      </c>
-      <c r="C167" s="131" t="s">
+      <c r="C167" s="130" t="s">
         <v>431</v>
       </c>
-      <c r="D167" s="69"/>
-      <c r="E167" s="69"/>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="69"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="68"/>
+      <c r="F167" s="68"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="68"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
     <row r="168">
       <c r="A168" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="B168" s="75" t="s">
         <v>739</v>
       </c>
-      <c r="B168" s="76" t="s">
+      <c r="C168" s="130" t="s">
         <v>740</v>
       </c>
-      <c r="C168" s="131" t="s">
+      <c r="D168" s="68" t="s">
         <v>741</v>
       </c>
-      <c r="D168" s="69" t="s">
+      <c r="E168" s="136" t="s">
         <v>742</v>
       </c>
-      <c r="E168" s="137" t="s">
+      <c r="F168" s="68"/>
+      <c r="G168" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="F168" s="69"/>
-      <c r="G168" s="69" t="s">
+      <c r="H168" s="132" t="s">
         <v>744</v>
       </c>
-      <c r="H168" s="133" t="s">
+      <c r="I168" s="6" t="s">
         <v>745</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>746</v>
       </c>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
@@ -14776,87 +14700,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="138" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="76" t="s">
         <v>748</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="39" t="s">
         <v>750</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" s="80" t="s">
         <v>747</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="C3" s="76" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>749</v>
-      </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>752</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>754</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>755</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="E4" s="39" t="s">
         <v>756</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>757</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>759</v>
+      <c r="B5" s="80" t="s">
+        <v>758</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>419</v>
@@ -14868,73 +14792,73 @@
         <v>426</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
+        <v>759</v>
+      </c>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>496</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>497</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>762</v>
-      </c>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="140"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="140"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
         <v>541</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>543</v>
@@ -14943,10 +14867,10 @@
         <v>544</v>
       </c>
       <c r="E7" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>764</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="8">
@@ -18950,108 +18874,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="141" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="142" t="s">
         <v>766</v>
       </c>
-      <c r="B2" s="143" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="143" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="144" t="s">
+      <c r="B3" s="142" t="s">
         <v>768</v>
       </c>
-      <c r="B3" s="143" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="144" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="145" t="s">
+    <row r="6">
+      <c r="A6" s="145" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="146" t="s">
+      <c r="B6" s="142" t="s">
         <v>771</v>
       </c>
-      <c r="B6" s="143" t="s">
+    </row>
+    <row r="7">
+      <c r="B7" s="142" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="143" t="s">
+    <row r="8">
+      <c r="B8" s="142"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="142"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="145" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="143"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="143"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="146" t="s">
+    <row r="11">
+      <c r="A11" s="145" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="146" t="s">
+      <c r="B11" s="146" t="s">
         <v>775</v>
       </c>
-      <c r="B11" s="147" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="147" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="148" t="s">
+    <row r="13">
+      <c r="A13" s="148"/>
+      <c r="B13" s="149" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="149"/>
-      <c r="B13" s="150" t="s">
+    <row r="14">
+      <c r="B14" s="150" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="151" t="s">
+    <row r="15">
+      <c r="B15" s="151" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="152" t="s">
+    <row r="16">
+      <c r="B16" s="152" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="153" t="s">
+    <row r="17">
+      <c r="A17" s="145"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="145" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="146"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="146" t="s">
+      <c r="B18" s="153" t="s">
         <v>782</v>
-      </c>
-      <c r="B18" s="154" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B19" s="154"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="145" t="s">
         <v>784</v>
       </c>
-      <c r="B19" s="155"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="146" t="s">
+      <c r="B21" s="155" t="s">
         <v>785</v>
-      </c>
-      <c r="B21" s="156" t="s">
-        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -19077,62 +19001,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="157" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -19158,59 +19077,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B1" s="158" t="s">
+        <v>786</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="157" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="159" t="s">
+    <row r="3">
+      <c r="A3" s="157" t="s">
         <v>800</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="157" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="159" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="157" t="s">
         <v>802</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="159" t="s">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="157" t="s">
         <v>803</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="159" t="s">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="157" t="s">
         <v>804</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="159" t="s">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="157" t="s">
         <v>805</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="159" t="s">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="158" t="s">
         <v>806</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="159" t="s">
-        <v>807</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="160" t="s">
-        <v>808</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -19230,7 +19149,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="147"/>
+      <c r="A1" s="146"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19254,36 +19173,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="159" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1" s="159" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="145" t="s">
         <v>809</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="B2" s="145" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="146" t="s">
+      <c r="C2" s="145" t="s">
         <v>811</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="D2" s="145" t="s">
         <v>812</v>
-      </c>
-      <c r="C2" s="146" t="s">
-        <v>813</v>
-      </c>
-      <c r="D2" s="146" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>815</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>816</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19314,13 +19233,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19351,13 +19270,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -19385,16 +19304,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>823</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -19421,16 +19340,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D7" s="160" t="s">
         <v>824</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>826</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -19457,16 +19376,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -19492,220 +19411,220 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="161" t="s">
+        <v>828</v>
+      </c>
+      <c r="B9" s="162" t="s">
+        <v>829</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="D9" s="162" t="s">
         <v>830</v>
       </c>
-      <c r="B9" s="164" t="s">
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="161" t="s">
         <v>831</v>
       </c>
-      <c r="C9" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="D9" s="164" t="s">
+      <c r="B10" s="162" t="s">
+        <v>829</v>
+      </c>
+      <c r="C10" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="D10" s="162" t="s">
         <v>832</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="163" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="B10" s="164" t="s">
-        <v>831</v>
-      </c>
-      <c r="C10" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="D10" s="164" t="s">
+      <c r="B11" s="162" t="s">
         <v>834</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="163" t="s">
+      <c r="C11" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="D11" s="162" t="s">
         <v>835</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="161" t="s">
         <v>836</v>
       </c>
-      <c r="C11" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="D11" s="164" t="s">
+      <c r="B12" s="162" t="s">
+        <v>834</v>
+      </c>
+      <c r="C12" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="D12" s="162" t="s">
         <v>837</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="163" t="s">
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="161" t="s">
         <v>838</v>
       </c>
-      <c r="B12" s="164" t="s">
-        <v>836</v>
-      </c>
-      <c r="C12" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="D12" s="164" t="s">
+      <c r="B13" s="161" t="s">
+        <v>818</v>
+      </c>
+      <c r="C13" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="D13" s="162" t="s">
         <v>839</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="163" t="s">
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="162"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="161" t="s">
         <v>840</v>
       </c>
-      <c r="B13" s="163" t="s">
-        <v>820</v>
-      </c>
-      <c r="C13" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="D13" s="164" t="s">
+      <c r="B14" s="161" t="s">
+        <v>818</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>815</v>
+      </c>
+      <c r="D14" s="162" t="s">
         <v>841</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="163" t="s">
-        <v>842</v>
-      </c>
-      <c r="B14" s="163" t="s">
-        <v>820</v>
-      </c>
-      <c r="C14" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="D14" s="164" t="s">
-        <v>843</v>
-      </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="164"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="164"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="162"/>
+      <c r="U14" s="162"/>
+      <c r="V14" s="162"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="162"/>
+      <c r="Z14" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19733,52 +19652,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="159" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="145" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="146" t="s">
+      <c r="B2" s="145" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2" s="145" t="s">
         <v>811</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="D2" s="145" t="s">
         <v>812</v>
       </c>
-      <c r="C2" s="146" t="s">
-        <v>813</v>
-      </c>
-      <c r="D2" s="146" t="s">
-        <v>814</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="142" t="s">
+        <v>842</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="142" t="s">
         <v>844</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B4" s="142" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="143" t="s">
+    <row r="5">
+      <c r="A5" s="142" t="s">
         <v>846</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B5" s="142" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="143" t="s">
+      <c r="C5" s="163" t="s">
+        <v>845</v>
+      </c>
+      <c r="D5" s="142" t="s">
         <v>848</v>
-      </c>
-      <c r="B5" s="143" t="s">
-        <v>849</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>847</v>
-      </c>
-      <c r="D5" s="143" t="s">
-        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.0</t>
+    <t>6.4.0</t>
   </si>
   <si>
     <r>
@@ -731,7 +731,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -785,7 +785,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -845,7 +845,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -902,7 +902,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -959,7 +959,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3399,7 +3399,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -3440,7 +3440,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -3485,7 +3485,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3529,7 +3529,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3570,7 +3570,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4130,7 +4130,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4170,7 +4170,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4210,7 +4210,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4253,7 +4253,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4403,7 +4403,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4448,7 +4448,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4493,7 +4493,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4538,7 +4538,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4706,7 +4706,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4751,7 +4751,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4793,7 +4793,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4836,7 +4836,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.5.0</t>
+    <t>6.5.1</t>
   </si>
   <si>
     <r>
@@ -2345,7 +2345,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/DURATION</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Duration / xsd:decimal</t>
+    <t>epo:Lot / epo:ContractTerm / epo:SpecificDuration / xsd:decimal</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2361,7 +2361,7 @@
     <t xml:space="preserve">If(.="MONTH") </t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Duration / time:TemporalUnit</t>
+    <t>epo:Lot / epo:ContractTerm / epo:SpecificDuration / time:TemporalUnit</t>
   </si>
   <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:definesContractDuration / time:unitType time:unitMonth.</t>
@@ -11659,7 +11659,7 @@
         <v>326</v>
       </c>
       <c r="F59" s="56"/>
-      <c r="G59" s="56" t="s">
+      <c r="G59" s="57" t="s">
         <v>327</v>
       </c>
       <c r="H59" s="56" t="s">
@@ -11689,7 +11689,7 @@
       <c r="F60" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="G60" s="56" t="s">
+      <c r="G60" s="57" t="s">
         <v>332</v>
       </c>
       <c r="H60" s="56" t="s">
@@ -11719,7 +11719,7 @@
       <c r="F61" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="G61" s="56" t="s">
+      <c r="G61" s="57" t="s">
         <v>332</v>
       </c>
       <c r="H61" s="56" t="s">

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="854">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.6.0</t>
+    <t>6.6.1</t>
   </si>
   <si>
     <r>
@@ -2603,7 +2603,7 @@
     <t>PROCEDURE/PT_AWARD_CONTRACT_WITH_PRIOR_PUBLICATION</t>
   </si>
   <si>
-    <t>If(exists(.))</t>
+    <t>If(exists(PROCEDURE/NOTICE_NUMBER_OJ))</t>
   </si>
   <si>
     <t>epo:ResultNotice / epo:CompetitionNotice</t>
@@ -2612,13 +2612,28 @@
     <t>?this epo:refersToPrevious ?value .</t>
   </si>
   <si>
-    <t>IV.1.1.2</t>
-  </si>
-  <si>
-    <t>Award procedure without prior publication of a concession notice in the cases listed below (please complete Annex D4)</t>
-  </si>
-  <si>
-    <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">The meaning of this mapping is that the </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>previous</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> Notice instance, which we create when we map the `PROCEDURE/NOTICE_NUMBER_OJ` XPath, will get a secondary rdf:type : epo:CompetitionNotice.</t>
+    </r>
   </si>
   <si>
     <t>epo:Procedure / at-voc:procurement-procedure-type</t>
@@ -2645,7 +2660,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-wo-call</t>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/open</t>
     </r>
     <r>
       <rPr>
@@ -2656,280 +2671,12 @@
     </r>
   </si>
   <si>
-    <t>IV.1.8</t>
-  </si>
-  <si>
-    <t>Information about the Government Procurement Agreement (GPA)</t>
-  </si>
-  <si>
-    <t>BT-115</t>
-  </si>
-  <si>
-    <t>GPA Coverage</t>
-  </si>
-  <si>
-    <t>PROCEDURE/CONTRACT_COVERED_GPA</t>
-  </si>
-  <si>
-    <t>epo:Procedure / xsd:boolean</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isCoveredByGPA </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>PROCEDURE/NO_CONTRACT_COVERED_GPA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isCoveredByGPA </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.2</t>
-  </si>
-  <si>
-    <t>Administrative information</t>
-  </si>
-  <si>
-    <t>IV.2.1</t>
-  </si>
-  <si>
-    <t>Previous publication concerning this procedure</t>
-  </si>
-  <si>
-    <t>PROCEDURE/NOTICE_NUMBER_OJ</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:Notice /  epo:Identifier / xsd:string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">?this </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>Section V</t>
-  </si>
-  <si>
-    <t>Award of concession</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:describesLot ?value</t>
-  </si>
-  <si>
-    <t>V.0.3</t>
-  </si>
-  <si>
-    <t>BT-721</t>
-  </si>
-  <si>
-    <t>Contract Title</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/TITLE</t>
-  </si>
-  <si>
-    <t>if(exists(AWARDED_CONTRACT))</t>
-  </si>
-  <si>
-    <t>epo:Contract / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasTitle </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.0.4</t>
-  </si>
-  <si>
-    <t>A concession/lot is awarded</t>
-  </si>
-  <si>
-    <t>BT-142</t>
-  </si>
-  <si>
-    <t>Winner Chosen</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
-  </si>
-  <si>
-    <t>?this epo:resultsFromLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .</t>
-  </si>
-  <si>
-    <t>epo:Contract</t>
-  </si>
-  <si>
-    <t>?this a epo:ConcessionContract .</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / at-voc:winner-selection-status</t>
-  </si>
-  <si>
-    <t>?this epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .</t>
-  </si>
-  <si>
-    <t>V.1</t>
-  </si>
-  <si>
-    <t>Information on non-award</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>V.1.1</t>
-  </si>
-  <si>
-    <t>The concession/lot is not awarded</t>
-  </si>
-  <si>
-    <t>V.1.1.1</t>
-  </si>
-  <si>
-    <t>No tenders or requests to participate were received or all were rejected</t>
-  </si>
-  <si>
-    <t>BT-144</t>
-  </si>
-  <si>
-    <t>Not Awarded Reason</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_UNSUCCESSFUL</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / at-voc:non-award-justification</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this epo:hasNonAwardJustification &lt;</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">This is an interim solution until more appropriate terms will be provided in the at-voc:procurement-procedure-type vocabulary.
+See comments on EPO GH issue #424: </t>
     </r>
     <r>
       <rPr>
@@ -2937,30 +2684,14 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>http://publications.europa.eu/resource/authority/non-award-justification/none-rej</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.1.1.2</t>
-  </si>
-  <si>
-    <t>Other reasons (discontinuation of procedure)</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this epo:hasNonAwardJustification &lt;</t>
+      <t>https://github.com/OP-TED/ePO/issues/424#issuecomment-1386886542</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 
+and on Mappings GH issue #260: </t>
     </r>
     <r>
       <rPr>
@@ -2968,6 +2699,403 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
+      <t>https://github.com/OP-TED/ted-rdf-mapping/issues/255#issuecomment-1386847</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">021 </t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.1.2</t>
+  </si>
+  <si>
+    <t>Award procedure without prior publication of a concession notice in the cases listed below (please complete Annex D4)</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-wo-call</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">This is an interim solution until more appropriate terms will be provided in the at-voc:procurement-procedure-type vocabulary.
+See comments on EPO GH issue #424: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/OP-TED/ePO/issues/424#issuecomment-1386886542</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 
+and on Mappings GH issue #260: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/OP-TED/ted-rdf-mapping/issues/255#issuecomment-1386847</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">021 </t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.8</t>
+  </si>
+  <si>
+    <t>Information about the Government Procurement Agreement (GPA)</t>
+  </si>
+  <si>
+    <t>BT-115</t>
+  </si>
+  <si>
+    <t>GPA Coverage</t>
+  </si>
+  <si>
+    <t>PROCEDURE/CONTRACT_COVERED_GPA</t>
+  </si>
+  <si>
+    <t>epo:Procedure / xsd:boolean</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isCoveredByGPA </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>PROCEDURE/NO_CONTRACT_COVERED_GPA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isCoveredByGPA </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.2</t>
+  </si>
+  <si>
+    <t>Administrative information</t>
+  </si>
+  <si>
+    <t>IV.2.1</t>
+  </si>
+  <si>
+    <t>Previous publication concerning this procedure</t>
+  </si>
+  <si>
+    <t>PROCEDURE/NOTICE_NUMBER_OJ</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:Notice /  epo:Identifier / xsd:string</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">?this </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>Section V</t>
+  </si>
+  <si>
+    <t>Award of concession</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:describesLot ?value</t>
+  </si>
+  <si>
+    <t>V.0.3</t>
+  </si>
+  <si>
+    <t>BT-721</t>
+  </si>
+  <si>
+    <t>Contract Title</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/TITLE</t>
+  </si>
+  <si>
+    <t>if(exists(AWARDED_CONTRACT))</t>
+  </si>
+  <si>
+    <t>epo:Contract / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasTitle </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.0.4</t>
+  </si>
+  <si>
+    <t>A concession/lot is awarded</t>
+  </si>
+  <si>
+    <t>BT-142</t>
+  </si>
+  <si>
+    <t>Winner Chosen</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
+  </si>
+  <si>
+    <t>?this epo:resultsFromLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .</t>
+  </si>
+  <si>
+    <t>epo:Contract</t>
+  </si>
+  <si>
+    <t>?this a epo:ConcessionContract .</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / at-voc:winner-selection-status</t>
+  </si>
+  <si>
+    <t>?this epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .</t>
+  </si>
+  <si>
+    <t>V.1</t>
+  </si>
+  <si>
+    <t>Information on non-award</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>V.1.1</t>
+  </si>
+  <si>
+    <t>The concession/lot is not awarded</t>
+  </si>
+  <si>
+    <t>V.1.1.1</t>
+  </si>
+  <si>
+    <t>No tenders or requests to participate were received or all were rejected</t>
+  </si>
+  <si>
+    <t>BT-144</t>
+  </si>
+  <si>
+    <t>Not Awarded Reason</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_UNSUCCESSFUL</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / at-voc:non-award-justification</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?this epo:hasNonAwardJustification &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/non-award-justification/none-rej</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.1.1.2</t>
+  </si>
+  <si>
+    <t>Other reasons (discontinuation of procedure)</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?this epo:hasNonAwardJustification &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
       <t>http://publications.europa.eu/resource/authority/non-award-justification/other</t>
     </r>
     <r>
@@ -2987,7 +3115,7 @@
     <t>no match</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT/@PUBLICATION</t>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / rdf:langString</t>
@@ -3143,7 +3271,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3151,14 +3278,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasReceivedSMETenders ?</t>
     </r>
@@ -3166,7 +3291,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3223,6 +3347,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3230,12 +3355,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">this </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>epo:hasReceivedNonEUTenders ?</t>
     </r>
@@ -3243,6 +3370,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3342,7 +3470,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3350,14 +3477,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasID / epo:hasIdentifierValue ?</t>
     </r>
@@ -3365,14 +3490,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3559,6 +3682,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3566,12 +3690,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -3579,12 +3705,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3629,6 +3757,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -3636,12 +3765,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4074,7 +4205,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4082,14 +4212,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -4097,14 +4225,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4199,6 +4325,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4206,12 +4333,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
@@ -4219,12 +4348,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4737,7 +4868,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4745,14 +4875,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
@@ -4760,14 +4888,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4782,6 +4908,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4789,12 +4916,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
@@ -4802,12 +4931,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4879,6 +5010,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -4886,12 +5018,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5586,6 +5720,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -5608,11 +5748,6 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -5850,7 +5985,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5953,13 +6088,13 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -6068,6 +6203,9 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -6076,9 +6214,6 @@
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6107,10 +6242,10 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6122,10 +6257,7 @@
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6137,59 +6269,47 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -6212,11 +6332,11 @@
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -6246,6 +6366,9 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -9835,10 +9958,10 @@
       <c r="H3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="4" t="s">
         <v>48</v>
       </c>
@@ -9863,8 +9986,8 @@
       <c r="F4" s="4"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="6"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -9875,15 +9998,15 @@
       <c r="R4" s="27"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="36" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="4"/>
@@ -9893,8 +10016,8 @@
       <c r="H5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
@@ -9927,10 +10050,10 @@
       <c r="H6" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="6"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
@@ -9963,10 +10086,10 @@
       <c r="H7" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="6"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
@@ -9993,14 +10116,14 @@
         <v>76</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="6"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -10027,14 +10150,14 @@
         <v>83</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="6"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
@@ -10069,8 +10192,8 @@
       <c r="H10" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="6"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -10097,14 +10220,14 @@
         <v>97</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="6"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -10137,8 +10260,8 @@
       <c r="H12" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="6"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -10171,10 +10294,10 @@
       <c r="H13" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="6"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -10207,8 +10330,8 @@
       <c r="H14" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="6"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -10241,8 +10364,8 @@
       <c r="H15" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="6"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -10275,8 +10398,8 @@
       <c r="H16" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="6"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -10297,10 +10420,10 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="6"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -10333,8 +10456,8 @@
       <c r="H18" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="6"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -10361,14 +10484,14 @@
         <v>145</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="36" t="s">
         <v>146</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="6"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -10379,10 +10502,10 @@
       <c r="R19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="38" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="55" t="s">
@@ -10401,8 +10524,8 @@
       <c r="H20" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="6" t="s">
         <v>155</v>
       </c>
@@ -10443,10 +10566,10 @@
       <c r="R21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C22" s="56" t="s">
@@ -10465,8 +10588,8 @@
       <c r="H22" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="6" t="s">
         <v>155</v>
       </c>
@@ -10515,10 +10638,10 @@
       <c r="Z23" s="60"/>
     </row>
     <row r="24">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>171</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -10537,8 +10660,8 @@
       <c r="H24" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="6"/>
       <c r="L24" s="59"/>
       <c r="M24" s="59"/>
@@ -10573,8 +10696,8 @@
       <c r="H25" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="6"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -10609,20 +10732,20 @@
       <c r="R26" s="27"/>
     </row>
     <row r="27">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>180</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="6"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
@@ -10649,16 +10772,16 @@
         <v>183</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="6"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
@@ -10729,7 +10852,7 @@
         <v>197</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="36" t="s">
         <v>198</v>
       </c>
       <c r="H30" s="39" t="s">
@@ -10763,10 +10886,10 @@
         <v>204</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="36" t="s">
         <v>199</v>
       </c>
       <c r="I31" s="4"/>
@@ -10797,10 +10920,10 @@
         <v>210</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="36" t="s">
         <v>212</v>
       </c>
       <c r="I32" s="4"/>
@@ -10837,7 +10960,7 @@
       <c r="H33" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="36" t="s">
         <v>63</v>
       </c>
       <c r="J33" s="4"/>
@@ -11007,7 +11130,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="36" t="s">
         <v>240</v>
       </c>
       <c r="F39" s="4"/>
@@ -11169,10 +11292,10 @@
       <c r="R43" s="27"/>
     </row>
     <row r="44">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="4"/>
@@ -11181,10 +11304,10 @@
         <v>240</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="36" t="s">
         <v>266</v>
       </c>
       <c r="I44" s="6"/>
@@ -11251,7 +11374,7 @@
       <c r="H46" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="75" t="s">
         <v>63</v>
       </c>
       <c r="J46" s="6"/>
@@ -11287,7 +11410,7 @@
       <c r="H47" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J47" s="4"/>
@@ -11341,10 +11464,10 @@
         <v>283</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="36" t="s">
         <v>285</v>
       </c>
       <c r="I49" s="6"/>
@@ -11383,10 +11506,10 @@
         <v>287</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="36" t="s">
         <v>285</v>
       </c>
       <c r="I50" s="6"/>
@@ -11483,7 +11606,7 @@
       <c r="H53" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="75" t="s">
         <v>63</v>
       </c>
       <c r="J53" s="6"/>
@@ -11513,13 +11636,13 @@
         <v>307</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="75" t="s">
         <v>271</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="75" t="s">
         <v>63</v>
       </c>
       <c r="J54" s="6"/>
@@ -11541,10 +11664,10 @@
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="38"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -11557,10 +11680,10 @@
       <c r="R55" s="27"/>
     </row>
     <row r="56">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="76" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="77" t="s">
         <v>312</v>
       </c>
       <c r="C56" s="4"/>
@@ -11595,7 +11718,7 @@
       <c r="D57" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="36" t="s">
         <v>317</v>
       </c>
       <c r="F57" s="4"/>
@@ -11605,7 +11728,7 @@
       <c r="H57" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="75" t="s">
         <v>63</v>
       </c>
       <c r="J57" s="6"/>
@@ -11677,10 +11800,10 @@
       <c r="R59" s="27"/>
     </row>
     <row r="60">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="B60" s="77"/>
+      <c r="B60" s="78"/>
       <c r="C60" s="66"/>
       <c r="D60" s="66"/>
       <c r="E60" s="55" t="s">
@@ -11707,10 +11830,10 @@
       <c r="R60" s="27"/>
     </row>
     <row r="61">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="76" t="s">
         <v>334</v>
       </c>
-      <c r="B61" s="77"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
       <c r="E61" s="57" t="s">
@@ -11844,7 +11967,7 @@
       <c r="E65" s="74" t="s">
         <v>356</v>
       </c>
-      <c r="F65" s="78"/>
+      <c r="F65" s="75"/>
       <c r="G65" s="74" t="s">
         <v>357</v>
       </c>
@@ -11878,7 +12001,7 @@
       <c r="E66" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="F66" s="38"/>
+      <c r="F66" s="36"/>
       <c r="G66" s="48" t="s">
         <v>357</v>
       </c>
@@ -11919,7 +12042,7 @@
       <c r="H67" s="84" t="s">
         <v>366</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="75" t="s">
         <v>63</v>
       </c>
       <c r="J67" s="6"/>
@@ -11949,13 +12072,13 @@
         <v>371</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="75" t="s">
         <v>271</v>
       </c>
       <c r="H68" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="75" t="s">
         <v>63</v>
       </c>
       <c r="J68" s="6"/>
@@ -11977,7 +12100,7 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="36" t="s">
         <v>375</v>
       </c>
       <c r="F69" s="4"/>
@@ -11998,7 +12121,7 @@
       <c r="A70" s="87" t="s">
         <v>376</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="4"/>
@@ -12027,7 +12150,7 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="38"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -12051,21 +12174,23 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="F72" s="88" t="s">
+      <c r="F72" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G72" s="63" t="s">
+      <c r="G72" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H72" s="4" t="s">
         <v>384</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="K72" s="75" t="s">
+        <v>385</v>
+      </c>
       <c r="L72" s="27"/>
       <c r="M72" s="27"/>
       <c r="N72" s="27"/>
@@ -12076,26 +12201,28 @@
     </row>
     <row r="73">
       <c r="A73" s="65" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="38" t="s">
-        <v>387</v>
+      <c r="E73" s="57" t="s">
+        <v>381</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="H73" s="89" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="H73" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="K73" s="89" t="s">
+        <v>388</v>
+      </c>
       <c r="L73" s="27"/>
       <c r="M73" s="27"/>
       <c r="N73" s="27"/>
@@ -12105,31 +12232,29 @@
       <c r="R73" s="27"/>
     </row>
     <row r="74">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="F74" s="4"/>
+      <c r="G74" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="H74" s="88" t="s">
         <v>392</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="H74" s="70" t="s">
-        <v>396</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="K74" s="89" t="s">
+        <v>393</v>
+      </c>
       <c r="L74" s="27"/>
       <c r="M74" s="27"/>
       <c r="N74" s="27"/>
@@ -12139,27 +12264,27 @@
       <c r="R74" s="27"/>
     </row>
     <row r="75">
-      <c r="A75" s="90" t="s">
-        <v>390</v>
-      </c>
-      <c r="B75" s="91" t="s">
-        <v>391</v>
-      </c>
-      <c r="C75" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="D75" s="83" t="s">
-        <v>393</v>
+      <c r="A75" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>397</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H75" s="70" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -12173,18 +12298,28 @@
       <c r="R75" s="27"/>
     </row>
     <row r="76">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="90" t="s">
+        <v>394</v>
+      </c>
+      <c r="B76" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="C76" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="D76" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="B76" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="70" t="s">
+        <v>402</v>
+      </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -12197,27 +12332,19 @@
       <c r="R76" s="27"/>
     </row>
     <row r="77">
-      <c r="A77" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="B77" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="48" t="s">
+      <c r="A77" s="87" t="s">
         <v>403</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="48" t="s">
+      <c r="B77" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="H77" s="70" t="s">
-        <v>405</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="27"/>
@@ -12229,25 +12356,27 @@
       <c r="R77" s="27"/>
     </row>
     <row r="78">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="B78" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="B78" s="64" t="s">
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="92" t="s">
+      <c r="F78" s="35"/>
+      <c r="G78" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="I78" s="6"/>
+      <c r="I78" s="75" t="s">
+        <v>71</v>
+      </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="27"/>
@@ -12259,33 +12388,25 @@
       <c r="R78" s="27"/>
     </row>
     <row r="79">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="B79" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="B79" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="92" t="s">
         <v>412</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="F79" s="4"/>
+      <c r="G79" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="E79" s="48" t="s">
+      <c r="H79" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="F79" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H79" s="93" t="s">
-        <v>417</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="27"/>
@@ -12298,28 +12419,32 @@
     </row>
     <row r="80">
       <c r="A80" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="E80" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="F80" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="G80" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="H80" s="93" t="s">
         <v>421</v>
       </c>
-      <c r="E80" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H80" s="94" t="s">
-        <v>424</v>
-      </c>
-      <c r="I80" s="6"/>
+      <c r="I80" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="27"/>
@@ -12331,27 +12456,27 @@
       <c r="R80" s="27"/>
     </row>
     <row r="81">
-      <c r="A81" s="90" t="s">
-        <v>418</v>
-      </c>
-      <c r="B81" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="C81" s="83" t="s">
-        <v>420</v>
-      </c>
-      <c r="D81" s="95" t="s">
-        <v>421</v>
+      <c r="A81" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="C81" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>425</v>
       </c>
       <c r="E81" s="57" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F81" s="6"/>
-      <c r="G81" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H81" s="38" t="s">
-        <v>426</v>
+      <c r="G81" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>428</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -12366,26 +12491,26 @@
     </row>
     <row r="82">
       <c r="A82" s="90" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B82" s="91" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C82" s="83" t="s">
-        <v>420</v>
-      </c>
-      <c r="D82" s="83" t="s">
-        <v>421</v>
+        <v>424</v>
+      </c>
+      <c r="D82" s="94" t="s">
+        <v>425</v>
       </c>
       <c r="E82" s="57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H82" s="38" t="s">
+      <c r="G82" s="36" t="s">
         <v>429</v>
+      </c>
+      <c r="H82" s="36" t="s">
+        <v>430</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -12399,20 +12524,28 @@
       <c r="R82" s="27"/>
     </row>
     <row r="83">
-      <c r="A83" s="87" t="s">
-        <v>430</v>
-      </c>
-      <c r="B83" s="37" t="s">
+      <c r="A83" s="90" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="E83" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="C83" s="96" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="D83" s="48"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="H83" s="36" t="s">
+        <v>433</v>
+      </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -12425,16 +12558,16 @@
       <c r="R83" s="27"/>
     </row>
     <row r="84">
-      <c r="A84" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="B84" s="46" t="s">
+      <c r="A84" s="87" t="s">
         <v>434</v>
       </c>
-      <c r="C84" s="97" t="s">
-        <v>432</v>
-      </c>
-      <c r="D84" s="4"/>
+      <c r="B84" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C84" s="95" t="s">
+        <v>436</v>
+      </c>
+      <c r="D84" s="48"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -12451,28 +12584,20 @@
       <c r="R84" s="27"/>
     </row>
     <row r="85">
-      <c r="A85" s="65" t="s">
-        <v>435</v>
-      </c>
-      <c r="B85" s="54" t="s">
+      <c r="A85" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="C85" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="E85" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="F85" s="48"/>
-      <c r="G85" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H85" s="98" t="s">
-        <v>441</v>
-      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -12486,25 +12611,25 @@
     </row>
     <row r="86">
       <c r="A86" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="C86" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="D86" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="B86" s="54" t="s">
+      <c r="E86" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="C86" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="E86" s="48" t="s">
+      <c r="F86" s="48"/>
+      <c r="G86" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="F86" s="48"/>
-      <c r="G86" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H86" s="94" t="s">
+      <c r="H86" s="97" t="s">
         <v>445</v>
       </c>
       <c r="I86" s="6"/>
@@ -12525,184 +12650,188 @@
       <c r="B87" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="C87" s="99" t="s">
+      <c r="C87" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="E87" s="74" t="s">
         <v>448</v>
       </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="88" t="s">
+      <c r="F87" s="74"/>
+      <c r="G87" s="75" t="s">
+        <v>444</v>
+      </c>
+      <c r="H87" s="89" t="s">
         <v>449</v>
-      </c>
-      <c r="F87" s="88"/>
-      <c r="G87" s="88" t="s">
-        <v>450</v>
-      </c>
-      <c r="H87" s="100" t="s">
-        <v>451</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="87" t="s">
+      <c r="A88" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="C88" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="D88" s="48"/>
+      <c r="E88" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="C88" s="97" t="s">
-        <v>432</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="H88" s="39" t="s">
+        <v>455</v>
+      </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="B89" s="54"/>
-      <c r="C89" s="48"/>
+      <c r="A89" s="87" t="s">
+        <v>456</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="C89" s="96" t="s">
+        <v>436</v>
+      </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="H89" s="48" t="s">
-        <v>456</v>
-      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90">
       <c r="A90" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="B90" s="101"/>
+        <v>458</v>
+      </c>
+      <c r="B90" s="54"/>
       <c r="C90" s="48"/>
       <c r="D90" s="4"/>
       <c r="E90" s="57" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F90" s="48"/>
       <c r="G90" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="6" t="s">
-        <v>459</v>
-      </c>
+      <c r="K90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="B91" s="46" t="s">
+      <c r="A91" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="B91" s="99"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="F91" s="74"/>
+      <c r="G91" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="H91" s="48" t="s">
         <v>462</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="E91" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="H91" s="38" t="s">
-        <v>466</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+      <c r="K91" s="6" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="E92" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="C92" s="102"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="103" t="s">
-        <v>422</v>
-      </c>
-      <c r="F92" s="102"/>
-      <c r="G92" s="13" t="s">
+      <c r="F92" s="6"/>
+      <c r="G92" s="75" t="s">
         <v>469</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="75" t="s">
         <v>470</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>471</v>
-      </c>
+      <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="65" t="s">
+      <c r="A93" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="B93" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="B93" s="54" t="s">
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="100" t="s">
+        <v>426</v>
+      </c>
+      <c r="F93" s="101"/>
+      <c r="G93" s="74" t="s">
         <v>473</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="H93" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D93" s="74" t="s">
+      <c r="I93" s="75" t="s">
         <v>475</v>
       </c>
-      <c r="E93" s="74" t="s">
-        <v>476</v>
-      </c>
-      <c r="F93" s="74"/>
-      <c r="G93" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
     <row r="94">
       <c r="A94" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="D94" s="48" t="s">
         <v>479</v>
       </c>
-      <c r="B94" s="54" t="s">
+      <c r="E94" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48" t="s">
+      <c r="F94" s="48"/>
+      <c r="G94" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="4" t="s">
+      <c r="H94" s="35" t="s">
         <v>482</v>
-      </c>
-      <c r="H94" s="38" t="s">
-        <v>483</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -12710,21 +12839,21 @@
     </row>
     <row r="95">
       <c r="A95" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="B95" s="54" t="s">
         <v>484</v>
-      </c>
-      <c r="B95" s="54" t="s">
-        <v>485</v>
       </c>
       <c r="C95" s="48"/>
       <c r="D95" s="48"/>
       <c r="E95" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="H95" s="94" t="s">
+      <c r="H95" s="102" t="s">
         <v>487</v>
       </c>
       <c r="I95" s="6"/>
@@ -12744,10 +12873,10 @@
         <v>490</v>
       </c>
       <c r="F96" s="48"/>
-      <c r="G96" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="H96" s="94" t="s">
+      <c r="G96" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="H96" s="102" t="s">
         <v>491</v>
       </c>
       <c r="I96" s="6"/>
@@ -12767,10 +12896,10 @@
         <v>494</v>
       </c>
       <c r="F97" s="48"/>
-      <c r="G97" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="H97" s="4" t="s">
+      <c r="G97" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="H97" s="36" t="s">
         <v>495</v>
       </c>
       <c r="I97" s="6"/>
@@ -12784,150 +12913,146 @@
       <c r="B98" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="C98" s="104" t="s">
-        <v>498</v>
-      </c>
+      <c r="C98" s="48"/>
       <c r="D98" s="48"/>
       <c r="E98" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="H98" s="36" t="s">
         <v>499</v>
-      </c>
-      <c r="F98" s="38"/>
-      <c r="G98" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="H98" s="48" t="s">
-        <v>501</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="C99" s="103" t="s">
         <v>502</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="D99" s="48"/>
+      <c r="E99" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="C99" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="D99" s="48"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="H99" s="48" t="s">
+        <v>505</v>
+      </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="65" t="s">
-        <v>504</v>
-      </c>
-      <c r="B100" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E100" s="48" t="s">
-        <v>505</v>
-      </c>
+      <c r="A100" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="C100" s="95" t="s">
+        <v>436</v>
+      </c>
+      <c r="D100" s="48"/>
+      <c r="E100" s="36"/>
       <c r="F100" s="48"/>
-      <c r="G100" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H100" s="42" t="s">
-        <v>506</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
     <row r="101">
       <c r="A101" s="65" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D101" s="48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F101" s="48"/>
-      <c r="G101" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H101" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>71</v>
+      <c r="G101" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="I101" s="75" t="s">
+        <v>63</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102">
       <c r="A102" s="65" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F102" s="48"/>
-      <c r="G102" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H102" s="94" t="s">
-        <v>512</v>
-      </c>
-      <c r="I102" s="6"/>
+      <c r="G102" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="I102" s="75" t="s">
+        <v>71</v>
+      </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103">
       <c r="A103" s="65" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F103" s="48"/>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="94" t="s">
-        <v>515</v>
+      <c r="H103" s="102" t="s">
+        <v>516</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -12935,27 +13060,25 @@
     </row>
     <row r="104">
       <c r="A104" s="65" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B104" s="54" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D104" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E104" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="F104" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="G104" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H104" s="98" t="s">
+      <c r="F104" s="48"/>
+      <c r="G104" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" s="102" t="s">
         <v>519</v>
       </c>
       <c r="I104" s="6"/>
@@ -12967,22 +13090,24 @@
         <v>520</v>
       </c>
       <c r="B105" s="54" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D105" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="E105" s="48" t="s">
+      <c r="F105" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="F105" s="48"/>
-      <c r="G105" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H105" s="94" t="s">
+      <c r="G105" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H105" s="97" t="s">
         <v>523</v>
       </c>
       <c r="I105" s="6"/>
@@ -12994,23 +13119,23 @@
         <v>524</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D106" s="74" t="s">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="E106" s="74" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F106" s="74"/>
-      <c r="G106" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="H106" s="106" t="s">
-        <v>526</v>
+      <c r="G106" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="H106" s="89" t="s">
+        <v>527</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -13018,25 +13143,25 @@
     </row>
     <row r="107">
       <c r="A107" s="65" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D107" s="48" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F107" s="48"/>
-      <c r="G107" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="H107" s="48" t="s">
+      <c r="G107" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H107" s="42" t="s">
         <v>530</v>
       </c>
       <c r="I107" s="6"/>
@@ -13048,13 +13173,13 @@
         <v>531</v>
       </c>
       <c r="B108" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D108" s="48" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E108" s="48" t="s">
         <v>532</v>
@@ -13075,22 +13200,22 @@
         <v>535</v>
       </c>
       <c r="B109" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" s="74" t="s">
         <v>536</v>
       </c>
-      <c r="C109" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D109" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="E109" s="74" t="s">
+      <c r="F109" s="74"/>
+      <c r="G109" s="74" t="s">
         <v>537</v>
       </c>
-      <c r="F109" s="74"/>
-      <c r="G109" s="107" t="s">
-        <v>529</v>
-      </c>
-      <c r="H109" s="108" t="s">
+      <c r="H109" s="105" t="s">
         <v>538</v>
       </c>
       <c r="I109" s="6"/>
@@ -13102,23 +13227,23 @@
         <v>539</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>129</v>
+        <v>540</v>
+      </c>
+      <c r="C110" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F110" s="48"/>
-      <c r="G110" s="48" t="s">
+      <c r="G110" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="H110" s="48" t="s">
-        <v>541</v>
+      <c r="H110" s="44" t="s">
+        <v>542</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -13126,167 +13251,169 @@
     </row>
     <row r="111">
       <c r="A111" s="65" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B111" s="54" t="s">
-        <v>543</v>
+        <v>128</v>
       </c>
       <c r="C111" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="106" t="s">
         <v>544</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="F111" s="106"/>
+      <c r="G111" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H111" s="97" t="s">
         <v>545</v>
-      </c>
-      <c r="E111" s="109" t="s">
-        <v>546</v>
-      </c>
-      <c r="F111" s="110"/>
-      <c r="G111" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="H111" s="111" t="s">
-        <v>548</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="18"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="103" t="s">
+      <c r="A112" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F112" s="78"/>
-      <c r="G112" s="105" t="s">
+      <c r="B112" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D112" s="74" t="s">
         <v>549</v>
       </c>
-      <c r="H112" s="105" t="s">
+      <c r="E112" s="100" t="s">
         <v>550</v>
+      </c>
+      <c r="F112" s="75"/>
+      <c r="G112" s="75" t="s">
+        <v>551</v>
+      </c>
+      <c r="H112" s="107" t="s">
+        <v>552</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="B113" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="C113" s="97" t="s">
-        <v>432</v>
-      </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="57" t="s">
+        <v>550</v>
+      </c>
+      <c r="F113" s="36"/>
+      <c r="G113" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="H113" s="42" t="s">
+        <v>554</v>
+      </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="65" t="s">
-        <v>553</v>
-      </c>
-      <c r="B114" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="C114" s="48" t="s">
+      <c r="A114" s="47" t="s">
         <v>555</v>
       </c>
-      <c r="D114" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="E114" s="48" t="s">
+      <c r="B114" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="F114" s="48"/>
-      <c r="G114" s="35" t="s">
-        <v>557</v>
-      </c>
-      <c r="H114" s="48" t="s">
-        <v>558</v>
-      </c>
+      <c r="C114" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="75" t="s">
+      <c r="A115" s="65" t="s">
+        <v>557</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="C115" s="48" t="s">
         <v>559</v>
       </c>
-      <c r="B115" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="112" t="s">
+      <c r="D115" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="48" t="s">
         <v>560</v>
-      </c>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48" t="s">
-        <v>561</v>
       </c>
       <c r="F115" s="48"/>
       <c r="G115" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="H115" s="48" t="s">
         <v>562</v>
-      </c>
-      <c r="H115" s="48" t="s">
-        <v>563</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="65" t="s">
+      <c r="A116" s="76" t="s">
+        <v>563</v>
+      </c>
+      <c r="B116" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="108" t="s">
         <v>564</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="D116" s="74"/>
+      <c r="E116" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="C116" s="74" t="s">
+      <c r="F116" s="106"/>
+      <c r="G116" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="D116" s="74" t="s">
+      <c r="H116" s="74" t="s">
         <v>567</v>
-      </c>
-      <c r="E116" s="113" t="s">
-        <v>568</v>
-      </c>
-      <c r="F116" s="113"/>
-      <c r="G116" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="H116" s="78" t="s">
-        <v>570</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="75" t="s">
+      <c r="A117" s="65" t="s">
+        <v>568</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="D117" s="48" t="s">
         <v>571</v>
       </c>
-      <c r="B117" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C117" s="112" t="s">
-        <v>560</v>
-      </c>
-      <c r="D117" s="48"/>
-      <c r="E117" s="113" t="s">
+      <c r="E117" s="106" t="s">
         <v>572</v>
       </c>
-      <c r="F117" s="113"/>
-      <c r="G117" s="4" t="s">
+      <c r="F117" s="106"/>
+      <c r="G117" s="36" t="s">
         <v>573</v>
       </c>
-      <c r="H117" s="38" t="s">
+      <c r="H117" s="36" t="s">
         <v>574</v>
       </c>
       <c r="I117" s="6"/>
@@ -13294,47 +13421,47 @@
       <c r="K117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="65" t="s">
+      <c r="A118" s="76" t="s">
         <v>575</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="109" t="s">
+        <v>564</v>
+      </c>
+      <c r="D118" s="74"/>
+      <c r="E118" s="106" t="s">
         <v>576</v>
       </c>
-      <c r="C118" s="55" t="s">
+      <c r="F118" s="106"/>
+      <c r="G118" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="D118" s="66" t="s">
+      <c r="H118" s="75" t="s">
         <v>578</v>
-      </c>
-      <c r="E118" s="114" t="s">
-        <v>579</v>
-      </c>
-      <c r="F118" s="114"/>
-      <c r="G118" s="69" t="s">
-        <v>580</v>
-      </c>
-      <c r="H118" s="69" t="s">
-        <v>581</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="75" t="s">
+      <c r="A119" s="65" t="s">
+        <v>579</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="D119" s="55" t="s">
         <v>582</v>
       </c>
-      <c r="B119" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C119" s="115" t="s">
-        <v>560</v>
-      </c>
-      <c r="D119" s="55"/>
-      <c r="E119" s="114" t="s">
+      <c r="E119" s="110" t="s">
         <v>583</v>
       </c>
-      <c r="F119" s="55"/>
+      <c r="F119" s="110"/>
       <c r="G119" s="56" t="s">
         <v>584</v>
       </c>
@@ -13346,252 +13473,250 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="65" t="s">
+      <c r="A120" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="B120" s="54" t="s">
+      <c r="B120" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="111" t="s">
+        <v>564</v>
+      </c>
+      <c r="D120" s="66"/>
+      <c r="E120" s="110" t="s">
         <v>587</v>
       </c>
-      <c r="C120" s="66" t="s">
+      <c r="F120" s="112"/>
+      <c r="G120" s="56" t="s">
         <v>588</v>
       </c>
-      <c r="D120" s="66" t="s">
+      <c r="H120" s="56" t="s">
         <v>589</v>
-      </c>
-      <c r="E120" s="114" t="s">
-        <v>590</v>
-      </c>
-      <c r="F120" s="114"/>
-      <c r="G120" s="56" t="s">
-        <v>580</v>
-      </c>
-      <c r="H120" s="56" t="s">
-        <v>591</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="75" t="s">
+      <c r="A121" s="65" t="s">
+        <v>590</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="C121" s="66" t="s">
         <v>592</v>
       </c>
-      <c r="B121" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C121" s="116" t="s">
-        <v>560</v>
-      </c>
-      <c r="D121" s="66"/>
-      <c r="E121" s="117" t="s">
+      <c r="D121" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="F121" s="55"/>
+      <c r="E121" s="110" t="s">
+        <v>594</v>
+      </c>
+      <c r="F121" s="56"/>
       <c r="G121" s="56" t="s">
         <v>584</v>
       </c>
       <c r="H121" s="56" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="65" t="s">
-        <v>595</v>
-      </c>
-      <c r="B122" s="54" t="s">
+      <c r="A122" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C122" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="D122" s="66" t="s">
+      <c r="B122" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="111" t="s">
+        <v>564</v>
+      </c>
+      <c r="D122" s="66"/>
+      <c r="E122" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="E122" s="117" t="s">
+      <c r="F122" s="112"/>
+      <c r="G122" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="H122" s="56" t="s">
         <v>598</v>
-      </c>
-      <c r="F122" s="117"/>
-      <c r="G122" s="55" t="s">
-        <v>599</v>
-      </c>
-      <c r="H122" s="55" t="s">
-        <v>600</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="C123" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" s="66" t="s">
         <v>601</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="E123" s="112" t="s">
         <v>602</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="F123" s="112"/>
+      <c r="G123" s="55" t="s">
+        <v>603</v>
+      </c>
+      <c r="H123" s="55" t="s">
+        <v>604</v>
+      </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="87" t="s">
-        <v>603</v>
-      </c>
-      <c r="B124" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="C124" s="74" t="s">
-        <v>369</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E124" s="113" t="s">
-        <v>604</v>
-      </c>
-      <c r="F124" s="113"/>
-      <c r="G124" s="118" t="s">
-        <v>184</v>
-      </c>
-      <c r="H124" s="119" t="s">
+      <c r="A124" s="86" t="s">
         <v>605</v>
       </c>
-      <c r="I124" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="B124" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
     <row r="125">
       <c r="A125" s="87" t="s">
-        <v>606</v>
-      </c>
-      <c r="B125" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="C125" s="120" t="s">
-        <v>432</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="121"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="6"/>
+      <c r="B125" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="C125" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E125" s="106" t="s">
+        <v>608</v>
+      </c>
+      <c r="F125" s="106"/>
+      <c r="G125" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="H125" s="114" t="s">
+        <v>609</v>
+      </c>
+      <c r="I125" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="47" t="s">
-        <v>608</v>
-      </c>
-      <c r="B126" s="46" t="s">
-        <v>609</v>
-      </c>
-      <c r="C126" s="122" t="s">
-        <v>432</v>
+      <c r="A126" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="B126" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C126" s="115" t="s">
+        <v>436</v>
       </c>
       <c r="D126" s="6"/>
-      <c r="E126" s="110" t="s">
-        <v>610</v>
-      </c>
-      <c r="F126" s="113"/>
-      <c r="G126" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>611</v>
-      </c>
+      <c r="E126" s="116"/>
+      <c r="F126" s="116"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="65" t="s">
+      <c r="A127" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="B127" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C127" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D127" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="113" t="s">
+      <c r="B127" s="46" t="s">
         <v>613</v>
       </c>
-      <c r="F127" s="113"/>
-      <c r="G127" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H127" s="38" t="s">
+      <c r="C127" s="117" t="s">
+        <v>436</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="I127" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="F127" s="106"/>
+      <c r="G127" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
     <row r="128">
       <c r="A128" s="65" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B128" s="54" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C128" s="74" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D128" s="74" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F128" s="48"/>
-      <c r="G128" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H128" s="94" t="s">
-        <v>617</v>
-      </c>
-      <c r="I128" s="6"/>
+      <c r="G128" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H128" s="102" t="s">
+        <v>618</v>
+      </c>
+      <c r="I128" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
     <row r="129">
       <c r="A129" s="65" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B129" s="54" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C129" s="74" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D129" s="74" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F129" s="48"/>
-      <c r="G129" s="38" t="s">
+      <c r="G129" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H129" s="94" t="s">
-        <v>620</v>
+      <c r="H129" s="102" t="s">
+        <v>621</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -13599,26 +13724,26 @@
     </row>
     <row r="130">
       <c r="A130" s="65" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B130" s="54" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C130" s="74" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D130" s="74" t="s">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F130" s="48"/>
-      <c r="G130" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H130" s="94" t="s">
-        <v>623</v>
+      <c r="G130" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" s="102" t="s">
+        <v>624</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -13626,26 +13751,26 @@
     </row>
     <row r="131">
       <c r="A131" s="65" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B131" s="54" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C131" s="74" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D131" s="74" t="s">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="E131" s="74" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F131" s="74"/>
-      <c r="G131" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="H131" s="74" t="s">
-        <v>626</v>
+      <c r="G131" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="H131" s="75" t="s">
+        <v>627</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -13653,26 +13778,26 @@
     </row>
     <row r="132">
       <c r="A132" s="65" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B132" s="54" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C132" s="74" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D132" s="74" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F132" s="48"/>
       <c r="G132" s="48" t="s">
-        <v>529</v>
+        <v>105</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -13680,19 +13805,19 @@
     </row>
     <row r="133">
       <c r="A133" s="65" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B133" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C133" s="74" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D133" s="74" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F133" s="48"/>
       <c r="G133" s="48" t="s">
@@ -13707,26 +13832,26 @@
     </row>
     <row r="134">
       <c r="A134" s="65" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B134" s="54" t="s">
-        <v>536</v>
+        <v>115</v>
       </c>
       <c r="C134" s="74" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D134" s="74" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F134" s="48"/>
-      <c r="G134" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="H134" s="44" t="s">
-        <v>633</v>
+      <c r="G134" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H134" s="48" t="s">
+        <v>538</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -13734,134 +13859,134 @@
     </row>
     <row r="135">
       <c r="A135" s="65" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B135" s="54" t="s">
-        <v>128</v>
+        <v>540</v>
       </c>
       <c r="C135" s="74" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D135" s="74" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F135" s="48"/>
-      <c r="G135" s="48" t="s">
+      <c r="G135" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="H135" s="48" t="s">
-        <v>541</v>
+      <c r="H135" s="44" t="s">
+        <v>637</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="B136" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="C136" s="122" t="s">
-        <v>432</v>
-      </c>
-      <c r="D136" s="123"/>
-      <c r="E136" s="38" t="s">
+      <c r="A136" s="65" t="s">
         <v>638</v>
       </c>
+      <c r="B136" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>639</v>
+      </c>
       <c r="F136" s="48"/>
-      <c r="G136" s="35" t="s">
-        <v>639</v>
-      </c>
-      <c r="H136" s="35" t="s">
-        <v>611</v>
+      <c r="G136" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H136" s="48" t="s">
+        <v>545</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="65" t="s">
+      <c r="A137" s="47" t="s">
         <v>640</v>
       </c>
-      <c r="B137" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C137" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D137" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E137" s="48" t="s">
+      <c r="B137" s="46" t="s">
         <v>641</v>
       </c>
+      <c r="C137" s="117" t="s">
+        <v>436</v>
+      </c>
+      <c r="D137" s="119"/>
+      <c r="E137" s="36" t="s">
+        <v>642</v>
+      </c>
       <c r="F137" s="48"/>
-      <c r="G137" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H137" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G137" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="H137" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
     <row r="138">
       <c r="A138" s="65" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B138" s="54" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C138" s="74" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D138" s="74" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F138" s="48"/>
-      <c r="G138" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H138" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="I138" s="6"/>
+      <c r="G138" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H138" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="I138" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
     <row r="139">
       <c r="A139" s="65" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B139" s="54" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C139" s="74" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D139" s="74" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F139" s="48"/>
-      <c r="G139" s="38" t="s">
+      <c r="G139" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H139" s="38" t="s">
-        <v>648</v>
+      <c r="H139" s="36" t="s">
+        <v>649</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -13869,26 +13994,26 @@
     </row>
     <row r="140">
       <c r="A140" s="65" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B140" s="54" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C140" s="74" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D140" s="74" t="s">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F140" s="48"/>
-      <c r="G140" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H140" s="38" t="s">
-        <v>651</v>
+      <c r="G140" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" s="36" t="s">
+        <v>652</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -13896,26 +14021,26 @@
     </row>
     <row r="141">
       <c r="A141" s="65" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B141" s="54" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D141" s="74" t="s">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F141" s="48"/>
-      <c r="G141" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="H141" s="38" t="s">
-        <v>654</v>
+      <c r="G141" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141" s="36" t="s">
+        <v>655</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -13923,26 +14048,26 @@
     </row>
     <row r="142">
       <c r="A142" s="65" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B142" s="54" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C142" s="74" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D142" s="74" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F142" s="74"/>
-      <c r="G142" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="H142" s="48" t="s">
-        <v>530</v>
+      <c r="G142" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H142" s="36" t="s">
+        <v>658</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -13950,19 +14075,19 @@
     </row>
     <row r="143">
       <c r="A143" s="65" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B143" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C143" s="74" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D143" s="74" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F143" s="48"/>
       <c r="G143" s="48" t="s">
@@ -13977,26 +14102,26 @@
     </row>
     <row r="144">
       <c r="A144" s="65" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B144" s="54" t="s">
-        <v>536</v>
+        <v>115</v>
       </c>
       <c r="C144" s="74" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D144" s="74" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F144" s="48"/>
-      <c r="G144" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="H144" s="44" t="s">
-        <v>661</v>
+      <c r="G144" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>538</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -14004,53 +14129,53 @@
     </row>
     <row r="145">
       <c r="A145" s="65" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B145" s="54" t="s">
-        <v>128</v>
+        <v>540</v>
       </c>
       <c r="C145" s="74" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D145" s="74" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E145" s="48" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F145" s="48"/>
-      <c r="G145" s="48" t="s">
+      <c r="G145" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="H145" s="48" t="s">
-        <v>541</v>
+      <c r="H145" s="44" t="s">
+        <v>665</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="47" t="s">
-        <v>664</v>
-      </c>
-      <c r="B146" s="46" t="s">
-        <v>665</v>
+      <c r="A146" s="65" t="s">
+        <v>666</v>
+      </c>
+      <c r="B146" s="54" t="s">
+        <v>128</v>
       </c>
       <c r="C146" s="74" t="s">
-        <v>666</v>
+        <v>129</v>
       </c>
       <c r="D146" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="48" t="s">
         <v>667</v>
       </c>
-      <c r="E146" s="48" t="s">
-        <v>668</v>
-      </c>
       <c r="F146" s="48"/>
-      <c r="G146" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="H146" s="119" t="s">
-        <v>670</v>
+      <c r="G146" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>545</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -14058,105 +14183,105 @@
     </row>
     <row r="147">
       <c r="A147" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="B147" s="46" t="s">
+        <v>669</v>
+      </c>
+      <c r="C147" s="74" t="s">
+        <v>670</v>
+      </c>
+      <c r="D147" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="E147" s="48" t="s">
         <v>672</v>
       </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="38" t="s">
+      <c r="F147" s="48"/>
+      <c r="G147" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="F147" s="48"/>
-      <c r="G147" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H147" s="35" t="s">
-        <v>611</v>
+      <c r="H147" s="114" t="s">
+        <v>674</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="65" t="s">
-        <v>674</v>
-      </c>
-      <c r="B148" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C148" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D148" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E148" s="48" t="s">
+      <c r="A148" s="47" t="s">
         <v>675</v>
       </c>
+      <c r="B148" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="36" t="s">
+        <v>677</v>
+      </c>
       <c r="F148" s="48"/>
-      <c r="G148" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H148" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G148" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H148" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
     <row r="149">
       <c r="A149" s="65" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B149" s="54" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C149" s="74" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D149" s="74" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E149" s="48" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F149" s="48"/>
-      <c r="G149" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H149" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="I149" s="6"/>
+      <c r="G149" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H149" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="I149" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
     <row r="150">
       <c r="A150" s="65" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B150" s="54" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D150" s="74" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E150" s="48" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F150" s="48"/>
-      <c r="G150" s="38" t="s">
+      <c r="G150" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H150" s="38" t="s">
-        <v>682</v>
+      <c r="H150" s="36" t="s">
+        <v>683</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -14164,26 +14289,26 @@
     </row>
     <row r="151">
       <c r="A151" s="65" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B151" s="54" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C151" s="74" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D151" s="74" t="s">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="E151" s="48" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F151" s="48"/>
-      <c r="G151" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H151" s="94" t="s">
-        <v>685</v>
+      <c r="G151" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H151" s="102" t="s">
+        <v>686</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -14191,26 +14316,26 @@
     </row>
     <row r="152">
       <c r="A152" s="65" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B152" s="54" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C152" s="74" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D152" s="74" t="s">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="E152" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F152" s="48"/>
-      <c r="G152" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H152" s="48" t="s">
-        <v>688</v>
+      <c r="G152" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H152" s="36" t="s">
+        <v>689</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -14218,26 +14343,26 @@
     </row>
     <row r="153">
       <c r="A153" s="65" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B153" s="54" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C153" s="74" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D153" s="74" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E153" s="48" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F153" s="48"/>
       <c r="G153" s="48" t="s">
-        <v>529</v>
+        <v>105</v>
       </c>
       <c r="H153" s="48" t="s">
-        <v>530</v>
+        <v>692</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -14245,25 +14370,25 @@
     </row>
     <row r="154">
       <c r="A154" s="65" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B154" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C154" s="74" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D154" s="74" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E154" s="48" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F154" s="48"/>
       <c r="G154" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="H154" s="98" t="s">
+      <c r="H154" s="97" t="s">
         <v>534</v>
       </c>
       <c r="I154" s="6"/>
@@ -14272,26 +14397,26 @@
     </row>
     <row r="155">
       <c r="A155" s="65" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B155" s="54" t="s">
-        <v>536</v>
+        <v>115</v>
       </c>
       <c r="C155" s="74" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D155" s="74" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E155" s="48" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F155" s="48"/>
-      <c r="G155" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="H155" s="124" t="s">
-        <v>695</v>
+      <c r="G155" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H155" s="97" t="s">
+        <v>538</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -14299,53 +14424,53 @@
     </row>
     <row r="156">
       <c r="A156" s="65" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B156" s="54" t="s">
-        <v>128</v>
+        <v>540</v>
       </c>
       <c r="C156" s="74" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D156" s="74" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E156" s="74" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F156" s="74"/>
-      <c r="G156" s="48" t="s">
+      <c r="G156" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="H156" s="48" t="s">
-        <v>541</v>
+      <c r="H156" s="44" t="s">
+        <v>699</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="87" t="s">
-        <v>698</v>
-      </c>
-      <c r="B157" s="37" t="s">
-        <v>699</v>
-      </c>
-      <c r="C157" s="125" t="s">
+      <c r="A157" s="65" t="s">
         <v>700</v>
       </c>
-      <c r="D157" s="125" t="s">
+      <c r="B157" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D157" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E157" s="48" t="s">
         <v>701</v>
       </c>
-      <c r="E157" s="126" t="s">
-        <v>702</v>
-      </c>
-      <c r="F157" s="126"/>
-      <c r="G157" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="H157" s="127" t="s">
-        <v>704</v>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>545</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
@@ -14353,86 +14478,90 @@
     </row>
     <row r="158">
       <c r="A158" s="87" t="s">
+        <v>702</v>
+      </c>
+      <c r="B158" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="C158" s="120" t="s">
+        <v>704</v>
+      </c>
+      <c r="D158" s="120" t="s">
         <v>705</v>
       </c>
-      <c r="B158" s="37" t="s">
+      <c r="E158" s="121" t="s">
         <v>706</v>
       </c>
-      <c r="C158" s="128" t="s">
-        <v>432</v>
-      </c>
-      <c r="D158" s="66"/>
-      <c r="E158" s="55" t="s">
+      <c r="F158" s="121"/>
+      <c r="G158" s="36" t="s">
         <v>707</v>
       </c>
-      <c r="F158" s="55"/>
-      <c r="G158" s="55"/>
-      <c r="H158" s="55"/>
+      <c r="H158" s="122" t="s">
+        <v>708</v>
+      </c>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="47" t="s">
-        <v>708</v>
-      </c>
-      <c r="B159" s="46" t="s">
+      <c r="A159" s="87" t="s">
         <v>709</v>
       </c>
-      <c r="C159" s="66"/>
+      <c r="B159" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="C159" s="123" t="s">
+        <v>436</v>
+      </c>
       <c r="D159" s="66"/>
       <c r="E159" s="55" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F159" s="55"/>
-      <c r="G159" s="55" t="s">
-        <v>711</v>
-      </c>
-      <c r="H159" s="55" t="s">
-        <v>712</v>
-      </c>
+      <c r="G159" s="55"/>
+      <c r="H159" s="55"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160">
       <c r="A160" s="47" t="s">
+        <v>712</v>
+      </c>
+      <c r="B160" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="55" t="s">
         <v>714</v>
       </c>
-      <c r="C160" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="D160" s="66"/>
-      <c r="E160" s="55"/>
       <c r="F160" s="55"/>
-      <c r="G160" s="55"/>
-      <c r="H160" s="55"/>
+      <c r="G160" s="55" t="s">
+        <v>715</v>
+      </c>
+      <c r="H160" s="55" t="s">
+        <v>716</v>
+      </c>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="65" t="s">
-        <v>715</v>
-      </c>
-      <c r="B161" s="67" t="s">
-        <v>716</v>
-      </c>
-      <c r="C161" s="66"/>
+      <c r="A161" s="47" t="s">
+        <v>717</v>
+      </c>
+      <c r="B161" s="73" t="s">
+        <v>718</v>
+      </c>
+      <c r="C161" s="66" t="s">
+        <v>436</v>
+      </c>
       <c r="D161" s="66"/>
-      <c r="E161" s="66" t="s">
-        <v>717</v>
-      </c>
+      <c r="E161" s="66"/>
       <c r="F161" s="66"/>
-      <c r="G161" s="66" t="s">
-        <v>711</v>
-      </c>
-      <c r="H161" s="129" t="s">
-        <v>718</v>
-      </c>
+      <c r="G161" s="66"/>
+      <c r="H161" s="66"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -14451,7 +14580,7 @@
       </c>
       <c r="F162" s="66"/>
       <c r="G162" s="66" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H162" s="66" t="s">
         <v>722</v>
@@ -14474,9 +14603,9 @@
       </c>
       <c r="F163" s="66"/>
       <c r="G163" s="66" t="s">
-        <v>711</v>
-      </c>
-      <c r="H163" s="130" t="s">
+        <v>715</v>
+      </c>
+      <c r="H163" s="124" t="s">
         <v>726</v>
       </c>
       <c r="I163" s="6"/>
@@ -14497,9 +14626,9 @@
       </c>
       <c r="F164" s="66"/>
       <c r="G164" s="66" t="s">
-        <v>711</v>
-      </c>
-      <c r="H164" s="130" t="s">
+        <v>715</v>
+      </c>
+      <c r="H164" s="125" t="s">
         <v>730</v>
       </c>
       <c r="I164" s="6"/>
@@ -14507,107 +14636,117 @@
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="87" t="s">
+      <c r="A165" s="65" t="s">
         <v>731</v>
       </c>
-      <c r="B165" s="131" t="s">
+      <c r="B165" s="67" t="s">
         <v>732</v>
       </c>
-      <c r="C165" s="128" t="s">
-        <v>432</v>
-      </c>
+      <c r="C165" s="66"/>
       <c r="D165" s="66"/>
-      <c r="E165" s="66"/>
+      <c r="E165" s="66" t="s">
+        <v>733</v>
+      </c>
       <c r="F165" s="66"/>
-      <c r="G165" s="66"/>
-      <c r="H165" s="66"/>
+      <c r="G165" s="66" t="s">
+        <v>715</v>
+      </c>
+      <c r="H165" s="125" t="s">
+        <v>734</v>
+      </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="47" t="s">
-        <v>733</v>
-      </c>
-      <c r="B166" s="73" t="s">
-        <v>734</v>
-      </c>
-      <c r="C166" s="132" t="s">
-        <v>448</v>
+      <c r="A166" s="87" t="s">
+        <v>735</v>
+      </c>
+      <c r="B166" s="126" t="s">
+        <v>736</v>
+      </c>
+      <c r="C166" s="123" t="s">
+        <v>436</v>
       </c>
       <c r="D166" s="66"/>
-      <c r="E166" s="66" t="s">
-        <v>735</v>
-      </c>
+      <c r="E166" s="66"/>
       <c r="F166" s="66"/>
-      <c r="G166" s="66" t="s">
-        <v>711</v>
-      </c>
-      <c r="H166" s="133" t="s">
-        <v>736</v>
-      </c>
+      <c r="G166" s="66"/>
+      <c r="H166" s="66"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="87" t="s">
+      <c r="A167" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="B167" s="131" t="s">
+      <c r="B167" s="73" t="s">
         <v>738</v>
       </c>
-      <c r="C167" s="128" t="s">
-        <v>432</v>
+      <c r="C167" s="127" t="s">
+        <v>452</v>
       </c>
       <c r="D167" s="66"/>
-      <c r="E167" s="66"/>
+      <c r="E167" s="66" t="s">
+        <v>739</v>
+      </c>
       <c r="F167" s="66"/>
-      <c r="G167" s="66"/>
-      <c r="H167" s="66"/>
+      <c r="G167" s="66" t="s">
+        <v>715</v>
+      </c>
+      <c r="H167" s="128" t="s">
+        <v>740</v>
+      </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="47" t="s">
-        <v>739</v>
-      </c>
-      <c r="B168" s="73" t="s">
-        <v>740</v>
-      </c>
-      <c r="C168" s="128" t="s">
+      <c r="A168" s="87" t="s">
         <v>741</v>
       </c>
-      <c r="D168" s="66" t="s">
+      <c r="B168" s="126" t="s">
         <v>742</v>
       </c>
-      <c r="E168" s="134" t="s">
-        <v>743</v>
-      </c>
+      <c r="C168" s="123" t="s">
+        <v>436</v>
+      </c>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
       <c r="F168" s="66"/>
-      <c r="G168" s="66" t="s">
-        <v>744</v>
-      </c>
-      <c r="H168" s="130" t="s">
-        <v>745</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>746</v>
-      </c>
+      <c r="G168" s="66"/>
+      <c r="H168" s="66"/>
+      <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="18"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
+      <c r="A169" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="B169" s="73" t="s">
+        <v>744</v>
+      </c>
+      <c r="C169" s="123" t="s">
+        <v>745</v>
+      </c>
+      <c r="D169" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="E169" s="129" t="s">
+        <v>747</v>
+      </c>
+      <c r="F169" s="66"/>
+      <c r="G169" s="66" t="s">
+        <v>748</v>
+      </c>
+      <c r="H169" s="130" t="s">
+        <v>749</v>
+      </c>
+      <c r="I169" s="75" t="s">
+        <v>750</v>
+      </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
     </row>
@@ -14656,33 +14795,35 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="H73"/>
-    <hyperlink r:id="rId3" ref="H80"/>
-    <hyperlink r:id="rId4" ref="H85"/>
-    <hyperlink r:id="rId5" ref="H86"/>
-    <hyperlink r:id="rId6" ref="H87"/>
-    <hyperlink r:id="rId7" ref="H95"/>
-    <hyperlink r:id="rId8" ref="H96"/>
-    <hyperlink r:id="rId9" ref="H102"/>
-    <hyperlink r:id="rId10" ref="H103"/>
-    <hyperlink r:id="rId11" ref="H104"/>
-    <hyperlink r:id="rId12" ref="H105"/>
-    <hyperlink r:id="rId13" ref="H106"/>
-    <hyperlink r:id="rId14" ref="H109"/>
-    <hyperlink r:id="rId15" ref="H111"/>
-    <hyperlink r:id="rId16" ref="H128"/>
-    <hyperlink r:id="rId17" ref="H129"/>
-    <hyperlink r:id="rId18" ref="H130"/>
-    <hyperlink r:id="rId19" ref="H151"/>
-    <hyperlink r:id="rId20" ref="H154"/>
-    <hyperlink r:id="rId21" ref="H155"/>
-    <hyperlink r:id="rId22" ref="H161"/>
-    <hyperlink r:id="rId23" ref="H163"/>
-    <hyperlink r:id="rId24" ref="H164"/>
-    <hyperlink r:id="rId25" ref="H166"/>
-    <hyperlink r:id="rId26" ref="H168"/>
+    <hyperlink r:id="rId3" location="issuecomment-1386886542" ref="K73"/>
+    <hyperlink r:id="rId4" ref="H74"/>
+    <hyperlink r:id="rId5" location="issuecomment-1386886542" ref="K74"/>
+    <hyperlink r:id="rId6" ref="H80"/>
+    <hyperlink r:id="rId7" ref="H86"/>
+    <hyperlink r:id="rId8" ref="H87"/>
+    <hyperlink r:id="rId9" ref="H95"/>
+    <hyperlink r:id="rId10" ref="H96"/>
+    <hyperlink r:id="rId11" ref="H102"/>
+    <hyperlink r:id="rId12" ref="H103"/>
+    <hyperlink r:id="rId13" ref="H104"/>
+    <hyperlink r:id="rId14" ref="H105"/>
+    <hyperlink r:id="rId15" ref="H106"/>
+    <hyperlink r:id="rId16" ref="H109"/>
+    <hyperlink r:id="rId17" ref="H111"/>
+    <hyperlink r:id="rId18" ref="H112"/>
+    <hyperlink r:id="rId19" ref="H128"/>
+    <hyperlink r:id="rId20" ref="H129"/>
+    <hyperlink r:id="rId21" ref="H130"/>
+    <hyperlink r:id="rId22" ref="H151"/>
+    <hyperlink r:id="rId23" ref="H154"/>
+    <hyperlink r:id="rId24" ref="H155"/>
+    <hyperlink r:id="rId25" ref="H163"/>
+    <hyperlink r:id="rId26" ref="H164"/>
+    <hyperlink r:id="rId27" ref="H165"/>
+    <hyperlink r:id="rId28" ref="H167"/>
   </hyperlinks>
-  <drawing r:id="rId27"/>
-  <legacyDrawing r:id="rId28"/>
+  <drawing r:id="rId29"/>
+  <legacyDrawing r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -14703,177 +14844,177 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="132" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>752</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D2" s="74"/>
-      <c r="E2" s="38" t="s">
-        <v>750</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>751</v>
+      <c r="E2" s="36" t="s">
+        <v>754</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>752</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D3" s="74"/>
-      <c r="E3" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>753</v>
+      <c r="E3" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>754</v>
+        <v>415</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>758</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>756</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>758</v>
+        <v>760</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="137" t="s">
-        <v>418</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>759</v>
+      <c r="A5" s="133" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>763</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>760</v>
-      </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="138"/>
+        <v>425</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>497</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>498</v>
+        <v>500</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>502</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="38" t="s">
-        <v>761</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>762</v>
-      </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
+      <c r="E6" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>763</v>
+        <v>546</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>767</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>764</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>765</v>
+        <v>549</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="8">
@@ -18877,108 +19018,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="140" t="s">
-        <v>766</v>
-      </c>
-      <c r="B2" s="141" t="s">
-        <v>767</v>
+      <c r="A2" s="136" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" s="137" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="142" t="s">
-        <v>768</v>
-      </c>
-      <c r="B3" s="141" t="s">
-        <v>769</v>
+      <c r="A3" s="138" t="s">
+        <v>772</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="143" t="s">
-        <v>770</v>
+      <c r="A4" s="139" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="144" t="s">
-        <v>771</v>
-      </c>
-      <c r="B6" s="141" t="s">
-        <v>772</v>
+      <c r="A6" s="140" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="141" t="s">
-        <v>773</v>
+      <c r="B7" s="137" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="141"/>
+      <c r="B8" s="137"/>
     </row>
     <row r="9">
-      <c r="B9" s="141"/>
+      <c r="B9" s="137"/>
     </row>
     <row r="10">
-      <c r="A10" s="144" t="s">
-        <v>774</v>
+      <c r="A10" s="140" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="144" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="145" t="s">
-        <v>776</v>
+      <c r="A11" s="140" t="s">
+        <v>779</v>
+      </c>
+      <c r="B11" s="141" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="146" t="s">
-        <v>777</v>
+      <c r="B12" s="142" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="147"/>
-      <c r="B13" s="148" t="s">
-        <v>778</v>
+      <c r="A13" s="143"/>
+      <c r="B13" s="144" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="149" t="s">
-        <v>779</v>
+      <c r="B14" s="145" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="150" t="s">
-        <v>780</v>
+      <c r="B15" s="146" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="151" t="s">
-        <v>781</v>
+      <c r="B16" s="147" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="144"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="144" t="s">
-        <v>782</v>
-      </c>
-      <c r="B18" s="152" t="s">
-        <v>783</v>
+      <c r="A18" s="140" t="s">
+        <v>786</v>
+      </c>
+      <c r="B18" s="148" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="B19" s="153"/>
+        <v>788</v>
+      </c>
+      <c r="B19" s="149"/>
     </row>
     <row r="21">
-      <c r="A21" s="144" t="s">
-        <v>785</v>
-      </c>
-      <c r="B21" s="154" t="s">
-        <v>786</v>
+      <c r="A21" s="140" t="s">
+        <v>789</v>
+      </c>
+      <c r="B21" s="150" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -19004,57 +19145,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -19080,59 +19221,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B1" s="155" t="s">
-        <v>798</v>
+        <v>791</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="156" t="s">
-        <v>799</v>
+      <c r="A2" s="152" t="s">
+        <v>803</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="156" t="s">
-        <v>801</v>
+      <c r="A3" s="152" t="s">
+        <v>805</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="156" t="s">
-        <v>802</v>
+      <c r="A4" s="152" t="s">
+        <v>806</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="156" t="s">
-        <v>803</v>
+      <c r="A5" s="152" t="s">
+        <v>807</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="156" t="s">
-        <v>804</v>
+      <c r="A6" s="152" t="s">
+        <v>808</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="156" t="s">
-        <v>805</v>
+      <c r="A7" s="152" t="s">
+        <v>809</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="156" t="s">
-        <v>806</v>
+      <c r="A8" s="152" t="s">
+        <v>810</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="157" t="s">
-        <v>807</v>
+      <c r="A9" s="153" t="s">
+        <v>811</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -19152,7 +19293,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="145"/>
+      <c r="A1" s="141"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19176,36 +19317,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="158" t="s">
-        <v>808</v>
-      </c>
-      <c r="C1" s="158" t="s">
-        <v>809</v>
+      <c r="A1" s="154" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="144" t="s">
-        <v>810</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>811</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>812</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>813</v>
+      <c r="A2" s="140" t="s">
+        <v>814</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>816</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>814</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>815</v>
+      <c r="A3" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>819</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19235,14 +19376,14 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>817</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>815</v>
+      <c r="A4" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>819</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19272,14 +19413,14 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>818</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>819</v>
+      <c r="A5" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>823</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -19307,16 +19448,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>816</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -19343,16 +19484,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>825</v>
+        <v>820</v>
+      </c>
+      <c r="D7" s="155" t="s">
+        <v>829</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -19379,16 +19520,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -19414,220 +19555,220 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="160" t="s">
-        <v>829</v>
-      </c>
-      <c r="B9" s="161" t="s">
-        <v>830</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>816</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>831</v>
-      </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
+      <c r="A9" s="156" t="s">
+        <v>833</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>834</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>820</v>
+      </c>
+      <c r="D9" s="157" t="s">
+        <v>835</v>
+      </c>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
     </row>
     <row r="10">
-      <c r="A10" s="160" t="s">
-        <v>832</v>
-      </c>
-      <c r="B10" s="161" t="s">
-        <v>830</v>
-      </c>
-      <c r="C10" s="161" t="s">
-        <v>816</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>833</v>
-      </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
+      <c r="A10" s="156" t="s">
+        <v>836</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>834</v>
+      </c>
+      <c r="C10" s="157" t="s">
+        <v>820</v>
+      </c>
+      <c r="D10" s="157" t="s">
+        <v>837</v>
+      </c>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
     </row>
     <row r="11">
-      <c r="A11" s="160" t="s">
-        <v>834</v>
-      </c>
-      <c r="B11" s="161" t="s">
-        <v>835</v>
-      </c>
-      <c r="C11" s="161" t="s">
-        <v>816</v>
-      </c>
-      <c r="D11" s="161" t="s">
-        <v>836</v>
-      </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
+      <c r="A11" s="156" t="s">
+        <v>838</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>839</v>
+      </c>
+      <c r="C11" s="157" t="s">
+        <v>820</v>
+      </c>
+      <c r="D11" s="157" t="s">
+        <v>840</v>
+      </c>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="157"/>
+      <c r="Z11" s="157"/>
     </row>
     <row r="12">
-      <c r="A12" s="160" t="s">
-        <v>837</v>
-      </c>
-      <c r="B12" s="161" t="s">
-        <v>835</v>
-      </c>
-      <c r="C12" s="161" t="s">
-        <v>816</v>
-      </c>
-      <c r="D12" s="161" t="s">
-        <v>838</v>
-      </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
+      <c r="A12" s="156" t="s">
+        <v>841</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>839</v>
+      </c>
+      <c r="C12" s="157" t="s">
+        <v>820</v>
+      </c>
+      <c r="D12" s="157" t="s">
+        <v>842</v>
+      </c>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="157"/>
     </row>
     <row r="13">
-      <c r="A13" s="160" t="s">
-        <v>839</v>
-      </c>
-      <c r="B13" s="160" t="s">
-        <v>819</v>
-      </c>
-      <c r="C13" s="161" t="s">
-        <v>816</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>840</v>
-      </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
+      <c r="A13" s="156" t="s">
+        <v>843</v>
+      </c>
+      <c r="B13" s="156" t="s">
+        <v>823</v>
+      </c>
+      <c r="C13" s="157" t="s">
+        <v>820</v>
+      </c>
+      <c r="D13" s="157" t="s">
+        <v>844</v>
+      </c>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="157"/>
+      <c r="T13" s="157"/>
+      <c r="U13" s="157"/>
+      <c r="V13" s="157"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="157"/>
+      <c r="Z13" s="157"/>
     </row>
     <row r="14">
-      <c r="A14" s="160" t="s">
-        <v>841</v>
-      </c>
-      <c r="B14" s="160" t="s">
-        <v>819</v>
-      </c>
-      <c r="C14" s="161" t="s">
-        <v>816</v>
-      </c>
-      <c r="D14" s="161" t="s">
-        <v>842</v>
-      </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
+      <c r="A14" s="156" t="s">
+        <v>845</v>
+      </c>
+      <c r="B14" s="156" t="s">
+        <v>823</v>
+      </c>
+      <c r="C14" s="157" t="s">
+        <v>820</v>
+      </c>
+      <c r="D14" s="157" t="s">
+        <v>846</v>
+      </c>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="157"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="157"/>
+      <c r="Y14" s="157"/>
+      <c r="Z14" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19655,52 +19796,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="158" t="s">
-        <v>808</v>
+      <c r="A1" s="154" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="144" t="s">
-        <v>810</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>811</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>812</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>813</v>
+      <c r="A2" s="140" t="s">
+        <v>814</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>816</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="141" t="s">
-        <v>843</v>
-      </c>
-      <c r="B3" s="141" t="s">
-        <v>844</v>
+      <c r="A3" s="137" t="s">
+        <v>847</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="141" t="s">
-        <v>845</v>
-      </c>
-      <c r="B4" s="141" t="s">
-        <v>846</v>
+      <c r="A4" s="137" t="s">
+        <v>849</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="141" t="s">
-        <v>847</v>
-      </c>
-      <c r="B5" s="141" t="s">
-        <v>848</v>
-      </c>
-      <c r="C5" s="162" t="s">
-        <v>846</v>
-      </c>
-      <c r="D5" s="141" t="s">
-        <v>849</v>
+      <c r="A5" s="137" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5" s="158" t="s">
+        <v>850</v>
+      </c>
+      <c r="D5" s="137" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="854">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.6.1</t>
+    <t>6.6.3</t>
   </si>
   <si>
     <r>
@@ -5231,27 +5231,8 @@
     <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION/D_OUTSIDE_SCOPE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <u/>
-      </rPr>
-      <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasDirectAwardJustification &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/direct-award-justification/dir24-list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <u/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
+    <t>This field is not mappable at the moment.
+See the related comments in the "Mapping Remarks" sheet.</t>
   </si>
   <si>
     <t>D4.3</t>
@@ -5633,7 +5614,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5765,11 +5746,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -5793,15 +5769,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5872,12 +5844,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -5985,7 +5951,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6109,11 +6075,17 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6135,9 +6107,6 @@
     </xf>
     <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6267,7 +6236,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6275,14 +6244,14 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6299,6 +6268,9 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -6311,11 +6283,14 @@
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6326,14 +6301,8 @@
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -6347,28 +6316,25 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -6380,23 +6346,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6420,13 +6386,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6438,19 +6404,16 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -9983,7 +9946,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
@@ -10009,7 +9972,7 @@
       <c r="E5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="39" t="s">
         <v>54</v>
       </c>
@@ -10043,8 +10006,8 @@
       <c r="E6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="42" t="s">
@@ -10064,26 +10027,26 @@
       <c r="R6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="45" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="36" t="s">
@@ -10100,10 +10063,10 @@
       <c r="R7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -10115,7 +10078,7 @@
       <c r="E8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="36" t="s">
         <v>77</v>
       </c>
@@ -10134,10 +10097,10 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -10149,7 +10112,7 @@
       <c r="E9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="36" t="s">
         <v>77</v>
       </c>
@@ -10168,28 +10131,28 @@
       <c r="R9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="50" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="50" t="s">
         <v>92</v>
       </c>
       <c r="I10" s="36"/>
@@ -10204,10 +10167,10 @@
       <c r="R10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -10219,7 +10182,7 @@
       <c r="E11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="36" t="s">
         <v>98</v>
       </c>
@@ -10238,7 +10201,7 @@
       <c r="R11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -10253,11 +10216,11 @@
       <c r="E12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="45" t="s">
         <v>106</v>
       </c>
       <c r="I12" s="36"/>
@@ -10272,10 +10235,10 @@
       <c r="R12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -10287,11 +10250,11 @@
       <c r="E13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="50" t="s">
         <v>113</v>
       </c>
       <c r="I13" s="36" t="s">
@@ -10308,10 +10271,10 @@
       <c r="R13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -10323,11 +10286,11 @@
       <c r="E14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="51" t="s">
         <v>119</v>
       </c>
       <c r="I14" s="36"/>
@@ -10342,10 +10305,10 @@
       <c r="R14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="48" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -10357,11 +10320,11 @@
       <c r="E15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="50" t="s">
         <v>126</v>
       </c>
       <c r="I15" s="36"/>
@@ -10376,10 +10339,10 @@
       <c r="R15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -10391,11 +10354,11 @@
       <c r="E16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="50" t="s">
         <v>132</v>
       </c>
       <c r="I16" s="36"/>
@@ -10410,16 +10373,16 @@
       <c r="R16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="48" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -10434,13 +10397,13 @@
       <c r="R17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="43" t="s">
         <v>137</v>
       </c>
       <c r="D18" s="42" t="s">
@@ -10449,11 +10412,11 @@
       <c r="E18" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="44" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="45" t="s">
         <v>140</v>
       </c>
       <c r="I18" s="36"/>
@@ -10468,10 +10431,10 @@
       <c r="R18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="55" t="s">
         <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -10483,11 +10446,11 @@
       <c r="E19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="50" t="s">
         <v>147</v>
       </c>
       <c r="I19" s="36"/>
@@ -10508,20 +10471,20 @@
       <c r="B20" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="58" t="s">
         <v>152</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="57" t="s">
         <v>154</v>
       </c>
       <c r="I20" s="36"/>
@@ -10538,10 +10501,10 @@
       <c r="R20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="39" t="s">
@@ -10572,20 +10535,20 @@
       <c r="B22" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="58" t="s">
         <v>164</v>
       </c>
       <c r="F22" s="56"/>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="59" t="s">
         <v>166</v>
       </c>
       <c r="I22" s="36"/>
@@ -10602,10 +10565,10 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="39" t="s">
@@ -10621,21 +10584,21 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
     </row>
     <row r="24">
       <c r="A24" s="37" t="s">
@@ -10644,52 +10607,52 @@
       <c r="B24" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="58" t="s">
         <v>172</v>
       </c>
       <c r="F24" s="56"/>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="62" t="s">
         <v>173</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
     </row>
     <row r="25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="39" t="s">
         <v>158</v>
       </c>
@@ -10711,7 +10674,7 @@
       <c r="A26" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="65" t="s">
         <v>178</v>
       </c>
       <c r="C26" s="4"/>
@@ -10741,7 +10704,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="36"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
@@ -10756,10 +10719,10 @@
       <c r="R27" s="27"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -10771,7 +10734,7 @@
       <c r="E28" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="36" t="s">
         <v>184</v>
       </c>
@@ -10792,54 +10755,54 @@
       <c r="R28" s="27"/>
     </row>
     <row r="29">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44" t="s">
+      <c r="F29" s="46"/>
+      <c r="G29" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="52"/>
+      <c r="J29" s="43"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
     </row>
     <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="48" t="s">
         <v>194</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -10851,7 +10814,7 @@
       <c r="E30" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="36" t="s">
         <v>198</v>
       </c>
@@ -10870,10 +10833,10 @@
       <c r="R30" s="27"/>
     </row>
     <row r="31">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="55" t="s">
         <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -10885,7 +10848,7 @@
       <c r="E31" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="36" t="s">
         <v>205</v>
       </c>
@@ -10904,10 +10867,10 @@
       <c r="R31" s="27"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="48" t="s">
         <v>207</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -10919,7 +10882,7 @@
       <c r="E32" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="36" t="s">
         <v>211</v>
       </c>
@@ -10938,26 +10901,26 @@
       <c r="R32" s="27"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="50" t="s">
         <v>216</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="50" t="s">
         <v>217</v>
       </c>
       <c r="I33" s="36" t="s">
@@ -10974,18 +10937,18 @@
       <c r="R33" s="27"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
@@ -10998,64 +10961,64 @@
       <c r="R34" s="27"/>
     </row>
     <row r="35">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="57" t="s">
         <v>224</v>
       </c>
       <c r="F35" s="56"/>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H35" s="67" t="s">
         <v>226</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
     </row>
     <row r="36">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57" t="s">
         <v>229</v>
       </c>
       <c r="F36" s="56"/>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="H36" s="56" t="s">
+      <c r="H36" s="57" t="s">
         <v>231</v>
       </c>
       <c r="I36" s="6"/>
@@ -11070,22 +11033,22 @@
       <c r="R36" s="27"/>
     </row>
     <row r="37">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="67"/>
+      <c r="E37" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -11098,16 +11061,16 @@
       <c r="R37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="48" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="6"/>
@@ -11122,10 +11085,10 @@
       <c r="R38" s="27"/>
     </row>
     <row r="39">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="48" t="s">
         <v>239</v>
       </c>
       <c r="C39" s="4"/>
@@ -11133,7 +11096,7 @@
       <c r="E39" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="35" t="s">
         <v>241</v>
       </c>
@@ -11152,19 +11115,19 @@
       <c r="R39" s="27"/>
     </row>
     <row r="40">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="50" t="s">
         <v>245</v>
       </c>
       <c r="F40" s="35"/>
@@ -11177,43 +11140,43 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="60"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="60"/>
-      <c r="Z40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
     </row>
     <row r="41">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="50" t="s">
         <v>252</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="50" t="s">
         <v>253</v>
       </c>
       <c r="I41" s="6"/>
@@ -11228,19 +11191,19 @@
       <c r="R41" s="27"/>
     </row>
     <row r="42">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="50" t="s">
         <v>258</v>
       </c>
       <c r="F42" s="35"/>
@@ -11262,22 +11225,22 @@
       <c r="R42" s="27"/>
     </row>
     <row r="43">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="55" t="s">
         <v>228</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="50" t="s">
         <v>261</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="H43" s="70" t="s">
+      <c r="H43" s="71" t="s">
         <v>263</v>
       </c>
       <c r="I43" s="6"/>
@@ -11300,7 +11263,7 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="57" t="s">
+      <c r="E44" s="58" t="s">
         <v>240</v>
       </c>
       <c r="F44" s="4"/>
@@ -11322,15 +11285,15 @@
       <c r="R44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="73" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="58" t="s">
         <v>240</v>
       </c>
       <c r="F45" s="4"/>
@@ -11352,29 +11315,29 @@
       <c r="R45" s="27"/>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="D46" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="74" t="s">
+      <c r="E46" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="F46" s="74"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="H46" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="I46" s="75" t="s">
+      <c r="I46" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J46" s="6"/>
@@ -11388,26 +11351,26 @@
       <c r="R46" s="27"/>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="48"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="50" t="s">
         <v>279</v>
       </c>
       <c r="I47" s="36" t="s">
@@ -11424,10 +11387,10 @@
       <c r="R47" s="27"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="48" t="s">
         <v>281</v>
       </c>
       <c r="C48" s="4"/>
@@ -11448,10 +11411,10 @@
       <c r="R48" s="27"/>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="55" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -11463,7 +11426,7 @@
       <c r="E49" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="36" t="s">
         <v>284</v>
       </c>
@@ -11473,27 +11436,27 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="60"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="60"/>
-      <c r="Z49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
     </row>
     <row r="50">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="55" t="s">
         <v>201</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -11505,7 +11468,7 @@
       <c r="E50" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="36" t="s">
         <v>288</v>
       </c>
@@ -11524,10 +11487,10 @@
       <c r="R50" s="27"/>
     </row>
     <row r="51">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="48" t="s">
         <v>290</v>
       </c>
       <c r="C51" s="4"/>
@@ -11548,10 +11511,10 @@
       <c r="R51" s="27"/>
     </row>
     <row r="52">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -11563,13 +11526,13 @@
       <c r="E52" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="36" t="s">
         <v>295</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="H52" s="70" t="s">
+      <c r="H52" s="71" t="s">
         <v>297</v>
       </c>
       <c r="I52" s="6"/>
@@ -11584,29 +11547,29 @@
       <c r="R52" s="27"/>
     </row>
     <row r="53">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="75" t="s">
         <v>301</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="35" t="s">
         <v>303</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="I53" s="75" t="s">
+      <c r="I53" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J53" s="6"/>
@@ -11620,29 +11583,29 @@
       <c r="R53" s="27"/>
     </row>
     <row r="54">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="75" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="75" t="s">
+      <c r="F54" s="36"/>
+      <c r="G54" s="76" t="s">
         <v>271</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="I54" s="75" t="s">
+      <c r="I54" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J54" s="6"/>
@@ -11656,18 +11619,18 @@
       <c r="R54" s="27"/>
     </row>
     <row r="55">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="48" t="s">
         <v>310</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="13"/>
       <c r="E55" s="36"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -11680,15 +11643,15 @@
       <c r="R55" s="27"/>
     </row>
     <row r="56">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="77" t="s">
+      <c r="B56" s="78" t="s">
         <v>312</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="58" t="s">
         <v>240</v>
       </c>
       <c r="F56" s="4"/>
@@ -11728,7 +11691,7 @@
       <c r="H57" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I57" s="75" t="s">
+      <c r="I57" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J57" s="6"/>
@@ -11742,21 +11705,21 @@
       <c r="R57" s="27"/>
     </row>
     <row r="58">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="69"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="70"/>
       <c r="L58" s="27"/>
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
@@ -11766,31 +11729,31 @@
       <c r="R58" s="27"/>
     </row>
     <row r="59">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56" t="s">
+      <c r="F59" s="56"/>
+      <c r="G59" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="69"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="70"/>
       <c r="L59" s="27"/>
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
@@ -11800,27 +11763,27 @@
       <c r="R59" s="27"/>
     </row>
     <row r="60">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="55" t="s">
+      <c r="B60" s="79"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="F60" s="55" t="s">
+      <c r="F60" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="G60" s="56" t="s">
+      <c r="G60" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="H60" s="55" t="s">
+      <c r="H60" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="69"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="70"/>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
@@ -11830,27 +11793,27 @@
       <c r="R60" s="27"/>
     </row>
     <row r="61">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="57" t="s">
+      <c r="B61" s="79"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="F61" s="66" t="s">
+      <c r="F61" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="G61" s="56" t="s">
+      <c r="G61" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="H61" s="55" t="s">
+      <c r="H61" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="69"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="70"/>
       <c r="L61" s="27"/>
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
@@ -11860,31 +11823,31 @@
       <c r="R61" s="27"/>
     </row>
     <row r="62">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="D62" s="66" t="s">
+      <c r="D62" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="F62" s="66"/>
-      <c r="G62" s="56" t="s">
+      <c r="F62" s="67"/>
+      <c r="G62" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="H62" s="55" t="s">
+      <c r="H62" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="69"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="70"/>
       <c r="L62" s="27"/>
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
@@ -11894,26 +11857,26 @@
       <c r="R62" s="27"/>
     </row>
     <row r="63">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56" t="s">
+      <c r="F63" s="56"/>
+      <c r="G63" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="H63" s="55" t="s">
+      <c r="H63" s="56" t="s">
         <v>349</v>
       </c>
       <c r="I63" s="6"/>
@@ -11928,10 +11891,10 @@
       <c r="R63" s="27"/>
     </row>
     <row r="64">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="48" t="s">
         <v>351</v>
       </c>
       <c r="C64" s="4"/>
@@ -11952,26 +11915,26 @@
       <c r="R64" s="27"/>
     </row>
     <row r="65">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="55" t="s">
         <v>353</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="E65" s="74" t="s">
+      <c r="E65" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="74" t="s">
+      <c r="F65" s="6"/>
+      <c r="G65" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="H65" s="79" t="s">
+      <c r="H65" s="80" t="s">
         <v>358</v>
       </c>
       <c r="I65" s="6"/>
@@ -11986,26 +11949,26 @@
       <c r="R65" s="27"/>
     </row>
     <row r="66">
-      <c r="A66" s="80" t="s">
+      <c r="A66" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="82" t="s">
         <v>353</v>
       </c>
-      <c r="C66" s="82" t="s">
+      <c r="C66" s="83" t="s">
         <v>354</v>
       </c>
-      <c r="D66" s="83" t="s">
+      <c r="D66" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="48" t="s">
+      <c r="F66" s="4"/>
+      <c r="G66" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="H66" s="84" t="s">
+      <c r="H66" s="85" t="s">
         <v>360</v>
       </c>
       <c r="I66" s="6"/>
@@ -12020,29 +11983,29 @@
       <c r="R66" s="27"/>
     </row>
     <row r="67">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="55" t="s">
         <v>362</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48" t="s">
+      <c r="F67" s="35"/>
+      <c r="G67" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="H67" s="84" t="s">
+      <c r="H67" s="85" t="s">
         <v>366</v>
       </c>
-      <c r="I67" s="75" t="s">
+      <c r="I67" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J67" s="6"/>
@@ -12056,10 +12019,10 @@
       <c r="R67" s="27"/>
     </row>
     <row r="68">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="48" t="s">
         <v>368</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -12072,13 +12035,13 @@
         <v>371</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="G68" s="75" t="s">
+      <c r="G68" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="H68" s="85" t="s">
+      <c r="H68" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="I68" s="75" t="s">
+      <c r="I68" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J68" s="6"/>
@@ -12092,10 +12055,10 @@
       <c r="R68" s="27"/>
     </row>
     <row r="69">
-      <c r="A69" s="86" t="s">
+      <c r="A69" s="87" t="s">
         <v>373</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="65" t="s">
         <v>374</v>
       </c>
       <c r="C69" s="4"/>
@@ -12118,7 +12081,7 @@
       <c r="R69" s="27"/>
     </row>
     <row r="70">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="88" t="s">
         <v>376</v>
       </c>
       <c r="B70" s="38" t="s">
@@ -12142,10 +12105,10 @@
       <c r="R70" s="27"/>
     </row>
     <row r="71">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="48" t="s">
         <v>378</v>
       </c>
       <c r="C71" s="4"/>
@@ -12166,10 +12129,10 @@
       <c r="R71" s="27"/>
     </row>
     <row r="72">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="55" t="s">
         <v>380</v>
       </c>
       <c r="C72" s="6"/>
@@ -12188,7 +12151,7 @@
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="75" t="s">
+      <c r="K72" s="76" t="s">
         <v>385</v>
       </c>
       <c r="L72" s="27"/>
@@ -12200,27 +12163,27 @@
       <c r="R72" s="27"/>
     </row>
     <row r="73">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="55" t="s">
         <v>380</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="57" t="s">
+      <c r="E73" s="58" t="s">
         <v>381</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="H73" s="88" t="s">
+      <c r="H73" s="89" t="s">
         <v>387</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="89" t="s">
+      <c r="K73" s="90" t="s">
         <v>388</v>
       </c>
       <c r="L73" s="27"/>
@@ -12232,10 +12195,10 @@
       <c r="R73" s="27"/>
     </row>
     <row r="74">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="55" t="s">
         <v>390</v>
       </c>
       <c r="C74" s="4"/>
@@ -12247,12 +12210,12 @@
       <c r="G74" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="H74" s="88" t="s">
+      <c r="H74" s="89" t="s">
         <v>392</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="89" t="s">
+      <c r="K74" s="90" t="s">
         <v>393</v>
       </c>
       <c r="L74" s="27"/>
@@ -12264,26 +12227,26 @@
       <c r="R74" s="27"/>
     </row>
     <row r="75">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="48" t="s">
         <v>395</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="50" t="s">
         <v>398</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="H75" s="70" t="s">
+      <c r="H75" s="71" t="s">
         <v>400</v>
       </c>
       <c r="I75" s="6"/>
@@ -12298,26 +12261,26 @@
       <c r="R75" s="27"/>
     </row>
     <row r="76">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="92" t="s">
         <v>395</v>
       </c>
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="83" t="s">
         <v>396</v>
       </c>
-      <c r="D76" s="83" t="s">
+      <c r="D76" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="50" t="s">
         <v>401</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="H76" s="70" t="s">
+      <c r="H76" s="71" t="s">
         <v>402</v>
       </c>
       <c r="I76" s="6"/>
@@ -12332,7 +12295,7 @@
       <c r="R76" s="27"/>
     </row>
     <row r="77">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="88" t="s">
         <v>403</v>
       </c>
       <c r="B77" s="38" t="s">
@@ -12356,25 +12319,25 @@
       <c r="R77" s="27"/>
     </row>
     <row r="78">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="48" t="s">
         <v>406</v>
       </c>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="50" t="s">
         <v>407</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="48" t="s">
+      <c r="G78" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="H78" s="70" t="s">
+      <c r="H78" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="I78" s="75" t="s">
+      <c r="I78" s="76" t="s">
         <v>71</v>
       </c>
       <c r="J78" s="6"/>
@@ -12388,15 +12351,15 @@
       <c r="R78" s="27"/>
     </row>
     <row r="79">
-      <c r="A79" s="86" t="s">
+      <c r="A79" s="87" t="s">
         <v>410</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="65" t="s">
         <v>411</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="92" t="s">
+      <c r="E79" s="93" t="s">
         <v>412</v>
       </c>
       <c r="F79" s="4"/>
@@ -12418,31 +12381,31 @@
       <c r="R79" s="27"/>
     </row>
     <row r="80">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="C80" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="D80" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="E80" s="48" t="s">
+      <c r="E80" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="50" t="s">
         <v>419</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="H80" s="93" t="s">
+      <c r="H80" s="94" t="s">
         <v>421</v>
       </c>
-      <c r="I80" s="75" t="s">
+      <c r="I80" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J80" s="6"/>
@@ -12456,19 +12419,19 @@
       <c r="R80" s="27"/>
     </row>
     <row r="81">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C81" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="E81" s="57" t="s">
+      <c r="E81" s="58" t="s">
         <v>426</v>
       </c>
       <c r="F81" s="6"/>
@@ -12490,19 +12453,19 @@
       <c r="R81" s="27"/>
     </row>
     <row r="82">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="92" t="s">
         <v>423</v>
       </c>
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="D82" s="94" t="s">
+      <c r="D82" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="E82" s="57" t="s">
+      <c r="E82" s="58" t="s">
         <v>426</v>
       </c>
       <c r="F82" s="4"/>
@@ -12524,19 +12487,19 @@
       <c r="R82" s="27"/>
     </row>
     <row r="83">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="92" t="s">
         <v>423</v>
       </c>
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="D83" s="83" t="s">
+      <c r="D83" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="E83" s="57" t="s">
+      <c r="E83" s="58" t="s">
         <v>431</v>
       </c>
       <c r="F83" s="6"/>
@@ -12558,16 +12521,16 @@
       <c r="R83" s="27"/>
     </row>
     <row r="84">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="88" t="s">
         <v>434</v>
       </c>
       <c r="B84" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="C84" s="95" t="s">
+      <c r="C84" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D84" s="48"/>
+      <c r="D84" s="50"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -12584,16 +12547,16 @@
       <c r="R84" s="27"/>
     </row>
     <row r="85">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="C85" s="96" t="s">
+      <c r="C85" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="36"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="36"/>
@@ -12610,26 +12573,26 @@
       <c r="R85" s="27"/>
     </row>
     <row r="86">
-      <c r="A86" s="65" t="s">
+      <c r="A86" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="E86" s="48" t="s">
+      <c r="E86" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="F86" s="48"/>
+      <c r="F86" s="35"/>
       <c r="G86" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="H86" s="97" t="s">
+      <c r="H86" s="98" t="s">
         <v>445</v>
       </c>
       <c r="I86" s="6"/>
@@ -12644,26 +12607,26 @@
       <c r="R86" s="27"/>
     </row>
     <row r="87">
-      <c r="A87" s="65" t="s">
+      <c r="A87" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="55" t="s">
         <v>447</v>
       </c>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="D87" s="48" t="s">
+      <c r="D87" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="E87" s="74" t="s">
+      <c r="E87" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="F87" s="74"/>
-      <c r="G87" s="75" t="s">
+      <c r="F87" s="13"/>
+      <c r="G87" s="76" t="s">
         <v>444</v>
       </c>
-      <c r="H87" s="89" t="s">
+      <c r="H87" s="90" t="s">
         <v>449</v>
       </c>
       <c r="I87" s="6"/>
@@ -12671,20 +12634,20 @@
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="B88" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="99" t="s">
         <v>452</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="50"/>
       <c r="E88" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="F88" s="39"/>
+      <c r="F88" s="64"/>
       <c r="G88" s="39" t="s">
         <v>454</v>
       </c>
@@ -12696,13 +12659,13 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="88" t="s">
         <v>456</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="C89" s="96" t="s">
+      <c r="C89" s="100" t="s">
         <v>436</v>
       </c>
       <c r="D89" s="4"/>
@@ -12715,20 +12678,20 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="65" t="s">
+      <c r="A90" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="B90" s="54"/>
-      <c r="C90" s="48"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="57" t="s">
+      <c r="E90" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="F90" s="48"/>
+      <c r="F90" s="50"/>
       <c r="G90" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="H90" s="48" t="s">
+      <c r="H90" s="50" t="s">
         <v>460</v>
       </c>
       <c r="I90" s="6"/>
@@ -12736,20 +12699,20 @@
       <c r="K90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="B91" s="99"/>
-      <c r="C91" s="74"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="75"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="57" t="s">
+      <c r="E91" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="F91" s="74"/>
+      <c r="F91" s="75"/>
       <c r="G91" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="H91" s="48" t="s">
+      <c r="H91" s="50" t="s">
         <v>462</v>
       </c>
       <c r="I91" s="6"/>
@@ -12759,10 +12722,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="48" t="s">
         <v>465</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -12771,14 +12734,14 @@
       <c r="D92" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="E92" s="100" t="s">
+      <c r="E92" s="102" t="s">
         <v>468</v>
       </c>
       <c r="F92" s="6"/>
-      <c r="G92" s="75" t="s">
+      <c r="G92" s="76" t="s">
         <v>469</v>
       </c>
-      <c r="H92" s="75" t="s">
+      <c r="H92" s="76" t="s">
         <v>470</v>
       </c>
       <c r="I92" s="6"/>
@@ -12786,47 +12749,47 @@
       <c r="K92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="100" t="s">
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="102" t="s">
         <v>426</v>
       </c>
-      <c r="F93" s="101"/>
-      <c r="G93" s="74" t="s">
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="I93" s="75" t="s">
+      <c r="I93" s="76" t="s">
         <v>475</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="65" t="s">
+      <c r="A94" s="66" t="s">
         <v>476</v>
       </c>
-      <c r="B94" s="54" t="s">
+      <c r="B94" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="D94" s="48" t="s">
+      <c r="D94" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="F94" s="48"/>
+      <c r="F94" s="35"/>
       <c r="G94" s="35" t="s">
         <v>481</v>
       </c>
@@ -12838,22 +12801,22 @@
       <c r="K94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="65" t="s">
+      <c r="A95" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="B95" s="54" t="s">
+      <c r="B95" s="55" t="s">
         <v>484</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48" t="s">
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="F95" s="48"/>
+      <c r="F95" s="35"/>
       <c r="G95" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="H95" s="102" t="s">
+      <c r="H95" s="103" t="s">
         <v>487</v>
       </c>
       <c r="I95" s="6"/>
@@ -12861,22 +12824,22 @@
       <c r="K95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="65" t="s">
+      <c r="A96" s="66" t="s">
         <v>488</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B96" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48" t="s">
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="F96" s="48"/>
+      <c r="F96" s="35"/>
       <c r="G96" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="H96" s="102" t="s">
+      <c r="H96" s="103" t="s">
         <v>491</v>
       </c>
       <c r="I96" s="6"/>
@@ -12884,18 +12847,18 @@
       <c r="K96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="65" t="s">
+      <c r="A97" s="66" t="s">
         <v>492</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48" t="s">
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="F97" s="48"/>
+      <c r="F97" s="35"/>
       <c r="G97" s="36" t="s">
         <v>486</v>
       </c>
@@ -12907,18 +12870,18 @@
       <c r="K97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="B98" s="54" t="s">
+      <c r="B98" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48" t="s">
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="F98" s="48"/>
+      <c r="F98" s="35"/>
       <c r="G98" s="36" t="s">
         <v>486</v>
       </c>
@@ -12930,24 +12893,24 @@
       <c r="K98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="66" t="s">
         <v>500</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="C99" s="103" t="s">
+      <c r="C99" s="104" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48" t="s">
+      <c r="D99" s="50"/>
+      <c r="E99" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="F99" s="36"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="H99" s="48" t="s">
+      <c r="H99" s="50" t="s">
         <v>505</v>
       </c>
       <c r="I99" s="6"/>
@@ -12955,18 +12918,18 @@
       <c r="K99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="C100" s="95" t="s">
+      <c r="C100" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D100" s="48"/>
+      <c r="D100" s="50"/>
       <c r="E100" s="36"/>
-      <c r="F100" s="48"/>
+      <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
       <c r="I100" s="6"/>
@@ -12974,84 +12937,84 @@
       <c r="K100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="55" t="s">
         <v>57</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D101" s="48" t="s">
+      <c r="D101" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E101" s="48" t="s">
+      <c r="E101" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="42" t="s">
+      <c r="F101" s="35"/>
+      <c r="G101" s="43" t="s">
         <v>61</v>
       </c>
       <c r="H101" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="I101" s="75" t="s">
+      <c r="I101" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="66" t="s">
         <v>511</v>
       </c>
-      <c r="B102" s="54" t="s">
+      <c r="B102" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C102" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="48" t="s">
+      <c r="D102" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E102" s="48" t="s">
+      <c r="E102" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="44" t="s">
+      <c r="F102" s="35"/>
+      <c r="G102" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H102" s="104" t="s">
+      <c r="H102" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="I102" s="75" t="s">
+      <c r="I102" s="76" t="s">
         <v>71</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="65" t="s">
+      <c r="A103" s="66" t="s">
         <v>514</v>
       </c>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="55" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D103" s="48" t="s">
+      <c r="D103" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="48" t="s">
+      <c r="E103" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="F103" s="48"/>
+      <c r="F103" s="35"/>
       <c r="G103" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="102" t="s">
+      <c r="H103" s="103" t="s">
         <v>516</v>
       </c>
       <c r="I103" s="6"/>
@@ -13059,26 +13022,26 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="65" t="s">
+      <c r="A104" s="66" t="s">
         <v>517</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B104" s="55" t="s">
         <v>80</v>
       </c>
       <c r="C104" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="D104" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E104" s="48" t="s">
+      <c r="E104" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F104" s="48"/>
+      <c r="F104" s="35"/>
       <c r="G104" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H104" s="102" t="s">
+      <c r="H104" s="103" t="s">
         <v>519</v>
       </c>
       <c r="I104" s="6"/>
@@ -13086,16 +13049,16 @@
       <c r="K104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="65" t="s">
+      <c r="A105" s="66" t="s">
         <v>520</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C105" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="48" t="s">
+      <c r="D105" s="50" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="36" t="s">
@@ -13107,7 +13070,7 @@
       <c r="G105" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="97" t="s">
+      <c r="H105" s="98" t="s">
         <v>523</v>
       </c>
       <c r="I105" s="6"/>
@@ -13115,26 +13078,26 @@
       <c r="K105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="66" t="s">
         <v>524</v>
       </c>
-      <c r="B106" s="54" t="s">
+      <c r="B106" s="55" t="s">
         <v>94</v>
       </c>
       <c r="C106" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="74" t="s">
+      <c r="D106" s="75" t="s">
         <v>525</v>
       </c>
-      <c r="E106" s="74" t="s">
+      <c r="E106" s="75" t="s">
         <v>526</v>
       </c>
-      <c r="F106" s="74"/>
-      <c r="G106" s="75" t="s">
+      <c r="F106" s="13"/>
+      <c r="G106" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="H106" s="89" t="s">
+      <c r="H106" s="90" t="s">
         <v>527</v>
       </c>
       <c r="I106" s="6"/>
@@ -13142,23 +13105,23 @@
       <c r="K106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="66" t="s">
         <v>528</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="55" t="s">
         <v>101</v>
       </c>
       <c r="C107" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D107" s="48" t="s">
+      <c r="D107" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E107" s="48" t="s">
+      <c r="E107" s="50" t="s">
         <v>529</v>
       </c>
-      <c r="F107" s="48"/>
-      <c r="G107" s="42" t="s">
+      <c r="F107" s="35"/>
+      <c r="G107" s="43" t="s">
         <v>105</v>
       </c>
       <c r="H107" s="42" t="s">
@@ -13169,26 +13132,26 @@
       <c r="K107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="65" t="s">
+      <c r="A108" s="66" t="s">
         <v>531</v>
       </c>
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="55" t="s">
         <v>121</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D108" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="E108" s="48" t="s">
+      <c r="E108" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48" t="s">
+      <c r="F108" s="35"/>
+      <c r="G108" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="H108" s="48" t="s">
+      <c r="H108" s="50" t="s">
         <v>534</v>
       </c>
       <c r="I108" s="6"/>
@@ -13196,26 +13159,26 @@
       <c r="K108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="65" t="s">
+      <c r="A109" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="B109" s="54" t="s">
+      <c r="B109" s="55" t="s">
         <v>115</v>
       </c>
       <c r="C109" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D109" s="74" t="s">
+      <c r="D109" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="E109" s="74" t="s">
+      <c r="E109" s="75" t="s">
         <v>536</v>
       </c>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74" t="s">
+      <c r="F109" s="13"/>
+      <c r="G109" s="75" t="s">
         <v>537</v>
       </c>
-      <c r="H109" s="105" t="s">
+      <c r="H109" s="106" t="s">
         <v>538</v>
       </c>
       <c r="I109" s="6"/>
@@ -13223,26 +13186,26 @@
       <c r="K109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="65" t="s">
+      <c r="A110" s="66" t="s">
         <v>539</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="C110" s="48" t="s">
+      <c r="C110" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D110" s="48" t="s">
+      <c r="D110" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="E110" s="48" t="s">
+      <c r="E110" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="F110" s="48"/>
-      <c r="G110" s="44" t="s">
+      <c r="F110" s="35"/>
+      <c r="G110" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="H110" s="44" t="s">
+      <c r="H110" s="45" t="s">
         <v>542</v>
       </c>
       <c r="I110" s="6"/>
@@ -13250,26 +13213,26 @@
       <c r="K110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="65" t="s">
+      <c r="A111" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="55" t="s">
         <v>128</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="D111" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E111" s="106" t="s">
+      <c r="E111" s="107" t="s">
         <v>544</v>
       </c>
-      <c r="F111" s="106"/>
-      <c r="G111" s="48" t="s">
+      <c r="F111" s="108"/>
+      <c r="G111" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="H111" s="97" t="s">
+      <c r="H111" s="98" t="s">
         <v>545</v>
       </c>
       <c r="I111" s="6"/>
@@ -13277,26 +13240,26 @@
       <c r="K111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="65" t="s">
+      <c r="A112" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="55" t="s">
         <v>547</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="D112" s="74" t="s">
+      <c r="D112" s="75" t="s">
         <v>549</v>
       </c>
-      <c r="E112" s="100" t="s">
+      <c r="E112" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="F112" s="75"/>
-      <c r="G112" s="75" t="s">
+      <c r="F112" s="76"/>
+      <c r="G112" s="76" t="s">
         <v>551</v>
       </c>
-      <c r="H112" s="107" t="s">
+      <c r="H112" s="109" t="s">
         <v>552</v>
       </c>
       <c r="I112" s="6"/>
@@ -13306,16 +13269,16 @@
     <row r="113">
       <c r="A113" s="18"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="57" t="s">
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="58" t="s">
         <v>550</v>
       </c>
       <c r="F113" s="36"/>
-      <c r="G113" s="42" t="s">
+      <c r="G113" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="H113" s="42" t="s">
+      <c r="H113" s="43" t="s">
         <v>554</v>
       </c>
       <c r="I113" s="6"/>
@@ -13323,13 +13286,13 @@
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="48" t="s">
         <v>556</v>
       </c>
-      <c r="C114" s="96" t="s">
+      <c r="C114" s="100" t="s">
         <v>436</v>
       </c>
       <c r="D114" s="4"/>
@@ -13342,26 +13305,26 @@
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="65" t="s">
+      <c r="A115" s="66" t="s">
         <v>557</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="55" t="s">
         <v>558</v>
       </c>
-      <c r="C115" s="48" t="s">
+      <c r="C115" s="50" t="s">
         <v>559</v>
       </c>
-      <c r="D115" s="48" t="s">
+      <c r="D115" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="E115" s="48" t="s">
+      <c r="E115" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="F115" s="48"/>
+      <c r="F115" s="35"/>
       <c r="G115" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="H115" s="48" t="s">
+      <c r="H115" s="50" t="s">
         <v>562</v>
       </c>
       <c r="I115" s="6"/>
@@ -13369,24 +13332,24 @@
       <c r="K115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="76" t="s">
+      <c r="A116" s="77" t="s">
         <v>563</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="108" t="s">
+      <c r="C116" s="110" t="s">
         <v>564</v>
       </c>
-      <c r="D116" s="74"/>
-      <c r="E116" s="106" t="s">
+      <c r="D116" s="75"/>
+      <c r="E116" s="107" t="s">
         <v>565</v>
       </c>
-      <c r="F116" s="106"/>
+      <c r="F116" s="108"/>
       <c r="G116" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="H116" s="74" t="s">
+      <c r="H116" s="75" t="s">
         <v>567</v>
       </c>
       <c r="I116" s="6"/>
@@ -13394,22 +13357,22 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="65" t="s">
+      <c r="A117" s="66" t="s">
         <v>568</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="D117" s="48" t="s">
+      <c r="D117" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="E117" s="106" t="s">
+      <c r="E117" s="107" t="s">
         <v>572</v>
       </c>
-      <c r="F117" s="106"/>
+      <c r="F117" s="108"/>
       <c r="G117" s="36" t="s">
         <v>573</v>
       </c>
@@ -13421,24 +13384,24 @@
       <c r="K117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="76" t="s">
+      <c r="A118" s="77" t="s">
         <v>575</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="109" t="s">
+      <c r="C118" s="111" t="s">
         <v>564</v>
       </c>
-      <c r="D118" s="74"/>
-      <c r="E118" s="106" t="s">
+      <c r="D118" s="75"/>
+      <c r="E118" s="107" t="s">
         <v>576</v>
       </c>
-      <c r="F118" s="106"/>
-      <c r="G118" s="75" t="s">
+      <c r="F118" s="108"/>
+      <c r="G118" s="76" t="s">
         <v>577</v>
       </c>
-      <c r="H118" s="75" t="s">
+      <c r="H118" s="76" t="s">
         <v>578</v>
       </c>
       <c r="I118" s="6"/>
@@ -13446,22 +13409,22 @@
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="65" t="s">
+      <c r="A119" s="66" t="s">
         <v>579</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="55" t="s">
         <v>580</v>
       </c>
-      <c r="C119" s="55" t="s">
+      <c r="C119" s="56" t="s">
         <v>581</v>
       </c>
-      <c r="D119" s="55" t="s">
+      <c r="D119" s="56" t="s">
         <v>582</v>
       </c>
-      <c r="E119" s="110" t="s">
+      <c r="E119" s="112" t="s">
         <v>583</v>
       </c>
-      <c r="F119" s="110"/>
+      <c r="F119" s="113"/>
       <c r="G119" s="56" t="s">
         <v>584</v>
       </c>
@@ -13473,24 +13436,24 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="76" t="s">
+      <c r="A120" s="77" t="s">
         <v>586</v>
       </c>
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="C120" s="111" t="s">
+      <c r="C120" s="114" t="s">
         <v>564</v>
       </c>
-      <c r="D120" s="66"/>
-      <c r="E120" s="110" t="s">
+      <c r="D120" s="67"/>
+      <c r="E120" s="112" t="s">
         <v>587</v>
       </c>
-      <c r="F120" s="112"/>
-      <c r="G120" s="56" t="s">
+      <c r="F120" s="113"/>
+      <c r="G120" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="H120" s="56" t="s">
+      <c r="H120" s="57" t="s">
         <v>589</v>
       </c>
       <c r="I120" s="6"/>
@@ -13498,19 +13461,19 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="65" t="s">
+      <c r="A121" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="B121" s="54" t="s">
+      <c r="B121" s="55" t="s">
         <v>591</v>
       </c>
-      <c r="C121" s="66" t="s">
+      <c r="C121" s="67" t="s">
         <v>592</v>
       </c>
-      <c r="D121" s="66" t="s">
+      <c r="D121" s="67" t="s">
         <v>593</v>
       </c>
-      <c r="E121" s="110" t="s">
+      <c r="E121" s="112" t="s">
         <v>594</v>
       </c>
       <c r="F121" s="56"/>
@@ -13525,24 +13488,24 @@
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="77" t="s">
         <v>596</v>
       </c>
-      <c r="B122" s="77" t="s">
+      <c r="B122" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="111" t="s">
+      <c r="C122" s="114" t="s">
         <v>564</v>
       </c>
-      <c r="D122" s="66"/>
+      <c r="D122" s="67"/>
       <c r="E122" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="F122" s="112"/>
-      <c r="G122" s="56" t="s">
+      <c r="F122" s="113"/>
+      <c r="G122" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="H122" s="56" t="s">
+      <c r="H122" s="57" t="s">
         <v>598</v>
       </c>
       <c r="I122" s="6"/>
@@ -13550,26 +13513,26 @@
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="65" t="s">
+      <c r="A123" s="66" t="s">
         <v>599</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="55" t="s">
         <v>600</v>
       </c>
-      <c r="C123" s="66" t="s">
+      <c r="C123" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D123" s="66" t="s">
+      <c r="D123" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E123" s="112" t="s">
+      <c r="E123" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="F123" s="112"/>
-      <c r="G123" s="55" t="s">
+      <c r="F123" s="113"/>
+      <c r="G123" s="56" t="s">
         <v>603</v>
       </c>
-      <c r="H123" s="55" t="s">
+      <c r="H123" s="56" t="s">
         <v>604</v>
       </c>
       <c r="I123" s="6"/>
@@ -13577,15 +13540,15 @@
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="86" t="s">
+      <c r="A124" s="87" t="s">
         <v>605</v>
       </c>
       <c r="B124" s="33" t="s">
         <v>606</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="18"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="115"/>
       <c r="F124" s="18"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -13594,47 +13557,47 @@
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="87" t="s">
+      <c r="A125" s="88" t="s">
         <v>607</v>
       </c>
       <c r="B125" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="C125" s="74" t="s">
+      <c r="C125" s="75" t="s">
         <v>369</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E125" s="106" t="s">
+      <c r="E125" s="107" t="s">
         <v>608</v>
       </c>
-      <c r="F125" s="106"/>
-      <c r="G125" s="113" t="s">
+      <c r="F125" s="108"/>
+      <c r="G125" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="H125" s="114" t="s">
+      <c r="H125" s="117" t="s">
         <v>609</v>
       </c>
-      <c r="I125" s="75" t="s">
+      <c r="I125" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="87" t="s">
+      <c r="A126" s="88" t="s">
         <v>610</v>
       </c>
       <c r="B126" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="C126" s="115" t="s">
+      <c r="C126" s="118" t="s">
         <v>436</v>
       </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="116"/>
-      <c r="F126" s="116"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="108"/>
+      <c r="F126" s="108"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
@@ -13642,20 +13605,20 @@
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="49" t="s">
         <v>612</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="C127" s="117" t="s">
+      <c r="C127" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="118" t="s">
+      <c r="D127" s="76"/>
+      <c r="E127" s="115" t="s">
         <v>614</v>
       </c>
-      <c r="F127" s="106"/>
+      <c r="F127" s="108"/>
       <c r="G127" s="35" t="s">
         <v>54</v>
       </c>
@@ -13667,55 +13630,55 @@
       <c r="K127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="65" t="s">
+      <c r="A128" s="66" t="s">
         <v>616</v>
       </c>
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C128" s="74" t="s">
+      <c r="C128" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D128" s="74" t="s">
+      <c r="D128" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E128" s="48" t="s">
+      <c r="E128" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="F128" s="48"/>
+      <c r="F128" s="35"/>
       <c r="G128" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H128" s="102" t="s">
+      <c r="H128" s="103" t="s">
         <v>618</v>
       </c>
-      <c r="I128" s="75" t="s">
+      <c r="I128" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="65" t="s">
+      <c r="A129" s="66" t="s">
         <v>619</v>
       </c>
-      <c r="B129" s="54" t="s">
+      <c r="B129" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="74" t="s">
+      <c r="C129" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D129" s="74" t="s">
+      <c r="D129" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="F129" s="48"/>
+      <c r="F129" s="35"/>
       <c r="G129" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H129" s="102" t="s">
+      <c r="H129" s="103" t="s">
         <v>621</v>
       </c>
       <c r="I129" s="6"/>
@@ -13723,26 +13686,26 @@
       <c r="K129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="65" t="s">
+      <c r="A130" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="B130" s="54" t="s">
+      <c r="B130" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C130" s="74" t="s">
+      <c r="C130" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D130" s="74" t="s">
+      <c r="D130" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E130" s="48" t="s">
+      <c r="E130" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="F130" s="48"/>
+      <c r="F130" s="35"/>
       <c r="G130" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H130" s="102" t="s">
+      <c r="H130" s="103" t="s">
         <v>624</v>
       </c>
       <c r="I130" s="6"/>
@@ -13750,26 +13713,26 @@
       <c r="K130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="65" t="s">
+      <c r="A131" s="66" t="s">
         <v>625</v>
       </c>
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C131" s="74" t="s">
+      <c r="C131" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D131" s="74" t="s">
+      <c r="D131" s="75" t="s">
         <v>525</v>
       </c>
-      <c r="E131" s="74" t="s">
+      <c r="E131" s="75" t="s">
         <v>626</v>
       </c>
-      <c r="F131" s="74"/>
-      <c r="G131" s="75" t="s">
+      <c r="F131" s="13"/>
+      <c r="G131" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="75" t="s">
+      <c r="H131" s="76" t="s">
         <v>627</v>
       </c>
       <c r="I131" s="6"/>
@@ -13777,26 +13740,26 @@
       <c r="K131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="65" t="s">
+      <c r="A132" s="66" t="s">
         <v>628</v>
       </c>
-      <c r="B132" s="54" t="s">
+      <c r="B132" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="74" t="s">
+      <c r="C132" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D132" s="74" t="s">
+      <c r="D132" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="E132" s="48" t="s">
+      <c r="E132" s="50" t="s">
         <v>629</v>
       </c>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48" t="s">
+      <c r="F132" s="35"/>
+      <c r="G132" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H132" s="48" t="s">
+      <c r="H132" s="50" t="s">
         <v>630</v>
       </c>
       <c r="I132" s="6"/>
@@ -13804,26 +13767,26 @@
       <c r="K132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="65" t="s">
+      <c r="A133" s="66" t="s">
         <v>631</v>
       </c>
-      <c r="B133" s="54" t="s">
+      <c r="B133" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C133" s="74" t="s">
+      <c r="C133" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D133" s="74" t="s">
+      <c r="D133" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E133" s="48" t="s">
+      <c r="E133" s="50" t="s">
         <v>632</v>
       </c>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48" t="s">
+      <c r="F133" s="35"/>
+      <c r="G133" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="H133" s="50" t="s">
         <v>534</v>
       </c>
       <c r="I133" s="6"/>
@@ -13831,26 +13794,26 @@
       <c r="K133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="65" t="s">
+      <c r="A134" s="66" t="s">
         <v>633</v>
       </c>
-      <c r="B134" s="54" t="s">
+      <c r="B134" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C134" s="74" t="s">
+      <c r="C134" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="D134" s="74" t="s">
+      <c r="D134" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="E134" s="48" t="s">
+      <c r="E134" s="50" t="s">
         <v>634</v>
       </c>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48" t="s">
+      <c r="F134" s="35"/>
+      <c r="G134" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="H134" s="48" t="s">
+      <c r="H134" s="50" t="s">
         <v>538</v>
       </c>
       <c r="I134" s="6"/>
@@ -13858,26 +13821,26 @@
       <c r="K134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="65" t="s">
+      <c r="A135" s="66" t="s">
         <v>635</v>
       </c>
-      <c r="B135" s="54" t="s">
+      <c r="B135" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="C135" s="74" t="s">
+      <c r="C135" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="D135" s="74" t="s">
+      <c r="D135" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="E135" s="48" t="s">
+      <c r="E135" s="50" t="s">
         <v>636</v>
       </c>
-      <c r="F135" s="48"/>
-      <c r="G135" s="44" t="s">
+      <c r="F135" s="35"/>
+      <c r="G135" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="H135" s="44" t="s">
+      <c r="H135" s="45" t="s">
         <v>637</v>
       </c>
       <c r="I135" s="6"/>
@@ -13885,26 +13848,26 @@
       <c r="K135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="65" t="s">
+      <c r="A136" s="66" t="s">
         <v>638</v>
       </c>
-      <c r="B136" s="54" t="s">
+      <c r="B136" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C136" s="74" t="s">
+      <c r="C136" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D136" s="74" t="s">
+      <c r="D136" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="E136" s="48" t="s">
+      <c r="E136" s="50" t="s">
         <v>639</v>
       </c>
-      <c r="F136" s="48"/>
-      <c r="G136" s="48" t="s">
+      <c r="F136" s="35"/>
+      <c r="G136" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="H136" s="48" t="s">
+      <c r="H136" s="50" t="s">
         <v>545</v>
       </c>
       <c r="I136" s="6"/>
@@ -13912,20 +13875,20 @@
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="B137" s="46" t="s">
+      <c r="B137" s="48" t="s">
         <v>641</v>
       </c>
-      <c r="C137" s="117" t="s">
+      <c r="C137" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="D137" s="119"/>
+      <c r="D137" s="120"/>
       <c r="E137" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="F137" s="48"/>
+      <c r="F137" s="35"/>
       <c r="G137" s="35" t="s">
         <v>643</v>
       </c>
@@ -13937,51 +13900,51 @@
       <c r="K137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="65" t="s">
+      <c r="A138" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C138" s="74" t="s">
+      <c r="C138" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D138" s="74" t="s">
+      <c r="D138" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="48" t="s">
+      <c r="E138" s="50" t="s">
         <v>645</v>
       </c>
-      <c r="F138" s="48"/>
+      <c r="F138" s="35"/>
       <c r="G138" s="36" t="s">
         <v>61</v>
       </c>
       <c r="H138" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="I138" s="75" t="s">
+      <c r="I138" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="65" t="s">
+      <c r="A139" s="66" t="s">
         <v>647</v>
       </c>
-      <c r="B139" s="54" t="s">
+      <c r="B139" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C139" s="74" t="s">
+      <c r="C139" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D139" s="74" t="s">
+      <c r="D139" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E139" s="48" t="s">
+      <c r="E139" s="50" t="s">
         <v>648</v>
       </c>
-      <c r="F139" s="48"/>
+      <c r="F139" s="35"/>
       <c r="G139" s="36" t="s">
         <v>77</v>
       </c>
@@ -13993,22 +13956,22 @@
       <c r="K139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="65" t="s">
+      <c r="A140" s="66" t="s">
         <v>650</v>
       </c>
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C140" s="74" t="s">
+      <c r="C140" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D140" s="74" t="s">
+      <c r="D140" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E140" s="48" t="s">
+      <c r="E140" s="50" t="s">
         <v>651</v>
       </c>
-      <c r="F140" s="48"/>
+      <c r="F140" s="35"/>
       <c r="G140" s="36" t="s">
         <v>77</v>
       </c>
@@ -14020,22 +13983,22 @@
       <c r="K140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="65" t="s">
+      <c r="A141" s="66" t="s">
         <v>653</v>
       </c>
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C141" s="48" t="s">
+      <c r="C141" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D141" s="74" t="s">
+      <c r="D141" s="75" t="s">
         <v>525</v>
       </c>
-      <c r="E141" s="48" t="s">
+      <c r="E141" s="50" t="s">
         <v>654</v>
       </c>
-      <c r="F141" s="48"/>
+      <c r="F141" s="35"/>
       <c r="G141" s="36" t="s">
         <v>98</v>
       </c>
@@ -14047,22 +14010,22 @@
       <c r="K141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="65" t="s">
+      <c r="A142" s="66" t="s">
         <v>656</v>
       </c>
-      <c r="B142" s="54" t="s">
+      <c r="B142" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C142" s="74" t="s">
+      <c r="C142" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D142" s="74" t="s">
+      <c r="D142" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="E142" s="48" t="s">
+      <c r="E142" s="50" t="s">
         <v>657</v>
       </c>
-      <c r="F142" s="74"/>
+      <c r="F142" s="13"/>
       <c r="G142" s="36" t="s">
         <v>105</v>
       </c>
@@ -14074,26 +14037,26 @@
       <c r="K142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="65" t="s">
+      <c r="A143" s="66" t="s">
         <v>659</v>
       </c>
-      <c r="B143" s="54" t="s">
+      <c r="B143" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C143" s="74" t="s">
+      <c r="C143" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D143" s="74" t="s">
+      <c r="D143" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E143" s="48" t="s">
+      <c r="E143" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48" t="s">
+      <c r="F143" s="35"/>
+      <c r="G143" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="H143" s="48" t="s">
+      <c r="H143" s="50" t="s">
         <v>534</v>
       </c>
       <c r="I143" s="6"/>
@@ -14101,26 +14064,26 @@
       <c r="K143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="66" t="s">
         <v>661</v>
       </c>
-      <c r="B144" s="54" t="s">
+      <c r="B144" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C144" s="74" t="s">
+      <c r="C144" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="D144" s="74" t="s">
+      <c r="D144" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="E144" s="48" t="s">
+      <c r="E144" s="50" t="s">
         <v>662</v>
       </c>
-      <c r="F144" s="48"/>
-      <c r="G144" s="48" t="s">
+      <c r="F144" s="35"/>
+      <c r="G144" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="H144" s="48" t="s">
+      <c r="H144" s="50" t="s">
         <v>538</v>
       </c>
       <c r="I144" s="6"/>
@@ -14128,26 +14091,26 @@
       <c r="K144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="65" t="s">
+      <c r="A145" s="66" t="s">
         <v>663</v>
       </c>
-      <c r="B145" s="54" t="s">
+      <c r="B145" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="C145" s="74" t="s">
+      <c r="C145" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="D145" s="74" t="s">
+      <c r="D145" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="E145" s="48" t="s">
+      <c r="E145" s="50" t="s">
         <v>664</v>
       </c>
-      <c r="F145" s="48"/>
-      <c r="G145" s="44" t="s">
+      <c r="F145" s="35"/>
+      <c r="G145" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="H145" s="44" t="s">
+      <c r="H145" s="45" t="s">
         <v>665</v>
       </c>
       <c r="I145" s="6"/>
@@ -14155,26 +14118,26 @@
       <c r="K145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="65" t="s">
+      <c r="A146" s="66" t="s">
         <v>666</v>
       </c>
-      <c r="B146" s="54" t="s">
+      <c r="B146" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C146" s="74" t="s">
+      <c r="C146" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D146" s="74" t="s">
+      <c r="D146" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="E146" s="48" t="s">
+      <c r="E146" s="50" t="s">
         <v>667</v>
       </c>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48" t="s">
+      <c r="F146" s="35"/>
+      <c r="G146" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="H146" s="48" t="s">
+      <c r="H146" s="50" t="s">
         <v>545</v>
       </c>
       <c r="I146" s="6"/>
@@ -14182,26 +14145,26 @@
       <c r="K146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="49" t="s">
         <v>668</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="B147" s="48" t="s">
         <v>669</v>
       </c>
-      <c r="C147" s="74" t="s">
+      <c r="C147" s="75" t="s">
         <v>670</v>
       </c>
-      <c r="D147" s="74" t="s">
+      <c r="D147" s="75" t="s">
         <v>671</v>
       </c>
-      <c r="E147" s="48" t="s">
+      <c r="E147" s="50" t="s">
         <v>672</v>
       </c>
-      <c r="F147" s="48"/>
+      <c r="F147" s="35"/>
       <c r="G147" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="H147" s="114" t="s">
+      <c r="H147" s="117" t="s">
         <v>674</v>
       </c>
       <c r="I147" s="6"/>
@@ -14209,18 +14172,18 @@
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="B148" s="46" t="s">
+      <c r="B148" s="48" t="s">
         <v>676</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
+      <c r="D148" s="76"/>
       <c r="E148" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="F148" s="48"/>
+      <c r="F148" s="35"/>
       <c r="G148" s="35" t="s">
         <v>54</v>
       </c>
@@ -14232,51 +14195,51 @@
       <c r="K148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="65" t="s">
+      <c r="A149" s="66" t="s">
         <v>678</v>
       </c>
-      <c r="B149" s="54" t="s">
+      <c r="B149" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C149" s="74" t="s">
+      <c r="C149" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D149" s="74" t="s">
+      <c r="D149" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E149" s="48" t="s">
+      <c r="E149" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="F149" s="48"/>
+      <c r="F149" s="35"/>
       <c r="G149" s="36" t="s">
         <v>61</v>
       </c>
       <c r="H149" s="36" t="s">
         <v>680</v>
       </c>
-      <c r="I149" s="75" t="s">
+      <c r="I149" s="76" t="s">
         <v>63</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="65" t="s">
+      <c r="A150" s="66" t="s">
         <v>681</v>
       </c>
-      <c r="B150" s="54" t="s">
+      <c r="B150" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D150" s="74" t="s">
+      <c r="D150" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E150" s="48" t="s">
+      <c r="E150" s="50" t="s">
         <v>682</v>
       </c>
-      <c r="F150" s="48"/>
+      <c r="F150" s="35"/>
       <c r="G150" s="36" t="s">
         <v>77</v>
       </c>
@@ -14288,26 +14251,26 @@
       <c r="K150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="65" t="s">
+      <c r="A151" s="66" t="s">
         <v>684</v>
       </c>
-      <c r="B151" s="54" t="s">
+      <c r="B151" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C151" s="74" t="s">
+      <c r="C151" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D151" s="74" t="s">
+      <c r="D151" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E151" s="48" t="s">
+      <c r="E151" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="F151" s="48"/>
+      <c r="F151" s="35"/>
       <c r="G151" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H151" s="102" t="s">
+      <c r="H151" s="103" t="s">
         <v>686</v>
       </c>
       <c r="I151" s="6"/>
@@ -14315,22 +14278,22 @@
       <c r="K151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="65" t="s">
+      <c r="A152" s="66" t="s">
         <v>687</v>
       </c>
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C152" s="74" t="s">
+      <c r="C152" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D152" s="74" t="s">
+      <c r="D152" s="75" t="s">
         <v>525</v>
       </c>
-      <c r="E152" s="48" t="s">
+      <c r="E152" s="50" t="s">
         <v>688</v>
       </c>
-      <c r="F152" s="48"/>
+      <c r="F152" s="35"/>
       <c r="G152" s="36" t="s">
         <v>98</v>
       </c>
@@ -14342,26 +14305,26 @@
       <c r="K152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="65" t="s">
+      <c r="A153" s="66" t="s">
         <v>690</v>
       </c>
-      <c r="B153" s="54" t="s">
+      <c r="B153" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C153" s="74" t="s">
+      <c r="C153" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D153" s="74" t="s">
+      <c r="D153" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="E153" s="48" t="s">
+      <c r="E153" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="F153" s="48"/>
-      <c r="G153" s="48" t="s">
+      <c r="F153" s="35"/>
+      <c r="G153" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H153" s="48" t="s">
+      <c r="H153" s="50" t="s">
         <v>692</v>
       </c>
       <c r="I153" s="6"/>
@@ -14369,26 +14332,26 @@
       <c r="K153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="65" t="s">
+      <c r="A154" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="B154" s="54" t="s">
+      <c r="B154" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="74" t="s">
+      <c r="C154" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D154" s="74" t="s">
+      <c r="D154" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E154" s="48" t="s">
+      <c r="E154" s="50" t="s">
         <v>694</v>
       </c>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48" t="s">
+      <c r="F154" s="35"/>
+      <c r="G154" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="H154" s="97" t="s">
+      <c r="H154" s="98" t="s">
         <v>534</v>
       </c>
       <c r="I154" s="6"/>
@@ -14396,26 +14359,26 @@
       <c r="K154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="65" t="s">
+      <c r="A155" s="66" t="s">
         <v>695</v>
       </c>
-      <c r="B155" s="54" t="s">
+      <c r="B155" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C155" s="74" t="s">
+      <c r="C155" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="D155" s="74" t="s">
+      <c r="D155" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="E155" s="48" t="s">
+      <c r="E155" s="50" t="s">
         <v>696</v>
       </c>
-      <c r="F155" s="48"/>
-      <c r="G155" s="48" t="s">
+      <c r="F155" s="35"/>
+      <c r="G155" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="H155" s="97" t="s">
+      <c r="H155" s="98" t="s">
         <v>538</v>
       </c>
       <c r="I155" s="6"/>
@@ -14423,26 +14386,26 @@
       <c r="K155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="65" t="s">
+      <c r="A156" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="B156" s="54" t="s">
+      <c r="B156" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="C156" s="74" t="s">
+      <c r="C156" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="D156" s="74" t="s">
+      <c r="D156" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="E156" s="74" t="s">
+      <c r="E156" s="75" t="s">
         <v>698</v>
       </c>
-      <c r="F156" s="74"/>
-      <c r="G156" s="44" t="s">
+      <c r="F156" s="13"/>
+      <c r="G156" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="H156" s="44" t="s">
+      <c r="H156" s="45" t="s">
         <v>699</v>
       </c>
       <c r="I156" s="6"/>
@@ -14450,26 +14413,26 @@
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="65" t="s">
+      <c r="A157" s="66" t="s">
         <v>700</v>
       </c>
-      <c r="B157" s="54" t="s">
+      <c r="B157" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C157" s="74" t="s">
+      <c r="C157" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D157" s="74" t="s">
+      <c r="D157" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="E157" s="48" t="s">
+      <c r="E157" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="F157" s="48"/>
-      <c r="G157" s="48" t="s">
+      <c r="F157" s="35"/>
+      <c r="G157" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="H157" s="48" t="s">
+      <c r="H157" s="50" t="s">
         <v>545</v>
       </c>
       <c r="I157" s="6"/>
@@ -14477,26 +14440,26 @@
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="87" t="s">
+      <c r="A158" s="88" t="s">
         <v>702</v>
       </c>
       <c r="B158" s="38" t="s">
         <v>703</v>
       </c>
-      <c r="C158" s="120" t="s">
+      <c r="C158" s="121" t="s">
         <v>704</v>
       </c>
-      <c r="D158" s="120" t="s">
+      <c r="D158" s="121" t="s">
         <v>705</v>
       </c>
-      <c r="E158" s="121" t="s">
+      <c r="E158" s="122" t="s">
         <v>706</v>
       </c>
-      <c r="F158" s="121"/>
+      <c r="F158" s="35"/>
       <c r="G158" s="36" t="s">
         <v>707</v>
       </c>
-      <c r="H158" s="122" t="s">
+      <c r="H158" s="123" t="s">
         <v>708</v>
       </c>
       <c r="I158" s="6"/>
@@ -14504,43 +14467,43 @@
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="87" t="s">
+      <c r="A159" s="88" t="s">
         <v>709</v>
       </c>
       <c r="B159" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="C159" s="123" t="s">
+      <c r="C159" s="124" t="s">
         <v>436</v>
       </c>
-      <c r="D159" s="66"/>
-      <c r="E159" s="55" t="s">
+      <c r="D159" s="6"/>
+      <c r="E159" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="F159" s="55"/>
-      <c r="G159" s="55"/>
-      <c r="H159" s="55"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="47" t="s">
+      <c r="A160" s="49" t="s">
         <v>712</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="48" t="s">
         <v>713</v>
       </c>
-      <c r="C160" s="66"/>
-      <c r="D160" s="66"/>
-      <c r="E160" s="55" t="s">
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="F160" s="55"/>
-      <c r="G160" s="55" t="s">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="H160" s="55" t="s">
+      <c r="H160" s="4" t="s">
         <v>716</v>
       </c>
       <c r="I160" s="6"/>
@@ -14548,41 +14511,41 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="47" t="s">
+      <c r="A161" s="49" t="s">
         <v>717</v>
       </c>
-      <c r="B161" s="73" t="s">
+      <c r="B161" s="74" t="s">
         <v>718</v>
       </c>
-      <c r="C161" s="66" t="s">
+      <c r="C161" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D161" s="66"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="65" t="s">
+      <c r="A162" s="66" t="s">
         <v>719</v>
       </c>
-      <c r="B162" s="67" t="s">
+      <c r="B162" s="68" t="s">
         <v>720</v>
       </c>
-      <c r="C162" s="66"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="66" t="s">
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="F162" s="66"/>
-      <c r="G162" s="66" t="s">
+      <c r="F162" s="6"/>
+      <c r="G162" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="H162" s="66" t="s">
+      <c r="H162" s="6" t="s">
         <v>722</v>
       </c>
       <c r="I162" s="6"/>
@@ -14590,22 +14553,22 @@
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="65" t="s">
+      <c r="A163" s="66" t="s">
         <v>723</v>
       </c>
-      <c r="B163" s="67" t="s">
+      <c r="B163" s="68" t="s">
         <v>724</v>
       </c>
-      <c r="C163" s="66"/>
-      <c r="D163" s="66"/>
-      <c r="E163" s="66" t="s">
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="F163" s="66"/>
-      <c r="G163" s="66" t="s">
+      <c r="F163" s="6"/>
+      <c r="G163" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="H163" s="124" t="s">
+      <c r="H163" s="125" t="s">
         <v>726</v>
       </c>
       <c r="I163" s="6"/>
@@ -14613,22 +14576,22 @@
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="65" t="s">
+      <c r="A164" s="66" t="s">
         <v>727</v>
       </c>
-      <c r="B164" s="67" t="s">
+      <c r="B164" s="68" t="s">
         <v>728</v>
       </c>
-      <c r="C164" s="66"/>
-      <c r="D164" s="66"/>
-      <c r="E164" s="66" t="s">
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="F164" s="66"/>
-      <c r="G164" s="66" t="s">
+      <c r="F164" s="6"/>
+      <c r="G164" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="H164" s="125" t="s">
+      <c r="H164" s="126" t="s">
         <v>730</v>
       </c>
       <c r="I164" s="6"/>
@@ -14636,22 +14599,22 @@
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="65" t="s">
+      <c r="A165" s="66" t="s">
         <v>731</v>
       </c>
-      <c r="B165" s="67" t="s">
+      <c r="B165" s="68" t="s">
         <v>732</v>
       </c>
-      <c r="C165" s="66"/>
-      <c r="D165" s="66"/>
-      <c r="E165" s="66" t="s">
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="F165" s="66"/>
-      <c r="G165" s="66" t="s">
+      <c r="F165" s="6"/>
+      <c r="G165" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="H165" s="125" t="s">
+      <c r="H165" s="126" t="s">
         <v>734</v>
       </c>
       <c r="I165" s="6"/>
@@ -14659,92 +14622,90 @@
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="87" t="s">
+      <c r="A166" s="88" t="s">
         <v>735</v>
       </c>
-      <c r="B166" s="126" t="s">
+      <c r="B166" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="C166" s="123" t="s">
+      <c r="C166" s="124" t="s">
         <v>436</v>
       </c>
-      <c r="D166" s="66"/>
-      <c r="E166" s="66"/>
-      <c r="F166" s="66"/>
-      <c r="G166" s="66"/>
-      <c r="H166" s="66"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="49" t="s">
         <v>737</v>
       </c>
-      <c r="B167" s="73" t="s">
+      <c r="B167" s="74" t="s">
         <v>738</v>
       </c>
-      <c r="C167" s="127" t="s">
+      <c r="C167" s="128" t="s">
         <v>452</v>
       </c>
-      <c r="D167" s="66"/>
-      <c r="E167" s="66" t="s">
+      <c r="D167" s="6"/>
+      <c r="E167" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="F167" s="66"/>
-      <c r="G167" s="66" t="s">
-        <v>715</v>
-      </c>
-      <c r="H167" s="128" t="s">
-        <v>740</v>
-      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
+      <c r="K167" s="6" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="87" t="s">
+      <c r="A168" s="88" t="s">
         <v>741</v>
       </c>
-      <c r="B168" s="126" t="s">
+      <c r="B168" s="127" t="s">
         <v>742</v>
       </c>
-      <c r="C168" s="123" t="s">
+      <c r="C168" s="124" t="s">
         <v>436</v>
       </c>
-      <c r="D168" s="66"/>
-      <c r="E168" s="66"/>
-      <c r="F168" s="66"/>
-      <c r="G168" s="66"/>
-      <c r="H168" s="66"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="47" t="s">
+      <c r="A169" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="B169" s="73" t="s">
+      <c r="B169" s="74" t="s">
         <v>744</v>
       </c>
-      <c r="C169" s="123" t="s">
+      <c r="C169" s="124" t="s">
         <v>745</v>
       </c>
-      <c r="D169" s="66" t="s">
+      <c r="D169" s="6" t="s">
         <v>746</v>
       </c>
       <c r="E169" s="129" t="s">
         <v>747</v>
       </c>
-      <c r="F169" s="66"/>
-      <c r="G169" s="66" t="s">
+      <c r="F169" s="6"/>
+      <c r="G169" s="6" t="s">
         <v>748</v>
       </c>
       <c r="H169" s="130" t="s">
         <v>749</v>
       </c>
-      <c r="I169" s="75" t="s">
+      <c r="I169" s="76" t="s">
         <v>750</v>
       </c>
       <c r="J169" s="6"/>
@@ -14820,10 +14781,9 @@
     <hyperlink r:id="rId25" ref="H163"/>
     <hyperlink r:id="rId26" ref="H164"/>
     <hyperlink r:id="rId27" ref="H165"/>
-    <hyperlink r:id="rId28" ref="H167"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <drawing r:id="rId28"/>
+  <legacyDrawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -14870,10 +14830,10 @@
       <c r="B2" s="36" t="s">
         <v>752</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>753</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="36" t="s">
         <v>754</v>
       </c>
@@ -14885,13 +14845,13 @@
       <c r="A3" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>753</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="36" t="s">
         <v>756</v>
       </c>
@@ -14903,13 +14863,13 @@
       <c r="A4" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>758</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>759</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="75" t="s">
         <v>760</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -14923,7 +14883,7 @@
       <c r="A5" s="133" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>763</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -14963,7 +14923,7 @@
       <c r="A6" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>501</v>
       </c>
       <c r="C6" s="135" t="s">
@@ -19422,7 +19382,7 @@
       <c r="C5" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -19492,7 +19452,7 @@
       <c r="C7" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="4" t="s">
         <v>829</v>
       </c>
       <c r="E7" s="6"/>
@@ -19555,220 +19515,220 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="155" t="s">
         <v>833</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="156" t="s">
         <v>834</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="156" t="s">
         <v>820</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="156" t="s">
         <v>835</v>
       </c>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="157"/>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="157"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
     </row>
     <row r="10">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>836</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="156" t="s">
         <v>834</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="156" t="s">
         <v>820</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="156" t="s">
         <v>837</v>
       </c>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="157"/>
-      <c r="S10" s="157"/>
-      <c r="T10" s="157"/>
-      <c r="U10" s="157"/>
-      <c r="V10" s="157"/>
-      <c r="W10" s="157"/>
-      <c r="X10" s="157"/>
-      <c r="Y10" s="157"/>
-      <c r="Z10" s="157"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
     </row>
     <row r="11">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="155" t="s">
         <v>838</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="156" t="s">
         <v>839</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="156" t="s">
         <v>820</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="156" t="s">
         <v>840</v>
       </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="157"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="157"/>
-      <c r="Z11" s="157"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
     </row>
     <row r="12">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="155" t="s">
         <v>841</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="156" t="s">
         <v>839</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="156" t="s">
         <v>820</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="156" t="s">
         <v>842</v>
       </c>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
     </row>
     <row r="13">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="155" t="s">
         <v>843</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="155" t="s">
         <v>823</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="156" t="s">
         <v>820</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="156" t="s">
         <v>844</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
     </row>
     <row r="14">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="155" t="s">
         <v>845</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="155" t="s">
         <v>823</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="156" t="s">
         <v>820</v>
       </c>
-      <c r="D14" s="157" t="s">
+      <c r="D14" s="156" t="s">
         <v>846</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="157"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="157"/>
-      <c r="Y14" s="157"/>
-      <c r="Z14" s="157"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19837,7 +19797,7 @@
       <c r="B5" s="137" t="s">
         <v>852</v>
       </c>
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="157" t="s">
         <v>850</v>
       </c>
       <c r="D5" s="137" t="s">

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="865">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.6.3</t>
+    <t>6.7.3</t>
   </si>
   <si>
     <r>
@@ -555,6 +555,18 @@
     <t>The value of the LEGAL_BASIS_OTHER XML element will be mapped only after EPO will be provide appropriate support for it.</t>
   </si>
   <si>
+    <t>/TED_EXPORT/CODED_DATA_SECTION/REF_OJS/DATE_PUB</t>
+  </si>
+  <si>
+    <t>epo:Notice / xsd:string</t>
+  </si>
+  <si>
+    <t>?this epo:hasPublicationDate ?value</t>
+  </si>
+  <si>
+    <t>The value of the hasPublicationDate property should be of type xsd:date, but we create it with xsd:string type because the formatting of the date in the source file is not a valid xsd:date format (it is of form "YYYYMMDD" instead of "YYYY-MM-DD"). The wrong date format and data type will be fixed in a separate "transofrmation" step.</t>
+  </si>
+  <si>
     <t>Section I</t>
   </si>
   <si>
@@ -573,7 +585,7 @@
     <t>epo:Notice / epo:AgentInRole (from CL1)</t>
   </si>
   <si>
-    <t>?this epo:refersToRole ?value</t>
+    <t>?this epo:announcesRole ?value</t>
   </si>
   <si>
     <t>I.1.1</t>
@@ -1746,6 +1758,10 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpvsuppl (from cpvsuppl.json)</t>
   </si>
   <si>
+    <t>Not mappable properly to EPO.
+See the related comments in the "Mapping Remarks" sheet for more details.</t>
+  </si>
+  <si>
     <t>II.1.3</t>
   </si>
   <si>
@@ -1901,7 +1917,10 @@
     <t>OBJECT_CONTRACT</t>
   </si>
   <si>
-    <t>epo:Notice / epo:NoticeAwardInformation</t>
+    <t>if (exists(VAL_TOTAL) or exists(VAL_RANGE_TOTAL/LOW) or exists(VAL_RANGE_TOTAL/HIGH))</t>
+  </si>
+  <si>
+    <t>epo:ResultNotice / epo:NoticeAwardInformation</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation ?value .</t>
@@ -1997,7 +2016,8 @@
     <t>II.1.7.4</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
+    <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY
+OBJECT_CONTRACT/VAL_RANGE_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -2615,14 +2635,12 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">The meaning of this mapping is that the </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
         <u/>
       </rPr>
       <t>previous</t>
@@ -2630,7 +2648,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> Notice instance, which we create when we map the `PROCEDURE/NOTICE_NUMBER_OJ` XPath, will get a secondary rdf:type : epo:CompetitionNotice.</t>
     </r>
@@ -2958,6 +2975,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -2965,6 +2983,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasTitle </t>
     </r>
@@ -2972,6 +2991,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?value</t>
     </r>
@@ -2979,6 +2999,47 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>if(exists(NO_AWARDED_CONTRACT))</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasNonAwardedContractTitle </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3118,10 +3179,9 @@
     <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT</t>
   </si>
   <si>
-    <t>epo:LotAwardOutcome / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:hasAdditionalNonAwardJustification ?value .</t>
+    <t>This is not in the publication XML, but in the reception XML, 
+and it is not mappable properly to EPO v3.1.0.
+See the related comments in the ""Mapping Remarks"" sheet for more details."</t>
   </si>
   <si>
     <t>V.2</t>
@@ -3271,6 +3331,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3278,12 +3339,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasReceivedSMETenders ?</t>
     </r>
@@ -3291,6 +3354,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3309,6 +3373,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3316,12 +3381,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasEUReceivedTenders  ?</t>
     </r>
@@ -3329,6 +3396,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3402,10 +3470,7 @@
 AWARD_CONTRACT/AWARDED_CONTRACT/AWARDED_TO_GROUP</t>
   </si>
   <si>
-    <t>epo:OrganisationGroup / org:Organization</t>
-  </si>
-  <si>
-    <t>?this epo:hasMember ?value</t>
+    <t>This is not mappable as EPO 3.1.0 and the Standard form XSD does not provide appropriate model for representing the grouping of Winners per TenderAwardOutcome. See GH issue #245</t>
   </si>
   <si>
     <t>V.2.3</t>
@@ -3424,7 +3489,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3432,14 +3496,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -3447,14 +3509,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3597,6 +3657,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3604,12 +3665,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
@@ -3617,12 +3680,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3641,6 +3706,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3648,12 +3714,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
@@ -3661,12 +3729,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3682,7 +3752,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3690,14 +3759,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -3705,14 +3772,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3757,7 +3822,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -3765,14 +3829,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4193,9 +4255,6 @@
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY</t>
   </si>
   <si>
-    <t>?this epo:announcesRole ?value</t>
-  </si>
-  <si>
     <t>VI.4.1.1</t>
   </si>
   <si>
@@ -4245,6 +4304,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4252,12 +4312,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
@@ -4265,12 +4327,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4285,6 +4349,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4292,12 +4357,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
@@ -4305,12 +4372,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4778,7 +4847,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4786,14 +4854,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -4801,14 +4867,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4868,6 +4932,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4875,12 +4940,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
@@ -4888,12 +4955,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4908,7 +4977,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4916,14 +4984,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
@@ -4931,14 +4997,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4953,7 +5017,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4961,14 +5024,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -4976,14 +5037,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5294,6 +5353,13 @@
     <t>iss_gh_map275_language_tag_exists.ask.rq</t>
   </si>
   <si>
+    <t>The original class/property path of the mapping was:
+	epo:Procedure / epo:Purpose / at-voc:cpvsuppl (from cpvsuppl.json)
+	?this epo:hasPurpose / epo:hasMainClassification ?value .
+However, these mappings are not accurate, because they don't take in account the grouping of supplementary CPV codes with the "regular" CPV codes. EPO does not suppport these groupings so not possible to properly the supplementary CPV codes.
+See issues #119 and #205.</t>
+  </si>
+  <si>
     <t>II.1.6.1</t>
   </si>
   <si>
@@ -5317,6 +5383,16 @@
 We can infer it from the RDF data, by checking if there is only one lot in the notice (e.g. COUNT(epo:Lot = 1)).</t>
   </si>
   <si>
+    <t>The original class/property path of the mapping was:
+	epo:Lot / epo:Purpose / at-voc:cpvsuppl (from cpvsuppl.json)
+	?this epo:hasPurpose / epo:hasAdditionalClassification ?value .
+However, these mappings are not accurate, because they don't take in account the grouping of supplementary CPV codes with the "regular" CPV codes. EPO does not suppport these groupings so not possible to properly the supplementary CPV codes.
+See issues #119 and #205.</t>
+  </si>
+  <si>
+    <t>V.0.2</t>
+  </si>
+  <si>
     <t>Lot No</t>
   </si>
   <si>
@@ -5329,16 +5405,29 @@
     <t>AWARD_CONTRACT/LOT_NO</t>
   </si>
   <si>
-    <t>We are using the LOT_NO element to create the LotIdentifier value. This is done in Section II.
-The LOT_NO that is specified in Section V is used in the technical mapping to connect the contract to the right lot (which was created in Section II).</t>
-  </si>
-  <si>
-    <t>A contract/lot is awarded</t>
+    <t>BT-143</t>
   </si>
   <si>
     <t>If the NO_AWARDED_CONTRACT XML element is present in a particular AWARD_CONTRACT element, then there will be no Contract instance created for this case. We can infer the non-awarded lot (for which there is no contract signed) with a SPARQL query.</t>
   </si>
   <si>
+    <t>This field is not present in the PDF, or the published data, but the XPath is valid according to the XSD.
+The original mapping (see class/property paths below) is wrong, as it should refer to a previous notice.:
+        epo:LotAwardOutcome / rdf:langString
+        ?this epo:hasAdditionalNonAwardJustification ?value .
+This is not in the Publication xml but the reception xml. 
+See issue #306</t>
+  </si>
+  <si>
+    <t>V.1.1.3.0</t>
+  </si>
+  <si>
+    <t>Not to be published</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT/@PUBLICATION</t>
+  </si>
+  <si>
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/NO_AWARDED_TO_GROUP</t>
   </si>
   <si>
@@ -5352,6 +5441,53 @@
   </si>
   <si>
     <t>The presence of the &lt;NO_SME&gt; element means that the user did not check the "is an SME" checkbox in the form, which means that we don't have information about whether an organisation is an SME or not. There is no value in the vocabulary to express the "no SME" case: http://publications.europa.eu/resource/authority/economic-operator-size, so we can't represent the information that is in XML accurately in RDF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>The original class/property path of the mapping was:
+    epo:Procedure / epo:DirectAwardTerm / at-voc:direct-award-justification
+    ?this epo:isSubjectToProcedureSpecificTerm / epo:hasDirectAwardJustification &lt;http://publications.europa.eu/resource/authority/direct-award-justification/dir24-list&gt; .
+However, as explained in GH issu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/OP-TED/ted-rdf-mapping/issues/308</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 
+The definition of the code (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>at-voc:direct-award-justification/dir24-list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>) is confusing.
+In the ideal world we should have a "generic" code, which expresses that the notice falls outside the scope of the directive.
+For now, this field is marked as not mappable.</t>
+    </r>
   </si>
   <si>
     <t>Property path</t>
@@ -5443,12 +5579,6 @@
   </si>
   <si>
     <t>legal_basis.json</t>
-  </si>
-  <si>
-    <t>cpvsuppl.json</t>
-  </si>
-  <si>
-    <t>temporal_unit.csv</t>
   </si>
   <si>
     <t>Comment (optional)</t>
@@ -5614,7 +5744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5690,6 +5820,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
@@ -5701,7 +5841,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -5812,12 +5956,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCECFF"/>
       </patternFill>
@@ -5838,6 +5976,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
         <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -6048,11 +6192,14 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6063,7 +6210,34 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -6073,18 +6247,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -6093,69 +6255,51 @@
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -6166,13 +6310,10 @@
     <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -6187,16 +6328,19 @@
     <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6211,22 +6355,25 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6241,58 +6388,58 @@
     <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6300,6 +6447,9 @@
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -6310,28 +6460,28 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6343,26 +6493,20 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6377,10 +6521,10 @@
     <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6389,10 +6533,10 @@
     <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6404,7 +6548,7 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -6413,7 +6557,7 @@
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -9915,17 +10059,17 @@
         <v>44</v>
       </c>
       <c r="F3" s="35"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="34" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="27"/>
@@ -9938,20 +10082,26 @@
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B4" s="33"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="6"/>
+      <c r="E4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -9961,26 +10111,20 @@
       <c r="R4" s="27"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>52</v>
+      <c r="A5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
@@ -9991,32 +10135,26 @@
       <c r="R5" s="27"/>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="H6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="36"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="6"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
@@ -10027,32 +10165,32 @@
       <c r="R6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="H7" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="I7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="36"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="6"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
@@ -10063,30 +10201,32 @@
       <c r="R7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="H8" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="6"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -10097,30 +10237,30 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="E9" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="H9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="6"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
@@ -10131,32 +10271,30 @@
       <c r="R9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="D10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="E10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="6"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -10167,30 +10305,32 @@
       <c r="R10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="F11" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="G11" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="H11" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="6"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -10201,30 +10341,30 @@
       <c r="R11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="E12" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="H12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="6"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -10235,32 +10375,30 @@
       <c r="R12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="E13" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="H13" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="36"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="6"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -10271,30 +10409,32 @@
       <c r="R13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="E14" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="H14" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="6"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -10306,29 +10446,29 @@
     </row>
     <row r="15">
       <c r="A15" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="D15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="6"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -10339,30 +10479,30 @@
       <c r="R15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="E16" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="H16" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="6"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -10374,19 +10514,29 @@
     </row>
     <row r="17">
       <c r="A17" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="D17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="E17" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="6"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -10397,30 +10547,20 @@
       <c r="R17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="6"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -10431,30 +10571,30 @@
       <c r="R18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="D19" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="6"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -10465,33 +10605,31 @@
       <c r="R19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="E20" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="H20" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -10501,25 +10639,33 @@
       <c r="R20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="39" t="s">
+      <c r="F21" s="55"/>
+      <c r="G21" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39" t="s">
+      <c r="H21" s="56" t="s">
         <v>158</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="6"/>
+      <c r="K21" s="37" t="s">
+        <v>159</v>
+      </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -10529,33 +10675,25 @@
       <c r="R21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="F22" s="58"/>
+      <c r="G22" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="H22" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -10565,25 +10703,33 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="39" t="s">
+      <c r="F23" s="55"/>
+      <c r="G23" s="59" t="s">
         <v>169</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>170</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="37" t="s">
+        <v>159</v>
+      </c>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
@@ -10601,30 +10747,24 @@
       <c r="Z23" s="61"/>
     </row>
     <row r="24">
-      <c r="A24" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>163</v>
-      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="62" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="6"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
@@ -10643,24 +10783,30 @@
       <c r="Z24" s="61"/>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="39" t="s">
+      <c r="B25" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="39" t="s">
+      <c r="C25" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="6"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -10671,18 +10817,22 @@
       <c r="R25" s="27"/>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="64"/>
+      <c r="G26" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>180</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="6"/>
@@ -10695,20 +10845,20 @@
       <c r="R26" s="27"/>
     </row>
     <row r="27">
-      <c r="A27" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>180</v>
+      <c r="A27" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>182</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="6"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
@@ -10719,32 +10869,20 @@
       <c r="R27" s="27"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="A28" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
+      <c r="B28" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="36"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="6"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
@@ -10755,33 +10893,33 @@
       <c r="R28" s="27"/>
     </row>
     <row r="29">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="F29" s="34"/>
+      <c r="G29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="H29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="6"/>
+      <c r="I29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="37"/>
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
@@ -10799,30 +10937,32 @@
       <c r="Z29" s="61"/>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="F30" s="44"/>
+      <c r="G30" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="H30" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="52"/>
       <c r="K30" s="6"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
@@ -10833,27 +10973,27 @@
       <c r="R30" s="27"/>
     </row>
     <row r="31">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="E31" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="F31" s="34"/>
+      <c r="G31" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="H31" s="58" t="s">
         <v>203</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>199</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -10867,31 +11007,33 @@
       <c r="R31" s="27"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="D32" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>212</v>
+      <c r="H32" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="6"/>
+      <c r="K32" s="37" t="s">
+        <v>210</v>
+      </c>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -10901,31 +11043,29 @@
       <c r="R32" s="27"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="D33" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="E33" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="50" t="s">
+      <c r="F33" s="34"/>
+      <c r="G33" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I33" s="36" t="s">
-        <v>63</v>
-      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="6"/>
       <c r="L33" s="27"/>
@@ -10937,19 +11077,31 @@
       <c r="R33" s="27"/>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="4"/>
+      <c r="C34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
       <c r="L34" s="27"/>
@@ -10961,28 +11113,18 @@
       <c r="R34" s="27"/>
     </row>
     <row r="35">
-      <c r="A35" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="56" t="s">
+      <c r="A35" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="B35" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="H35" s="67" t="s">
-        <v>226</v>
-      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
@@ -11003,22 +11145,26 @@
       <c r="Z35" s="61"/>
     </row>
     <row r="36">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="D36" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57" t="s">
+      <c r="F36" s="55"/>
+      <c r="G36" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="55" t="s">
         <v>231</v>
       </c>
       <c r="I36" s="6"/>
@@ -11033,22 +11179,24 @@
       <c r="R36" s="27"/>
     </row>
     <row r="37">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="67" t="s">
         <v>232</v>
       </c>
       <c r="B37" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="70" t="s">
+      <c r="F37" s="66"/>
+      <c r="G37" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="H37" s="69" t="s">
+        <v>236</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -11061,18 +11209,22 @@
       <c r="R37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="B38" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="66"/>
+      <c r="E38" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -11085,24 +11237,18 @@
       <c r="R38" s="27"/>
     </row>
     <row r="39">
-      <c r="A39" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>239</v>
+      <c r="A39" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>242</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>242</v>
-      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -11115,27 +11261,25 @@
       <c r="R39" s="27"/>
     </row>
     <row r="40">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="50" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F40" s="35"/>
+      <c r="F40" s="34" t="s">
+        <v>246</v>
+      </c>
       <c r="G40" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -11157,26 +11301,26 @@
       <c r="Z40" s="61"/>
     </row>
     <row r="41">
-      <c r="A41" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>251</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>252</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H41" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>253</v>
       </c>
       <c r="I41" s="6"/>
@@ -11191,26 +11335,26 @@
       <c r="R41" s="27"/>
     </row>
     <row r="42">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="35" t="s">
         <v>258</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H42" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H42" s="48" t="s">
         <v>259</v>
       </c>
       <c r="I42" s="6"/>
@@ -11225,23 +11369,27 @@
       <c r="R42" s="27"/>
     </row>
     <row r="43">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B43" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="50" t="s">
+      <c r="B43" s="54" t="s">
         <v>261</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>264</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="H43" s="71" t="s">
-        <v>263</v>
+        <v>252</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>265</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -11255,23 +11403,23 @@
       <c r="R43" s="27"/>
     </row>
     <row r="44">
-      <c r="A44" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="H44" s="36" t="s">
+      <c r="A44" s="53" t="s">
         <v>266</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>269</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -11285,23 +11433,23 @@
       <c r="R44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45" s="73" t="s">
+      <c r="A45" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="58" t="s">
-        <v>240</v>
+      <c r="E45" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>268</v>
+      <c r="G45" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -11315,31 +11463,25 @@
       <c r="R45" s="27"/>
     </row>
     <row r="46">
-      <c r="A46" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="75" t="s">
+      <c r="A46" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13" t="s">
-        <v>271</v>
+      <c r="B46" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="75" t="s">
+        <v>273</v>
       </c>
       <c r="H46" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="I46" s="76" t="s">
-        <v>63</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="27"/>
@@ -11351,30 +11493,30 @@
       <c r="R46" s="27"/>
     </row>
     <row r="47">
-      <c r="A47" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" s="50" t="s">
+      <c r="A47" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="B47" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="F47" s="48"/>
+      <c r="G47" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35" t="s">
+      <c r="H47" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="H47" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>71</v>
+      <c r="I47" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="6"/>
@@ -11387,19 +11529,31 @@
       <c r="R47" s="27"/>
     </row>
     <row r="48">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="C48" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="D48" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="F48" s="48"/>
+      <c r="G48" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="6"/>
       <c r="L48" s="27"/>
@@ -11411,28 +11565,18 @@
       <c r="R48" s="27"/>
     </row>
     <row r="49">
-      <c r="A49" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>285</v>
-      </c>
+      <c r="A49" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -11453,27 +11597,27 @@
       <c r="Z49" s="61"/>
     </row>
     <row r="50">
-      <c r="A50" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>201</v>
+      <c r="A50" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>198</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>285</v>
+        <v>200</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -11487,21 +11631,33 @@
       <c r="R50" s="27"/>
     </row>
     <row r="51">
-      <c r="A51" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="A51" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="K51" s="37" t="s">
+        <v>210</v>
+      </c>
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
@@ -11511,30 +11667,18 @@
       <c r="R51" s="27"/>
     </row>
     <row r="52">
-      <c r="A52" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="B52" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F52" s="36" t="s">
+      <c r="A52" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="B52" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="H52" s="71" t="s">
-        <v>297</v>
-      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -11547,31 +11691,31 @@
       <c r="R52" s="27"/>
     </row>
     <row r="53">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="D53" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="E53" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="75" t="s">
+      <c r="F53" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="G53" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="35" t="s">
+      <c r="H53" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="H53" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="I53" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="27"/>
@@ -11583,30 +11727,30 @@
       <c r="R53" s="27"/>
     </row>
     <row r="54">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="C54" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C54" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="H54" s="31" t="s">
+      <c r="E54" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="I54" s="76" t="s">
-        <v>63</v>
+      <c r="F54" s="34"/>
+      <c r="G54" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -11619,19 +11763,31 @@
       <c r="R54" s="27"/>
     </row>
     <row r="55">
-      <c r="A55" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="B55" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="6"/>
+      <c r="A55" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="27"/>
@@ -11643,17 +11799,15 @@
       <c r="R55" s="27"/>
     </row>
     <row r="56">
-      <c r="A56" s="77" t="s">
-        <v>311</v>
-      </c>
-      <c r="B56" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="58" t="s">
-        <v>240</v>
-      </c>
+      <c r="A56" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -11669,31 +11823,21 @@
       <c r="R56" s="27"/>
     </row>
     <row r="57">
-      <c r="A57" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E57" s="36" t="s">
+      <c r="A57" s="76" t="s">
         <v>317</v>
       </c>
+      <c r="B57" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="57" t="s">
+        <v>245</v>
+      </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I57" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="27"/>
@@ -11705,21 +11849,33 @@
       <c r="R57" s="27"/>
     </row>
     <row r="58">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="C58" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="70"/>
+      <c r="D58" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
       <c r="L58" s="27"/>
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
@@ -11729,31 +11885,21 @@
       <c r="R58" s="27"/>
     </row>
     <row r="59">
-      <c r="A59" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="B59" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="D59" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="E59" s="56" t="s">
+      <c r="A59" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="57" t="s">
+      <c r="B59" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="H59" s="56" t="s">
-        <v>328</v>
-      </c>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="70"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
       <c r="L59" s="27"/>
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
@@ -11763,27 +11909,31 @@
       <c r="R59" s="27"/>
     </row>
     <row r="60">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="56" t="s">
+      <c r="C60" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="F60" s="56" t="s">
+      <c r="D60" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="G60" s="57" t="s">
+      <c r="E60" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="H60" s="56" t="s">
+      <c r="F60" s="55"/>
+      <c r="G60" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="70"/>
+      <c r="H60" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
@@ -11793,27 +11943,27 @@
       <c r="R60" s="27"/>
     </row>
     <row r="61">
-      <c r="A61" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="F61" s="67" t="s">
+      <c r="A61" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="G61" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="H61" s="56" t="s">
+      <c r="B61" s="78"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="70"/>
+      <c r="F61" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="G61" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
       <c r="L61" s="27"/>
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
@@ -11823,31 +11973,27 @@
       <c r="R61" s="27"/>
     </row>
     <row r="62">
-      <c r="A62" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="B62" s="55" t="s">
+      <c r="A62" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" s="78"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="F62" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="G62" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="D62" s="67" t="s">
-        <v>340</v>
-      </c>
-      <c r="E62" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="F62" s="67"/>
-      <c r="G62" s="57" t="s">
+      <c r="H62" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="H62" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="70"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
       <c r="L62" s="27"/>
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
@@ -11857,31 +12003,31 @@
       <c r="R62" s="27"/>
     </row>
     <row r="63">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="C63" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="D63" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="E63" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="F63" s="55"/>
+      <c r="G63" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="H63" s="56" t="s">
+      <c r="H63" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
@@ -11891,18 +12037,28 @@
       <c r="R63" s="27"/>
     </row>
     <row r="64">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="C64" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="F64" s="55"/>
+      <c r="G64" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="H64" s="55" t="s">
+        <v>355</v>
+      </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -11915,28 +12071,18 @@
       <c r="R64" s="27"/>
     </row>
     <row r="65">
-      <c r="A65" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="E65" s="75" t="s">
+      <c r="A65" s="47" t="s">
         <v>356</v>
       </c>
+      <c r="B65" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="H65" s="80" t="s">
-        <v>358</v>
-      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -11949,27 +12095,27 @@
       <c r="R65" s="27"/>
     </row>
     <row r="66">
-      <c r="A66" s="81" t="s">
-        <v>352</v>
-      </c>
-      <c r="B66" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="C66" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="D66" s="84" t="s">
-        <v>355</v>
-      </c>
-      <c r="E66" s="50" t="s">
+      <c r="A66" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="B66" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="H66" s="85" t="s">
+      <c r="C66" s="35" t="s">
         <v>360</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="H66" s="79" t="s">
+        <v>364</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -11983,31 +12129,29 @@
       <c r="R66" s="27"/>
     </row>
     <row r="67">
-      <c r="A67" s="66" t="s">
+      <c r="A67" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="C67" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="D67" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="B67" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="C67" s="35" t="s">
+      <c r="E67" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="D67" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="E67" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="H67" s="85" t="s">
+      <c r="H67" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="I67" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="27"/>
@@ -12019,30 +12163,30 @@
       <c r="R67" s="27"/>
     </row>
     <row r="68">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H68" s="86" t="s">
+      <c r="H68" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="I68" s="76" t="s">
-        <v>63</v>
+      <c r="I68" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -12055,21 +12199,31 @@
       <c r="R68" s="27"/>
     </row>
     <row r="69">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="36" t="s">
+      <c r="C69" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="6"/>
+      <c r="D69" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F69" s="34"/>
+      <c r="G69" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="27"/>
@@ -12081,18 +12235,20 @@
       <c r="R69" s="27"/>
     </row>
     <row r="70">
-      <c r="A70" s="88" t="s">
-        <v>376</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>8</v>
+      <c r="A70" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>380</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="34" t="s">
+        <v>381</v>
+      </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -12105,15 +12261,15 @@
       <c r="R70" s="27"/>
     </row>
     <row r="71">
-      <c r="A71" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="B71" s="48" t="s">
-        <v>378</v>
+      <c r="A71" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="36"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -12129,31 +12285,21 @@
       <c r="R71" s="27"/>
     </row>
     <row r="72">
-      <c r="A72" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="B72" s="55" t="s">
-        <v>380</v>
+      <c r="A72" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>384</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>384</v>
-      </c>
+      <c r="E72" s="34"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="76" t="s">
-        <v>385</v>
-      </c>
+      <c r="K72" s="6"/>
       <c r="L72" s="27"/>
       <c r="M72" s="27"/>
       <c r="N72" s="27"/>
@@ -12163,28 +12309,30 @@
       <c r="R72" s="27"/>
     </row>
     <row r="73">
-      <c r="A73" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>380</v>
+      <c r="A73" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>386</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="58" t="s">
-        <v>381</v>
-      </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="35" t="s">
-        <v>386</v>
+      <c r="E73" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="H73" s="89" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="90" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L73" s="27"/>
       <c r="M73" s="27"/>
@@ -12195,28 +12343,28 @@
       <c r="R73" s="27"/>
     </row>
     <row r="74">
-      <c r="A74" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>390</v>
+      <c r="A74" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>386</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="36" t="s">
-        <v>391</v>
+      <c r="E74" s="57" t="s">
+        <v>387</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="H74" s="89" t="s">
         <v>392</v>
+      </c>
+      <c r="H74" s="91" t="s">
+        <v>393</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="90" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L74" s="27"/>
       <c r="M74" s="27"/>
@@ -12227,31 +12375,29 @@
       <c r="R74" s="27"/>
     </row>
     <row r="75">
-      <c r="A75" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="B75" s="48" t="s">
+      <c r="A75" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="B75" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="E75" s="50" t="s">
+      <c r="F75" s="4"/>
+      <c r="G75" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="H75" s="91" t="s">
         <v>398</v>
-      </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="H75" s="71" t="s">
-        <v>400</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="K75" s="90" t="s">
+        <v>399</v>
+      </c>
       <c r="L75" s="27"/>
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
@@ -12261,27 +12407,27 @@
       <c r="R75" s="27"/>
     </row>
     <row r="76">
-      <c r="A76" s="91" t="s">
-        <v>394</v>
-      </c>
-      <c r="B76" s="92" t="s">
-        <v>395</v>
-      </c>
-      <c r="C76" s="83" t="s">
-        <v>396</v>
-      </c>
-      <c r="D76" s="84" t="s">
-        <v>397</v>
-      </c>
-      <c r="E76" s="50" t="s">
+      <c r="A76" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B76" s="46" t="s">
         <v>401</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>404</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H76" s="71" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -12295,18 +12441,28 @@
       <c r="R76" s="27"/>
     </row>
     <row r="77">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="92" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77" s="93" t="s">
+        <v>401</v>
+      </c>
+      <c r="C77" s="82" t="s">
+        <v>402</v>
+      </c>
+      <c r="D77" s="83" t="s">
         <v>403</v>
       </c>
-      <c r="B77" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="E77" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="H77" s="71" t="s">
+        <v>408</v>
+      </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -12319,27 +12475,19 @@
       <c r="R77" s="27"/>
     </row>
     <row r="78">
-      <c r="A78" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="H78" s="71" t="s">
+      <c r="A78" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="I78" s="76" t="s">
-        <v>71</v>
-      </c>
+      <c r="B78" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="27"/>
@@ -12351,25 +12499,27 @@
       <c r="R78" s="27"/>
     </row>
     <row r="79">
-      <c r="A79" s="87" t="s">
-        <v>410</v>
-      </c>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="93" t="s">
+      <c r="B79" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="36" t="s">
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="H79" s="36" t="s">
+      <c r="F79" s="35"/>
+      <c r="G79" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="I79" s="6"/>
+      <c r="H79" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="27"/>
@@ -12381,33 +12531,25 @@
       <c r="R79" s="27"/>
     </row>
     <row r="80">
-      <c r="A80" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="B80" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="50" t="s">
+      <c r="A80" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="B80" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="94" t="s">
         <v>418</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G80" s="36" t="s">
+      <c r="H80" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="H80" s="94" t="s">
-        <v>421</v>
-      </c>
-      <c r="I80" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="27"/>
@@ -12419,29 +12561,33 @@
       <c r="R80" s="27"/>
     </row>
     <row r="81">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="D81" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="E81" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="F81" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="E81" s="58" t="s">
+      <c r="G81" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="36" t="s">
+      <c r="H81" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="H81" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="I81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="27"/>
@@ -12453,26 +12599,28 @@
       <c r="R81" s="27"/>
     </row>
     <row r="82">
-      <c r="A82" s="91" t="s">
+      <c r="A82" s="92" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="83" t="s">
         <v>422</v>
       </c>
-      <c r="B82" s="92" t="s">
+      <c r="D82" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="C82" s="84" t="s">
+      <c r="E82" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="D82" s="95" t="s">
-        <v>425</v>
-      </c>
-      <c r="E82" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="36" t="s">
+      <c r="F82" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H82" s="36" t="s">
+      <c r="H82" s="95" t="s">
         <v>430</v>
       </c>
       <c r="I82" s="6"/>
@@ -12487,27 +12635,27 @@
       <c r="R82" s="27"/>
     </row>
     <row r="83">
-      <c r="A83" s="91" t="s">
-        <v>422</v>
-      </c>
-      <c r="B83" s="92" t="s">
-        <v>423</v>
-      </c>
-      <c r="C83" s="84" t="s">
-        <v>424</v>
-      </c>
-      <c r="D83" s="84" t="s">
-        <v>425</v>
-      </c>
-      <c r="E83" s="58" t="s">
+      <c r="A83" s="47" t="s">
         <v>431</v>
       </c>
+      <c r="B83" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="D83" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E83" s="57" t="s">
+        <v>435</v>
+      </c>
       <c r="F83" s="6"/>
-      <c r="G83" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="H83" s="36" t="s">
-        <v>433</v>
+      <c r="G83" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H83" s="34" t="s">
+        <v>437</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -12521,20 +12669,28 @@
       <c r="R83" s="27"/>
     </row>
     <row r="84">
-      <c r="A84" s="88" t="s">
+      <c r="A84" s="92" t="s">
+        <v>431</v>
+      </c>
+      <c r="B84" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="C84" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="D84" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="E84" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="C84" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H84" s="34" t="s">
+        <v>439</v>
+      </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -12547,20 +12703,28 @@
       <c r="R84" s="27"/>
     </row>
     <row r="85">
-      <c r="A85" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B85" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="C85" s="97" t="s">
-        <v>436</v>
-      </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="4"/>
+      <c r="A85" s="92" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="D85" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>440</v>
+      </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
+      <c r="G85" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>442</v>
+      </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -12573,28 +12737,20 @@
       <c r="R85" s="27"/>
     </row>
     <row r="86">
-      <c r="A86" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="B86" s="55" t="s">
-        <v>440</v>
-      </c>
-      <c r="C86" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="D86" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="E86" s="50" t="s">
+      <c r="A86" s="88" t="s">
         <v>443</v>
       </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35" t="s">
+      <c r="B86" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="H86" s="98" t="s">
+      <c r="C86" s="97" t="s">
         <v>445</v>
       </c>
+      <c r="D86" s="48"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -12607,262 +12763,260 @@
       <c r="R86" s="27"/>
     </row>
     <row r="87">
-      <c r="A87" s="66" t="s">
+      <c r="A87" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="C87" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="D87" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="E87" s="75" t="s">
-        <v>448</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="76" t="s">
-        <v>444</v>
-      </c>
-      <c r="H87" s="90" t="s">
-        <v>449</v>
-      </c>
+      <c r="C87" s="98" t="s">
+        <v>445</v>
+      </c>
+      <c r="D87" s="34"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="66" t="s">
+      <c r="A88" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="C88" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="D88" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="C88" s="99" t="s">
+      <c r="E88" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="39" t="s">
+      <c r="F88" s="48"/>
+      <c r="G88" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="F88" s="64"/>
-      <c r="G88" s="39" t="s">
+      <c r="H88" s="99" t="s">
         <v>454</v>
-      </c>
-      <c r="H88" s="39" t="s">
-        <v>455</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="B89" s="54" t="s">
         <v>456</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="C89" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="C89" s="100" t="s">
-        <v>436</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H89" s="100" t="s">
+        <v>458</v>
+      </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="B90" s="55"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="35" t="s">
+      <c r="A90" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="H90" s="50" t="s">
+      <c r="B90" s="54" t="s">
         <v>460</v>
       </c>
+      <c r="C90" s="101" t="s">
+        <v>461</v>
+      </c>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="F90" s="34"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="34"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="K90" s="37" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="B91" s="101"/>
-      <c r="C91" s="75"/>
+      <c r="A91" s="88" t="s">
+        <v>464</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="C91" s="102" t="s">
+        <v>445</v>
+      </c>
       <c r="D91" s="6"/>
-      <c r="E91" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="F91" s="75"/>
-      <c r="G91" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="H91" s="50" t="s">
-        <v>462</v>
-      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="6" t="s">
-        <v>463</v>
-      </c>
+      <c r="K91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="B92" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="C92" s="6" t="s">
+      <c r="A92" s="67" t="s">
         <v>466</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="B92" s="54"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="F92" s="84"/>
+      <c r="G92" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="E92" s="102" t="s">
+      <c r="H92" s="84" t="s">
         <v>468</v>
-      </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="76" t="s">
-        <v>469</v>
-      </c>
-      <c r="H92" s="76" t="s">
-        <v>470</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="B93" s="103"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="F93" s="84"/>
+      <c r="G93" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H93" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="B93" s="48" t="s">
+    </row>
+    <row r="94">
+      <c r="A94" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="102" t="s">
-        <v>426</v>
-      </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6" t="s">
+      <c r="B94" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="H93" s="76" t="s">
+      <c r="C94" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="I93" s="76" t="s">
+      <c r="D94" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="66" t="s">
+      <c r="E94" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="F94" s="4"/>
+      <c r="G94" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="H94" s="34" t="s">
         <v>478</v>
-      </c>
-      <c r="D94" s="50" t="s">
-        <v>479</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>480</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="H94" s="35" t="s">
-        <v>482</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="66" t="s">
+      <c r="A95" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="H95" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="I95" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B95" s="55" t="s">
-        <v>484</v>
-      </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="H95" s="103" t="s">
-        <v>487</v>
-      </c>
-      <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="66" t="s">
+      <c r="A96" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="E96" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="F96" s="48"/>
+      <c r="G96" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50" t="s">
+      <c r="H96" s="104" t="s">
         <v>490</v>
-      </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="H96" s="103" t="s">
-        <v>491</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="66" t="s">
+      <c r="A97" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="B97" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50" t="s">
+      <c r="F97" s="48"/>
+      <c r="G97" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F97" s="35"/>
-      <c r="G97" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="H97" s="36" t="s">
+      <c r="H97" s="34" t="s">
         <v>495</v>
       </c>
       <c r="I97" s="6"/>
@@ -12870,22 +13024,22 @@
       <c r="K97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="66" t="s">
+      <c r="A98" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="F98" s="35"/>
-      <c r="G98" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="H98" s="36" t="s">
+      <c r="F98" s="48"/>
+      <c r="G98" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H98" s="34" t="s">
         <v>499</v>
       </c>
       <c r="I98" s="6"/>
@@ -12893,184 +13047,172 @@
       <c r="K98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="66" t="s">
+      <c r="A99" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="54" t="s">
         <v>501</v>
       </c>
-      <c r="C99" s="104" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50" t="s">
+      <c r="F99" s="48"/>
+      <c r="G99" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H99" s="34" t="s">
         <v>503</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="H99" s="50" t="s">
-        <v>505</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="49" t="s">
+      <c r="A100" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="F100" s="48"/>
+      <c r="G100" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C100" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="66" t="s">
+      <c r="A101" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="B101" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="50" t="s">
+      <c r="B101" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="F101" s="35"/>
-      <c r="G101" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H101" s="42" t="s">
+      <c r="C101" s="105" t="s">
         <v>510</v>
       </c>
-      <c r="I101" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="F101" s="34"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
+      <c r="K101" s="37" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="66" t="s">
-        <v>511</v>
-      </c>
-      <c r="B102" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D102" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E102" s="50" t="s">
-        <v>512</v>
-      </c>
+      <c r="A102" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="C102" s="97" t="s">
+        <v>445</v>
+      </c>
+      <c r="D102" s="48"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="35"/>
-      <c r="G102" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H102" s="105" t="s">
-        <v>513</v>
-      </c>
-      <c r="I102" s="76" t="s">
-        <v>71</v>
-      </c>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="66" t="s">
-        <v>514</v>
-      </c>
-      <c r="B103" s="55" t="s">
-        <v>73</v>
+      <c r="A103" s="67" t="s">
+        <v>515</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D103" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" s="50" t="s">
-        <v>515</v>
-      </c>
-      <c r="F103" s="35"/>
-      <c r="G103" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H103" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="I103" s="6"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H103" s="106" t="s">
+        <v>517</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="66" t="s">
-        <v>517</v>
-      </c>
-      <c r="B104" s="55" t="s">
-        <v>80</v>
+      <c r="A104" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D104" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="F104" s="35"/>
-      <c r="G104" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="I104" s="6"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="66" t="s">
-        <v>520</v>
-      </c>
-      <c r="B105" s="55" t="s">
-        <v>86</v>
+      <c r="A105" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E105" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="F105" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E105" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="G105" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="98" t="s">
+      <c r="F105" s="48"/>
+      <c r="G105" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" s="100" t="s">
         <v>523</v>
       </c>
       <c r="I105" s="6"/>
@@ -13078,53 +13220,55 @@
       <c r="K105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="66" t="s">
+      <c r="A106" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="B106" s="55" t="s">
-        <v>94</v>
+      <c r="B106" s="54" t="s">
+        <v>84</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D106" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="84" t="s">
         <v>525</v>
       </c>
-      <c r="E106" s="75" t="s">
+      <c r="F106" s="84"/>
+      <c r="G106" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" s="90" t="s">
         <v>526</v>
-      </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="H106" s="90" t="s">
-        <v>527</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="B107" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D107" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E107" s="50" t="s">
+      <c r="F107" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="F107" s="35"/>
-      <c r="G107" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="H107" s="42" t="s">
+      <c r="G107" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H107" s="48" t="s">
         <v>530</v>
       </c>
       <c r="I107" s="6"/>
@@ -13132,26 +13276,26 @@
       <c r="K107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="66" t="s">
+      <c r="A108" s="67" t="s">
         <v>531</v>
       </c>
-      <c r="B108" s="55" t="s">
-        <v>121</v>
+      <c r="B108" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D108" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E108" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="F108" s="35"/>
-      <c r="G108" s="50" t="s">
+      <c r="E108" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="H108" s="50" t="s">
+      <c r="F108" s="48"/>
+      <c r="G108" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H108" s="34" t="s">
         <v>534</v>
       </c>
       <c r="I108" s="6"/>
@@ -13159,80 +13303,80 @@
       <c r="K108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="66" t="s">
+      <c r="A109" s="67" t="s">
         <v>535</v>
       </c>
-      <c r="B109" s="55" t="s">
-        <v>115</v>
+      <c r="B109" s="54" t="s">
+        <v>105</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="75" t="s">
+      <c r="F109" s="84"/>
+      <c r="G109" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" s="109" t="s">
         <v>537</v>
-      </c>
-      <c r="H109" s="106" t="s">
-        <v>538</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="66" t="s">
+      <c r="A110" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="B110" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="48" t="s">
         <v>539</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="F110" s="48"/>
+      <c r="G110" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="C110" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D110" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E110" s="50" t="s">
+      <c r="H110" s="48" t="s">
         <v>541</v>
-      </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="H110" s="45" t="s">
-        <v>542</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="66" t="s">
+      <c r="A111" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="B111" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="110" t="s">
         <v>543</v>
       </c>
-      <c r="B111" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D111" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E111" s="107" t="s">
+      <c r="F111" s="110"/>
+      <c r="G111" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="F111" s="108"/>
-      <c r="G111" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H111" s="98" t="s">
+      <c r="H111" s="99" t="s">
         <v>545</v>
       </c>
       <c r="I111" s="6"/>
@@ -13240,499 +13384,499 @@
       <c r="K111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="66" t="s">
+      <c r="A112" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="D112" s="75" t="s">
+      <c r="F112" s="84"/>
+      <c r="G112" s="111" t="s">
+        <v>540</v>
+      </c>
+      <c r="H112" s="112" t="s">
         <v>549</v>
-      </c>
-      <c r="E112" s="102" t="s">
-        <v>550</v>
-      </c>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76" t="s">
-        <v>551</v>
-      </c>
-      <c r="H112" s="109" t="s">
-        <v>552</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="18"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="58" t="s">
+      <c r="A113" s="67" t="s">
         <v>550</v>
       </c>
-      <c r="F113" s="36"/>
-      <c r="G113" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="H113" s="43" t="s">
-        <v>554</v>
+      <c r="B113" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H113" s="48" t="s">
+        <v>552</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="49" t="s">
+      <c r="A114" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C114" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="B114" s="48" t="s">
+      <c r="D114" s="48" t="s">
         <v>556</v>
       </c>
-      <c r="C114" s="100" t="s">
-        <v>436</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="E114" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="F114" s="34"/>
+      <c r="G114" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="H114" s="113" t="s">
+        <v>559</v>
+      </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="66" t="s">
+      <c r="A115" s="18"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="B115" s="55" t="s">
-        <v>558</v>
-      </c>
-      <c r="C115" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="D115" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="E115" s="50" t="s">
+      <c r="F115" s="34"/>
+      <c r="G115" s="42" t="s">
         <v>560</v>
       </c>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35" t="s">
+      <c r="H115" s="42" t="s">
         <v>561</v>
-      </c>
-      <c r="H115" s="50" t="s">
-        <v>562</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="B116" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="B116" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" s="110" t="s">
-        <v>564</v>
-      </c>
-      <c r="D116" s="75"/>
-      <c r="E116" s="107" t="s">
-        <v>565</v>
-      </c>
-      <c r="F116" s="108"/>
-      <c r="G116" s="35" t="s">
-        <v>566</v>
-      </c>
-      <c r="H116" s="75" t="s">
-        <v>567</v>
-      </c>
+      <c r="C116" s="102" t="s">
+        <v>445</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="66" t="s">
+      <c r="A117" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>566</v>
+      </c>
+      <c r="D117" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E117" s="110" t="s">
+        <v>567</v>
+      </c>
+      <c r="F117" s="110"/>
+      <c r="G117" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="B117" s="55" t="s">
+      <c r="H117" s="48" t="s">
         <v>569</v>
-      </c>
-      <c r="C117" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="D117" s="50" t="s">
-        <v>571</v>
-      </c>
-      <c r="E117" s="107" t="s">
-        <v>572</v>
-      </c>
-      <c r="F117" s="108"/>
-      <c r="G117" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="H117" s="36" t="s">
-        <v>574</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="77" t="s">
-        <v>575</v>
-      </c>
-      <c r="B118" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="C118" s="111" t="s">
-        <v>564</v>
-      </c>
-      <c r="D118" s="75"/>
-      <c r="E118" s="107" t="s">
-        <v>576</v>
-      </c>
-      <c r="F118" s="108"/>
-      <c r="G118" s="76" t="s">
-        <v>577</v>
-      </c>
-      <c r="H118" s="76" t="s">
-        <v>578</v>
+      <c r="A118" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="B118" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="105" t="s">
+        <v>571</v>
+      </c>
+      <c r="D118" s="84"/>
+      <c r="E118" s="110" t="s">
+        <v>572</v>
+      </c>
+      <c r="F118" s="110"/>
+      <c r="G118" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="H118" s="84" t="s">
+        <v>574</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="66" t="s">
+      <c r="A119" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>577</v>
+      </c>
+      <c r="D119" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="E119" s="110" t="s">
         <v>579</v>
       </c>
-      <c r="B119" s="55" t="s">
+      <c r="F119" s="110"/>
+      <c r="G119" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C119" s="56" t="s">
+      <c r="H119" s="34" t="s">
         <v>581</v>
-      </c>
-      <c r="D119" s="56" t="s">
-        <v>582</v>
-      </c>
-      <c r="E119" s="112" t="s">
-        <v>583</v>
-      </c>
-      <c r="F119" s="113"/>
-      <c r="G119" s="56" t="s">
-        <v>584</v>
-      </c>
-      <c r="H119" s="56" t="s">
-        <v>585</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="77" t="s">
-        <v>586</v>
-      </c>
-      <c r="B120" s="78" t="s">
-        <v>228</v>
+      <c r="A120" s="76" t="s">
+        <v>582</v>
+      </c>
+      <c r="B120" s="77" t="s">
+        <v>233</v>
       </c>
       <c r="C120" s="114" t="s">
-        <v>564</v>
-      </c>
-      <c r="D120" s="67"/>
-      <c r="E120" s="112" t="s">
-        <v>587</v>
-      </c>
-      <c r="F120" s="113"/>
-      <c r="G120" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="H120" s="57" t="s">
-        <v>589</v>
+        <v>571</v>
+      </c>
+      <c r="D120" s="84"/>
+      <c r="E120" s="110" t="s">
+        <v>583</v>
+      </c>
+      <c r="F120" s="110"/>
+      <c r="G120" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="H120" s="34" t="s">
+        <v>585</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="66" t="s">
+      <c r="A121" s="67" t="s">
+        <v>586</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>587</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E121" s="115" t="s">
         <v>590</v>
       </c>
-      <c r="B121" s="55" t="s">
+      <c r="F121" s="115"/>
+      <c r="G121" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C121" s="67" t="s">
+      <c r="H121" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="D121" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="E121" s="112" t="s">
-        <v>594</v>
-      </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56" t="s">
-        <v>584</v>
-      </c>
-      <c r="H121" s="56" t="s">
-        <v>595</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="77" t="s">
+      <c r="A122" s="76" t="s">
+        <v>593</v>
+      </c>
+      <c r="B122" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" s="116" t="s">
+        <v>571</v>
+      </c>
+      <c r="D122" s="37"/>
+      <c r="E122" s="115" t="s">
+        <v>594</v>
+      </c>
+      <c r="F122" s="115"/>
+      <c r="G122" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="H122" s="34" t="s">
         <v>596</v>
-      </c>
-      <c r="B122" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="C122" s="114" t="s">
-        <v>564</v>
-      </c>
-      <c r="D122" s="67"/>
-      <c r="E122" s="112" t="s">
-        <v>597</v>
-      </c>
-      <c r="F122" s="113"/>
-      <c r="G122" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="H122" s="57" t="s">
-        <v>598</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="66" t="s">
+      <c r="A123" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="D123" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C123" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" s="67" t="s">
+      <c r="E123" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="E123" s="113" t="s">
+      <c r="F123" s="18"/>
+      <c r="G123" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H123" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="F123" s="113"/>
-      <c r="G123" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="H123" s="56" t="s">
-        <v>604</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="87" t="s">
+      <c r="A124" s="76" t="s">
+        <v>603</v>
+      </c>
+      <c r="B124" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" s="116" t="s">
+        <v>571</v>
+      </c>
+      <c r="D124" s="37"/>
+      <c r="E124" s="115" t="s">
+        <v>604</v>
+      </c>
+      <c r="F124" s="115"/>
+      <c r="G124" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B124" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="76"/>
-      <c r="E124" s="115"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="88" t="s">
+      <c r="A125" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="B125" s="54" t="s">
         <v>607</v>
       </c>
-      <c r="B125" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="C125" s="75" t="s">
-        <v>369</v>
+      <c r="C125" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E125" s="107" t="s">
         <v>608</v>
       </c>
-      <c r="F125" s="108"/>
-      <c r="G125" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="H125" s="117" t="s">
+      <c r="E125" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="I125" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="F125" s="18"/>
+      <c r="G125" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="88" t="s">
-        <v>610</v>
-      </c>
-      <c r="B126" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="C126" s="118" t="s">
-        <v>436</v>
-      </c>
-      <c r="D126" s="76"/>
-      <c r="E126" s="108"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
+      <c r="A126" s="87" t="s">
+        <v>612</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="49" t="s">
-        <v>612</v>
-      </c>
-      <c r="B127" s="48" t="s">
-        <v>613</v>
-      </c>
-      <c r="C127" s="119" t="s">
-        <v>436</v>
-      </c>
-      <c r="D127" s="76"/>
-      <c r="E127" s="115" t="s">
+      <c r="A127" s="88" t="s">
         <v>614</v>
       </c>
-      <c r="F127" s="108"/>
-      <c r="G127" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" s="35" t="s">
+      <c r="B127" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C127" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E127" s="110" t="s">
         <v>615</v>
       </c>
-      <c r="I127" s="6"/>
+      <c r="F127" s="110"/>
+      <c r="G127" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="H127" s="118" t="s">
+        <v>616</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="66" t="s">
-        <v>616</v>
-      </c>
-      <c r="B128" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C128" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D128" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E128" s="50" t="s">
+      <c r="A128" s="88" t="s">
         <v>617</v>
       </c>
-      <c r="F128" s="35"/>
-      <c r="G128" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H128" s="103" t="s">
+      <c r="B128" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="I128" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="C128" s="119" t="s">
+        <v>445</v>
+      </c>
+      <c r="D128" s="37"/>
+      <c r="E128" s="120"/>
+      <c r="F128" s="120"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="66" t="s">
+      <c r="A129" s="47" t="s">
         <v>619</v>
       </c>
-      <c r="B129" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C129" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D129" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" s="50" t="s">
+      <c r="B129" s="46" t="s">
         <v>620</v>
       </c>
-      <c r="F129" s="35"/>
-      <c r="G129" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H129" s="103" t="s">
+      <c r="C129" s="121" t="s">
+        <v>445</v>
+      </c>
+      <c r="D129" s="37"/>
+      <c r="E129" s="34" t="s">
         <v>621</v>
+      </c>
+      <c r="F129" s="48"/>
+      <c r="G129" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" s="104" t="s">
+        <v>59</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="66" t="s">
+      <c r="A130" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="B130" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D130" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="E130" s="50" t="s">
+      <c r="B130" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="F130" s="35"/>
-      <c r="G130" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H130" s="103" t="s">
+      <c r="F130" s="48"/>
+      <c r="G130" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H130" s="100" t="s">
         <v>624</v>
       </c>
-      <c r="I130" s="6"/>
+      <c r="I130" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="66" t="s">
+      <c r="A131" s="67" t="s">
         <v>625</v>
       </c>
-      <c r="B131" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D131" s="75" t="s">
-        <v>525</v>
-      </c>
-      <c r="E131" s="75" t="s">
+      <c r="B131" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D131" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E131" s="84" t="s">
         <v>626</v>
       </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="H131" s="76" t="s">
+      <c r="F131" s="84"/>
+      <c r="G131" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H131" s="37" t="s">
         <v>627</v>
       </c>
       <c r="I131" s="6"/>
@@ -13740,26 +13884,26 @@
       <c r="K131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="66" t="s">
+      <c r="A132" s="67" t="s">
         <v>628</v>
       </c>
-      <c r="B132" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C132" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D132" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="E132" s="50" t="s">
+      <c r="B132" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" s="48" t="s">
         <v>629</v>
       </c>
-      <c r="F132" s="35"/>
-      <c r="G132" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H132" s="50" t="s">
+      <c r="F132" s="48"/>
+      <c r="G132" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H132" s="34" t="s">
         <v>630</v>
       </c>
       <c r="I132" s="6"/>
@@ -13767,107 +13911,107 @@
       <c r="K132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="66" t="s">
+      <c r="A133" s="67" t="s">
         <v>631</v>
       </c>
-      <c r="B133" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C133" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D133" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E133" s="50" t="s">
+      <c r="B133" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="E133" s="48" t="s">
         <v>632</v>
       </c>
-      <c r="F133" s="35"/>
-      <c r="G133" s="50" t="s">
-        <v>533</v>
-      </c>
-      <c r="H133" s="50" t="s">
-        <v>534</v>
+      <c r="F133" s="48"/>
+      <c r="G133" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H133" s="34" t="s">
+        <v>633</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="66" t="s">
-        <v>633</v>
-      </c>
-      <c r="B134" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D134" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E134" s="50" t="s">
+      <c r="A134" s="67" t="s">
         <v>634</v>
       </c>
-      <c r="F134" s="35"/>
-      <c r="G134" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H134" s="50" t="s">
-        <v>538</v>
+      <c r="B134" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E134" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H134" s="48" t="s">
+        <v>636</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="66" t="s">
-        <v>635</v>
-      </c>
-      <c r="B135" s="55" t="s">
+      <c r="A135" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="B135" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D135" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" s="48" t="s">
+        <v>638</v>
+      </c>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="C135" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D135" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="E135" s="50" t="s">
-        <v>636</v>
-      </c>
-      <c r="F135" s="35"/>
-      <c r="G135" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="H135" s="45" t="s">
-        <v>637</v>
+      <c r="H135" s="48" t="s">
+        <v>541</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="66" t="s">
-        <v>638</v>
-      </c>
-      <c r="B136" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C136" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="D136" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" s="50" t="s">
+      <c r="A136" s="67" t="s">
         <v>639</v>
       </c>
-      <c r="F136" s="35"/>
-      <c r="G136" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H136" s="50" t="s">
+      <c r="B136" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C136" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H136" s="48" t="s">
         <v>545</v>
       </c>
       <c r="I136" s="6"/>
@@ -13875,134 +14019,134 @@
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="B137" s="48" t="s">
+      <c r="A137" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="C137" s="119" t="s">
-        <v>436</v>
-      </c>
-      <c r="D137" s="120"/>
-      <c r="E137" s="36" t="s">
+      <c r="B137" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="C137" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D137" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E137" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35" t="s">
+      <c r="F137" s="48"/>
+      <c r="G137" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="H137" s="44" t="s">
         <v>643</v>
-      </c>
-      <c r="H137" s="35" t="s">
-        <v>615</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="66" t="s">
+      <c r="A138" s="67" t="s">
         <v>644</v>
       </c>
-      <c r="B138" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C138" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D138" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E138" s="50" t="s">
+      <c r="B138" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="48" t="s">
         <v>645</v>
       </c>
-      <c r="F138" s="35"/>
-      <c r="G138" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H138" s="36" t="s">
-        <v>646</v>
-      </c>
-      <c r="I138" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="66" t="s">
+      <c r="A139" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="B139" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="B139" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C139" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D139" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E139" s="50" t="s">
+      <c r="C139" s="121" t="s">
+        <v>445</v>
+      </c>
+      <c r="D139" s="122"/>
+      <c r="E139" s="34" t="s">
         <v>648</v>
       </c>
       <c r="F139" s="35"/>
-      <c r="G139" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H139" s="36" t="s">
+      <c r="G139" s="35" t="s">
         <v>649</v>
+      </c>
+      <c r="H139" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="66" t="s">
+      <c r="A140" s="67" t="s">
         <v>650</v>
       </c>
-      <c r="B140" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C140" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D140" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="E140" s="50" t="s">
+      <c r="B140" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D140" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140" s="48" t="s">
         <v>651</v>
       </c>
-      <c r="F140" s="35"/>
-      <c r="G140" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H140" s="36" t="s">
+      <c r="F140" s="48"/>
+      <c r="G140" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="I140" s="6"/>
+      <c r="I140" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="66" t="s">
+      <c r="A141" s="67" t="s">
         <v>653</v>
       </c>
-      <c r="B141" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C141" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D141" s="75" t="s">
-        <v>525</v>
-      </c>
-      <c r="E141" s="50" t="s">
+      <c r="B141" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D141" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="F141" s="35"/>
-      <c r="G141" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H141" s="36" t="s">
+      <c r="F141" s="48"/>
+      <c r="G141" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H141" s="34" t="s">
         <v>655</v>
       </c>
       <c r="I141" s="6"/>
@@ -14010,26 +14154,26 @@
       <c r="K141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="67" t="s">
         <v>656</v>
       </c>
-      <c r="B142" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C142" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D142" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142" s="50" t="s">
+      <c r="B142" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E142" s="48" t="s">
         <v>657</v>
       </c>
-      <c r="F142" s="13"/>
-      <c r="G142" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H142" s="36" t="s">
+      <c r="F142" s="84"/>
+      <c r="G142" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" s="34" t="s">
         <v>658</v>
       </c>
       <c r="I142" s="6"/>
@@ -14037,107 +14181,107 @@
       <c r="K142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="66" t="s">
+      <c r="A143" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="B143" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C143" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D143" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E143" s="50" t="s">
+      <c r="B143" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D143" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="E143" s="48" t="s">
         <v>660</v>
       </c>
-      <c r="F143" s="35"/>
-      <c r="G143" s="50" t="s">
-        <v>533</v>
-      </c>
-      <c r="H143" s="50" t="s">
-        <v>534</v>
+      <c r="F143" s="48"/>
+      <c r="G143" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H143" s="34" t="s">
+        <v>661</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="66" t="s">
-        <v>661</v>
-      </c>
-      <c r="B144" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D144" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E144" s="50" t="s">
+      <c r="A144" s="67" t="s">
         <v>662</v>
       </c>
-      <c r="F144" s="35"/>
-      <c r="G144" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H144" s="50" t="s">
-        <v>538</v>
+      <c r="B144" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C144" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D144" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E144" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="F144" s="48"/>
+      <c r="G144" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H144" s="34" t="s">
+        <v>664</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="66" t="s">
-        <v>663</v>
-      </c>
-      <c r="B145" s="55" t="s">
+      <c r="A145" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="B145" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D145" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E145" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="C145" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D145" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="E145" s="50" t="s">
-        <v>664</v>
-      </c>
-      <c r="F145" s="35"/>
-      <c r="G145" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="H145" s="45" t="s">
-        <v>665</v>
+      <c r="H145" s="48" t="s">
+        <v>541</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="66" t="s">
-        <v>666</v>
-      </c>
-      <c r="B146" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C146" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="D146" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="E146" s="50" t="s">
+      <c r="A146" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="F146" s="35"/>
-      <c r="G146" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H146" s="50" t="s">
+      <c r="B146" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>668</v>
+      </c>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H146" s="48" t="s">
         <v>545</v>
       </c>
       <c r="I146" s="6"/>
@@ -14145,159 +14289,159 @@
       <c r="K146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="49" t="s">
-        <v>668</v>
-      </c>
-      <c r="B147" s="48" t="s">
+      <c r="A147" s="67" t="s">
         <v>669</v>
       </c>
-      <c r="C147" s="75" t="s">
+      <c r="B147" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="C147" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147" s="48" t="s">
         <v>670</v>
       </c>
-      <c r="D147" s="75" t="s">
+      <c r="F147" s="48"/>
+      <c r="G147" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="H147" s="44" t="s">
         <v>671</v>
-      </c>
-      <c r="E147" s="50" t="s">
-        <v>672</v>
-      </c>
-      <c r="F147" s="35"/>
-      <c r="G147" s="36" t="s">
-        <v>673</v>
-      </c>
-      <c r="H147" s="117" t="s">
-        <v>674</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="B148" s="48" t="s">
-        <v>676</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="76"/>
-      <c r="E148" s="36" t="s">
-        <v>677</v>
-      </c>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H148" s="35" t="s">
-        <v>615</v>
+      <c r="A148" s="67" t="s">
+        <v>672</v>
+      </c>
+      <c r="B148" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D148" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H148" s="48" t="s">
+        <v>552</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="66" t="s">
+      <c r="A149" s="47" t="s">
+        <v>674</v>
+      </c>
+      <c r="B149" s="46" t="s">
+        <v>675</v>
+      </c>
+      <c r="C149" s="84" t="s">
+        <v>676</v>
+      </c>
+      <c r="D149" s="84" t="s">
+        <v>677</v>
+      </c>
+      <c r="E149" s="48" t="s">
         <v>678</v>
       </c>
-      <c r="B149" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C149" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D149" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E149" s="50" t="s">
+      <c r="F149" s="48"/>
+      <c r="G149" s="34" t="s">
         <v>679</v>
       </c>
-      <c r="F149" s="35"/>
-      <c r="G149" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H149" s="36" t="s">
+      <c r="H149" s="118" t="s">
         <v>680</v>
       </c>
-      <c r="I149" s="76" t="s">
-        <v>63</v>
-      </c>
+      <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="66" t="s">
+      <c r="A150" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="B150" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C150" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D150" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E150" s="50" t="s">
+      <c r="B150" s="46" t="s">
         <v>682</v>
       </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="34" t="s">
+        <v>683</v>
+      </c>
       <c r="F150" s="35"/>
-      <c r="G150" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H150" s="36" t="s">
-        <v>683</v>
+      <c r="G150" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H150" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="66" t="s">
+      <c r="A151" s="67" t="s">
         <v>684</v>
       </c>
-      <c r="B151" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C151" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D151" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="E151" s="50" t="s">
+      <c r="B151" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E151" s="48" t="s">
         <v>685</v>
       </c>
-      <c r="F151" s="35"/>
-      <c r="G151" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H151" s="103" t="s">
+      <c r="F151" s="48"/>
+      <c r="G151" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H151" s="100" t="s">
         <v>686</v>
       </c>
-      <c r="I151" s="6"/>
+      <c r="I151" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="66" t="s">
+      <c r="A152" s="67" t="s">
         <v>687</v>
       </c>
-      <c r="B152" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C152" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D152" s="75" t="s">
-        <v>525</v>
-      </c>
-      <c r="E152" s="50" t="s">
+      <c r="B152" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D152" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E152" s="48" t="s">
         <v>688</v>
       </c>
-      <c r="F152" s="35"/>
-      <c r="G152" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H152" s="36" t="s">
+      <c r="F152" s="48"/>
+      <c r="G152" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H152" s="34" t="s">
         <v>689</v>
       </c>
       <c r="I152" s="6"/>
@@ -14305,26 +14449,26 @@
       <c r="K152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="66" t="s">
+      <c r="A153" s="67" t="s">
         <v>690</v>
       </c>
-      <c r="B153" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C153" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D153" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="E153" s="50" t="s">
+      <c r="B153" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D153" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E153" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="F153" s="35"/>
-      <c r="G153" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H153" s="50" t="s">
+      <c r="F153" s="48"/>
+      <c r="G153" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H153" s="34" t="s">
         <v>692</v>
       </c>
       <c r="I153" s="6"/>
@@ -14332,107 +14476,107 @@
       <c r="K153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="66" t="s">
+      <c r="A154" s="67" t="s">
         <v>693</v>
       </c>
-      <c r="B154" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C154" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D154" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E154" s="50" t="s">
+      <c r="B154" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D154" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="E154" s="48" t="s">
         <v>694</v>
       </c>
-      <c r="F154" s="35"/>
-      <c r="G154" s="50" t="s">
-        <v>533</v>
-      </c>
-      <c r="H154" s="98" t="s">
-        <v>534</v>
+      <c r="F154" s="48"/>
+      <c r="G154" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H154" s="100" t="s">
+        <v>695</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="66" t="s">
-        <v>695</v>
-      </c>
-      <c r="B155" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C155" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D155" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E155" s="50" t="s">
+      <c r="A155" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="F155" s="35"/>
-      <c r="G155" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H155" s="98" t="s">
-        <v>538</v>
+      <c r="B155" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D155" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E155" s="48" t="s">
+        <v>697</v>
+      </c>
+      <c r="F155" s="48"/>
+      <c r="G155" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H155" s="99" t="s">
+        <v>698</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="66" t="s">
-        <v>697</v>
-      </c>
-      <c r="B156" s="55" t="s">
+      <c r="A156" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="B156" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C156" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D156" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E156" s="84" t="s">
+        <v>700</v>
+      </c>
+      <c r="F156" s="84"/>
+      <c r="G156" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="C156" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D156" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="E156" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="F156" s="13"/>
-      <c r="G156" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="H156" s="45" t="s">
-        <v>699</v>
+      <c r="H156" s="48" t="s">
+        <v>541</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="66" t="s">
-        <v>700</v>
-      </c>
-      <c r="B157" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C157" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="D157" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="E157" s="50" t="s">
+      <c r="A157" s="67" t="s">
         <v>701</v>
       </c>
-      <c r="F157" s="35"/>
-      <c r="G157" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H157" s="50" t="s">
+      <c r="B157" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D157" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H157" s="48" t="s">
         <v>545</v>
       </c>
       <c r="I157" s="6"/>
@@ -14440,88 +14584,100 @@
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="88" t="s">
-        <v>702</v>
-      </c>
-      <c r="B158" s="38" t="s">
+      <c r="A158" s="67" t="s">
         <v>703</v>
       </c>
-      <c r="C158" s="121" t="s">
+      <c r="B158" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="C158" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D158" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E158" s="48" t="s">
         <v>704</v>
       </c>
-      <c r="D158" s="121" t="s">
+      <c r="F158" s="48"/>
+      <c r="G158" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="H158" s="44" t="s">
         <v>705</v>
-      </c>
-      <c r="E158" s="122" t="s">
-        <v>706</v>
-      </c>
-      <c r="F158" s="35"/>
-      <c r="G158" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="H158" s="123" t="s">
-        <v>708</v>
       </c>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="88" t="s">
-        <v>709</v>
-      </c>
-      <c r="B159" s="38" t="s">
-        <v>710</v>
-      </c>
-      <c r="C159" s="124" t="s">
-        <v>436</v>
-      </c>
-      <c r="D159" s="6"/>
-      <c r="E159" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
+      <c r="A159" s="67" t="s">
+        <v>706</v>
+      </c>
+      <c r="B159" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D159" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="F159" s="48"/>
+      <c r="G159" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>552</v>
+      </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="49" t="s">
+      <c r="A160" s="88" t="s">
+        <v>708</v>
+      </c>
+      <c r="B160" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="C160" s="123" t="s">
+        <v>710</v>
+      </c>
+      <c r="D160" s="123" t="s">
+        <v>711</v>
+      </c>
+      <c r="E160" s="124" t="s">
         <v>712</v>
       </c>
-      <c r="B160" s="48" t="s">
+      <c r="F160" s="124"/>
+      <c r="G160" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="4" t="s">
+      <c r="H160" s="125" t="s">
         <v>714</v>
-      </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="49" t="s">
+      <c r="A161" s="88" t="s">
+        <v>715</v>
+      </c>
+      <c r="B161" s="126" t="s">
+        <v>716</v>
+      </c>
+      <c r="C161" s="102" t="s">
+        <v>445</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B161" s="74" t="s">
-        <v>718</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -14530,20 +14686,20 @@
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="66" t="s">
+      <c r="A162" s="47" t="s">
+        <v>718</v>
+      </c>
+      <c r="B162" s="127" t="s">
         <v>719</v>
-      </c>
-      <c r="B162" s="68" t="s">
-        <v>720</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>722</v>
@@ -14553,125 +14709,125 @@
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="66" t="s">
+      <c r="A163" s="47" t="s">
         <v>723</v>
       </c>
-      <c r="B163" s="68" t="s">
+      <c r="B163" s="127" t="s">
         <v>724</v>
       </c>
-      <c r="C163" s="6"/>
+      <c r="C163" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="D163" s="6"/>
-      <c r="E163" s="6" t="s">
-        <v>725</v>
-      </c>
+      <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="H163" s="125" t="s">
-        <v>726</v>
-      </c>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="66" t="s">
-        <v>727</v>
+      <c r="A164" s="67" t="s">
+        <v>725</v>
       </c>
       <c r="B164" s="68" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="H164" s="126" t="s">
-        <v>730</v>
+        <v>721</v>
+      </c>
+      <c r="H164" s="128" t="s">
+        <v>728</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="66" t="s">
-        <v>731</v>
+      <c r="A165" s="67" t="s">
+        <v>729</v>
       </c>
       <c r="B165" s="68" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="H165" s="126" t="s">
-        <v>734</v>
+        <v>721</v>
+      </c>
+      <c r="H165" s="128" t="s">
+        <v>732</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="88" t="s">
+      <c r="A166" s="67" t="s">
+        <v>733</v>
+      </c>
+      <c r="B166" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B166" s="127" t="s">
+      <c r="F166" s="6"/>
+      <c r="G166" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="H166" s="129" t="s">
         <v>736</v>
       </c>
-      <c r="C166" s="124" t="s">
-        <v>436</v>
-      </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="49" t="s">
+      <c r="A167" s="67" t="s">
         <v>737</v>
       </c>
-      <c r="B167" s="74" t="s">
+      <c r="B167" s="68" t="s">
         <v>738</v>
       </c>
-      <c r="C167" s="128" t="s">
-        <v>452</v>
-      </c>
+      <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6" t="s">
         <v>739</v>
       </c>
       <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
+      <c r="G167" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="H167" s="129" t="s">
+        <v>740</v>
+      </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="6" t="s">
-        <v>740</v>
-      </c>
+      <c r="K167" s="6"/>
     </row>
     <row r="168">
       <c r="A168" s="88" t="s">
         <v>741</v>
       </c>
-      <c r="B168" s="127" t="s">
+      <c r="B168" s="126" t="s">
         <v>742</v>
       </c>
-      <c r="C168" s="124" t="s">
-        <v>436</v>
+      <c r="C168" s="102" t="s">
+        <v>445</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
@@ -14683,38 +14839,38 @@
       <c r="K168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="49" t="s">
+      <c r="A169" s="47" t="s">
         <v>743</v>
       </c>
-      <c r="B169" s="74" t="s">
+      <c r="B169" s="127" t="s">
         <v>744</v>
       </c>
-      <c r="C169" s="124" t="s">
+      <c r="C169" s="130" t="s">
+        <v>461</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="E169" s="129" t="s">
+    </row>
+    <row r="170">
+      <c r="A170" s="88" t="s">
         <v>747</v>
       </c>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6" t="s">
+      <c r="B170" s="126" t="s">
         <v>748</v>
       </c>
-      <c r="H169" s="130" t="s">
-        <v>749</v>
-      </c>
-      <c r="I169" s="76" t="s">
-        <v>750</v>
-      </c>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="18"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
+      <c r="C170" s="102" t="s">
+        <v>445</v>
+      </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -14723,6 +14879,48 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="47" t="s">
+        <v>749</v>
+      </c>
+      <c r="B171" s="127" t="s">
+        <v>750</v>
+      </c>
+      <c r="C171" s="102" t="s">
+        <v>751</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E171" s="131" t="s">
+        <v>753</v>
+      </c>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="H171" s="132" t="s">
+        <v>755</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="18"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14759,31 +14957,33 @@
     <hyperlink r:id="rId3" location="issuecomment-1386886542" ref="K73"/>
     <hyperlink r:id="rId4" ref="H74"/>
     <hyperlink r:id="rId5" location="issuecomment-1386886542" ref="K74"/>
-    <hyperlink r:id="rId6" ref="H80"/>
-    <hyperlink r:id="rId7" ref="H86"/>
-    <hyperlink r:id="rId8" ref="H87"/>
-    <hyperlink r:id="rId9" ref="H95"/>
-    <hyperlink r:id="rId10" ref="H96"/>
-    <hyperlink r:id="rId11" ref="H102"/>
-    <hyperlink r:id="rId12" ref="H103"/>
-    <hyperlink r:id="rId13" ref="H104"/>
-    <hyperlink r:id="rId14" ref="H105"/>
-    <hyperlink r:id="rId15" ref="H106"/>
-    <hyperlink r:id="rId16" ref="H109"/>
-    <hyperlink r:id="rId17" ref="H111"/>
-    <hyperlink r:id="rId18" ref="H112"/>
-    <hyperlink r:id="rId19" ref="H128"/>
-    <hyperlink r:id="rId20" ref="H129"/>
-    <hyperlink r:id="rId21" ref="H130"/>
-    <hyperlink r:id="rId22" ref="H151"/>
-    <hyperlink r:id="rId23" ref="H154"/>
-    <hyperlink r:id="rId24" ref="H155"/>
-    <hyperlink r:id="rId25" ref="H163"/>
+    <hyperlink r:id="rId6" ref="H75"/>
+    <hyperlink r:id="rId7" location="issuecomment-1386886542" ref="K75"/>
+    <hyperlink r:id="rId8" ref="H80"/>
+    <hyperlink r:id="rId9" ref="H88"/>
+    <hyperlink r:id="rId10" ref="H89"/>
+    <hyperlink r:id="rId11" ref="H95"/>
+    <hyperlink r:id="rId12" ref="H96"/>
+    <hyperlink r:id="rId13" ref="H103"/>
+    <hyperlink r:id="rId14" ref="H104"/>
+    <hyperlink r:id="rId15" ref="H105"/>
+    <hyperlink r:id="rId16" ref="H106"/>
+    <hyperlink r:id="rId17" ref="H109"/>
+    <hyperlink r:id="rId18" ref="H111"/>
+    <hyperlink r:id="rId19" ref="H112"/>
+    <hyperlink r:id="rId20" ref="H114"/>
+    <hyperlink r:id="rId21" ref="H129"/>
+    <hyperlink r:id="rId22" ref="H130"/>
+    <hyperlink r:id="rId23" ref="H151"/>
+    <hyperlink r:id="rId24" ref="H154"/>
+    <hyperlink r:id="rId25" ref="H155"/>
     <hyperlink r:id="rId26" ref="H164"/>
     <hyperlink r:id="rId27" ref="H165"/>
+    <hyperlink r:id="rId28" ref="H166"/>
+    <hyperlink r:id="rId29" ref="H167"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <drawing r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -14804,198 +15004,268 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="134" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>752</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>753</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="36" t="s">
-        <v>754</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>755</v>
+        <v>204</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>752</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>753</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>757</v>
+        <v>758</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>759</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>760</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="B4" s="76" t="s">
         <v>758</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="84" t="s">
         <v>760</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>761</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>762</v>
+      <c r="D4" s="84"/>
+      <c r="E4" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="133" t="s">
-        <v>422</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>763</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>764</v>
-      </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
+      <c r="A5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>501</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>502</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="36" t="s">
-        <v>765</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="A6" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
+      <c r="B6" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>768</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>769</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>767</v>
+        <v>431</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>432</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>548</v>
+        <v>771</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>768</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>769</v>
+        <v>434</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="8">
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="A8" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="9">
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="75" t="s">
+        <v>774</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>775</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75" t="s">
+        <v>776</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="10">
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="11">
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="A11" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="12">
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>744</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="13">
       <c r="E13" s="27"/>
@@ -18959,7 +19229,10 @@
       <formula>REGEXMATCH($G2,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F12"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18979,36 +19252,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="136" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="138" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="139" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="140" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="137" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8">
@@ -19019,41 +19292,41 @@
     </row>
     <row r="10">
       <c r="A10" s="140" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="140" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="B11" s="141" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="142" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="143"/>
       <c r="B13" s="144" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="145" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="146" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="147" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17">
@@ -19062,24 +19335,24 @@
     </row>
     <row r="18">
       <c r="A18" s="140" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="B18" s="148" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="B19" s="149"/>
     </row>
     <row r="21">
       <c r="A21" s="140" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="B21" s="150" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -19105,58 +19378,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>800</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>801</v>
-      </c>
+      <c r="A11" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19181,59 +19450,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="B1" s="151" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="152" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="152" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="152" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="152" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="152" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="152" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="152" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="153" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -19278,35 +19547,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="154" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="C1" s="154" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="140" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="D2" s="140" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>818</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>819</v>
+      <c r="A3" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>830</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -19336,14 +19605,14 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>821</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>819</v>
+      <c r="A4" s="34" t="s">
+        <v>832</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>830</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19373,14 +19642,14 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
-        <v>822</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>823</v>
+      <c r="A5" s="34" t="s">
+        <v>833</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>834</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
@@ -19408,16 +19677,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -19444,16 +19713,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -19480,16 +19749,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>820</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -19516,16 +19785,16 @@
     </row>
     <row r="9">
       <c r="A9" s="155" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="B9" s="156" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="C9" s="156" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D9" s="156" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="E9" s="156"/>
       <c r="F9" s="156"/>
@@ -19552,16 +19821,16 @@
     </row>
     <row r="10">
       <c r="A10" s="155" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="C10" s="156" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D10" s="156" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="E10" s="156"/>
       <c r="F10" s="156"/>
@@ -19588,16 +19857,16 @@
     </row>
     <row r="11">
       <c r="A11" s="155" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="B11" s="156" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="C11" s="156" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D11" s="156" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="E11" s="156"/>
       <c r="F11" s="156"/>
@@ -19624,16 +19893,16 @@
     </row>
     <row r="12">
       <c r="A12" s="155" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="B12" s="156" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="C12" s="156" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D12" s="156" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="E12" s="156"/>
       <c r="F12" s="156"/>
@@ -19660,16 +19929,16 @@
     </row>
     <row r="13">
       <c r="A13" s="155" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="B13" s="155" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D13" s="156" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -19696,16 +19965,16 @@
     </row>
     <row r="14">
       <c r="A14" s="155" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="B14" s="155" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="C14" s="156" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="D14" s="156" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
@@ -19757,51 +20026,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="154" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="140" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="D2" s="140" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="137" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="137" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="137" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="C5" s="157" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="D5" s="137" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F25/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F25/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.7.3</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <r>
